--- a/contrasena.xlsx
+++ b/contrasena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solis\Desktop\ApiClave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D83E3B-69BB-488A-807D-22A12E748FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F172DFE-724C-4CE4-B2FE-62DE91813E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="304">
   <si>
     <t>Carnet</t>
   </si>
@@ -347,6 +347,591 @@
   </si>
   <si>
     <t>cvargaslopez769@gmail.com</t>
+  </si>
+  <si>
+    <t>Mmbyc7184+</t>
+  </si>
+  <si>
+    <t>JUDITH ANHELA</t>
+  </si>
+  <si>
+    <t>BALLADARES</t>
+  </si>
+  <si>
+    <t>judithanhelaballadares1412@gmail.com</t>
+  </si>
+  <si>
+    <t>Facultativa de Carrera II</t>
+  </si>
+  <si>
+    <t>SI5V</t>
+  </si>
+  <si>
+    <t>Jvxqp0794/</t>
+  </si>
+  <si>
+    <t>HOLMAN JOEL</t>
+  </si>
+  <si>
+    <t>BERMÚDEZ SALAZAR</t>
+  </si>
+  <si>
+    <t>Dhvgp6839-</t>
+  </si>
+  <si>
+    <t>OSWALDO JOSE</t>
+  </si>
+  <si>
+    <t>BETANCOURT BRIZUELA</t>
+  </si>
+  <si>
+    <t>obetancourtbrizuela@gmail.com</t>
+  </si>
+  <si>
+    <t>Mgvke6317.</t>
+  </si>
+  <si>
+    <t>LIBARDO JOSE</t>
+  </si>
+  <si>
+    <t>CANALES BOBB</t>
+  </si>
+  <si>
+    <t>Libardobobb@gmail.com</t>
+  </si>
+  <si>
+    <t>Pyqwp3298,</t>
+  </si>
+  <si>
+    <t>AXEL ANTONIO</t>
+  </si>
+  <si>
+    <t>CANO</t>
+  </si>
+  <si>
+    <t>canoaxel30@gmail.com</t>
+  </si>
+  <si>
+    <t>Ntxog5378.</t>
+  </si>
+  <si>
+    <t>WENDY LUBIANSKA</t>
+  </si>
+  <si>
+    <t>CARBALLO CORDERO</t>
+  </si>
+  <si>
+    <t>wcarballo1999@gmail.com</t>
+  </si>
+  <si>
+    <t>Ffdku3592-</t>
+  </si>
+  <si>
+    <t>JEAN PIERE</t>
+  </si>
+  <si>
+    <t>CARCACHE GONZALEZ</t>
+  </si>
+  <si>
+    <t>munozpena1234mzp@gmail.com</t>
+  </si>
+  <si>
+    <t>Funow5486*</t>
+  </si>
+  <si>
+    <t>DALEXA MACIEL</t>
+  </si>
+  <si>
+    <t>CASTILLO ROQUE</t>
+  </si>
+  <si>
+    <t>Vekrt3956+</t>
+  </si>
+  <si>
+    <t>AUGUSTO CÉSAR</t>
+  </si>
+  <si>
+    <t>CORREA AYALA</t>
+  </si>
+  <si>
+    <t>acorreayala0@gmail.com</t>
+  </si>
+  <si>
+    <t>Acdry7301*</t>
+  </si>
+  <si>
+    <t>KARENIA JESUA</t>
+  </si>
+  <si>
+    <t>CRUZ MÉNDEZ</t>
+  </si>
+  <si>
+    <t>cruzkareniamendez@gmail.com</t>
+  </si>
+  <si>
+    <t>Qatpi3860/</t>
+  </si>
+  <si>
+    <t>DALKY SOLEDAD</t>
+  </si>
+  <si>
+    <t>DIAZ LIRA</t>
+  </si>
+  <si>
+    <t>dsliraa@gmail.com</t>
+  </si>
+  <si>
+    <t>Bwjkt4053.</t>
+  </si>
+  <si>
+    <t>ADRIEL JOSE</t>
+  </si>
+  <si>
+    <t>GAITAN BARRANTES</t>
+  </si>
+  <si>
+    <t>adriel.gaitan2302@gmail.com</t>
+  </si>
+  <si>
+    <t>Unan.42322</t>
+  </si>
+  <si>
+    <t>GIBRAN GABRIEL</t>
+  </si>
+  <si>
+    <t>GUZMÁN MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>Iwvzk9156,</t>
+  </si>
+  <si>
+    <t>JUAN D DIOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>altamiranojuan2001@gmail.com</t>
+  </si>
+  <si>
+    <t>Bnwyd0324-</t>
+  </si>
+  <si>
+    <t>LAYEVSKA ANTONIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>Layevska25@mail.com</t>
+  </si>
+  <si>
+    <t>Qoxuj0197.</t>
+  </si>
+  <si>
+    <t>ERWING ANTONIO</t>
+  </si>
+  <si>
+    <t>herwing43@gmail.com</t>
+  </si>
+  <si>
+    <t>Awakz7352/</t>
+  </si>
+  <si>
+    <t>GISSELA CAROLINA</t>
+  </si>
+  <si>
+    <t>HERNÁNDEZ DIAZ</t>
+  </si>
+  <si>
+    <t>ch192127x@gmail.com</t>
+  </si>
+  <si>
+    <t>Ckiqo7104,</t>
+  </si>
+  <si>
+    <t>OLIVER FRANCISCO</t>
+  </si>
+  <si>
+    <t>HUERTA ORTIZ</t>
+  </si>
+  <si>
+    <t>huertaoliver209@gmail.com</t>
+  </si>
+  <si>
+    <t>Hncia7438-</t>
+  </si>
+  <si>
+    <t>MICHELL YANIESKA</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE MORAGA</t>
+  </si>
+  <si>
+    <t>izaguirremoragam@gmail.com</t>
+  </si>
+  <si>
+    <t>Unan.42325</t>
+  </si>
+  <si>
+    <t>LEONARDO MELVIN</t>
+  </si>
+  <si>
+    <t>KNIGHT TORRES</t>
+  </si>
+  <si>
+    <t>leoknight22@gmail.com</t>
+  </si>
+  <si>
+    <t>Ziwtc4786,</t>
+  </si>
+  <si>
+    <t>JOSE GUILLERMO</t>
+  </si>
+  <si>
+    <t>LOPEZ ARIAS</t>
+  </si>
+  <si>
+    <t>joseguiller1300@gmail.com</t>
+  </si>
+  <si>
+    <t>Psryd3475.</t>
+  </si>
+  <si>
+    <t>LINDA JULIETH</t>
+  </si>
+  <si>
+    <t>LOPEZ MEDINA</t>
+  </si>
+  <si>
+    <t>lopezmedinalindajulieth@gmail.com</t>
+  </si>
+  <si>
+    <t>Rgdqv7945*</t>
+  </si>
+  <si>
+    <t>JOSE LUIS</t>
+  </si>
+  <si>
+    <t>LOPEZ TAPIA</t>
+  </si>
+  <si>
+    <t>chepeluislopez50@gmail.com</t>
+  </si>
+  <si>
+    <t>Pkoha2587/</t>
+  </si>
+  <si>
+    <t>ALISON JUDITH</t>
+  </si>
+  <si>
+    <t>MACIS ROA</t>
+  </si>
+  <si>
+    <t>Rjalison37@gmail.com</t>
+  </si>
+  <si>
+    <t>Mquhr4658*</t>
+  </si>
+  <si>
+    <t>JONATAN DAVID</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>jjonatan.dmedina12@gmail.com</t>
+  </si>
+  <si>
+    <t>Zeszi5712.</t>
+  </si>
+  <si>
+    <t>JHEYSSON STEVEN</t>
+  </si>
+  <si>
+    <t>MENDOZA SAENZ</t>
+  </si>
+  <si>
+    <t>jheyssonmendoza4@gmail.com</t>
+  </si>
+  <si>
+    <t>Ffawb3872+</t>
+  </si>
+  <si>
+    <t>EDWIN JOSEPH</t>
+  </si>
+  <si>
+    <t>MENDOZA VASQUEZ</t>
+  </si>
+  <si>
+    <t>Xhyvq0235+</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>MOLINA GUTIERREZ</t>
+  </si>
+  <si>
+    <t>jdanielmolina98@gmail.com</t>
+  </si>
+  <si>
+    <t>Ddosj4935*</t>
+  </si>
+  <si>
+    <t>ISAAC SALOMON</t>
+  </si>
+  <si>
+    <t>MORALES TINOCO</t>
+  </si>
+  <si>
+    <t>isaacsalomon777@gmail.com</t>
+  </si>
+  <si>
+    <t>Rkaub2346+</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL</t>
+  </si>
+  <si>
+    <t>MORENO LIRA</t>
+  </si>
+  <si>
+    <t>josemiguelmorenolira86@gmail.com</t>
+  </si>
+  <si>
+    <t>Phekn9385/</t>
+  </si>
+  <si>
+    <t>KARINA MARGARITA</t>
+  </si>
+  <si>
+    <t>MUNGUIA HODGSON</t>
+  </si>
+  <si>
+    <t>karina.margarita.hodgson@gmail.com</t>
+  </si>
+  <si>
+    <t>Dtmys3591+</t>
+  </si>
+  <si>
+    <t>AMILKAR ALEXANDER</t>
+  </si>
+  <si>
+    <t>NICARAGUA ESPINALES</t>
+  </si>
+  <si>
+    <t>Unan.1SEM8130</t>
+  </si>
+  <si>
+    <t>GUILLERMO ANTONIO</t>
+  </si>
+  <si>
+    <t>NICOLAS MONTENEGRO</t>
+  </si>
+  <si>
+    <t>guillenicolas99@gmail.com</t>
+  </si>
+  <si>
+    <t>Tbcvk1540/</t>
+  </si>
+  <si>
+    <t>MARIA JOSE</t>
+  </si>
+  <si>
+    <t>ORTEGA MEDINA</t>
+  </si>
+  <si>
+    <t>mortegamedina77@gmail.com</t>
+  </si>
+  <si>
+    <t>Wbaej8096-</t>
+  </si>
+  <si>
+    <t>ANAYANCY</t>
+  </si>
+  <si>
+    <t>PAVON HERNANDEZ</t>
+  </si>
+  <si>
+    <t>anayancypavon@gmail.com</t>
+  </si>
+  <si>
+    <t>Etydt6053+</t>
+  </si>
+  <si>
+    <t>MAX EDUARDO</t>
+  </si>
+  <si>
+    <t>PEREZ HERRERA</t>
+  </si>
+  <si>
+    <t>itzediken1804@gmail.com</t>
+  </si>
+  <si>
+    <t>Dgpch8657-</t>
+  </si>
+  <si>
+    <t>STEVEN JOSUE</t>
+  </si>
+  <si>
+    <t>QUEZADA MARTINEZ</t>
+  </si>
+  <si>
+    <t>homesiickdev@gmail.com</t>
+  </si>
+  <si>
+    <t>Qgkfj0314+</t>
+  </si>
+  <si>
+    <t>MICHAEL ARIEL</t>
+  </si>
+  <si>
+    <t>REYES CASTELLÓN</t>
+  </si>
+  <si>
+    <t>reyesmaycol18@gmail.com</t>
+  </si>
+  <si>
+    <t>Qgorc6832,</t>
+  </si>
+  <si>
+    <t>HOLVIN OSWALDO</t>
+  </si>
+  <si>
+    <t>RIVAS HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>holvin.rivas21907731@estu.unan.edu.ni</t>
+  </si>
+  <si>
+    <t>Lngue6549,</t>
+  </si>
+  <si>
+    <t>YASUARA LILIETH</t>
+  </si>
+  <si>
+    <t>RIVERA CRUZ</t>
+  </si>
+  <si>
+    <t>riverayasuara67@gmail.com</t>
+  </si>
+  <si>
+    <t>Trlzi4210.</t>
+  </si>
+  <si>
+    <t>EZEQUIEL ARMANDO</t>
+  </si>
+  <si>
+    <t>RIVERA DAVILA</t>
+  </si>
+  <si>
+    <t>axtuall@gamail.com</t>
+  </si>
+  <si>
+    <t>Xmysk2598/</t>
+  </si>
+  <si>
+    <t>ANGEL ELIEZER</t>
+  </si>
+  <si>
+    <t>ROCHA PADILLA</t>
+  </si>
+  <si>
+    <t>angeleliezerrocha@gmail.com</t>
+  </si>
+  <si>
+    <t>Jjcsd2789/</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ GUTIERREZ</t>
+  </si>
+  <si>
+    <t>jr7035960@gmail.com</t>
+  </si>
+  <si>
+    <t>Ehzyg9578+</t>
+  </si>
+  <si>
+    <t>ANGEL GABRIEL</t>
+  </si>
+  <si>
+    <t>ROMERO ALEMAN</t>
+  </si>
+  <si>
+    <t>poo2419752@gmail.com</t>
+  </si>
+  <si>
+    <t>Jebsi9782-</t>
+  </si>
+  <si>
+    <t>ANA VICTORIA</t>
+  </si>
+  <si>
+    <t>SEVILLA VEGA</t>
+  </si>
+  <si>
+    <t>anavictoriasevillavega6@gmail.com</t>
+  </si>
+  <si>
+    <t>Unan.42345</t>
+  </si>
+  <si>
+    <t>PEDRO PABLO</t>
+  </si>
+  <si>
+    <t>SUAREZ SUAREZ</t>
+  </si>
+  <si>
+    <t>suarezsuarezpedro1@gmail.com</t>
+  </si>
+  <si>
+    <t>Unan.42346</t>
+  </si>
+  <si>
+    <t>IVAN ALBERTO</t>
+  </si>
+  <si>
+    <t>TIJERINO MORALES</t>
+  </si>
+  <si>
+    <t>ivanalbertotigerinomorales84@gmail.com</t>
+  </si>
+  <si>
+    <t>Iksub5523*</t>
+  </si>
+  <si>
+    <t>JOICE OBRYAN</t>
+  </si>
+  <si>
+    <t>TIJERINO PEREZ</t>
+  </si>
+  <si>
+    <t>joice.perez5@gmail.com</t>
+  </si>
+  <si>
+    <t>Jzcvs7318/</t>
+  </si>
+  <si>
+    <t>DENZEL GABRIEL</t>
+  </si>
+  <si>
+    <t>VANEGAS MARTINEZ</t>
+  </si>
+  <si>
+    <t>hojitabrillante@gmial.com</t>
+  </si>
+  <si>
+    <t>Cxphn4723.</t>
+  </si>
+  <si>
+    <t>KIMBERLY DE LOS ÁNGELES</t>
+  </si>
+  <si>
+    <t>VIVAS VALLE</t>
+  </si>
+  <si>
+    <t>vivasvallek@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -714,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,6 +2168,1678 @@
         <v>19</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21045672</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>21040590</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>21047432</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20043109</v>
+      </c>
+      <c r="B31" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31">
+        <v>85189635</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>21048136</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>21042966</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33">
+        <v>88042061</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>21040535</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34">
+        <v>87526711</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>21041932</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>21049401</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>21040447</v>
+      </c>
+      <c r="B37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21044550</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20050435</v>
+      </c>
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39">
+        <v>89345491</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>18041987</v>
+      </c>
+      <c r="B40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>113</v>
+      </c>
+      <c r="K40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20043043</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41">
+        <v>87554329</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>21046310</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>21049291</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43">
+        <v>75324248</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>21046233</v>
+      </c>
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" t="s">
+        <v>174</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20043076</v>
+      </c>
+      <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45">
+        <v>77996802</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s">
+        <v>113</v>
+      </c>
+      <c r="K45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>21041228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46">
+        <v>81645480</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>113</v>
+      </c>
+      <c r="K46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>18042020</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47">
+        <v>77081457</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>113</v>
+      </c>
+      <c r="K47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20043021</v>
+      </c>
+      <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48">
+        <v>83284272</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>113</v>
+      </c>
+      <c r="K48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>20200607</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" t="s">
+        <v>194</v>
+      </c>
+      <c r="F49">
+        <v>85219071</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>113</v>
+      </c>
+      <c r="K49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>20050248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50">
+        <v>76533873</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s">
+        <v>113</v>
+      </c>
+      <c r="K50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>21805629</v>
+      </c>
+      <c r="B51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" t="s">
+        <v>202</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>113</v>
+      </c>
+      <c r="K51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>19043153</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s">
+        <v>113</v>
+      </c>
+      <c r="K52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>21049412</v>
+      </c>
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53" t="s">
+        <v>210</v>
+      </c>
+      <c r="F53">
+        <v>57198206</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s">
+        <v>113</v>
+      </c>
+      <c r="K53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>21040150</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" t="s">
+        <v>213</v>
+      </c>
+      <c r="F54">
+        <v>85537348</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s">
+        <v>113</v>
+      </c>
+      <c r="K54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>20043307</v>
+      </c>
+      <c r="B55" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55">
+        <v>86682920</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>21044870</v>
+      </c>
+      <c r="B56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56">
+        <v>81131129</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>113</v>
+      </c>
+      <c r="K56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>21041118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" t="s">
+        <v>225</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>113</v>
+      </c>
+      <c r="K57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>21050325</v>
+      </c>
+      <c r="B58" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F58">
+        <v>81658153</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>113</v>
+      </c>
+      <c r="K58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>21045595</v>
+      </c>
+      <c r="B59" t="s">
+        <v>230</v>
+      </c>
+      <c r="C59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" t="s">
+        <v>232</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>113</v>
+      </c>
+      <c r="K59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>16043351</v>
+      </c>
+      <c r="B60" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" t="s">
+        <v>236</v>
+      </c>
+      <c r="F60">
+        <v>58870853</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s">
+        <v>113</v>
+      </c>
+      <c r="K60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>20050226</v>
+      </c>
+      <c r="B61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
+        <v>239</v>
+      </c>
+      <c r="E61" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61">
+        <v>88288380</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>113</v>
+      </c>
+      <c r="K61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>21050248</v>
+      </c>
+      <c r="B62" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" t="s">
+        <v>244</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
+        <v>113</v>
+      </c>
+      <c r="K62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>19043164</v>
+      </c>
+      <c r="B63" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" t="s">
+        <v>247</v>
+      </c>
+      <c r="E63" t="s">
+        <v>248</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>113</v>
+      </c>
+      <c r="K63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>21047135</v>
+      </c>
+      <c r="B64" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" t="s">
+        <v>251</v>
+      </c>
+      <c r="E64" t="s">
+        <v>252</v>
+      </c>
+      <c r="F64">
+        <v>81081314</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>113</v>
+      </c>
+      <c r="K64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>21040480</v>
+      </c>
+      <c r="B65" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" t="s">
+        <v>255</v>
+      </c>
+      <c r="E65" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65">
+        <v>81082027</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
+        <v>113</v>
+      </c>
+      <c r="K65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>21907731</v>
+      </c>
+      <c r="B66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" t="s">
+        <v>258</v>
+      </c>
+      <c r="D66" t="s">
+        <v>259</v>
+      </c>
+      <c r="E66" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66">
+        <v>75026217</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>113</v>
+      </c>
+      <c r="K66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>21043362</v>
+      </c>
+      <c r="B67" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" t="s">
+        <v>263</v>
+      </c>
+      <c r="E67" t="s">
+        <v>264</v>
+      </c>
+      <c r="F67">
+        <v>77930716</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>113</v>
+      </c>
+      <c r="K67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>19041460</v>
+      </c>
+      <c r="B68" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" t="s">
+        <v>268</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" t="s">
+        <v>113</v>
+      </c>
+      <c r="K68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>21040282</v>
+      </c>
+      <c r="B69" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" t="s">
+        <v>272</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" t="s">
+        <v>113</v>
+      </c>
+      <c r="K69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>19043450</v>
+      </c>
+      <c r="B70" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" t="s">
+        <v>275</v>
+      </c>
+      <c r="F70">
+        <v>57265988</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" t="s">
+        <v>113</v>
+      </c>
+      <c r="K70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>21040348</v>
+      </c>
+      <c r="B71" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" t="s">
+        <v>279</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>113</v>
+      </c>
+      <c r="K71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>17801889</v>
+      </c>
+      <c r="B72" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72" t="s">
+        <v>281</v>
+      </c>
+      <c r="D72" t="s">
+        <v>282</v>
+      </c>
+      <c r="E72" t="s">
+        <v>283</v>
+      </c>
+      <c r="F72">
+        <v>58043299</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s">
+        <v>113</v>
+      </c>
+      <c r="K72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>18041943</v>
+      </c>
+      <c r="B73" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" t="s">
+        <v>286</v>
+      </c>
+      <c r="E73" t="s">
+        <v>287</v>
+      </c>
+      <c r="F73">
+        <v>86613842</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" t="s">
+        <v>113</v>
+      </c>
+      <c r="K73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>18042141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" t="s">
+        <v>290</v>
+      </c>
+      <c r="E74" t="s">
+        <v>291</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s">
+        <v>113</v>
+      </c>
+      <c r="K74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>19043440</v>
+      </c>
+      <c r="B75" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" t="s">
+        <v>294</v>
+      </c>
+      <c r="E75" t="s">
+        <v>295</v>
+      </c>
+      <c r="F75">
+        <v>58525214</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s">
+        <v>113</v>
+      </c>
+      <c r="K75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>21715803</v>
+      </c>
+      <c r="B76" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" t="s">
+        <v>298</v>
+      </c>
+      <c r="E76" t="s">
+        <v>299</v>
+      </c>
+      <c r="F76">
+        <v>76673997</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>113</v>
+      </c>
+      <c r="K76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>21041701</v>
+      </c>
+      <c r="B77" t="s">
+        <v>300</v>
+      </c>
+      <c r="C77" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" t="s">
+        <v>302</v>
+      </c>
+      <c r="E77" t="s">
+        <v>303</v>
+      </c>
+      <c r="F77">
+        <v>78244787</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+      <c r="K77" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contrasena.xlsx
+++ b/contrasena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solis\Desktop\ApiClave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F172DFE-724C-4CE4-B2FE-62DE91813E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50982B90-E518-41CD-888E-82693432EBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="448">
   <si>
     <t>Carnet</t>
   </si>
@@ -932,6 +932,438 @@
   </si>
   <si>
     <t>vivasvallek@gmail.com</t>
+  </si>
+  <si>
+    <t>Kdumf4507+</t>
+  </si>
+  <si>
+    <t>MELVIN ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ALEMAN ROQUE</t>
+  </si>
+  <si>
+    <t>Dominical</t>
+  </si>
+  <si>
+    <t>Integrador I</t>
+  </si>
+  <si>
+    <t>SI1DB</t>
+  </si>
+  <si>
+    <t>Jtwpa2314-</t>
+  </si>
+  <si>
+    <t>JOSE ALFREDO</t>
+  </si>
+  <si>
+    <t>ALLAS MARTINEZ</t>
+  </si>
+  <si>
+    <t>Pkyvn7325+</t>
+  </si>
+  <si>
+    <t>JUSTIN AXEL</t>
+  </si>
+  <si>
+    <t>ALMENDAREZ VARELA</t>
+  </si>
+  <si>
+    <t>Nvmze3875-</t>
+  </si>
+  <si>
+    <t>JOSTIN AZAEL</t>
+  </si>
+  <si>
+    <t>ANTON CENTENO</t>
+  </si>
+  <si>
+    <t>Hilvh0295*</t>
+  </si>
+  <si>
+    <t>MAITE DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>AVELLAN VALDIVIA</t>
+  </si>
+  <si>
+    <t>Lyqdf0136-</t>
+  </si>
+  <si>
+    <t>ANIELKA VANESSA</t>
+  </si>
+  <si>
+    <t>BARAHONA MOLINA</t>
+  </si>
+  <si>
+    <t>vanessa08bmolina@gmail.com</t>
+  </si>
+  <si>
+    <t>Uthot8298,</t>
+  </si>
+  <si>
+    <t>JEASON JOHANY</t>
+  </si>
+  <si>
+    <t>BLAS MERCADO</t>
+  </si>
+  <si>
+    <t>Cudjx9160-</t>
+  </si>
+  <si>
+    <t>ORLANDO FRANCISCO</t>
+  </si>
+  <si>
+    <t>BUSTOS MADRIGAL</t>
+  </si>
+  <si>
+    <t>Cxycb4738+</t>
+  </si>
+  <si>
+    <t>JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>CALERO VARGAS</t>
+  </si>
+  <si>
+    <t>Pmprk2197/</t>
+  </si>
+  <si>
+    <t>COLLADO SALGADO</t>
+  </si>
+  <si>
+    <t>Lirdz9814,</t>
+  </si>
+  <si>
+    <t>FRANCIS GUISELLE</t>
+  </si>
+  <si>
+    <t>CRUZ MENA</t>
+  </si>
+  <si>
+    <t>Faxuq3019/</t>
+  </si>
+  <si>
+    <t>ELKIN FABRICIO</t>
+  </si>
+  <si>
+    <t>ESPINALES</t>
+  </si>
+  <si>
+    <t>Edfst7186.</t>
+  </si>
+  <si>
+    <t>ENGEL STEVEN</t>
+  </si>
+  <si>
+    <t>GAITAN GONZALEZ</t>
+  </si>
+  <si>
+    <t>Qsrhl0793*</t>
+  </si>
+  <si>
+    <t>KEYSI ELEAM</t>
+  </si>
+  <si>
+    <t>GONZALEZ MORALES</t>
+  </si>
+  <si>
+    <t>Oyprn0257/</t>
+  </si>
+  <si>
+    <t>MIGUEL ANTONIO</t>
+  </si>
+  <si>
+    <t>GONZÁLEZ SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>Epeir6583/</t>
+  </si>
+  <si>
+    <t>DIANA LETICIA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ QUIROZ</t>
+  </si>
+  <si>
+    <t>Cqpwr1428+</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ NUÑEZ</t>
+  </si>
+  <si>
+    <t>Hbclh0634+</t>
+  </si>
+  <si>
+    <t>JORLING MAGALY</t>
+  </si>
+  <si>
+    <t>HONDOY BALTODANO</t>
+  </si>
+  <si>
+    <t>Nqnvm1368/</t>
+  </si>
+  <si>
+    <t>DAVID ANTONIO</t>
+  </si>
+  <si>
+    <t>JAIME GALEANO</t>
+  </si>
+  <si>
+    <t>Rvsqi8510-</t>
+  </si>
+  <si>
+    <t>JEFRI JOSE</t>
+  </si>
+  <si>
+    <t>JARQUIN BELLO</t>
+  </si>
+  <si>
+    <t>Bxuqf9683+</t>
+  </si>
+  <si>
+    <t>SHAILY ITATY</t>
+  </si>
+  <si>
+    <t>JARQUIN HERNANDEZ</t>
+  </si>
+  <si>
+    <t>Ynhzp8205,</t>
+  </si>
+  <si>
+    <t>OLVER EZEQUIEL</t>
+  </si>
+  <si>
+    <t>JOSE DAVILA</t>
+  </si>
+  <si>
+    <t>Orcpa7632+</t>
+  </si>
+  <si>
+    <t>JEFFER JOSE</t>
+  </si>
+  <si>
+    <t>LARGAESPADA MANZANARES</t>
+  </si>
+  <si>
+    <t>Jxiqa0284.</t>
+  </si>
+  <si>
+    <t>KENNER JOSUE</t>
+  </si>
+  <si>
+    <t>LAZO OCAMPO</t>
+  </si>
+  <si>
+    <t>Uxzju6214.</t>
+  </si>
+  <si>
+    <t>ALEXANDER ANTONIO</t>
+  </si>
+  <si>
+    <t>LOPEZ GUTIERREZ</t>
+  </si>
+  <si>
+    <t>Ufvby5219/</t>
+  </si>
+  <si>
+    <t>ENDER JOSE</t>
+  </si>
+  <si>
+    <t>LUMBI LOPEZ</t>
+  </si>
+  <si>
+    <t>Nrugl0754,</t>
+  </si>
+  <si>
+    <t>BRYAN MOISES</t>
+  </si>
+  <si>
+    <t>LÓPEZ ABURTO</t>
+  </si>
+  <si>
+    <t>Bqres4309-</t>
+  </si>
+  <si>
+    <t>CARLOS FERNANDO</t>
+  </si>
+  <si>
+    <t>MALTEZ CASTRO</t>
+  </si>
+  <si>
+    <t>Trubh3097+</t>
+  </si>
+  <si>
+    <t>ENMANUEL JOSUE</t>
+  </si>
+  <si>
+    <t>MARTINEZ GUTIERREZ</t>
+  </si>
+  <si>
+    <t>Icgkq6972,</t>
+  </si>
+  <si>
+    <t>DEYBY ALEXANDER</t>
+  </si>
+  <si>
+    <t>MEDINA GARCIA</t>
+  </si>
+  <si>
+    <t>Dcsmt2574+</t>
+  </si>
+  <si>
+    <t>LUIS ERNESTO</t>
+  </si>
+  <si>
+    <t>MONTOYA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>Rwerx0219.</t>
+  </si>
+  <si>
+    <t>IRLANDA DEL SOCORRO</t>
+  </si>
+  <si>
+    <t>MORALES LACAYO</t>
+  </si>
+  <si>
+    <t>Wvdwk0596-</t>
+  </si>
+  <si>
+    <t>JONATHAN DAVID</t>
+  </si>
+  <si>
+    <t>MORALES SUAREZ</t>
+  </si>
+  <si>
+    <t>Qpyso9214+</t>
+  </si>
+  <si>
+    <t>GERARDO MOISES</t>
+  </si>
+  <si>
+    <t>NUÑEZ ALEMAN</t>
+  </si>
+  <si>
+    <t>Cidht2361*</t>
+  </si>
+  <si>
+    <t>LISNERLID VANESSA</t>
+  </si>
+  <si>
+    <t>OBANDO ESPINOZA</t>
+  </si>
+  <si>
+    <t>Tvatw5872,</t>
+  </si>
+  <si>
+    <t>ILIANA MARIA</t>
+  </si>
+  <si>
+    <t>OPORTA</t>
+  </si>
+  <si>
+    <t>Gbqov1938*</t>
+  </si>
+  <si>
+    <t>PABLO BENJAMIN</t>
+  </si>
+  <si>
+    <t>PEREZ GARCIA</t>
+  </si>
+  <si>
+    <t>Bagbs6251-</t>
+  </si>
+  <si>
+    <t>DANIS ALEXANDER</t>
+  </si>
+  <si>
+    <t>RAMIREZ VANEGAS</t>
+  </si>
+  <si>
+    <t>Ezaji7458.</t>
+  </si>
+  <si>
+    <t>DARIEL MISAEL</t>
+  </si>
+  <si>
+    <t>REYES BANS</t>
+  </si>
+  <si>
+    <t>Jmwdi3201-</t>
+  </si>
+  <si>
+    <t>STEPHANIE ANAIS</t>
+  </si>
+  <si>
+    <t>REYES OLIVAS</t>
+  </si>
+  <si>
+    <t>Xcydr9314/</t>
+  </si>
+  <si>
+    <t>BRAYAN ENMANUEL</t>
+  </si>
+  <si>
+    <t>RIOS MUÑOZ</t>
+  </si>
+  <si>
+    <t>Kucfj7481*</t>
+  </si>
+  <si>
+    <t>EDWIN NEWMAN</t>
+  </si>
+  <si>
+    <t>RIVERA ORDOÑEZ</t>
+  </si>
+  <si>
+    <t>Ynvkd8736.</t>
+  </si>
+  <si>
+    <t>ROXANA ESBETH</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ NAVARRETE</t>
+  </si>
+  <si>
+    <t>Olutg3792*</t>
+  </si>
+  <si>
+    <t>JENSEN RAFAEL</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ RIVERA</t>
+  </si>
+  <si>
+    <t>Mordy4096*</t>
+  </si>
+  <si>
+    <t>GENESIS JESSENIA</t>
+  </si>
+  <si>
+    <t>SILVA GUERRERO</t>
+  </si>
+  <si>
+    <t>Ryjkt3678/</t>
+  </si>
+  <si>
+    <t>YADER ISRAEL</t>
+  </si>
+  <si>
+    <t>SOLANO MARTINEZ</t>
+  </si>
+  <si>
+    <t>Fgkni9827*</t>
+  </si>
+  <si>
+    <t>FRANCISCO</t>
+  </si>
+  <si>
+    <t>URRUTIA CALERO</t>
   </si>
 </sst>
 </file>
@@ -1299,10 +1731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,6 +4272,1498 @@
         <v>114</v>
       </c>
     </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>25407132</v>
+      </c>
+      <c r="B78" t="s">
+        <v>304</v>
+      </c>
+      <c r="C78" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" t="s">
+        <v>306</v>
+      </c>
+      <c r="F78">
+        <v>86367633</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" t="s">
+        <v>307</v>
+      </c>
+      <c r="J78" t="s">
+        <v>308</v>
+      </c>
+      <c r="K78" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>25405086</v>
+      </c>
+      <c r="B79" t="s">
+        <v>310</v>
+      </c>
+      <c r="C79" t="s">
+        <v>311</v>
+      </c>
+      <c r="D79" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79">
+        <v>58290764</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
+        <v>307</v>
+      </c>
+      <c r="J79" t="s">
+        <v>308</v>
+      </c>
+      <c r="K79" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>25415790</v>
+      </c>
+      <c r="B80" t="s">
+        <v>313</v>
+      </c>
+      <c r="C80" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" t="s">
+        <v>315</v>
+      </c>
+      <c r="F80">
+        <v>77576606</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="s">
+        <v>307</v>
+      </c>
+      <c r="J80" t="s">
+        <v>308</v>
+      </c>
+      <c r="K80" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>25407297</v>
+      </c>
+      <c r="B81" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81" t="s">
+        <v>318</v>
+      </c>
+      <c r="F81">
+        <v>87473880</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" t="s">
+        <v>307</v>
+      </c>
+      <c r="J81" t="s">
+        <v>308</v>
+      </c>
+      <c r="K81" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>25403997</v>
+      </c>
+      <c r="B82" t="s">
+        <v>319</v>
+      </c>
+      <c r="C82" t="s">
+        <v>320</v>
+      </c>
+      <c r="D82" t="s">
+        <v>321</v>
+      </c>
+      <c r="F82">
+        <v>87952725</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" t="s">
+        <v>307</v>
+      </c>
+      <c r="J82" t="s">
+        <v>308</v>
+      </c>
+      <c r="K82" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>25217965</v>
+      </c>
+      <c r="B83" t="s">
+        <v>322</v>
+      </c>
+      <c r="C83" t="s">
+        <v>323</v>
+      </c>
+      <c r="D83" t="s">
+        <v>324</v>
+      </c>
+      <c r="E83" t="s">
+        <v>325</v>
+      </c>
+      <c r="F83">
+        <v>88782155</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s">
+        <v>307</v>
+      </c>
+      <c r="J83" t="s">
+        <v>308</v>
+      </c>
+      <c r="K83" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>19016050</v>
+      </c>
+      <c r="B84" t="s">
+        <v>326</v>
+      </c>
+      <c r="C84" t="s">
+        <v>327</v>
+      </c>
+      <c r="D84" t="s">
+        <v>328</v>
+      </c>
+      <c r="F84">
+        <v>89234576</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" t="s">
+        <v>307</v>
+      </c>
+      <c r="J84" t="s">
+        <v>308</v>
+      </c>
+      <c r="K84" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>25414150</v>
+      </c>
+      <c r="B85" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85" t="s">
+        <v>330</v>
+      </c>
+      <c r="D85" t="s">
+        <v>331</v>
+      </c>
+      <c r="F85">
+        <v>82460958</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" t="s">
+        <v>307</v>
+      </c>
+      <c r="J85" t="s">
+        <v>308</v>
+      </c>
+      <c r="K85" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>25402853</v>
+      </c>
+      <c r="B86" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86" t="s">
+        <v>333</v>
+      </c>
+      <c r="D86" t="s">
+        <v>334</v>
+      </c>
+      <c r="F86">
+        <v>87714964</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" t="s">
+        <v>307</v>
+      </c>
+      <c r="J86" t="s">
+        <v>308</v>
+      </c>
+      <c r="K86" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>25411884</v>
+      </c>
+      <c r="B87" t="s">
+        <v>335</v>
+      </c>
+      <c r="C87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" t="s">
+        <v>336</v>
+      </c>
+      <c r="F87">
+        <v>76030551</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" t="s">
+        <v>307</v>
+      </c>
+      <c r="J87" t="s">
+        <v>308</v>
+      </c>
+      <c r="K87" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>25416340</v>
+      </c>
+      <c r="B88" t="s">
+        <v>337</v>
+      </c>
+      <c r="C88" t="s">
+        <v>338</v>
+      </c>
+      <c r="D88" t="s">
+        <v>339</v>
+      </c>
+      <c r="F88">
+        <v>78919529</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" t="s">
+        <v>307</v>
+      </c>
+      <c r="J88" t="s">
+        <v>308</v>
+      </c>
+      <c r="K88" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>25406472</v>
+      </c>
+      <c r="B89" t="s">
+        <v>340</v>
+      </c>
+      <c r="C89" t="s">
+        <v>341</v>
+      </c>
+      <c r="D89" t="s">
+        <v>342</v>
+      </c>
+      <c r="F89">
+        <v>87088554</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s">
+        <v>307</v>
+      </c>
+      <c r="J89" t="s">
+        <v>308</v>
+      </c>
+      <c r="K89" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>25407430</v>
+      </c>
+      <c r="B90" t="s">
+        <v>343</v>
+      </c>
+      <c r="C90" t="s">
+        <v>344</v>
+      </c>
+      <c r="D90" t="s">
+        <v>345</v>
+      </c>
+      <c r="F90">
+        <v>81884824</v>
+      </c>
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="s">
+        <v>307</v>
+      </c>
+      <c r="J90" t="s">
+        <v>308</v>
+      </c>
+      <c r="K90" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>25408474</v>
+      </c>
+      <c r="B91" t="s">
+        <v>346</v>
+      </c>
+      <c r="C91" t="s">
+        <v>347</v>
+      </c>
+      <c r="D91" t="s">
+        <v>348</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" t="s">
+        <v>307</v>
+      </c>
+      <c r="J91" t="s">
+        <v>308</v>
+      </c>
+      <c r="K91" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>23921448</v>
+      </c>
+      <c r="B92" t="s">
+        <v>349</v>
+      </c>
+      <c r="C92" t="s">
+        <v>350</v>
+      </c>
+      <c r="D92" t="s">
+        <v>351</v>
+      </c>
+      <c r="F92">
+        <v>85718143</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" t="s">
+        <v>307</v>
+      </c>
+      <c r="J92" t="s">
+        <v>308</v>
+      </c>
+      <c r="K92" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>25419463</v>
+      </c>
+      <c r="B93" t="s">
+        <v>352</v>
+      </c>
+      <c r="C93" t="s">
+        <v>353</v>
+      </c>
+      <c r="D93" t="s">
+        <v>354</v>
+      </c>
+      <c r="F93">
+        <v>88711493</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s">
+        <v>307</v>
+      </c>
+      <c r="J93" t="s">
+        <v>308</v>
+      </c>
+      <c r="K93" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>25406725</v>
+      </c>
+      <c r="B94" t="s">
+        <v>355</v>
+      </c>
+      <c r="C94" t="s">
+        <v>356</v>
+      </c>
+      <c r="D94" t="s">
+        <v>357</v>
+      </c>
+      <c r="F94">
+        <v>58016379</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" t="s">
+        <v>307</v>
+      </c>
+      <c r="J94" t="s">
+        <v>308</v>
+      </c>
+      <c r="K94" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>25404360</v>
+      </c>
+      <c r="B95" t="s">
+        <v>358</v>
+      </c>
+      <c r="C95" t="s">
+        <v>359</v>
+      </c>
+      <c r="D95" t="s">
+        <v>360</v>
+      </c>
+      <c r="F95">
+        <v>82682566</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="s">
+        <v>307</v>
+      </c>
+      <c r="J95" t="s">
+        <v>308</v>
+      </c>
+      <c r="K95" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>25400830</v>
+      </c>
+      <c r="B96" t="s">
+        <v>361</v>
+      </c>
+      <c r="C96" t="s">
+        <v>362</v>
+      </c>
+      <c r="D96" t="s">
+        <v>363</v>
+      </c>
+      <c r="F96">
+        <v>83221977</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" t="s">
+        <v>307</v>
+      </c>
+      <c r="J96" t="s">
+        <v>308</v>
+      </c>
+      <c r="K96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>25415635</v>
+      </c>
+      <c r="B97" t="s">
+        <v>364</v>
+      </c>
+      <c r="C97" t="s">
+        <v>365</v>
+      </c>
+      <c r="D97" t="s">
+        <v>366</v>
+      </c>
+      <c r="F97">
+        <v>86742396</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" t="s">
+        <v>307</v>
+      </c>
+      <c r="J97" t="s">
+        <v>308</v>
+      </c>
+      <c r="K97" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>25412071</v>
+      </c>
+      <c r="B98" t="s">
+        <v>367</v>
+      </c>
+      <c r="C98" t="s">
+        <v>368</v>
+      </c>
+      <c r="D98" t="s">
+        <v>369</v>
+      </c>
+      <c r="F98">
+        <v>86694336</v>
+      </c>
+      <c r="G98" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" t="s">
+        <v>307</v>
+      </c>
+      <c r="J98" t="s">
+        <v>308</v>
+      </c>
+      <c r="K98" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>25905355</v>
+      </c>
+      <c r="B99" t="s">
+        <v>370</v>
+      </c>
+      <c r="C99" t="s">
+        <v>371</v>
+      </c>
+      <c r="D99" t="s">
+        <v>372</v>
+      </c>
+      <c r="F99">
+        <v>85322841</v>
+      </c>
+      <c r="G99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="s">
+        <v>307</v>
+      </c>
+      <c r="J99" t="s">
+        <v>308</v>
+      </c>
+      <c r="K99" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>22917697</v>
+      </c>
+      <c r="B100" t="s">
+        <v>373</v>
+      </c>
+      <c r="C100" t="s">
+        <v>374</v>
+      </c>
+      <c r="D100" t="s">
+        <v>375</v>
+      </c>
+      <c r="F100">
+        <v>76181786</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s">
+        <v>307</v>
+      </c>
+      <c r="J100" t="s">
+        <v>308</v>
+      </c>
+      <c r="K100" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>25404998</v>
+      </c>
+      <c r="B101" t="s">
+        <v>376</v>
+      </c>
+      <c r="C101" t="s">
+        <v>377</v>
+      </c>
+      <c r="D101" t="s">
+        <v>378</v>
+      </c>
+      <c r="F101">
+        <v>78759195</v>
+      </c>
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" t="s">
+        <v>307</v>
+      </c>
+      <c r="J101" t="s">
+        <v>308</v>
+      </c>
+      <c r="K101" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>25402963</v>
+      </c>
+      <c r="B102" t="s">
+        <v>379</v>
+      </c>
+      <c r="C102" t="s">
+        <v>380</v>
+      </c>
+      <c r="D102" t="s">
+        <v>381</v>
+      </c>
+      <c r="F102">
+        <v>75357804</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>307</v>
+      </c>
+      <c r="J102" t="s">
+        <v>308</v>
+      </c>
+      <c r="K102" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>25406384</v>
+      </c>
+      <c r="B103" t="s">
+        <v>382</v>
+      </c>
+      <c r="C103" t="s">
+        <v>383</v>
+      </c>
+      <c r="D103" t="s">
+        <v>384</v>
+      </c>
+      <c r="F103">
+        <v>84845359</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" t="s">
+        <v>307</v>
+      </c>
+      <c r="J103" t="s">
+        <v>308</v>
+      </c>
+      <c r="K103" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>23916135</v>
+      </c>
+      <c r="B104" t="s">
+        <v>385</v>
+      </c>
+      <c r="C104" t="s">
+        <v>386</v>
+      </c>
+      <c r="D104" t="s">
+        <v>387</v>
+      </c>
+      <c r="F104">
+        <v>78835485</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" t="s">
+        <v>307</v>
+      </c>
+      <c r="J104" t="s">
+        <v>308</v>
+      </c>
+      <c r="K104" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>25418528</v>
+      </c>
+      <c r="B105" t="s">
+        <v>388</v>
+      </c>
+      <c r="C105" t="s">
+        <v>389</v>
+      </c>
+      <c r="D105" t="s">
+        <v>390</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" t="s">
+        <v>307</v>
+      </c>
+      <c r="J105" t="s">
+        <v>308</v>
+      </c>
+      <c r="K105" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>25400939</v>
+      </c>
+      <c r="B106" t="s">
+        <v>391</v>
+      </c>
+      <c r="C106" t="s">
+        <v>392</v>
+      </c>
+      <c r="D106" t="s">
+        <v>393</v>
+      </c>
+      <c r="F106">
+        <v>76477980</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" t="s">
+        <v>307</v>
+      </c>
+      <c r="J106" t="s">
+        <v>308</v>
+      </c>
+      <c r="K106" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>25411290</v>
+      </c>
+      <c r="B107" t="s">
+        <v>394</v>
+      </c>
+      <c r="C107" t="s">
+        <v>395</v>
+      </c>
+      <c r="D107" t="s">
+        <v>396</v>
+      </c>
+      <c r="F107">
+        <v>86494923</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" t="s">
+        <v>307</v>
+      </c>
+      <c r="J107" t="s">
+        <v>308</v>
+      </c>
+      <c r="K107" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>25402589</v>
+      </c>
+      <c r="B108" t="s">
+        <v>397</v>
+      </c>
+      <c r="C108" t="s">
+        <v>398</v>
+      </c>
+      <c r="D108" t="s">
+        <v>399</v>
+      </c>
+      <c r="F108">
+        <v>77540570</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" t="s">
+        <v>307</v>
+      </c>
+      <c r="J108" t="s">
+        <v>308</v>
+      </c>
+      <c r="K108" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>25404261</v>
+      </c>
+      <c r="B109" t="s">
+        <v>400</v>
+      </c>
+      <c r="C109" t="s">
+        <v>401</v>
+      </c>
+      <c r="D109" t="s">
+        <v>402</v>
+      </c>
+      <c r="F109">
+        <v>77362873</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" t="s">
+        <v>307</v>
+      </c>
+      <c r="J109" t="s">
+        <v>308</v>
+      </c>
+      <c r="K109" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>25412049</v>
+      </c>
+      <c r="B110" t="s">
+        <v>403</v>
+      </c>
+      <c r="C110" t="s">
+        <v>404</v>
+      </c>
+      <c r="D110" t="s">
+        <v>405</v>
+      </c>
+      <c r="F110">
+        <v>77852953</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" t="s">
+        <v>307</v>
+      </c>
+      <c r="J110" t="s">
+        <v>308</v>
+      </c>
+      <c r="K110" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>25402314</v>
+      </c>
+      <c r="B111" t="s">
+        <v>406</v>
+      </c>
+      <c r="C111" t="s">
+        <v>407</v>
+      </c>
+      <c r="D111" t="s">
+        <v>408</v>
+      </c>
+      <c r="F111">
+        <v>86626569</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" t="s">
+        <v>307</v>
+      </c>
+      <c r="J111" t="s">
+        <v>308</v>
+      </c>
+      <c r="K111" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>25408034</v>
+      </c>
+      <c r="B112" t="s">
+        <v>409</v>
+      </c>
+      <c r="C112" t="s">
+        <v>410</v>
+      </c>
+      <c r="D112" t="s">
+        <v>411</v>
+      </c>
+      <c r="F112">
+        <v>84737241</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" t="s">
+        <v>307</v>
+      </c>
+      <c r="J112" t="s">
+        <v>308</v>
+      </c>
+      <c r="K112" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>24907621</v>
+      </c>
+      <c r="B113" t="s">
+        <v>412</v>
+      </c>
+      <c r="C113" t="s">
+        <v>413</v>
+      </c>
+      <c r="D113" t="s">
+        <v>414</v>
+      </c>
+      <c r="F113">
+        <v>82020372</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" t="s">
+        <v>307</v>
+      </c>
+      <c r="J113" t="s">
+        <v>308</v>
+      </c>
+      <c r="K113" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>25409464</v>
+      </c>
+      <c r="B114" t="s">
+        <v>415</v>
+      </c>
+      <c r="C114" t="s">
+        <v>416</v>
+      </c>
+      <c r="D114" t="s">
+        <v>417</v>
+      </c>
+      <c r="F114">
+        <v>89966451</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" t="s">
+        <v>307</v>
+      </c>
+      <c r="J114" t="s">
+        <v>308</v>
+      </c>
+      <c r="K114" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>25414227</v>
+      </c>
+      <c r="B115" t="s">
+        <v>418</v>
+      </c>
+      <c r="C115" t="s">
+        <v>419</v>
+      </c>
+      <c r="D115" t="s">
+        <v>420</v>
+      </c>
+      <c r="F115">
+        <v>58303076</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" t="s">
+        <v>307</v>
+      </c>
+      <c r="J115" t="s">
+        <v>308</v>
+      </c>
+      <c r="K115" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>25403766</v>
+      </c>
+      <c r="B116" t="s">
+        <v>421</v>
+      </c>
+      <c r="C116" t="s">
+        <v>422</v>
+      </c>
+      <c r="D116" t="s">
+        <v>423</v>
+      </c>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" t="s">
+        <v>307</v>
+      </c>
+      <c r="J116" t="s">
+        <v>308</v>
+      </c>
+      <c r="K116" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>25608696</v>
+      </c>
+      <c r="B117" t="s">
+        <v>424</v>
+      </c>
+      <c r="C117" t="s">
+        <v>425</v>
+      </c>
+      <c r="D117" t="s">
+        <v>426</v>
+      </c>
+      <c r="F117">
+        <v>81985314</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" t="s">
+        <v>307</v>
+      </c>
+      <c r="J117" t="s">
+        <v>308</v>
+      </c>
+      <c r="K117" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>25410553</v>
+      </c>
+      <c r="B118" t="s">
+        <v>427</v>
+      </c>
+      <c r="C118" t="s">
+        <v>428</v>
+      </c>
+      <c r="D118" t="s">
+        <v>429</v>
+      </c>
+      <c r="F118">
+        <v>85088828</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" t="s">
+        <v>307</v>
+      </c>
+      <c r="J118" t="s">
+        <v>308</v>
+      </c>
+      <c r="K118" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>25410311</v>
+      </c>
+      <c r="B119" t="s">
+        <v>430</v>
+      </c>
+      <c r="C119" t="s">
+        <v>431</v>
+      </c>
+      <c r="D119" t="s">
+        <v>432</v>
+      </c>
+      <c r="F119">
+        <v>76898466</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" t="s">
+        <v>307</v>
+      </c>
+      <c r="J119" t="s">
+        <v>308</v>
+      </c>
+      <c r="K119" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>25410432</v>
+      </c>
+      <c r="B120" t="s">
+        <v>433</v>
+      </c>
+      <c r="C120" t="s">
+        <v>434</v>
+      </c>
+      <c r="D120" t="s">
+        <v>435</v>
+      </c>
+      <c r="F120">
+        <v>87151578</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" t="s">
+        <v>307</v>
+      </c>
+      <c r="J120" t="s">
+        <v>308</v>
+      </c>
+      <c r="K120" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>25409673</v>
+      </c>
+      <c r="B121" t="s">
+        <v>436</v>
+      </c>
+      <c r="C121" t="s">
+        <v>437</v>
+      </c>
+      <c r="D121" t="s">
+        <v>438</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" t="s">
+        <v>307</v>
+      </c>
+      <c r="J121" t="s">
+        <v>308</v>
+      </c>
+      <c r="K121" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>25401687</v>
+      </c>
+      <c r="B122" t="s">
+        <v>439</v>
+      </c>
+      <c r="C122" t="s">
+        <v>440</v>
+      </c>
+      <c r="D122" t="s">
+        <v>441</v>
+      </c>
+      <c r="F122">
+        <v>81220033</v>
+      </c>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" t="s">
+        <v>307</v>
+      </c>
+      <c r="J122" t="s">
+        <v>308</v>
+      </c>
+      <c r="K122" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>25410619</v>
+      </c>
+      <c r="B123" t="s">
+        <v>442</v>
+      </c>
+      <c r="C123" t="s">
+        <v>443</v>
+      </c>
+      <c r="D123" t="s">
+        <v>444</v>
+      </c>
+      <c r="F123">
+        <v>78732689</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" t="s">
+        <v>307</v>
+      </c>
+      <c r="J123" t="s">
+        <v>308</v>
+      </c>
+      <c r="K123" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>25402171</v>
+      </c>
+      <c r="B124" t="s">
+        <v>445</v>
+      </c>
+      <c r="C124" t="s">
+        <v>446</v>
+      </c>
+      <c r="D124" t="s">
+        <v>447</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" t="s">
+        <v>307</v>
+      </c>
+      <c r="J124" t="s">
+        <v>308</v>
+      </c>
+      <c r="K124" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contrasena.xlsx
+++ b/contrasena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solis\Desktop\ApiClave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50982B90-E518-41CD-888E-82693432EBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE274480-06E4-4132-81E1-2E292DA2C0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="471">
   <si>
     <t>Carnet</t>
   </si>
@@ -1364,6 +1364,75 @@
   </si>
   <si>
     <t>URRUTIA CALERO</t>
+  </si>
+  <si>
+    <t>Bbgrk9785,</t>
+  </si>
+  <si>
+    <t>HUBERT ULISES</t>
+  </si>
+  <si>
+    <t>ACEVEDO TORREZ</t>
+  </si>
+  <si>
+    <t>torrezulises34@gmail.com</t>
+  </si>
+  <si>
+    <t>Investigación Aplicada</t>
+  </si>
+  <si>
+    <t>Sqwpt8719*</t>
+  </si>
+  <si>
+    <t>LISIS ODALYS</t>
+  </si>
+  <si>
+    <t>CARDENAL CORDOBA</t>
+  </si>
+  <si>
+    <t>Sqdeb1172+</t>
+  </si>
+  <si>
+    <t>DENZEL MOISES</t>
+  </si>
+  <si>
+    <t>LORENTE REYES</t>
+  </si>
+  <si>
+    <t>d.lorente.14@gmail.com</t>
+  </si>
+  <si>
+    <t>Unan.42334</t>
+  </si>
+  <si>
+    <t>JAIRO ANTONIO</t>
+  </si>
+  <si>
+    <t>NARVAEZ LEZAMA</t>
+  </si>
+  <si>
+    <t>Jpjid3172*</t>
+  </si>
+  <si>
+    <t>FRANCISCO ANTONIO</t>
+  </si>
+  <si>
+    <t>RUIZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>fr018452@gmail.com</t>
+  </si>
+  <si>
+    <t>Ixxfg7559*</t>
+  </si>
+  <si>
+    <t>JOEL JOSUE</t>
+  </si>
+  <si>
+    <t>VEGA GAGO</t>
+  </si>
+  <si>
+    <t>Jvg120901@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1731,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5764,6 +5833,1675 @@
         <v>309</v>
       </c>
     </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>19043395</v>
+      </c>
+      <c r="B125" t="s">
+        <v>448</v>
+      </c>
+      <c r="C125" t="s">
+        <v>449</v>
+      </c>
+      <c r="D125" t="s">
+        <v>450</v>
+      </c>
+      <c r="E125" t="s">
+        <v>451</v>
+      </c>
+      <c r="F125">
+        <v>78548895</v>
+      </c>
+      <c r="G125" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" t="s">
+        <v>452</v>
+      </c>
+      <c r="K125" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>21045672</v>
+      </c>
+      <c r="B126" t="s">
+        <v>109</v>
+      </c>
+      <c r="C126" t="s">
+        <v>110</v>
+      </c>
+      <c r="D126" t="s">
+        <v>111</v>
+      </c>
+      <c r="E126" t="s">
+        <v>112</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" t="s">
+        <v>452</v>
+      </c>
+      <c r="K126" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>21040590</v>
+      </c>
+      <c r="B127" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" t="s">
+        <v>117</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" t="s">
+        <v>452</v>
+      </c>
+      <c r="K127" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>21047432</v>
+      </c>
+      <c r="B128" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" t="s">
+        <v>119</v>
+      </c>
+      <c r="D128" t="s">
+        <v>120</v>
+      </c>
+      <c r="E128" t="s">
+        <v>121</v>
+      </c>
+      <c r="G128" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" t="s">
+        <v>452</v>
+      </c>
+      <c r="K128" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>20043109</v>
+      </c>
+      <c r="B129" t="s">
+        <v>122</v>
+      </c>
+      <c r="C129" t="s">
+        <v>123</v>
+      </c>
+      <c r="D129" t="s">
+        <v>124</v>
+      </c>
+      <c r="E129" t="s">
+        <v>125</v>
+      </c>
+      <c r="F129">
+        <v>85189635</v>
+      </c>
+      <c r="G129" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J129" t="s">
+        <v>452</v>
+      </c>
+      <c r="K129" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>21048136</v>
+      </c>
+      <c r="B130" t="s">
+        <v>126</v>
+      </c>
+      <c r="C130" t="s">
+        <v>127</v>
+      </c>
+      <c r="D130" t="s">
+        <v>128</v>
+      </c>
+      <c r="E130" t="s">
+        <v>129</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" t="s">
+        <v>452</v>
+      </c>
+      <c r="K130" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>21042966</v>
+      </c>
+      <c r="B131" t="s">
+        <v>130</v>
+      </c>
+      <c r="C131" t="s">
+        <v>131</v>
+      </c>
+      <c r="D131" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" t="s">
+        <v>133</v>
+      </c>
+      <c r="F131">
+        <v>88042061</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" t="s">
+        <v>452</v>
+      </c>
+      <c r="K131" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>21040535</v>
+      </c>
+      <c r="B132" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132" t="s">
+        <v>136</v>
+      </c>
+      <c r="E132" t="s">
+        <v>137</v>
+      </c>
+      <c r="F132">
+        <v>87526711</v>
+      </c>
+      <c r="G132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" t="s">
+        <v>452</v>
+      </c>
+      <c r="K132" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>21050622</v>
+      </c>
+      <c r="B133" t="s">
+        <v>453</v>
+      </c>
+      <c r="C133" t="s">
+        <v>454</v>
+      </c>
+      <c r="D133" t="s">
+        <v>455</v>
+      </c>
+      <c r="G133" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133" t="s">
+        <v>452</v>
+      </c>
+      <c r="K133" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>21041932</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134" t="s">
+        <v>139</v>
+      </c>
+      <c r="D134" t="s">
+        <v>140</v>
+      </c>
+      <c r="G134" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" t="s">
+        <v>452</v>
+      </c>
+      <c r="K134" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>21049401</v>
+      </c>
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" t="s">
+        <v>142</v>
+      </c>
+      <c r="D135" t="s">
+        <v>143</v>
+      </c>
+      <c r="E135" t="s">
+        <v>144</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" t="s">
+        <v>452</v>
+      </c>
+      <c r="K135" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>21040447</v>
+      </c>
+      <c r="B136" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" t="s">
+        <v>146</v>
+      </c>
+      <c r="D136" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136" t="s">
+        <v>148</v>
+      </c>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136" t="s">
+        <v>452</v>
+      </c>
+      <c r="K136" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>21044550</v>
+      </c>
+      <c r="B137" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137" t="s">
+        <v>151</v>
+      </c>
+      <c r="E137" t="s">
+        <v>152</v>
+      </c>
+      <c r="G137" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137" t="s">
+        <v>452</v>
+      </c>
+      <c r="K137" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>20050435</v>
+      </c>
+      <c r="B138" t="s">
+        <v>153</v>
+      </c>
+      <c r="C138" t="s">
+        <v>154</v>
+      </c>
+      <c r="D138" t="s">
+        <v>155</v>
+      </c>
+      <c r="E138" t="s">
+        <v>156</v>
+      </c>
+      <c r="F138">
+        <v>89345491</v>
+      </c>
+      <c r="G138" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" t="s">
+        <v>452</v>
+      </c>
+      <c r="K138" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>20043043</v>
+      </c>
+      <c r="B139" t="s">
+        <v>160</v>
+      </c>
+      <c r="C139" t="s">
+        <v>161</v>
+      </c>
+      <c r="D139" t="s">
+        <v>162</v>
+      </c>
+      <c r="E139" t="s">
+        <v>163</v>
+      </c>
+      <c r="F139">
+        <v>87554329</v>
+      </c>
+      <c r="G139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" t="s">
+        <v>452</v>
+      </c>
+      <c r="K139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>21049291</v>
+      </c>
+      <c r="B140" t="s">
+        <v>168</v>
+      </c>
+      <c r="C140" t="s">
+        <v>169</v>
+      </c>
+      <c r="D140" t="s">
+        <v>166</v>
+      </c>
+      <c r="E140" t="s">
+        <v>170</v>
+      </c>
+      <c r="F140">
+        <v>75324248</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140" t="s">
+        <v>452</v>
+      </c>
+      <c r="K140" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>21046310</v>
+      </c>
+      <c r="B141" t="s">
+        <v>164</v>
+      </c>
+      <c r="C141" t="s">
+        <v>165</v>
+      </c>
+      <c r="D141" t="s">
+        <v>166</v>
+      </c>
+      <c r="E141" t="s">
+        <v>167</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" t="s">
+        <v>452</v>
+      </c>
+      <c r="K141" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>21046233</v>
+      </c>
+      <c r="B142" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" t="s">
+        <v>172</v>
+      </c>
+      <c r="D142" t="s">
+        <v>173</v>
+      </c>
+      <c r="E142" t="s">
+        <v>174</v>
+      </c>
+      <c r="G142" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" t="s">
+        <v>17</v>
+      </c>
+      <c r="J142" t="s">
+        <v>452</v>
+      </c>
+      <c r="K142" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>20043076</v>
+      </c>
+      <c r="B143" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" t="s">
+        <v>176</v>
+      </c>
+      <c r="D143" t="s">
+        <v>177</v>
+      </c>
+      <c r="E143" t="s">
+        <v>178</v>
+      </c>
+      <c r="F143">
+        <v>77996802</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" t="s">
+        <v>452</v>
+      </c>
+      <c r="K143" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>21041228</v>
+      </c>
+      <c r="B144" t="s">
+        <v>179</v>
+      </c>
+      <c r="C144" t="s">
+        <v>180</v>
+      </c>
+      <c r="D144" t="s">
+        <v>181</v>
+      </c>
+      <c r="E144" t="s">
+        <v>182</v>
+      </c>
+      <c r="F144">
+        <v>81645480</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" t="s">
+        <v>452</v>
+      </c>
+      <c r="K144" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>20043021</v>
+      </c>
+      <c r="B145" t="s">
+        <v>187</v>
+      </c>
+      <c r="C145" t="s">
+        <v>188</v>
+      </c>
+      <c r="D145" t="s">
+        <v>189</v>
+      </c>
+      <c r="E145" t="s">
+        <v>190</v>
+      </c>
+      <c r="F145">
+        <v>83284272</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" t="s">
+        <v>17</v>
+      </c>
+      <c r="J145" t="s">
+        <v>452</v>
+      </c>
+      <c r="K145" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>20200607</v>
+      </c>
+      <c r="B146" t="s">
+        <v>191</v>
+      </c>
+      <c r="C146" t="s">
+        <v>192</v>
+      </c>
+      <c r="D146" t="s">
+        <v>193</v>
+      </c>
+      <c r="E146" t="s">
+        <v>194</v>
+      </c>
+      <c r="F146">
+        <v>85219071</v>
+      </c>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" t="s">
+        <v>17</v>
+      </c>
+      <c r="J146" t="s">
+        <v>452</v>
+      </c>
+      <c r="K146" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>19043472</v>
+      </c>
+      <c r="B147" t="s">
+        <v>456</v>
+      </c>
+      <c r="C147" t="s">
+        <v>457</v>
+      </c>
+      <c r="D147" t="s">
+        <v>458</v>
+      </c>
+      <c r="E147" t="s">
+        <v>459</v>
+      </c>
+      <c r="F147">
+        <v>77347801</v>
+      </c>
+      <c r="G147" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" t="s">
+        <v>452</v>
+      </c>
+      <c r="K147" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>21805629</v>
+      </c>
+      <c r="B148" t="s">
+        <v>199</v>
+      </c>
+      <c r="C148" t="s">
+        <v>200</v>
+      </c>
+      <c r="D148" t="s">
+        <v>201</v>
+      </c>
+      <c r="E148" t="s">
+        <v>202</v>
+      </c>
+      <c r="G148" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148" t="s">
+        <v>452</v>
+      </c>
+      <c r="K148" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>19043153</v>
+      </c>
+      <c r="B149" t="s">
+        <v>203</v>
+      </c>
+      <c r="C149" t="s">
+        <v>204</v>
+      </c>
+      <c r="D149" t="s">
+        <v>205</v>
+      </c>
+      <c r="E149" t="s">
+        <v>206</v>
+      </c>
+      <c r="G149" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149" t="s">
+        <v>452</v>
+      </c>
+      <c r="K149" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>21049412</v>
+      </c>
+      <c r="B150" t="s">
+        <v>207</v>
+      </c>
+      <c r="C150" t="s">
+        <v>208</v>
+      </c>
+      <c r="D150" t="s">
+        <v>209</v>
+      </c>
+      <c r="E150" t="s">
+        <v>210</v>
+      </c>
+      <c r="F150">
+        <v>57198206</v>
+      </c>
+      <c r="G150" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" t="s">
+        <v>452</v>
+      </c>
+      <c r="K150" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>21040150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>211</v>
+      </c>
+      <c r="C151" t="s">
+        <v>212</v>
+      </c>
+      <c r="D151" t="s">
+        <v>213</v>
+      </c>
+      <c r="F151">
+        <v>85537348</v>
+      </c>
+      <c r="G151" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" t="s">
+        <v>452</v>
+      </c>
+      <c r="K151" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>20043307</v>
+      </c>
+      <c r="B152" t="s">
+        <v>214</v>
+      </c>
+      <c r="C152" t="s">
+        <v>215</v>
+      </c>
+      <c r="D152" t="s">
+        <v>216</v>
+      </c>
+      <c r="E152" t="s">
+        <v>217</v>
+      </c>
+      <c r="F152">
+        <v>86682920</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J152" t="s">
+        <v>452</v>
+      </c>
+      <c r="K152" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>21044870</v>
+      </c>
+      <c r="B153" t="s">
+        <v>218</v>
+      </c>
+      <c r="C153" t="s">
+        <v>219</v>
+      </c>
+      <c r="D153" t="s">
+        <v>220</v>
+      </c>
+      <c r="E153" t="s">
+        <v>221</v>
+      </c>
+      <c r="F153">
+        <v>81131129</v>
+      </c>
+      <c r="G153" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153" t="s">
+        <v>452</v>
+      </c>
+      <c r="K153" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>21041118</v>
+      </c>
+      <c r="B154" t="s">
+        <v>222</v>
+      </c>
+      <c r="C154" t="s">
+        <v>223</v>
+      </c>
+      <c r="D154" t="s">
+        <v>224</v>
+      </c>
+      <c r="E154" t="s">
+        <v>225</v>
+      </c>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" t="s">
+        <v>452</v>
+      </c>
+      <c r="K154" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>21050325</v>
+      </c>
+      <c r="B155" t="s">
+        <v>226</v>
+      </c>
+      <c r="C155" t="s">
+        <v>227</v>
+      </c>
+      <c r="D155" t="s">
+        <v>228</v>
+      </c>
+      <c r="E155" t="s">
+        <v>229</v>
+      </c>
+      <c r="F155">
+        <v>81658153</v>
+      </c>
+      <c r="G155" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" t="s">
+        <v>17</v>
+      </c>
+      <c r="J155" t="s">
+        <v>452</v>
+      </c>
+      <c r="K155" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>18042075</v>
+      </c>
+      <c r="B156" t="s">
+        <v>460</v>
+      </c>
+      <c r="C156" t="s">
+        <v>461</v>
+      </c>
+      <c r="D156" t="s">
+        <v>462</v>
+      </c>
+      <c r="G156" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" t="s">
+        <v>452</v>
+      </c>
+      <c r="K156" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>21045595</v>
+      </c>
+      <c r="B157" t="s">
+        <v>230</v>
+      </c>
+      <c r="C157" t="s">
+        <v>231</v>
+      </c>
+      <c r="D157" t="s">
+        <v>232</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" t="s">
+        <v>17</v>
+      </c>
+      <c r="J157" t="s">
+        <v>452</v>
+      </c>
+      <c r="K157" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>16043351</v>
+      </c>
+      <c r="B158" t="s">
+        <v>233</v>
+      </c>
+      <c r="C158" t="s">
+        <v>234</v>
+      </c>
+      <c r="D158" t="s">
+        <v>235</v>
+      </c>
+      <c r="E158" t="s">
+        <v>236</v>
+      </c>
+      <c r="F158">
+        <v>58870853</v>
+      </c>
+      <c r="G158" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" t="s">
+        <v>452</v>
+      </c>
+      <c r="K158" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>20050226</v>
+      </c>
+      <c r="B159" t="s">
+        <v>237</v>
+      </c>
+      <c r="C159" t="s">
+        <v>238</v>
+      </c>
+      <c r="D159" t="s">
+        <v>239</v>
+      </c>
+      <c r="E159" t="s">
+        <v>240</v>
+      </c>
+      <c r="F159">
+        <v>88288380</v>
+      </c>
+      <c r="G159" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" t="s">
+        <v>452</v>
+      </c>
+      <c r="K159" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>21050248</v>
+      </c>
+      <c r="B160" t="s">
+        <v>241</v>
+      </c>
+      <c r="C160" t="s">
+        <v>242</v>
+      </c>
+      <c r="D160" t="s">
+        <v>243</v>
+      </c>
+      <c r="E160" t="s">
+        <v>244</v>
+      </c>
+      <c r="G160" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" t="s">
+        <v>452</v>
+      </c>
+      <c r="K160" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>21047135</v>
+      </c>
+      <c r="B161" t="s">
+        <v>249</v>
+      </c>
+      <c r="C161" t="s">
+        <v>250</v>
+      </c>
+      <c r="D161" t="s">
+        <v>251</v>
+      </c>
+      <c r="E161" t="s">
+        <v>252</v>
+      </c>
+      <c r="F161">
+        <v>81081314</v>
+      </c>
+      <c r="G161" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" t="s">
+        <v>17</v>
+      </c>
+      <c r="J161" t="s">
+        <v>452</v>
+      </c>
+      <c r="K161" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>21040480</v>
+      </c>
+      <c r="B162" t="s">
+        <v>253</v>
+      </c>
+      <c r="C162" t="s">
+        <v>254</v>
+      </c>
+      <c r="D162" t="s">
+        <v>255</v>
+      </c>
+      <c r="E162" t="s">
+        <v>256</v>
+      </c>
+      <c r="F162">
+        <v>81082027</v>
+      </c>
+      <c r="G162" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" t="s">
+        <v>452</v>
+      </c>
+      <c r="K162" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>21907731</v>
+      </c>
+      <c r="B163" t="s">
+        <v>257</v>
+      </c>
+      <c r="C163" t="s">
+        <v>258</v>
+      </c>
+      <c r="D163" t="s">
+        <v>259</v>
+      </c>
+      <c r="E163" t="s">
+        <v>260</v>
+      </c>
+      <c r="F163">
+        <v>75026217</v>
+      </c>
+      <c r="G163" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" t="s">
+        <v>16</v>
+      </c>
+      <c r="I163" t="s">
+        <v>17</v>
+      </c>
+      <c r="J163" t="s">
+        <v>452</v>
+      </c>
+      <c r="K163" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>21043362</v>
+      </c>
+      <c r="B164" t="s">
+        <v>261</v>
+      </c>
+      <c r="C164" t="s">
+        <v>262</v>
+      </c>
+      <c r="D164" t="s">
+        <v>263</v>
+      </c>
+      <c r="E164" t="s">
+        <v>264</v>
+      </c>
+      <c r="F164">
+        <v>77930716</v>
+      </c>
+      <c r="G164" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" t="s">
+        <v>452</v>
+      </c>
+      <c r="K164" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>19041460</v>
+      </c>
+      <c r="B165" t="s">
+        <v>265</v>
+      </c>
+      <c r="C165" t="s">
+        <v>266</v>
+      </c>
+      <c r="D165" t="s">
+        <v>267</v>
+      </c>
+      <c r="E165" t="s">
+        <v>268</v>
+      </c>
+      <c r="G165" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" t="s">
+        <v>17</v>
+      </c>
+      <c r="J165" t="s">
+        <v>452</v>
+      </c>
+      <c r="K165" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>21040282</v>
+      </c>
+      <c r="B166" t="s">
+        <v>269</v>
+      </c>
+      <c r="C166" t="s">
+        <v>270</v>
+      </c>
+      <c r="D166" t="s">
+        <v>271</v>
+      </c>
+      <c r="E166" t="s">
+        <v>272</v>
+      </c>
+      <c r="G166" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" t="s">
+        <v>452</v>
+      </c>
+      <c r="K166" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>19043450</v>
+      </c>
+      <c r="B167" t="s">
+        <v>273</v>
+      </c>
+      <c r="C167" t="s">
+        <v>196</v>
+      </c>
+      <c r="D167" t="s">
+        <v>274</v>
+      </c>
+      <c r="E167" t="s">
+        <v>275</v>
+      </c>
+      <c r="F167">
+        <v>57265988</v>
+      </c>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" t="s">
+        <v>16</v>
+      </c>
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" t="s">
+        <v>452</v>
+      </c>
+      <c r="K167" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>21040348</v>
+      </c>
+      <c r="B168" t="s">
+        <v>276</v>
+      </c>
+      <c r="C168" t="s">
+        <v>277</v>
+      </c>
+      <c r="D168" t="s">
+        <v>278</v>
+      </c>
+      <c r="E168" t="s">
+        <v>279</v>
+      </c>
+      <c r="G168" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" t="s">
+        <v>452</v>
+      </c>
+      <c r="K168" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>20043351</v>
+      </c>
+      <c r="B169" t="s">
+        <v>463</v>
+      </c>
+      <c r="C169" t="s">
+        <v>464</v>
+      </c>
+      <c r="D169" t="s">
+        <v>465</v>
+      </c>
+      <c r="E169" t="s">
+        <v>466</v>
+      </c>
+      <c r="F169">
+        <v>81614479</v>
+      </c>
+      <c r="G169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" t="s">
+        <v>452</v>
+      </c>
+      <c r="K169" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>17801889</v>
+      </c>
+      <c r="B170" t="s">
+        <v>280</v>
+      </c>
+      <c r="C170" t="s">
+        <v>281</v>
+      </c>
+      <c r="D170" t="s">
+        <v>282</v>
+      </c>
+      <c r="E170" t="s">
+        <v>283</v>
+      </c>
+      <c r="F170">
+        <v>58043299</v>
+      </c>
+      <c r="G170" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" t="s">
+        <v>17</v>
+      </c>
+      <c r="J170" t="s">
+        <v>452</v>
+      </c>
+      <c r="K170" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>18042141</v>
+      </c>
+      <c r="B171" t="s">
+        <v>288</v>
+      </c>
+      <c r="C171" t="s">
+        <v>289</v>
+      </c>
+      <c r="D171" t="s">
+        <v>290</v>
+      </c>
+      <c r="E171" t="s">
+        <v>291</v>
+      </c>
+      <c r="G171" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" t="s">
+        <v>16</v>
+      </c>
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" t="s">
+        <v>452</v>
+      </c>
+      <c r="K171" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>19043440</v>
+      </c>
+      <c r="B172" t="s">
+        <v>292</v>
+      </c>
+      <c r="C172" t="s">
+        <v>293</v>
+      </c>
+      <c r="D172" t="s">
+        <v>294</v>
+      </c>
+      <c r="E172" t="s">
+        <v>295</v>
+      </c>
+      <c r="F172">
+        <v>58525214</v>
+      </c>
+      <c r="G172" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" t="s">
+        <v>16</v>
+      </c>
+      <c r="I172" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172" t="s">
+        <v>452</v>
+      </c>
+      <c r="K172" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>19043197</v>
+      </c>
+      <c r="B173" t="s">
+        <v>467</v>
+      </c>
+      <c r="C173" t="s">
+        <v>468</v>
+      </c>
+      <c r="D173" t="s">
+        <v>469</v>
+      </c>
+      <c r="E173" t="s">
+        <v>470</v>
+      </c>
+      <c r="F173">
+        <v>76367710</v>
+      </c>
+      <c r="G173" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173" t="s">
+        <v>16</v>
+      </c>
+      <c r="I173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" t="s">
+        <v>452</v>
+      </c>
+      <c r="K173" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>21041701</v>
+      </c>
+      <c r="B174" t="s">
+        <v>300</v>
+      </c>
+      <c r="C174" t="s">
+        <v>301</v>
+      </c>
+      <c r="D174" t="s">
+        <v>302</v>
+      </c>
+      <c r="E174" t="s">
+        <v>303</v>
+      </c>
+      <c r="F174">
+        <v>78244787</v>
+      </c>
+      <c r="G174" t="s">
+        <v>15</v>
+      </c>
+      <c r="H174" t="s">
+        <v>16</v>
+      </c>
+      <c r="I174" t="s">
+        <v>17</v>
+      </c>
+      <c r="J174" t="s">
+        <v>452</v>
+      </c>
+      <c r="K174" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contrasena.xlsx
+++ b/contrasena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solis\Desktop\ApiClave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3DB9CB-36C1-4BE9-9CF2-AA918302C890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEE85A9-0D86-48A5-BABC-F8049619B4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15019" uniqueCount="6974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15170" uniqueCount="7117">
   <si>
     <t>Carnet</t>
   </si>
@@ -20942,6 +20942,435 @@
   </si>
   <si>
     <t>Bnwyd0324-</t>
+  </si>
+  <si>
+    <t>Whpib7642*</t>
+  </si>
+  <si>
+    <t>KELLY CRISTINA</t>
+  </si>
+  <si>
+    <t>ACEVEDO SANDOVAL</t>
+  </si>
+  <si>
+    <t>Wizwx1289,</t>
+  </si>
+  <si>
+    <t>CRISTOFER ARMANDO</t>
+  </si>
+  <si>
+    <t>AGUIRRE ROMERO</t>
+  </si>
+  <si>
+    <t>Eskrz6582,</t>
+  </si>
+  <si>
+    <t>ANGEL ISAAC</t>
+  </si>
+  <si>
+    <t>AREAS GARCIA</t>
+  </si>
+  <si>
+    <t>Rqkoa3294*</t>
+  </si>
+  <si>
+    <t>AREVALO MORALES</t>
+  </si>
+  <si>
+    <t>Thofb9078-</t>
+  </si>
+  <si>
+    <t>URIEL ERNESTO</t>
+  </si>
+  <si>
+    <t>BERMUDEZ GUEVARA</t>
+  </si>
+  <si>
+    <t>Rzdsb9456+</t>
+  </si>
+  <si>
+    <t>CALERO PILARTE</t>
+  </si>
+  <si>
+    <t>Hyznk9438/</t>
+  </si>
+  <si>
+    <t>FRANK CARLOS</t>
+  </si>
+  <si>
+    <t>Wbixt6018,</t>
+  </si>
+  <si>
+    <t>BRISA SINAI</t>
+  </si>
+  <si>
+    <t>CASTLLO REYES</t>
+  </si>
+  <si>
+    <t>Mhywo8204.</t>
+  </si>
+  <si>
+    <t>ANGIE TATIANA</t>
+  </si>
+  <si>
+    <t>CASTRO CABRERA</t>
+  </si>
+  <si>
+    <t>Bgmhb1738,</t>
+  </si>
+  <si>
+    <t>COREA ROCHA</t>
+  </si>
+  <si>
+    <t>Ulyah6841.</t>
+  </si>
+  <si>
+    <t>CUADRA ZAVALA</t>
+  </si>
+  <si>
+    <t>Xavkj1097,</t>
+  </si>
+  <si>
+    <t>JARED ANDRES</t>
+  </si>
+  <si>
+    <t>ESTRADA SANCHEZ</t>
+  </si>
+  <si>
+    <t>Eoydl8264-</t>
+  </si>
+  <si>
+    <t>NATALIA MARGARITA</t>
+  </si>
+  <si>
+    <t>FLORES ROSALES</t>
+  </si>
+  <si>
+    <t>Slmkb3827.</t>
+  </si>
+  <si>
+    <t>HERNALDO ANTONIO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>Vwxfu7312*</t>
+  </si>
+  <si>
+    <t>EMILY NATASHA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ CRUZ</t>
+  </si>
+  <si>
+    <t>Cynmo0293*</t>
+  </si>
+  <si>
+    <t>LESTHER ALEXANDER</t>
+  </si>
+  <si>
+    <t>GUTIERREZ GUERRERO</t>
+  </si>
+  <si>
+    <t>lesthergut2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Xcnay3476-</t>
+  </si>
+  <si>
+    <t>ANDREA MONTSERRAT</t>
+  </si>
+  <si>
+    <t>HENRIQUEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>Reyvu0231,</t>
+  </si>
+  <si>
+    <t>CRISTOPHER JOSUE</t>
+  </si>
+  <si>
+    <t>HERNANDEZ MEJIA</t>
+  </si>
+  <si>
+    <t>Vwbrd5072,</t>
+  </si>
+  <si>
+    <t>MATHÍAS DANIEL</t>
+  </si>
+  <si>
+    <t>HERNANDEZ SILVA</t>
+  </si>
+  <si>
+    <t>Jxrpl2864.</t>
+  </si>
+  <si>
+    <t>ASHAYA ANIEL</t>
+  </si>
+  <si>
+    <t>JOSEPH FOX</t>
+  </si>
+  <si>
+    <t>Geyhr3024/</t>
+  </si>
+  <si>
+    <t>MILAGROS DEL CARMEN</t>
+  </si>
+  <si>
+    <t>LATINO VASQUEZ</t>
+  </si>
+  <si>
+    <t>Dclqw9827*</t>
+  </si>
+  <si>
+    <t>CLAUDIA REBECA</t>
+  </si>
+  <si>
+    <t>LIRA ESTRADA</t>
+  </si>
+  <si>
+    <t>Vjlgx2683*</t>
+  </si>
+  <si>
+    <t>NADIUSKA VANESSA</t>
+  </si>
+  <si>
+    <t>LOPEZ FONSECA</t>
+  </si>
+  <si>
+    <t>Tjcby5801-</t>
+  </si>
+  <si>
+    <t>LESLI DAYANA</t>
+  </si>
+  <si>
+    <t>LOPEZ LINDO</t>
+  </si>
+  <si>
+    <t>Gdhpr0176-</t>
+  </si>
+  <si>
+    <t>JANNETH AMPARO</t>
+  </si>
+  <si>
+    <t>LUNA DELGADILLO</t>
+  </si>
+  <si>
+    <t>Isgeb3756/</t>
+  </si>
+  <si>
+    <t>MAJANO PINEDA</t>
+  </si>
+  <si>
+    <t>Xgfyw7861-</t>
+  </si>
+  <si>
+    <t>NAOMI LISSETTE</t>
+  </si>
+  <si>
+    <t>MEJIA ALVEAR</t>
+  </si>
+  <si>
+    <t>Kkxwp9145/</t>
+  </si>
+  <si>
+    <t>BRUNO DAVID</t>
+  </si>
+  <si>
+    <t>MEJIA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>Ssgeq1750-</t>
+  </si>
+  <si>
+    <t>ESTEFANI DAYANA</t>
+  </si>
+  <si>
+    <t>MEZA CALERO</t>
+  </si>
+  <si>
+    <t>Bilma3729-</t>
+  </si>
+  <si>
+    <t>CRISTHEL JERANIA</t>
+  </si>
+  <si>
+    <t>MONTENEGRO GONZALEZ</t>
+  </si>
+  <si>
+    <t>Nwflu7012.</t>
+  </si>
+  <si>
+    <t>ABDIEL ANTONIO</t>
+  </si>
+  <si>
+    <t>MORA BEJARANO</t>
+  </si>
+  <si>
+    <t>Lnked7326,</t>
+  </si>
+  <si>
+    <t>JANARIT MARCELA</t>
+  </si>
+  <si>
+    <t>MORALES SANTANA</t>
+  </si>
+  <si>
+    <t>Rvmon1934.</t>
+  </si>
+  <si>
+    <t>NASSLY JULIETH</t>
+  </si>
+  <si>
+    <t>MORENO</t>
+  </si>
+  <si>
+    <t>Pkzci4213/</t>
+  </si>
+  <si>
+    <t>TIFFANY ALEXANDRA</t>
+  </si>
+  <si>
+    <t>PADILLA MAYORGA</t>
+  </si>
+  <si>
+    <t>Opawu6901+</t>
+  </si>
+  <si>
+    <t>MICHELLE FERNANDA</t>
+  </si>
+  <si>
+    <t>PEREZ OROZCO</t>
+  </si>
+  <si>
+    <t>Ezavj1320+</t>
+  </si>
+  <si>
+    <t>PEÑA SOTELO</t>
+  </si>
+  <si>
+    <t>Hnepl1608,</t>
+  </si>
+  <si>
+    <t>JUNIELKA LUCIA</t>
+  </si>
+  <si>
+    <t>PICADO DUARTE</t>
+  </si>
+  <si>
+    <t>Kxjdi0178.</t>
+  </si>
+  <si>
+    <t>GENESIS DAYANA</t>
+  </si>
+  <si>
+    <t>RAYO ALEMAN</t>
+  </si>
+  <si>
+    <t>Lblct3047-</t>
+  </si>
+  <si>
+    <t>LISBET ESTEFANI</t>
+  </si>
+  <si>
+    <t>RUIZ GUEVARA</t>
+  </si>
+  <si>
+    <t>Oznuf3217*</t>
+  </si>
+  <si>
+    <t>JULIESKA ISAYANA</t>
+  </si>
+  <si>
+    <t>Ybxrq7165,</t>
+  </si>
+  <si>
+    <t>KEYLA RASHELL</t>
+  </si>
+  <si>
+    <t>RUIZ LOPEZ</t>
+  </si>
+  <si>
+    <t>Xanyh5160,</t>
+  </si>
+  <si>
+    <t>YERLIN</t>
+  </si>
+  <si>
+    <t>SALINAS ACEVEDO</t>
+  </si>
+  <si>
+    <t>Kroke5341.</t>
+  </si>
+  <si>
+    <t>JAIDER JASSIER</t>
+  </si>
+  <si>
+    <t>SUAREZ MARADIAGA</t>
+  </si>
+  <si>
+    <t>Xyraf5608/</t>
+  </si>
+  <si>
+    <t>STEFANIE REBECA</t>
+  </si>
+  <si>
+    <t>TIJERINO MARTINEZ</t>
+  </si>
+  <si>
+    <t>Dhfie4207*</t>
+  </si>
+  <si>
+    <t>WALTER SAMUEL</t>
+  </si>
+  <si>
+    <t>TRAÑA GRANADO</t>
+  </si>
+  <si>
+    <t>Avwil7803-</t>
+  </si>
+  <si>
+    <t>YESIKA SULEY</t>
+  </si>
+  <si>
+    <t>VALDIVIA MARENCO</t>
+  </si>
+  <si>
+    <t>Wucjp4623.</t>
+  </si>
+  <si>
+    <t>MILAGROS MADELEYDI</t>
+  </si>
+  <si>
+    <t>VALLEJOS GONZALEZ</t>
+  </si>
+  <si>
+    <t>Lsyqh9162+</t>
+  </si>
+  <si>
+    <t>SHARON YOBELKIS</t>
+  </si>
+  <si>
+    <t>VASQUEZ ARROLIGA</t>
+  </si>
+  <si>
+    <t>Ncnvd3872.</t>
+  </si>
+  <si>
+    <t>ANGEL JOSUE</t>
+  </si>
+  <si>
+    <t>ZAMORA ALEMAN</t>
+  </si>
+  <si>
+    <t>Yxijb2468+</t>
+  </si>
+  <si>
+    <t>PAMELA GISSELLE</t>
+  </si>
+  <si>
+    <t>ZELEDON SOLIS</t>
   </si>
 </sst>
 </file>
@@ -21309,10 +21738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4996"/>
+  <dimension ref="A1:E5046"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A489" workbookViewId="0">
-      <selection activeCell="A511" sqref="A511"/>
+    <sheetView tabSelected="1" topLeftCell="A4830" workbookViewId="0">
+      <selection activeCell="F4974" sqref="F1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -91264,6 +91693,709 @@
         <v>6100</v>
       </c>
     </row>
+    <row r="4997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4997">
+        <v>25202752</v>
+      </c>
+      <c r="B4997" t="s">
+        <v>6974</v>
+      </c>
+      <c r="C4997" t="s">
+        <v>6975</v>
+      </c>
+      <c r="D4997" t="s">
+        <v>6976</v>
+      </c>
+    </row>
+    <row r="4998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4998">
+        <v>25215050</v>
+      </c>
+      <c r="B4998" t="s">
+        <v>6977</v>
+      </c>
+      <c r="C4998" t="s">
+        <v>6978</v>
+      </c>
+      <c r="D4998" t="s">
+        <v>6979</v>
+      </c>
+    </row>
+    <row r="4999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4999">
+        <v>25210067</v>
+      </c>
+      <c r="B4999" t="s">
+        <v>6980</v>
+      </c>
+      <c r="C4999" t="s">
+        <v>6981</v>
+      </c>
+      <c r="D4999" t="s">
+        <v>6982</v>
+      </c>
+    </row>
+    <row r="5000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5000">
+        <v>25204292</v>
+      </c>
+      <c r="B5000" t="s">
+        <v>6983</v>
+      </c>
+      <c r="C5000" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D5000" t="s">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="5001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5001">
+        <v>25210595</v>
+      </c>
+      <c r="B5001" t="s">
+        <v>6985</v>
+      </c>
+      <c r="C5001" t="s">
+        <v>6986</v>
+      </c>
+      <c r="D5001" t="s">
+        <v>6987</v>
+      </c>
+    </row>
+    <row r="5002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5002">
+        <v>25214324</v>
+      </c>
+      <c r="B5002" t="s">
+        <v>6988</v>
+      </c>
+      <c r="C5002" t="s">
+        <v>3563</v>
+      </c>
+      <c r="D5002" t="s">
+        <v>6989</v>
+      </c>
+    </row>
+    <row r="5003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5003">
+        <v>25211717</v>
+      </c>
+      <c r="B5003" t="s">
+        <v>6990</v>
+      </c>
+      <c r="C5003" t="s">
+        <v>6991</v>
+      </c>
+      <c r="D5003" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="5004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5004">
+        <v>25202620</v>
+      </c>
+      <c r="B5004" t="s">
+        <v>6992</v>
+      </c>
+      <c r="C5004" t="s">
+        <v>6993</v>
+      </c>
+      <c r="D5004" t="s">
+        <v>6994</v>
+      </c>
+    </row>
+    <row r="5005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5005">
+        <v>25207834</v>
+      </c>
+      <c r="B5005" t="s">
+        <v>6995</v>
+      </c>
+      <c r="C5005" t="s">
+        <v>6996</v>
+      </c>
+      <c r="D5005" t="s">
+        <v>6997</v>
+      </c>
+    </row>
+    <row r="5006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5006">
+        <v>25200299</v>
+      </c>
+      <c r="B5006" t="s">
+        <v>6998</v>
+      </c>
+      <c r="C5006" t="s">
+        <v>5153</v>
+      </c>
+      <c r="D5006" t="s">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="5007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5007">
+        <v>25209132</v>
+      </c>
+      <c r="B5007" t="s">
+        <v>7000</v>
+      </c>
+      <c r="C5007" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D5007" t="s">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="5008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5008">
+        <v>25214710</v>
+      </c>
+      <c r="B5008" t="s">
+        <v>7002</v>
+      </c>
+      <c r="C5008" t="s">
+        <v>7003</v>
+      </c>
+      <c r="D5008" t="s">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="5009" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5009">
+        <v>25208032</v>
+      </c>
+      <c r="B5009" t="s">
+        <v>7005</v>
+      </c>
+      <c r="C5009" t="s">
+        <v>7006</v>
+      </c>
+      <c r="D5009" t="s">
+        <v>7007</v>
+      </c>
+    </row>
+    <row r="5010" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5010">
+        <v>25210287</v>
+      </c>
+      <c r="B5010" t="s">
+        <v>7008</v>
+      </c>
+      <c r="C5010" t="s">
+        <v>7009</v>
+      </c>
+      <c r="D5010" t="s">
+        <v>7010</v>
+      </c>
+    </row>
+    <row r="5011" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5011">
+        <v>25201080</v>
+      </c>
+      <c r="B5011" t="s">
+        <v>7011</v>
+      </c>
+      <c r="C5011" t="s">
+        <v>7012</v>
+      </c>
+      <c r="D5011" t="s">
+        <v>7013</v>
+      </c>
+    </row>
+    <row r="5012" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5012">
+        <v>20046002</v>
+      </c>
+      <c r="B5012" t="s">
+        <v>7014</v>
+      </c>
+      <c r="C5012" t="s">
+        <v>7015</v>
+      </c>
+      <c r="D5012" t="s">
+        <v>7016</v>
+      </c>
+      <c r="E5012" t="s">
+        <v>7017</v>
+      </c>
+    </row>
+    <row r="5013" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5013">
+        <v>25208043</v>
+      </c>
+      <c r="B5013" t="s">
+        <v>7018</v>
+      </c>
+      <c r="C5013" t="s">
+        <v>7019</v>
+      </c>
+      <c r="D5013" t="s">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="5014" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5014">
+        <v>25211101</v>
+      </c>
+      <c r="B5014" t="s">
+        <v>7021</v>
+      </c>
+      <c r="C5014" t="s">
+        <v>7022</v>
+      </c>
+      <c r="D5014" t="s">
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="5015" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5015">
+        <v>25204765</v>
+      </c>
+      <c r="B5015" t="s">
+        <v>7024</v>
+      </c>
+      <c r="C5015" t="s">
+        <v>7025</v>
+      </c>
+      <c r="D5015" t="s">
+        <v>7026</v>
+      </c>
+    </row>
+    <row r="5016" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5016">
+        <v>25013090</v>
+      </c>
+      <c r="B5016" t="s">
+        <v>7027</v>
+      </c>
+      <c r="C5016" t="s">
+        <v>7028</v>
+      </c>
+      <c r="D5016" t="s">
+        <v>7029</v>
+      </c>
+    </row>
+    <row r="5017" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5017">
+        <v>25201465</v>
+      </c>
+      <c r="B5017" t="s">
+        <v>7030</v>
+      </c>
+      <c r="C5017" t="s">
+        <v>7031</v>
+      </c>
+      <c r="D5017" t="s">
+        <v>7032</v>
+      </c>
+    </row>
+    <row r="5018" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5018">
+        <v>25213466</v>
+      </c>
+      <c r="B5018" t="s">
+        <v>7033</v>
+      </c>
+      <c r="C5018" t="s">
+        <v>7034</v>
+      </c>
+      <c r="D5018" t="s">
+        <v>7035</v>
+      </c>
+    </row>
+    <row r="5019" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5019">
+        <v>25202510</v>
+      </c>
+      <c r="B5019" t="s">
+        <v>7036</v>
+      </c>
+      <c r="C5019" t="s">
+        <v>7037</v>
+      </c>
+      <c r="D5019" t="s">
+        <v>7038</v>
+      </c>
+    </row>
+    <row r="5020" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5020">
+        <v>25210771</v>
+      </c>
+      <c r="B5020" t="s">
+        <v>7039</v>
+      </c>
+      <c r="C5020" t="s">
+        <v>7040</v>
+      </c>
+      <c r="D5020" t="s">
+        <v>7041</v>
+      </c>
+    </row>
+    <row r="5021" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5021">
+        <v>25200651</v>
+      </c>
+      <c r="B5021" t="s">
+        <v>7042</v>
+      </c>
+      <c r="C5021" t="s">
+        <v>7043</v>
+      </c>
+      <c r="D5021" t="s">
+        <v>7044</v>
+      </c>
+    </row>
+    <row r="5022" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5022">
+        <v>25201443</v>
+      </c>
+      <c r="B5022" t="s">
+        <v>7045</v>
+      </c>
+      <c r="C5022" t="s">
+        <v>6435</v>
+      </c>
+      <c r="D5022" t="s">
+        <v>7046</v>
+      </c>
+    </row>
+    <row r="5023" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5023">
+        <v>25211024</v>
+      </c>
+      <c r="B5023" t="s">
+        <v>7047</v>
+      </c>
+      <c r="C5023" t="s">
+        <v>7048</v>
+      </c>
+      <c r="D5023" t="s">
+        <v>7049</v>
+      </c>
+    </row>
+    <row r="5024" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5024">
+        <v>25201135</v>
+      </c>
+      <c r="B5024" t="s">
+        <v>7050</v>
+      </c>
+      <c r="C5024" t="s">
+        <v>7051</v>
+      </c>
+      <c r="D5024" t="s">
+        <v>7052</v>
+      </c>
+    </row>
+    <row r="5025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5025">
+        <v>25211420</v>
+      </c>
+      <c r="B5025" t="s">
+        <v>7053</v>
+      </c>
+      <c r="C5025" t="s">
+        <v>7054</v>
+      </c>
+      <c r="D5025" t="s">
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="5026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5026">
+        <v>25211520</v>
+      </c>
+      <c r="B5026" t="s">
+        <v>7056</v>
+      </c>
+      <c r="C5026" t="s">
+        <v>7057</v>
+      </c>
+      <c r="D5026" t="s">
+        <v>7058</v>
+      </c>
+    </row>
+    <row r="5027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5027">
+        <v>25207295</v>
+      </c>
+      <c r="B5027" t="s">
+        <v>7059</v>
+      </c>
+      <c r="C5027" t="s">
+        <v>7060</v>
+      </c>
+      <c r="D5027" t="s">
+        <v>7061</v>
+      </c>
+    </row>
+    <row r="5028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5028">
+        <v>25204028</v>
+      </c>
+      <c r="B5028" t="s">
+        <v>7062</v>
+      </c>
+      <c r="C5028" t="s">
+        <v>7063</v>
+      </c>
+      <c r="D5028" t="s">
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="5029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5029">
+        <v>25207999</v>
+      </c>
+      <c r="B5029" t="s">
+        <v>7065</v>
+      </c>
+      <c r="C5029" t="s">
+        <v>7066</v>
+      </c>
+      <c r="D5029" t="s">
+        <v>7067</v>
+      </c>
+    </row>
+    <row r="5030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5030">
+        <v>25210463</v>
+      </c>
+      <c r="B5030" t="s">
+        <v>7068</v>
+      </c>
+      <c r="C5030" t="s">
+        <v>7069</v>
+      </c>
+      <c r="D5030" t="s">
+        <v>7070</v>
+      </c>
+    </row>
+    <row r="5031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5031">
+        <v>25211816</v>
+      </c>
+      <c r="B5031" t="s">
+        <v>7071</v>
+      </c>
+      <c r="C5031" t="s">
+        <v>7072</v>
+      </c>
+      <c r="D5031" t="s">
+        <v>7073</v>
+      </c>
+    </row>
+    <row r="5032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5032">
+        <v>25201410</v>
+      </c>
+      <c r="B5032" t="s">
+        <v>7074</v>
+      </c>
+      <c r="C5032" t="s">
+        <v>3566</v>
+      </c>
+      <c r="D5032" t="s">
+        <v>7075</v>
+      </c>
+    </row>
+    <row r="5033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5033">
+        <v>25210397</v>
+      </c>
+      <c r="B5033" t="s">
+        <v>7076</v>
+      </c>
+      <c r="C5033" t="s">
+        <v>7077</v>
+      </c>
+      <c r="D5033" t="s">
+        <v>7078</v>
+      </c>
+    </row>
+    <row r="5034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5034">
+        <v>25202554</v>
+      </c>
+      <c r="B5034" t="s">
+        <v>7079</v>
+      </c>
+      <c r="C5034" t="s">
+        <v>7080</v>
+      </c>
+      <c r="D5034" t="s">
+        <v>7081</v>
+      </c>
+    </row>
+    <row r="5035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5035">
+        <v>25613635</v>
+      </c>
+      <c r="B5035" t="s">
+        <v>7082</v>
+      </c>
+      <c r="C5035" t="s">
+        <v>7083</v>
+      </c>
+      <c r="D5035" t="s">
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="5036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5036">
+        <v>25212806</v>
+      </c>
+      <c r="B5036" t="s">
+        <v>7085</v>
+      </c>
+      <c r="C5036" t="s">
+        <v>7086</v>
+      </c>
+      <c r="D5036" t="s">
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="5037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5037">
+        <v>25206723</v>
+      </c>
+      <c r="B5037" t="s">
+        <v>7087</v>
+      </c>
+      <c r="C5037" t="s">
+        <v>7088</v>
+      </c>
+      <c r="D5037" t="s">
+        <v>7089</v>
+      </c>
+    </row>
+    <row r="5038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5038">
+        <v>25211541</v>
+      </c>
+      <c r="B5038" t="s">
+        <v>7090</v>
+      </c>
+      <c r="C5038" t="s">
+        <v>7091</v>
+      </c>
+      <c r="D5038" t="s">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="5039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5039">
+        <v>25209044</v>
+      </c>
+      <c r="B5039" t="s">
+        <v>7093</v>
+      </c>
+      <c r="C5039" t="s">
+        <v>7094</v>
+      </c>
+      <c r="D5039" t="s">
+        <v>7095</v>
+      </c>
+    </row>
+    <row r="5040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5040">
+        <v>25208582</v>
+      </c>
+      <c r="B5040" t="s">
+        <v>7096</v>
+      </c>
+      <c r="C5040" t="s">
+        <v>7097</v>
+      </c>
+      <c r="D5040" t="s">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="5041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5041">
+        <v>25200080</v>
+      </c>
+      <c r="B5041" t="s">
+        <v>7099</v>
+      </c>
+      <c r="C5041" t="s">
+        <v>7100</v>
+      </c>
+      <c r="D5041" t="s">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="5042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5042">
+        <v>25218713</v>
+      </c>
+      <c r="B5042" t="s">
+        <v>7102</v>
+      </c>
+      <c r="C5042" t="s">
+        <v>7103</v>
+      </c>
+      <c r="D5042" t="s">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="5043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5043">
+        <v>23206734</v>
+      </c>
+      <c r="B5043" t="s">
+        <v>7105</v>
+      </c>
+      <c r="C5043" t="s">
+        <v>7106</v>
+      </c>
+      <c r="D5043" t="s">
+        <v>7107</v>
+      </c>
+    </row>
+    <row r="5044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5044">
+        <v>25213741</v>
+      </c>
+      <c r="B5044" t="s">
+        <v>7108</v>
+      </c>
+      <c r="C5044" t="s">
+        <v>7109</v>
+      </c>
+      <c r="D5044" t="s">
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="5045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5045">
+        <v>25204787</v>
+      </c>
+      <c r="B5045" t="s">
+        <v>7111</v>
+      </c>
+      <c r="C5045" t="s">
+        <v>7112</v>
+      </c>
+      <c r="D5045" t="s">
+        <v>7113</v>
+      </c>
+    </row>
+    <row r="5046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5046">
+        <v>24207669</v>
+      </c>
+      <c r="B5046" t="s">
+        <v>7114</v>
+      </c>
+      <c r="C5046" t="s">
+        <v>7115</v>
+      </c>
+      <c r="D5046" t="s">
+        <v>7116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contrasena.xlsx
+++ b/contrasena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solis\Desktop\ApiClave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEE85A9-0D86-48A5-BABC-F8049619B4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2EC09F-10BD-412A-8112-536A526D7BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15170" uniqueCount="7117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15473" uniqueCount="7398">
   <si>
     <t>Carnet</t>
   </si>
@@ -21371,6 +21371,849 @@
   </si>
   <si>
     <t>ZELEDON SOLIS</t>
+  </si>
+  <si>
+    <t>Asmuj9148.</t>
+  </si>
+  <si>
+    <t>MARBELLY DEL CARMEN</t>
+  </si>
+  <si>
+    <t>ACEVEDO BARBOZA</t>
+  </si>
+  <si>
+    <t>Nnaij9603+</t>
+  </si>
+  <si>
+    <t>NATHALY KARINNE</t>
+  </si>
+  <si>
+    <t>AMPIE ROJAS</t>
+  </si>
+  <si>
+    <t>Rkvfj5932*</t>
+  </si>
+  <si>
+    <t>ALISON DAYANNA</t>
+  </si>
+  <si>
+    <t>BLANCO CACERES</t>
+  </si>
+  <si>
+    <t>Pfvyj2809,</t>
+  </si>
+  <si>
+    <t>GEORGIA DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>CANDA MOLINA</t>
+  </si>
+  <si>
+    <t>Hfbdp3578,</t>
+  </si>
+  <si>
+    <t>CASTRO URBINA</t>
+  </si>
+  <si>
+    <t>Kyanm7042.</t>
+  </si>
+  <si>
+    <t>ASHLY STEFANY</t>
+  </si>
+  <si>
+    <t>COCA MEMBREÑO</t>
+  </si>
+  <si>
+    <t>Ujzvm6134-</t>
+  </si>
+  <si>
+    <t>MARÍA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>DÍAZ MORALES</t>
+  </si>
+  <si>
+    <t>Pustd9034.</t>
+  </si>
+  <si>
+    <t>SOCORRO DEL CARMEN</t>
+  </si>
+  <si>
+    <t>ESPINALES PERALTA</t>
+  </si>
+  <si>
+    <t>Fzrbi5769-</t>
+  </si>
+  <si>
+    <t>Rvjwt1607.</t>
+  </si>
+  <si>
+    <t>BYRON EMMANUEL</t>
+  </si>
+  <si>
+    <t>GAITAN MERCADO</t>
+  </si>
+  <si>
+    <t>Jngus0869.</t>
+  </si>
+  <si>
+    <t>DANMARA MELISSA</t>
+  </si>
+  <si>
+    <t>Zqftb3792-</t>
+  </si>
+  <si>
+    <t>JILL ALEJANRA</t>
+  </si>
+  <si>
+    <t>Tzyfv1857+</t>
+  </si>
+  <si>
+    <t>BRAYAN JAVIER</t>
+  </si>
+  <si>
+    <t>GOMEZ ROCHA</t>
+  </si>
+  <si>
+    <t>Ysgye8694-</t>
+  </si>
+  <si>
+    <t>DANIEL ANTONIO</t>
+  </si>
+  <si>
+    <t>GUADAMUZ CANTILLANO</t>
+  </si>
+  <si>
+    <t>Yolxv3864*</t>
+  </si>
+  <si>
+    <t>GUERRERO ARAQUE</t>
+  </si>
+  <si>
+    <t>Kvniu8625*</t>
+  </si>
+  <si>
+    <t>NAOMI ANAYELI</t>
+  </si>
+  <si>
+    <t>HERNANDEZ BALMACEDA</t>
+  </si>
+  <si>
+    <t>Vbkvs8703.</t>
+  </si>
+  <si>
+    <t>HERNANDEZ GUADAMUZ</t>
+  </si>
+  <si>
+    <t>Lxgdr7890/</t>
+  </si>
+  <si>
+    <t>GENESIS SARAHI</t>
+  </si>
+  <si>
+    <t>HERRERA QUIROZ</t>
+  </si>
+  <si>
+    <t>Eyzsc6451,</t>
+  </si>
+  <si>
+    <t>XOCHILT MARIA</t>
+  </si>
+  <si>
+    <t>HIDALGO AGUILAR</t>
+  </si>
+  <si>
+    <t>Fdakz7623-</t>
+  </si>
+  <si>
+    <t>AUXILIADORA VANESSA</t>
+  </si>
+  <si>
+    <t>IZQUIERDO MORALES</t>
+  </si>
+  <si>
+    <t>Mejby4786*</t>
+  </si>
+  <si>
+    <t>JONATAN GAMALIEL</t>
+  </si>
+  <si>
+    <t>LARA ESPINOZA</t>
+  </si>
+  <si>
+    <t>Dznhf7543+</t>
+  </si>
+  <si>
+    <t>JESSICA DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>LATINO</t>
+  </si>
+  <si>
+    <t>Wxwkt0198+</t>
+  </si>
+  <si>
+    <t>MERY ELIZABETH</t>
+  </si>
+  <si>
+    <t>LOPEZ CARCAMO</t>
+  </si>
+  <si>
+    <t>Crvgq7243/</t>
+  </si>
+  <si>
+    <t>HANZELL DAVID</t>
+  </si>
+  <si>
+    <t>LOPEZ CARMONA</t>
+  </si>
+  <si>
+    <t>Zpvar5601-</t>
+  </si>
+  <si>
+    <t>JONATHAN PAUL</t>
+  </si>
+  <si>
+    <t>MEZA MORALES</t>
+  </si>
+  <si>
+    <t>Bctmf9452-</t>
+  </si>
+  <si>
+    <t>MORA TIJERINO</t>
+  </si>
+  <si>
+    <t>Fsnub4586-</t>
+  </si>
+  <si>
+    <t>LIGIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>MORALES AGUILAR</t>
+  </si>
+  <si>
+    <t>Oeckx9034,</t>
+  </si>
+  <si>
+    <t>MUNGUIA ACUÑA</t>
+  </si>
+  <si>
+    <t>Yfnoq9120-</t>
+  </si>
+  <si>
+    <t>BRYAN ALEXANDER</t>
+  </si>
+  <si>
+    <t>NARVAEZ CALERO</t>
+  </si>
+  <si>
+    <t>Binml7613,</t>
+  </si>
+  <si>
+    <t>VILMARYS DE JESUS</t>
+  </si>
+  <si>
+    <t>OBANDO MONCADA</t>
+  </si>
+  <si>
+    <t>Jtdrx7012/</t>
+  </si>
+  <si>
+    <t>SHERLING ATZIRI</t>
+  </si>
+  <si>
+    <t>PARAMO LOPEZ</t>
+  </si>
+  <si>
+    <t>Hpjcm3714.</t>
+  </si>
+  <si>
+    <t>PAVON RIVAS</t>
+  </si>
+  <si>
+    <t>Cuaih6138.</t>
+  </si>
+  <si>
+    <t>SARA RAQUEL</t>
+  </si>
+  <si>
+    <t>PRADO</t>
+  </si>
+  <si>
+    <t>Qodmg8570.</t>
+  </si>
+  <si>
+    <t>MARTHA LUCIA</t>
+  </si>
+  <si>
+    <t>REYES GONZALEZ</t>
+  </si>
+  <si>
+    <t>Krftg1879/</t>
+  </si>
+  <si>
+    <t>KIARA DEL SOCORRO</t>
+  </si>
+  <si>
+    <t>ROCHA JARQUIN</t>
+  </si>
+  <si>
+    <t>Ziplq5248.</t>
+  </si>
+  <si>
+    <t>LILLIAN CAROLA</t>
+  </si>
+  <si>
+    <t>Brjzh7601.</t>
+  </si>
+  <si>
+    <t>JACQUELINE VANESSA</t>
+  </si>
+  <si>
+    <t>ROMERO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>Nbgad0358,</t>
+  </si>
+  <si>
+    <t>ELIETH NOEMI</t>
+  </si>
+  <si>
+    <t>SANCHEZ ABURTO</t>
+  </si>
+  <si>
+    <t>Dulni7126+</t>
+  </si>
+  <si>
+    <t>DYLAN ARIEL</t>
+  </si>
+  <si>
+    <t>SILVA RAMIREZ</t>
+  </si>
+  <si>
+    <t>Tcplh0671*</t>
+  </si>
+  <si>
+    <t>ANIELKA RAQUEL</t>
+  </si>
+  <si>
+    <t>SOLIS LOPEZ</t>
+  </si>
+  <si>
+    <t>Uxyib5917.</t>
+  </si>
+  <si>
+    <t>ESMERALDA TATIANA</t>
+  </si>
+  <si>
+    <t>SOLIS RUIZ</t>
+  </si>
+  <si>
+    <t>Ymrce7956*</t>
+  </si>
+  <si>
+    <t>YADIRA DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>Lebsl1435.</t>
+  </si>
+  <si>
+    <t>HAYSON REYNALDO</t>
+  </si>
+  <si>
+    <t>URBINA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>Vgxpe2681+</t>
+  </si>
+  <si>
+    <t>NAYLEA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>URBINA IBRAHIM</t>
+  </si>
+  <si>
+    <t>Ijsno7914*</t>
+  </si>
+  <si>
+    <t>KEYTHING ANAHI</t>
+  </si>
+  <si>
+    <t>VALLE VALLE</t>
+  </si>
+  <si>
+    <t>Picdn2086+</t>
+  </si>
+  <si>
+    <t>GRYDDI MARICELA</t>
+  </si>
+  <si>
+    <t>VARGAS GAGO</t>
+  </si>
+  <si>
+    <t>Khkdz2780,</t>
+  </si>
+  <si>
+    <t>KENIA BALESCA</t>
+  </si>
+  <si>
+    <t>ZAVALA RUGAMA</t>
+  </si>
+  <si>
+    <t>Pzdxo9823+</t>
+  </si>
+  <si>
+    <t>SHIRLEN ESTRELLA</t>
+  </si>
+  <si>
+    <t>ZELAYA</t>
+  </si>
+  <si>
+    <t>Agnhf1309*</t>
+  </si>
+  <si>
+    <t>NAYELIS ISAMAR</t>
+  </si>
+  <si>
+    <t>ZUNIGA CRUZ</t>
+  </si>
+  <si>
+    <t>Qkrbf5321-</t>
+  </si>
+  <si>
+    <t>RAFAELA IRENE</t>
+  </si>
+  <si>
+    <t>ÑAMENDY RUIZ</t>
+  </si>
+  <si>
+    <t>Zlgjq1257+</t>
+  </si>
+  <si>
+    <t>NAYDELING ZULEYDI</t>
+  </si>
+  <si>
+    <t>AGUILAR RIOS</t>
+  </si>
+  <si>
+    <t>Jmcty2513*</t>
+  </si>
+  <si>
+    <t>DEYENDIRA DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>AVENDAÑO BARRIOS</t>
+  </si>
+  <si>
+    <t>Cjsqb0734+</t>
+  </si>
+  <si>
+    <t>BRYTANY LEXANYA</t>
+  </si>
+  <si>
+    <t>BOJORGE PEREZ</t>
+  </si>
+  <si>
+    <t>Ptkxq1820/</t>
+  </si>
+  <si>
+    <t>SAID ISRAEL</t>
+  </si>
+  <si>
+    <t>CALERO MANTILLA</t>
+  </si>
+  <si>
+    <t>Kyzoj8032-</t>
+  </si>
+  <si>
+    <t>RUTH SARAHI</t>
+  </si>
+  <si>
+    <t>CALERO ORTIZ</t>
+  </si>
+  <si>
+    <t>Htgwj7829-</t>
+  </si>
+  <si>
+    <t>ERIKA DENISSE</t>
+  </si>
+  <si>
+    <t>CAMPOS ESPINOZA</t>
+  </si>
+  <si>
+    <t>Pkjxr1928*</t>
+  </si>
+  <si>
+    <t>MATEO OJANI</t>
+  </si>
+  <si>
+    <t>CANO PADILLA</t>
+  </si>
+  <si>
+    <t>Wwxmk5013*</t>
+  </si>
+  <si>
+    <t>ESTRELLA SUNNEYDY</t>
+  </si>
+  <si>
+    <t>CARBALLO SALAZAR</t>
+  </si>
+  <si>
+    <t>Xhfvt2560/</t>
+  </si>
+  <si>
+    <t>SARA ABIGAIL</t>
+  </si>
+  <si>
+    <t>CARRANZA ARROLIGA</t>
+  </si>
+  <si>
+    <t>Ovdfy1269-</t>
+  </si>
+  <si>
+    <t>MELODY SARAI</t>
+  </si>
+  <si>
+    <t>Zxtzf5702/</t>
+  </si>
+  <si>
+    <t>TAMARA BELEN</t>
+  </si>
+  <si>
+    <t>Edlys2496/</t>
+  </si>
+  <si>
+    <t>FERNANDA SARAHI</t>
+  </si>
+  <si>
+    <t>CRUZ CANO</t>
+  </si>
+  <si>
+    <t>Mpjsx9841/</t>
+  </si>
+  <si>
+    <t>MARIO DE JESUS</t>
+  </si>
+  <si>
+    <t>CRUZ VADO</t>
+  </si>
+  <si>
+    <t>Mykwo3259+</t>
+  </si>
+  <si>
+    <t>ZAILING VALESKA</t>
+  </si>
+  <si>
+    <t>DUARTE ALEMAN</t>
+  </si>
+  <si>
+    <t>Eugzp8524,</t>
+  </si>
+  <si>
+    <t>BRIGITTE DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>ESPINOZA ARAICA</t>
+  </si>
+  <si>
+    <t>Dkvfz0594+</t>
+  </si>
+  <si>
+    <t>MARIANA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>GARCIA CORDONERO</t>
+  </si>
+  <si>
+    <t>Lcbmq8374+</t>
+  </si>
+  <si>
+    <t>TONY SANTIAGO</t>
+  </si>
+  <si>
+    <t>GAVARRETE PEREZ</t>
+  </si>
+  <si>
+    <t>Txeup2914,</t>
+  </si>
+  <si>
+    <t>MARCIA FABIOLA</t>
+  </si>
+  <si>
+    <t>Ygvzq9604/</t>
+  </si>
+  <si>
+    <t>MARLING TATIANA</t>
+  </si>
+  <si>
+    <t>GONZALEZ CADRANA</t>
+  </si>
+  <si>
+    <t>Nxoha1657+</t>
+  </si>
+  <si>
+    <t>STEFFANY JOHELY</t>
+  </si>
+  <si>
+    <t>GUERRERO VARGAS</t>
+  </si>
+  <si>
+    <t>Xmkwl4620,</t>
+  </si>
+  <si>
+    <t>ENOC GAMALIEL</t>
+  </si>
+  <si>
+    <t>GUTIERREZ OLIVAS</t>
+  </si>
+  <si>
+    <t>Chkmp1763*</t>
+  </si>
+  <si>
+    <t>ERENIA SUYEN</t>
+  </si>
+  <si>
+    <t>GUTIERREZ VELASQUEZ</t>
+  </si>
+  <si>
+    <t>Gqwab4937*</t>
+  </si>
+  <si>
+    <t>LEIVA RUIZ</t>
+  </si>
+  <si>
+    <t>Wxcls1950*</t>
+  </si>
+  <si>
+    <t>ANTHONY TURIO</t>
+  </si>
+  <si>
+    <t>LEMUS BUSTILLOS</t>
+  </si>
+  <si>
+    <t>Tcoas6839,</t>
+  </si>
+  <si>
+    <t>LIRA ALFARO</t>
+  </si>
+  <si>
+    <t>Afzlx4802-</t>
+  </si>
+  <si>
+    <t>GUILLERMO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>MANZANARES ORTIZ</t>
+  </si>
+  <si>
+    <t>Nwrxs3987+</t>
+  </si>
+  <si>
+    <t>WALTER ORLANDO</t>
+  </si>
+  <si>
+    <t>MARENCO GUERRERO</t>
+  </si>
+  <si>
+    <t>Cxrcm4579*</t>
+  </si>
+  <si>
+    <t>BRAYAN ISAAC</t>
+  </si>
+  <si>
+    <t>MARTINEZ CANO</t>
+  </si>
+  <si>
+    <t>Cntkm9457.</t>
+  </si>
+  <si>
+    <t>MERCADO ALONSO</t>
+  </si>
+  <si>
+    <t>Vhdxq9150.</t>
+  </si>
+  <si>
+    <t>ISAAC JOSE</t>
+  </si>
+  <si>
+    <t>MOJICA SALINAS</t>
+  </si>
+  <si>
+    <t>Mdksa6072-</t>
+  </si>
+  <si>
+    <t>ODALYS LISSETTE</t>
+  </si>
+  <si>
+    <t>MOLINA HIDALGO</t>
+  </si>
+  <si>
+    <t>Xgxzl2740.</t>
+  </si>
+  <si>
+    <t>LINDA KEYLI</t>
+  </si>
+  <si>
+    <t>MORA ALVAREZ</t>
+  </si>
+  <si>
+    <t>Bmjoi6395-</t>
+  </si>
+  <si>
+    <t>VERONICA ESTHER</t>
+  </si>
+  <si>
+    <t>MORALES GARCIA</t>
+  </si>
+  <si>
+    <t>Wwuge6480+</t>
+  </si>
+  <si>
+    <t>SAMUEL SEBASTIAN</t>
+  </si>
+  <si>
+    <t>MORENO JAIME</t>
+  </si>
+  <si>
+    <t>Asoqg8724*</t>
+  </si>
+  <si>
+    <t>ADAN EZEQUIEL</t>
+  </si>
+  <si>
+    <t>MURILLO SEVILLA</t>
+  </si>
+  <si>
+    <t>Fhtvx7283,</t>
+  </si>
+  <si>
+    <t>KRISTELL ISEL</t>
+  </si>
+  <si>
+    <t>MUÑOZ CARBALLO</t>
+  </si>
+  <si>
+    <t>Qepkm8235,</t>
+  </si>
+  <si>
+    <t>JOSHUA ULISES</t>
+  </si>
+  <si>
+    <t>NAVARRETE ZAMBRANA</t>
+  </si>
+  <si>
+    <t>Ojnci3516.</t>
+  </si>
+  <si>
+    <t>ORTIZ MONCADA</t>
+  </si>
+  <si>
+    <t>Glxwj9873.</t>
+  </si>
+  <si>
+    <t>REBECA SARAI</t>
+  </si>
+  <si>
+    <t>PAZ GUILLEN</t>
+  </si>
+  <si>
+    <t>Fxhfa4290*</t>
+  </si>
+  <si>
+    <t>LESLIE GABRIELA</t>
+  </si>
+  <si>
+    <t>Hjogd0439+</t>
+  </si>
+  <si>
+    <t>EVELIN CAROLINA</t>
+  </si>
+  <si>
+    <t>RAMIREZ ZEAS</t>
+  </si>
+  <si>
+    <t>Hxlqu9508/</t>
+  </si>
+  <si>
+    <t>IDANIA MASSIELL</t>
+  </si>
+  <si>
+    <t>REYES HERRERA</t>
+  </si>
+  <si>
+    <t>Nnzcv1983-</t>
+  </si>
+  <si>
+    <t>GENESIS NAHOMI</t>
+  </si>
+  <si>
+    <t>RIVERA CANDA</t>
+  </si>
+  <si>
+    <t>Rzrjs3812/</t>
+  </si>
+  <si>
+    <t>DERETH AXAEL</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ CANO</t>
+  </si>
+  <si>
+    <t>Dnymq7128,</t>
+  </si>
+  <si>
+    <t>ADAYANA MICHELLE</t>
+  </si>
+  <si>
+    <t>SANEZ SOLANO</t>
+  </si>
+  <si>
+    <t>Kenjt9402*</t>
+  </si>
+  <si>
+    <t>SILVA POLANCO</t>
+  </si>
+  <si>
+    <t>Vvhsi7149.</t>
+  </si>
+  <si>
+    <t>GENESIS PAOLA</t>
+  </si>
+  <si>
+    <t>Udtph7954*</t>
+  </si>
+  <si>
+    <t>DANIELA IVONNE</t>
+  </si>
+  <si>
+    <t>UGARTE CALERO</t>
+  </si>
+  <si>
+    <t>Brldh0286,</t>
+  </si>
+  <si>
+    <t>HENRRY GUILLERMO</t>
+  </si>
+  <si>
+    <t>URBINA FONSECA</t>
+  </si>
+  <si>
+    <t>Pcbxq9153*</t>
+  </si>
+  <si>
+    <t>RASHELL DAYANARA</t>
+  </si>
+  <si>
+    <t>VARGAS OBANDO</t>
+  </si>
+  <si>
+    <t>Phcbj9516/</t>
+  </si>
+  <si>
+    <t>SAYLING ANETT</t>
+  </si>
+  <si>
+    <t>VELASQUEZ CENTENO</t>
   </si>
 </sst>
 </file>
@@ -21738,10 +22581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5046"/>
+  <dimension ref="A1:E5147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4830" workbookViewId="0">
-      <selection activeCell="F4974" sqref="F1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5110" workbookViewId="0">
+      <selection activeCell="G5048" sqref="G5048"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -92396,6 +93239,1420 @@
         <v>7116</v>
       </c>
     </row>
+    <row r="5047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5047">
+        <v>25203819</v>
+      </c>
+      <c r="B5047" t="s">
+        <v>7117</v>
+      </c>
+      <c r="C5047" t="s">
+        <v>7118</v>
+      </c>
+      <c r="D5047" t="s">
+        <v>7119</v>
+      </c>
+    </row>
+    <row r="5048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5048">
+        <v>25203709</v>
+      </c>
+      <c r="B5048" t="s">
+        <v>7120</v>
+      </c>
+      <c r="C5048" t="s">
+        <v>7121</v>
+      </c>
+      <c r="D5048" t="s">
+        <v>7122</v>
+      </c>
+    </row>
+    <row r="5049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5049">
+        <v>25212916</v>
+      </c>
+      <c r="B5049" t="s">
+        <v>7123</v>
+      </c>
+      <c r="C5049" t="s">
+        <v>7124</v>
+      </c>
+      <c r="D5049" t="s">
+        <v>7125</v>
+      </c>
+    </row>
+    <row r="5050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5050">
+        <v>25209880</v>
+      </c>
+      <c r="B5050" t="s">
+        <v>7126</v>
+      </c>
+      <c r="C5050" t="s">
+        <v>7127</v>
+      </c>
+      <c r="D5050" t="s">
+        <v>7128</v>
+      </c>
+    </row>
+    <row r="5051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5051">
+        <v>25208340</v>
+      </c>
+      <c r="B5051" t="s">
+        <v>7129</v>
+      </c>
+      <c r="C5051" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D5051" t="s">
+        <v>7130</v>
+      </c>
+    </row>
+    <row r="5052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5052">
+        <v>25201740</v>
+      </c>
+      <c r="B5052" t="s">
+        <v>7131</v>
+      </c>
+      <c r="C5052" t="s">
+        <v>7132</v>
+      </c>
+      <c r="D5052" t="s">
+        <v>7133</v>
+      </c>
+    </row>
+    <row r="5053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5053">
+        <v>24205535</v>
+      </c>
+      <c r="B5053" t="s">
+        <v>7134</v>
+      </c>
+      <c r="C5053" t="s">
+        <v>7135</v>
+      </c>
+      <c r="D5053" t="s">
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="5054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5054">
+        <v>25206052</v>
+      </c>
+      <c r="B5054" t="s">
+        <v>7137</v>
+      </c>
+      <c r="C5054" t="s">
+        <v>7138</v>
+      </c>
+      <c r="D5054" t="s">
+        <v>7139</v>
+      </c>
+    </row>
+    <row r="5055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5055">
+        <v>25208813</v>
+      </c>
+      <c r="B5055" t="s">
+        <v>7140</v>
+      </c>
+      <c r="C5055" t="s">
+        <v>6199</v>
+      </c>
+      <c r="D5055" t="s">
+        <v>5829</v>
+      </c>
+    </row>
+    <row r="5056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5056">
+        <v>25210331</v>
+      </c>
+      <c r="B5056" t="s">
+        <v>7141</v>
+      </c>
+      <c r="C5056" t="s">
+        <v>7142</v>
+      </c>
+      <c r="D5056" t="s">
+        <v>7143</v>
+      </c>
+    </row>
+    <row r="5057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5057">
+        <v>25204105</v>
+      </c>
+      <c r="B5057" t="s">
+        <v>7144</v>
+      </c>
+      <c r="C5057" t="s">
+        <v>7145</v>
+      </c>
+      <c r="D5057" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="5058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5058">
+        <v>25208065</v>
+      </c>
+      <c r="B5058" t="s">
+        <v>7146</v>
+      </c>
+      <c r="C5058" t="s">
+        <v>7147</v>
+      </c>
+      <c r="D5058" t="s">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="5059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5059">
+        <v>25212685</v>
+      </c>
+      <c r="B5059" t="s">
+        <v>7148</v>
+      </c>
+      <c r="C5059" t="s">
+        <v>7149</v>
+      </c>
+      <c r="D5059" t="s">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="5060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5060">
+        <v>25211299</v>
+      </c>
+      <c r="B5060" t="s">
+        <v>7151</v>
+      </c>
+      <c r="C5060" t="s">
+        <v>7152</v>
+      </c>
+      <c r="D5060" t="s">
+        <v>7153</v>
+      </c>
+    </row>
+    <row r="5061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5061">
+        <v>25213092</v>
+      </c>
+      <c r="B5061" t="s">
+        <v>7154</v>
+      </c>
+      <c r="C5061" t="s">
+        <v>4136</v>
+      </c>
+      <c r="D5061" t="s">
+        <v>7155</v>
+      </c>
+    </row>
+    <row r="5062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5062">
+        <v>25203060</v>
+      </c>
+      <c r="B5062" t="s">
+        <v>7156</v>
+      </c>
+      <c r="C5062" t="s">
+        <v>7157</v>
+      </c>
+      <c r="D5062" t="s">
+        <v>7158</v>
+      </c>
+    </row>
+    <row r="5063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5063">
+        <v>20731126</v>
+      </c>
+      <c r="B5063" t="s">
+        <v>7159</v>
+      </c>
+      <c r="C5063" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5063" t="s">
+        <v>7160</v>
+      </c>
+    </row>
+    <row r="5064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5064">
+        <v>25200266</v>
+      </c>
+      <c r="B5064" t="s">
+        <v>7161</v>
+      </c>
+      <c r="C5064" t="s">
+        <v>7162</v>
+      </c>
+      <c r="D5064" t="s">
+        <v>7163</v>
+      </c>
+    </row>
+    <row r="5065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5065">
+        <v>25200794</v>
+      </c>
+      <c r="B5065" t="s">
+        <v>7164</v>
+      </c>
+      <c r="C5065" t="s">
+        <v>7165</v>
+      </c>
+      <c r="D5065" t="s">
+        <v>7166</v>
+      </c>
+    </row>
+    <row r="5066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5066">
+        <v>25213268</v>
+      </c>
+      <c r="B5066" t="s">
+        <v>7167</v>
+      </c>
+      <c r="C5066" t="s">
+        <v>7168</v>
+      </c>
+      <c r="D5066" t="s">
+        <v>7169</v>
+      </c>
+    </row>
+    <row r="5067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5067">
+        <v>25209033</v>
+      </c>
+      <c r="B5067" t="s">
+        <v>7170</v>
+      </c>
+      <c r="C5067" t="s">
+        <v>7171</v>
+      </c>
+      <c r="D5067" t="s">
+        <v>7172</v>
+      </c>
+    </row>
+    <row r="5068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5068">
+        <v>25604527</v>
+      </c>
+      <c r="B5068" t="s">
+        <v>7173</v>
+      </c>
+      <c r="C5068" t="s">
+        <v>7174</v>
+      </c>
+      <c r="D5068" t="s">
+        <v>7175</v>
+      </c>
+    </row>
+    <row r="5069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5069">
+        <v>25200706</v>
+      </c>
+      <c r="B5069" t="s">
+        <v>7176</v>
+      </c>
+      <c r="C5069" t="s">
+        <v>7177</v>
+      </c>
+      <c r="D5069" t="s">
+        <v>7178</v>
+      </c>
+    </row>
+    <row r="5070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5070">
+        <v>25209682</v>
+      </c>
+      <c r="B5070" t="s">
+        <v>7179</v>
+      </c>
+      <c r="C5070" t="s">
+        <v>7180</v>
+      </c>
+      <c r="D5070" t="s">
+        <v>7181</v>
+      </c>
+    </row>
+    <row r="5071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5071">
+        <v>25607354</v>
+      </c>
+      <c r="B5071" t="s">
+        <v>7182</v>
+      </c>
+      <c r="C5071" t="s">
+        <v>7183</v>
+      </c>
+      <c r="D5071" t="s">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="5072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5072">
+        <v>25212080</v>
+      </c>
+      <c r="B5072" t="s">
+        <v>7185</v>
+      </c>
+      <c r="C5072" t="s">
+        <v>7080</v>
+      </c>
+      <c r="D5072" t="s">
+        <v>7186</v>
+      </c>
+    </row>
+    <row r="5073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5073">
+        <v>25214060</v>
+      </c>
+      <c r="B5073" t="s">
+        <v>7187</v>
+      </c>
+      <c r="C5073" t="s">
+        <v>7188</v>
+      </c>
+      <c r="D5073" t="s">
+        <v>7189</v>
+      </c>
+    </row>
+    <row r="5074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5074">
+        <v>25206217</v>
+      </c>
+      <c r="B5074" t="s">
+        <v>7190</v>
+      </c>
+      <c r="C5074" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D5074" t="s">
+        <v>7191</v>
+      </c>
+    </row>
+    <row r="5075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5075">
+        <v>25204116</v>
+      </c>
+      <c r="B5075" t="s">
+        <v>7192</v>
+      </c>
+      <c r="C5075" t="s">
+        <v>7193</v>
+      </c>
+      <c r="D5075" t="s">
+        <v>7194</v>
+      </c>
+    </row>
+    <row r="5076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5076">
+        <v>25209561</v>
+      </c>
+      <c r="B5076" t="s">
+        <v>7195</v>
+      </c>
+      <c r="C5076" t="s">
+        <v>7196</v>
+      </c>
+      <c r="D5076" t="s">
+        <v>7197</v>
+      </c>
+    </row>
+    <row r="5077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5077">
+        <v>25203478</v>
+      </c>
+      <c r="B5077" t="s">
+        <v>7198</v>
+      </c>
+      <c r="C5077" t="s">
+        <v>7199</v>
+      </c>
+      <c r="D5077" t="s">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="5078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5078">
+        <v>25207471</v>
+      </c>
+      <c r="B5078" t="s">
+        <v>7201</v>
+      </c>
+      <c r="C5078" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D5078" t="s">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="5079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5079">
+        <v>25204138</v>
+      </c>
+      <c r="B5079" t="s">
+        <v>7203</v>
+      </c>
+      <c r="C5079" t="s">
+        <v>7204</v>
+      </c>
+      <c r="D5079" t="s">
+        <v>7205</v>
+      </c>
+    </row>
+    <row r="5080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5080">
+        <v>25207328</v>
+      </c>
+      <c r="B5080" t="s">
+        <v>7206</v>
+      </c>
+      <c r="C5080" t="s">
+        <v>7207</v>
+      </c>
+      <c r="D5080" t="s">
+        <v>7208</v>
+      </c>
+    </row>
+    <row r="5081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5081">
+        <v>25210970</v>
+      </c>
+      <c r="B5081" t="s">
+        <v>7209</v>
+      </c>
+      <c r="C5081" t="s">
+        <v>7210</v>
+      </c>
+      <c r="D5081" t="s">
+        <v>7211</v>
+      </c>
+    </row>
+    <row r="5082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5082">
+        <v>25606606</v>
+      </c>
+      <c r="B5082" t="s">
+        <v>7212</v>
+      </c>
+      <c r="C5082" t="s">
+        <v>7213</v>
+      </c>
+      <c r="D5082" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="5083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5083">
+        <v>25208483</v>
+      </c>
+      <c r="B5083" t="s">
+        <v>7214</v>
+      </c>
+      <c r="C5083" t="s">
+        <v>7215</v>
+      </c>
+      <c r="D5083" t="s">
+        <v>7216</v>
+      </c>
+    </row>
+    <row r="5084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5084">
+        <v>25212113</v>
+      </c>
+      <c r="B5084" t="s">
+        <v>7217</v>
+      </c>
+      <c r="C5084" t="s">
+        <v>7218</v>
+      </c>
+      <c r="D5084" t="s">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="5085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5085">
+        <v>25205733</v>
+      </c>
+      <c r="B5085" t="s">
+        <v>7220</v>
+      </c>
+      <c r="C5085" t="s">
+        <v>7221</v>
+      </c>
+      <c r="D5085" t="s">
+        <v>7222</v>
+      </c>
+    </row>
+    <row r="5086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5086">
+        <v>25205205</v>
+      </c>
+      <c r="B5086" t="s">
+        <v>7223</v>
+      </c>
+      <c r="C5086" t="s">
+        <v>7224</v>
+      </c>
+      <c r="D5086" t="s">
+        <v>7225</v>
+      </c>
+    </row>
+    <row r="5087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5087">
+        <v>16013300</v>
+      </c>
+      <c r="B5087" t="s">
+        <v>7226</v>
+      </c>
+      <c r="C5087" t="s">
+        <v>7227</v>
+      </c>
+      <c r="D5087" t="s">
+        <v>7228</v>
+      </c>
+    </row>
+    <row r="5088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5088">
+        <v>25217921</v>
+      </c>
+      <c r="B5088" t="s">
+        <v>7229</v>
+      </c>
+      <c r="C5088" t="s">
+        <v>7230</v>
+      </c>
+      <c r="D5088" t="s">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="5089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5089">
+        <v>25210540</v>
+      </c>
+      <c r="B5089" t="s">
+        <v>7231</v>
+      </c>
+      <c r="C5089" t="s">
+        <v>7232</v>
+      </c>
+      <c r="D5089" t="s">
+        <v>7233</v>
+      </c>
+    </row>
+    <row r="5090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5090">
+        <v>25211871</v>
+      </c>
+      <c r="B5090" t="s">
+        <v>7234</v>
+      </c>
+      <c r="C5090" t="s">
+        <v>7235</v>
+      </c>
+      <c r="D5090" t="s">
+        <v>7236</v>
+      </c>
+    </row>
+    <row r="5091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5091">
+        <v>25605099</v>
+      </c>
+      <c r="B5091" t="s">
+        <v>7237</v>
+      </c>
+      <c r="C5091" t="s">
+        <v>7238</v>
+      </c>
+      <c r="D5091" t="s">
+        <v>7239</v>
+      </c>
+    </row>
+    <row r="5092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5092">
+        <v>25200508</v>
+      </c>
+      <c r="B5092" t="s">
+        <v>7240</v>
+      </c>
+      <c r="C5092" t="s">
+        <v>7241</v>
+      </c>
+      <c r="D5092" t="s">
+        <v>7242</v>
+      </c>
+    </row>
+    <row r="5093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5093">
+        <v>25208230</v>
+      </c>
+      <c r="B5093" t="s">
+        <v>7243</v>
+      </c>
+      <c r="C5093" t="s">
+        <v>7244</v>
+      </c>
+      <c r="D5093" t="s">
+        <v>7245</v>
+      </c>
+    </row>
+    <row r="5094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5094">
+        <v>25204853</v>
+      </c>
+      <c r="B5094" t="s">
+        <v>7246</v>
+      </c>
+      <c r="C5094" t="s">
+        <v>7247</v>
+      </c>
+      <c r="D5094" t="s">
+        <v>7248</v>
+      </c>
+    </row>
+    <row r="5095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5095">
+        <v>25204083</v>
+      </c>
+      <c r="B5095" t="s">
+        <v>7249</v>
+      </c>
+      <c r="C5095" t="s">
+        <v>7250</v>
+      </c>
+      <c r="D5095" t="s">
+        <v>7251</v>
+      </c>
+    </row>
+    <row r="5096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5096">
+        <v>25200200</v>
+      </c>
+      <c r="B5096" t="s">
+        <v>7252</v>
+      </c>
+      <c r="C5096" t="s">
+        <v>7253</v>
+      </c>
+      <c r="D5096" t="s">
+        <v>7254</v>
+      </c>
+    </row>
+    <row r="5097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5097">
+        <v>25611468</v>
+      </c>
+      <c r="B5097" t="s">
+        <v>7255</v>
+      </c>
+      <c r="C5097" t="s">
+        <v>7256</v>
+      </c>
+      <c r="D5097" t="s">
+        <v>7257</v>
+      </c>
+    </row>
+    <row r="5098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5098">
+        <v>25608047</v>
+      </c>
+      <c r="B5098" t="s">
+        <v>7258</v>
+      </c>
+      <c r="C5098" t="s">
+        <v>7259</v>
+      </c>
+      <c r="D5098" t="s">
+        <v>7260</v>
+      </c>
+    </row>
+    <row r="5099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5099">
+        <v>25214830</v>
+      </c>
+      <c r="B5099" t="s">
+        <v>7261</v>
+      </c>
+      <c r="C5099" t="s">
+        <v>7262</v>
+      </c>
+      <c r="D5099" t="s">
+        <v>7263</v>
+      </c>
+    </row>
+    <row r="5100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5100">
+        <v>25200189</v>
+      </c>
+      <c r="B5100" t="s">
+        <v>7264</v>
+      </c>
+      <c r="C5100" t="s">
+        <v>7265</v>
+      </c>
+      <c r="D5100" t="s">
+        <v>7266</v>
+      </c>
+    </row>
+    <row r="5101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5101">
+        <v>25204457</v>
+      </c>
+      <c r="B5101" t="s">
+        <v>7267</v>
+      </c>
+      <c r="C5101" t="s">
+        <v>7268</v>
+      </c>
+      <c r="D5101" t="s">
+        <v>7269</v>
+      </c>
+    </row>
+    <row r="5102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5102">
+        <v>25203951</v>
+      </c>
+      <c r="B5102" t="s">
+        <v>7270</v>
+      </c>
+      <c r="C5102" t="s">
+        <v>7271</v>
+      </c>
+      <c r="D5102" t="s">
+        <v>7272</v>
+      </c>
+    </row>
+    <row r="5103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5103">
+        <v>25209308</v>
+      </c>
+      <c r="B5103" t="s">
+        <v>7273</v>
+      </c>
+      <c r="C5103" t="s">
+        <v>7274</v>
+      </c>
+      <c r="D5103" t="s">
+        <v>7275</v>
+      </c>
+    </row>
+    <row r="5104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5104">
+        <v>25209264</v>
+      </c>
+      <c r="B5104" t="s">
+        <v>7276</v>
+      </c>
+      <c r="C5104" t="s">
+        <v>7277</v>
+      </c>
+      <c r="D5104" t="s">
+        <v>7278</v>
+      </c>
+    </row>
+    <row r="5105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5105">
+        <v>25218284</v>
+      </c>
+      <c r="B5105" t="s">
+        <v>7279</v>
+      </c>
+      <c r="C5105" t="s">
+        <v>7280</v>
+      </c>
+      <c r="D5105" t="s">
+        <v>7281</v>
+      </c>
+    </row>
+    <row r="5106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5106">
+        <v>25211244</v>
+      </c>
+      <c r="B5106" t="s">
+        <v>7282</v>
+      </c>
+      <c r="C5106" t="s">
+        <v>7283</v>
+      </c>
+      <c r="D5106" t="s">
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="5107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5107">
+        <v>25200112</v>
+      </c>
+      <c r="B5107" t="s">
+        <v>7284</v>
+      </c>
+      <c r="C5107" t="s">
+        <v>7285</v>
+      </c>
+      <c r="D5107" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="5108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5108">
+        <v>25209429</v>
+      </c>
+      <c r="B5108" t="s">
+        <v>7286</v>
+      </c>
+      <c r="C5108" t="s">
+        <v>7287</v>
+      </c>
+      <c r="D5108" t="s">
+        <v>7288</v>
+      </c>
+    </row>
+    <row r="5109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5109">
+        <v>25210155</v>
+      </c>
+      <c r="B5109" t="s">
+        <v>7289</v>
+      </c>
+      <c r="C5109" t="s">
+        <v>7290</v>
+      </c>
+      <c r="D5109" t="s">
+        <v>7291</v>
+      </c>
+    </row>
+    <row r="5110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5110">
+        <v>25203104</v>
+      </c>
+      <c r="B5110" t="s">
+        <v>7292</v>
+      </c>
+      <c r="C5110" t="s">
+        <v>7293</v>
+      </c>
+      <c r="D5110" t="s">
+        <v>7294</v>
+      </c>
+    </row>
+    <row r="5111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5111">
+        <v>25210298</v>
+      </c>
+      <c r="B5111" t="s">
+        <v>7295</v>
+      </c>
+      <c r="C5111" t="s">
+        <v>7296</v>
+      </c>
+      <c r="D5111" t="s">
+        <v>7297</v>
+      </c>
+    </row>
+    <row r="5112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5112">
+        <v>25208000</v>
+      </c>
+      <c r="B5112" t="s">
+        <v>7298</v>
+      </c>
+      <c r="C5112" t="s">
+        <v>7299</v>
+      </c>
+      <c r="D5112" t="s">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="5113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5113">
+        <v>25214247</v>
+      </c>
+      <c r="B5113" t="s">
+        <v>7301</v>
+      </c>
+      <c r="C5113" t="s">
+        <v>7302</v>
+      </c>
+      <c r="D5113" t="s">
+        <v>7303</v>
+      </c>
+    </row>
+    <row r="5114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5114">
+        <v>25211959</v>
+      </c>
+      <c r="B5114" t="s">
+        <v>7304</v>
+      </c>
+      <c r="C5114" t="s">
+        <v>7305</v>
+      </c>
+      <c r="D5114" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="5115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5115">
+        <v>25210694</v>
+      </c>
+      <c r="B5115" t="s">
+        <v>7306</v>
+      </c>
+      <c r="C5115" t="s">
+        <v>7307</v>
+      </c>
+      <c r="D5115" t="s">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="5116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5116">
+        <v>25601843</v>
+      </c>
+      <c r="B5116" t="s">
+        <v>7309</v>
+      </c>
+      <c r="C5116" t="s">
+        <v>7310</v>
+      </c>
+      <c r="D5116" t="s">
+        <v>7311</v>
+      </c>
+    </row>
+    <row r="5117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5117">
+        <v>25213939</v>
+      </c>
+      <c r="B5117" t="s">
+        <v>7312</v>
+      </c>
+      <c r="C5117" t="s">
+        <v>7313</v>
+      </c>
+      <c r="D5117" t="s">
+        <v>7314</v>
+      </c>
+    </row>
+    <row r="5118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5118">
+        <v>25215072</v>
+      </c>
+      <c r="B5118" t="s">
+        <v>7315</v>
+      </c>
+      <c r="C5118" t="s">
+        <v>7316</v>
+      </c>
+      <c r="D5118" t="s">
+        <v>7317</v>
+      </c>
+    </row>
+    <row r="5119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5119">
+        <v>25202356</v>
+      </c>
+      <c r="B5119" t="s">
+        <v>7318</v>
+      </c>
+      <c r="C5119" t="s">
+        <v>2347</v>
+      </c>
+      <c r="D5119" t="s">
+        <v>7319</v>
+      </c>
+    </row>
+    <row r="5120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5120">
+        <v>25208912</v>
+      </c>
+      <c r="B5120" t="s">
+        <v>7320</v>
+      </c>
+      <c r="C5120" t="s">
+        <v>7321</v>
+      </c>
+      <c r="D5120" t="s">
+        <v>7322</v>
+      </c>
+    </row>
+    <row r="5121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5121">
+        <v>25203049</v>
+      </c>
+      <c r="B5121" t="s">
+        <v>7323</v>
+      </c>
+      <c r="C5121" t="s">
+        <v>6330</v>
+      </c>
+      <c r="D5121" t="s">
+        <v>7324</v>
+      </c>
+    </row>
+    <row r="5122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5122">
+        <v>25212620</v>
+      </c>
+      <c r="B5122" t="s">
+        <v>7325</v>
+      </c>
+      <c r="C5122" t="s">
+        <v>7326</v>
+      </c>
+      <c r="D5122" t="s">
+        <v>7327</v>
+      </c>
+    </row>
+    <row r="5123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5123">
+        <v>25206460</v>
+      </c>
+      <c r="B5123" t="s">
+        <v>7328</v>
+      </c>
+      <c r="C5123" t="s">
+        <v>7329</v>
+      </c>
+      <c r="D5123" t="s">
+        <v>7330</v>
+      </c>
+    </row>
+    <row r="5124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5124">
+        <v>25207691</v>
+      </c>
+      <c r="B5124" t="s">
+        <v>7331</v>
+      </c>
+      <c r="C5124" t="s">
+        <v>7332</v>
+      </c>
+      <c r="D5124" t="s">
+        <v>7333</v>
+      </c>
+    </row>
+    <row r="5125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5125">
+        <v>25202829</v>
+      </c>
+      <c r="B5125" t="s">
+        <v>7334</v>
+      </c>
+      <c r="C5125" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D5125" t="s">
+        <v>7335</v>
+      </c>
+    </row>
+    <row r="5126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5126">
+        <v>25213719</v>
+      </c>
+      <c r="B5126" t="s">
+        <v>7336</v>
+      </c>
+      <c r="C5126" t="s">
+        <v>7337</v>
+      </c>
+      <c r="D5126" t="s">
+        <v>7338</v>
+      </c>
+    </row>
+    <row r="5127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5127">
+        <v>25214874</v>
+      </c>
+      <c r="B5127" t="s">
+        <v>7339</v>
+      </c>
+      <c r="C5127" t="s">
+        <v>7340</v>
+      </c>
+      <c r="D5127" t="s">
+        <v>7341</v>
+      </c>
+    </row>
+    <row r="5128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5128">
+        <v>25211552</v>
+      </c>
+      <c r="B5128" t="s">
+        <v>7342</v>
+      </c>
+      <c r="C5128" t="s">
+        <v>7343</v>
+      </c>
+      <c r="D5128" t="s">
+        <v>7344</v>
+      </c>
+    </row>
+    <row r="5129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5129">
+        <v>25210760</v>
+      </c>
+      <c r="B5129" t="s">
+        <v>7345</v>
+      </c>
+      <c r="C5129" t="s">
+        <v>7346</v>
+      </c>
+      <c r="D5129" t="s">
+        <v>7347</v>
+      </c>
+    </row>
+    <row r="5130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5130">
+        <v>25212322</v>
+      </c>
+      <c r="B5130" t="s">
+        <v>7348</v>
+      </c>
+      <c r="C5130" t="s">
+        <v>7349</v>
+      </c>
+      <c r="D5130" t="s">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="5131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5131">
+        <v>25207680</v>
+      </c>
+      <c r="B5131" t="s">
+        <v>7351</v>
+      </c>
+      <c r="C5131" t="s">
+        <v>7352</v>
+      </c>
+      <c r="D5131" t="s">
+        <v>7353</v>
+      </c>
+    </row>
+    <row r="5132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5132">
+        <v>25216326</v>
+      </c>
+      <c r="B5132" t="s">
+        <v>7354</v>
+      </c>
+      <c r="C5132" t="s">
+        <v>7355</v>
+      </c>
+      <c r="D5132" t="s">
+        <v>7356</v>
+      </c>
+    </row>
+    <row r="5133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5133">
+        <v>25211321</v>
+      </c>
+      <c r="B5133" t="s">
+        <v>7357</v>
+      </c>
+      <c r="C5133" t="s">
+        <v>7358</v>
+      </c>
+      <c r="D5133" t="s">
+        <v>7359</v>
+      </c>
+    </row>
+    <row r="5134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5134">
+        <v>25207010</v>
+      </c>
+      <c r="B5134" t="s">
+        <v>7360</v>
+      </c>
+      <c r="C5134" t="s">
+        <v>5451</v>
+      </c>
+      <c r="D5134" t="s">
+        <v>7361</v>
+      </c>
+    </row>
+    <row r="5135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5135">
+        <v>25217767</v>
+      </c>
+      <c r="B5135" t="s">
+        <v>7362</v>
+      </c>
+      <c r="C5135" t="s">
+        <v>7363</v>
+      </c>
+      <c r="D5135" t="s">
+        <v>7364</v>
+      </c>
+    </row>
+    <row r="5136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5136">
+        <v>25210420</v>
+      </c>
+      <c r="B5136" t="s">
+        <v>7365</v>
+      </c>
+      <c r="C5136" t="s">
+        <v>7366</v>
+      </c>
+      <c r="D5136" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="5137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5137">
+        <v>25202939</v>
+      </c>
+      <c r="B5137" t="s">
+        <v>7367</v>
+      </c>
+      <c r="C5137" t="s">
+        <v>7368</v>
+      </c>
+      <c r="D5137" t="s">
+        <v>7369</v>
+      </c>
+    </row>
+    <row r="5138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5138">
+        <v>25207152</v>
+      </c>
+      <c r="B5138" t="s">
+        <v>7370</v>
+      </c>
+      <c r="C5138" t="s">
+        <v>7371</v>
+      </c>
+      <c r="D5138" t="s">
+        <v>7372</v>
+      </c>
+    </row>
+    <row r="5139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5139">
+        <v>25615440</v>
+      </c>
+      <c r="B5139" t="s">
+        <v>7373</v>
+      </c>
+      <c r="C5139" t="s">
+        <v>7374</v>
+      </c>
+      <c r="D5139" t="s">
+        <v>7375</v>
+      </c>
+    </row>
+    <row r="5140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5140">
+        <v>25210045</v>
+      </c>
+      <c r="B5140" t="s">
+        <v>7376</v>
+      </c>
+      <c r="C5140" t="s">
+        <v>7377</v>
+      </c>
+      <c r="D5140" t="s">
+        <v>7378</v>
+      </c>
+    </row>
+    <row r="5141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5141">
+        <v>25211068</v>
+      </c>
+      <c r="B5141" t="s">
+        <v>7379</v>
+      </c>
+      <c r="C5141" t="s">
+        <v>7380</v>
+      </c>
+      <c r="D5141" t="s">
+        <v>7381</v>
+      </c>
+    </row>
+    <row r="5142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5142">
+        <v>24755337</v>
+      </c>
+      <c r="B5142" t="s">
+        <v>7382</v>
+      </c>
+      <c r="C5142" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D5142" t="s">
+        <v>7383</v>
+      </c>
+    </row>
+    <row r="5143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5143">
+        <v>25211981</v>
+      </c>
+      <c r="B5143" t="s">
+        <v>7384</v>
+      </c>
+      <c r="C5143" t="s">
+        <v>7385</v>
+      </c>
+      <c r="D5143" t="s">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="5144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5144">
+        <v>25201256</v>
+      </c>
+      <c r="B5144" t="s">
+        <v>7386</v>
+      </c>
+      <c r="C5144" t="s">
+        <v>7387</v>
+      </c>
+      <c r="D5144" t="s">
+        <v>7388</v>
+      </c>
+    </row>
+    <row r="5145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5145">
+        <v>25613789</v>
+      </c>
+      <c r="B5145" t="s">
+        <v>7389</v>
+      </c>
+      <c r="C5145" t="s">
+        <v>7390</v>
+      </c>
+      <c r="D5145" t="s">
+        <v>7391</v>
+      </c>
+    </row>
+    <row r="5146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5146">
+        <v>25218273</v>
+      </c>
+      <c r="B5146" t="s">
+        <v>7392</v>
+      </c>
+      <c r="C5146" t="s">
+        <v>7393</v>
+      </c>
+      <c r="D5146" t="s">
+        <v>7394</v>
+      </c>
+    </row>
+    <row r="5147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5147">
+        <v>25212003</v>
+      </c>
+      <c r="B5147" t="s">
+        <v>7395</v>
+      </c>
+      <c r="C5147" t="s">
+        <v>7396</v>
+      </c>
+      <c r="D5147" t="s">
+        <v>7397</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contrasena.xlsx
+++ b/contrasena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solis\Desktop\ApiClave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2EC09F-10BD-412A-8112-536A526D7BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86801E1E-CA02-4231-B221-67DB06F21131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15473" uniqueCount="7398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16226" uniqueCount="8091">
   <si>
     <t>Carnet</t>
   </si>
@@ -22214,6 +22214,2085 @@
   </si>
   <si>
     <t>VELASQUEZ CENTENO</t>
+  </si>
+  <si>
+    <t>Qpoef1597-</t>
+  </si>
+  <si>
+    <t>EVA MARIA</t>
+  </si>
+  <si>
+    <t>ALBARES GALEANO</t>
+  </si>
+  <si>
+    <t>Vzflx6539.</t>
+  </si>
+  <si>
+    <t>WENDY VANESSA</t>
+  </si>
+  <si>
+    <t>ALEMAN MEJIA</t>
+  </si>
+  <si>
+    <t>Farig8754-</t>
+  </si>
+  <si>
+    <t>ANTHONY JESUS</t>
+  </si>
+  <si>
+    <t>ALVAREZ BORGE</t>
+  </si>
+  <si>
+    <t>Fzaon2718,</t>
+  </si>
+  <si>
+    <t>MAYRA DEL SOCORRO</t>
+  </si>
+  <si>
+    <t>ALVAREZ TELLEZ</t>
+  </si>
+  <si>
+    <t>Mqsrj4950*</t>
+  </si>
+  <si>
+    <t>BALTODANO</t>
+  </si>
+  <si>
+    <t>Thvoe6174*</t>
+  </si>
+  <si>
+    <t>BENJAMIN ENRIQUE</t>
+  </si>
+  <si>
+    <t>BARRIOS CHAMORRO</t>
+  </si>
+  <si>
+    <t>Vrsic9516/</t>
+  </si>
+  <si>
+    <t>DIANA MELISSA</t>
+  </si>
+  <si>
+    <t>Xryzd3479+</t>
+  </si>
+  <si>
+    <t>ALBERTO RAFAEL</t>
+  </si>
+  <si>
+    <t>BLANDON CANO</t>
+  </si>
+  <si>
+    <t>Ebdic7480.</t>
+  </si>
+  <si>
+    <t>JESICA DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>CALERO RAMOS</t>
+  </si>
+  <si>
+    <t>Zmith7580*</t>
+  </si>
+  <si>
+    <t>MAYERLING ISABEL</t>
+  </si>
+  <si>
+    <t>CASTELLON RAMIREZ</t>
+  </si>
+  <si>
+    <t>Msjvk1240+</t>
+  </si>
+  <si>
+    <t>DIANA MARYIN</t>
+  </si>
+  <si>
+    <t>CUADRA OPORTA</t>
+  </si>
+  <si>
+    <t>Kfngo6310-</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>Bqket1209,</t>
+  </si>
+  <si>
+    <t>LISBETH DEL CARMEN</t>
+  </si>
+  <si>
+    <t>DUARTE MONCADA</t>
+  </si>
+  <si>
+    <t>Tpjlh7150*</t>
+  </si>
+  <si>
+    <t>JOSELINE VERONICA</t>
+  </si>
+  <si>
+    <t>ESPINOZA RAMOS</t>
+  </si>
+  <si>
+    <t>Ouown7163,</t>
+  </si>
+  <si>
+    <t>JAMIL GERARDO</t>
+  </si>
+  <si>
+    <t>FONSECA CALERO</t>
+  </si>
+  <si>
+    <t>Mqwvt4367/</t>
+  </si>
+  <si>
+    <t>FERNANDA DANIELA</t>
+  </si>
+  <si>
+    <t>GALEANO LOPEZ</t>
+  </si>
+  <si>
+    <t>Hscou9254.</t>
+  </si>
+  <si>
+    <t>KONY SARAI</t>
+  </si>
+  <si>
+    <t>Uikyd5172/</t>
+  </si>
+  <si>
+    <t>GONZALEZ ARAGON</t>
+  </si>
+  <si>
+    <t>Ermfa3547/</t>
+  </si>
+  <si>
+    <t>YAZMINA MERCEDES</t>
+  </si>
+  <si>
+    <t>HERRERA ARGUELLO</t>
+  </si>
+  <si>
+    <t>Ndktg2976-</t>
+  </si>
+  <si>
+    <t>LESNIN GABRIEL</t>
+  </si>
+  <si>
+    <t>JIRON MATAMOROS</t>
+  </si>
+  <si>
+    <t>Vhgxk7935-</t>
+  </si>
+  <si>
+    <t>MIRIAN ESTHER</t>
+  </si>
+  <si>
+    <t>Unan.12069</t>
+  </si>
+  <si>
+    <t>IRIS MASIEL</t>
+  </si>
+  <si>
+    <t>LOPEZ CERDA</t>
+  </si>
+  <si>
+    <t>Msxyd3521/</t>
+  </si>
+  <si>
+    <t>ELIAS EMANUEL</t>
+  </si>
+  <si>
+    <t>LOPEZ LEIVA</t>
+  </si>
+  <si>
+    <t>Lbusj9078*</t>
+  </si>
+  <si>
+    <t>ARLEN SUGEY</t>
+  </si>
+  <si>
+    <t>Zbowv6943*</t>
+  </si>
+  <si>
+    <t>GERSON MOISÉS</t>
+  </si>
+  <si>
+    <t>Xjkwl9604/</t>
+  </si>
+  <si>
+    <t>FRANCELA ANAHI</t>
+  </si>
+  <si>
+    <t>Drflk9305,</t>
+  </si>
+  <si>
+    <t>BRENDT JOSUE</t>
+  </si>
+  <si>
+    <t>MARTINEZ LEON</t>
+  </si>
+  <si>
+    <t>Dyfch9562+</t>
+  </si>
+  <si>
+    <t>ALEJANDRO ANTONIO</t>
+  </si>
+  <si>
+    <t>MAYORGA</t>
+  </si>
+  <si>
+    <t>Nqyim8674+</t>
+  </si>
+  <si>
+    <t>KAREN ELIETH</t>
+  </si>
+  <si>
+    <t>MENDEZ CASTILLO</t>
+  </si>
+  <si>
+    <t>Vxylh0769,</t>
+  </si>
+  <si>
+    <t>SCARLETH ELIZABETH</t>
+  </si>
+  <si>
+    <t>Kvryo9346+</t>
+  </si>
+  <si>
+    <t>JESSY KASSANDRA</t>
+  </si>
+  <si>
+    <t>MENDOZA VALLEJOS</t>
+  </si>
+  <si>
+    <t>Unljm3954*</t>
+  </si>
+  <si>
+    <t>ARACELY DEL CARMEN</t>
+  </si>
+  <si>
+    <t>MOJICA MEJIA</t>
+  </si>
+  <si>
+    <t>Rcmku5438*</t>
+  </si>
+  <si>
+    <t>KAREM JANINA</t>
+  </si>
+  <si>
+    <t>Zntbh7491/</t>
+  </si>
+  <si>
+    <t>JOHANA LISETH</t>
+  </si>
+  <si>
+    <t>MORALES GUERRERO</t>
+  </si>
+  <si>
+    <t>Mslrb1670.</t>
+  </si>
+  <si>
+    <t>MAYERNI ARIANA</t>
+  </si>
+  <si>
+    <t>NAVARRO BARRIOS</t>
+  </si>
+  <si>
+    <t>Rafmc2103/</t>
+  </si>
+  <si>
+    <t>RUTH DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>PICON CASTRO</t>
+  </si>
+  <si>
+    <t>Lmiyl8437.</t>
+  </si>
+  <si>
+    <t>GENESIS GABRIELA</t>
+  </si>
+  <si>
+    <t>REYES HERNANDEZ</t>
+  </si>
+  <si>
+    <t>Ltkqh1472+</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ RUIZ</t>
+  </si>
+  <si>
+    <t>Pgekn8369+</t>
+  </si>
+  <si>
+    <t>JULISSA CAROLINA</t>
+  </si>
+  <si>
+    <t>SALAZAR LOPEZ</t>
+  </si>
+  <si>
+    <t>Ljxni3281,</t>
+  </si>
+  <si>
+    <t>MAGALY ISAYANA</t>
+  </si>
+  <si>
+    <t>SEQUEIRA ZAVALA</t>
+  </si>
+  <si>
+    <t>Gjsfr0863+</t>
+  </si>
+  <si>
+    <t>SUAREZ BLANDON</t>
+  </si>
+  <si>
+    <t>Rsodh7349+</t>
+  </si>
+  <si>
+    <t>NAYESCA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>TELLEZ DIAZ</t>
+  </si>
+  <si>
+    <t>Awqik4759.</t>
+  </si>
+  <si>
+    <t>TELLEZ PLATA</t>
+  </si>
+  <si>
+    <t>Flsmh0693,</t>
+  </si>
+  <si>
+    <t>VARGAS SIERO</t>
+  </si>
+  <si>
+    <t>Pfwye6847+</t>
+  </si>
+  <si>
+    <t>MANUEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ZEPEDA OPORTA</t>
+  </si>
+  <si>
+    <t>Zbuwh5384*</t>
+  </si>
+  <si>
+    <t>GELSYN NALLELY</t>
+  </si>
+  <si>
+    <t>ANDINO CARBALLO</t>
+  </si>
+  <si>
+    <t>Vzeun1345/</t>
+  </si>
+  <si>
+    <t>EVELING AZUCENA</t>
+  </si>
+  <si>
+    <t>ARAGON HERNANDEZ</t>
+  </si>
+  <si>
+    <t>Enxgd7164-</t>
+  </si>
+  <si>
+    <t>ESTHER SARAI</t>
+  </si>
+  <si>
+    <t>ARAICA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>Tnftz1925.</t>
+  </si>
+  <si>
+    <t>LEANDRO GABRIEL</t>
+  </si>
+  <si>
+    <t>ARAQUE GARCIA</t>
+  </si>
+  <si>
+    <t>Igcdl1094*</t>
+  </si>
+  <si>
+    <t>GRECHELL VANESA</t>
+  </si>
+  <si>
+    <t>BATRE PLATA</t>
+  </si>
+  <si>
+    <t>Fnbrx8912+</t>
+  </si>
+  <si>
+    <t>LESTER EXEQUIEL</t>
+  </si>
+  <si>
+    <t>Weaea9721,</t>
+  </si>
+  <si>
+    <t>MAYQUELINE DIANA</t>
+  </si>
+  <si>
+    <t>BETANCO BLANCO</t>
+  </si>
+  <si>
+    <t>Ocwvo1230,</t>
+  </si>
+  <si>
+    <t>VALERIA PAOLA</t>
+  </si>
+  <si>
+    <t>Tfojy6190.</t>
+  </si>
+  <si>
+    <t>ALLISON MELISSA</t>
+  </si>
+  <si>
+    <t>CENTENO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>Vvxmf1793.</t>
+  </si>
+  <si>
+    <t>ELTON JAFET</t>
+  </si>
+  <si>
+    <t>CENTENO SANDOVAL</t>
+  </si>
+  <si>
+    <t>Tophr0795*</t>
+  </si>
+  <si>
+    <t>NATHALY NAHOMI</t>
+  </si>
+  <si>
+    <t>COLLADO ZUNIGA</t>
+  </si>
+  <si>
+    <t>Dhlsg6425-</t>
+  </si>
+  <si>
+    <t>PAOLA TATIANA</t>
+  </si>
+  <si>
+    <t>Fgzmt3826,</t>
+  </si>
+  <si>
+    <t>OLIVER STANLEY</t>
+  </si>
+  <si>
+    <t>DIAZ MERCADO</t>
+  </si>
+  <si>
+    <t>Douzp2170,</t>
+  </si>
+  <si>
+    <t>DUMAS SANCHEZ</t>
+  </si>
+  <si>
+    <t>Uswka2164/</t>
+  </si>
+  <si>
+    <t>JOSEFA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>FLORES NARVAEZ</t>
+  </si>
+  <si>
+    <t>Xzeal3014/</t>
+  </si>
+  <si>
+    <t>PATRICIA AUXILIADORA</t>
+  </si>
+  <si>
+    <t>GAITAN MIRANDA</t>
+  </si>
+  <si>
+    <t>Cfbsj9028/</t>
+  </si>
+  <si>
+    <t>MINELY LOYESVKA</t>
+  </si>
+  <si>
+    <t>GOMEZ VARGAS</t>
+  </si>
+  <si>
+    <t>Shudg0471.</t>
+  </si>
+  <si>
+    <t>MEYLING</t>
+  </si>
+  <si>
+    <t>Uqfjb5201-</t>
+  </si>
+  <si>
+    <t>MARILUZ DEL CARMEN</t>
+  </si>
+  <si>
+    <t>Ompqv6958-</t>
+  </si>
+  <si>
+    <t>DOUGLAS STEVEN</t>
+  </si>
+  <si>
+    <t>LARGAESPADA NARVÁEZ</t>
+  </si>
+  <si>
+    <t>Xntok5479*</t>
+  </si>
+  <si>
+    <t>JUDYTH DEL CARMEN</t>
+  </si>
+  <si>
+    <t>LUMBI TORREZ</t>
+  </si>
+  <si>
+    <t>Ohyak9371+</t>
+  </si>
+  <si>
+    <t>MARELY KARELY</t>
+  </si>
+  <si>
+    <t>LUNA FLORES</t>
+  </si>
+  <si>
+    <t>Unan.24020</t>
+  </si>
+  <si>
+    <t>MARIA LAURA</t>
+  </si>
+  <si>
+    <t>MARTINEZ MOREIRA</t>
+  </si>
+  <si>
+    <t>Xlcsb8932-</t>
+  </si>
+  <si>
+    <t>GABRIEL EDUARDO</t>
+  </si>
+  <si>
+    <t>MEDINA BRAVO</t>
+  </si>
+  <si>
+    <t>Cklzd1290*</t>
+  </si>
+  <si>
+    <t>JORDY ALEXANDER</t>
+  </si>
+  <si>
+    <t>MENDEZ URBINA</t>
+  </si>
+  <si>
+    <t>Ofutb5314,</t>
+  </si>
+  <si>
+    <t>MARIA VIRGINIA</t>
+  </si>
+  <si>
+    <t>MENESES LOPEZ</t>
+  </si>
+  <si>
+    <t>Pjbke8503/</t>
+  </si>
+  <si>
+    <t>ARIEL DAVID</t>
+  </si>
+  <si>
+    <t>MERCADO CASTRO</t>
+  </si>
+  <si>
+    <t>Xxlsg7835-</t>
+  </si>
+  <si>
+    <t>HALDO JAVIER</t>
+  </si>
+  <si>
+    <t>MERCADO ESPINOZA</t>
+  </si>
+  <si>
+    <t>Jhqro4608+</t>
+  </si>
+  <si>
+    <t>RAUL JERONIMO</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>Wwqlj2798/</t>
+  </si>
+  <si>
+    <t>Tmftb4805*</t>
+  </si>
+  <si>
+    <t>BLANCA LIZETH</t>
+  </si>
+  <si>
+    <t>MUÑOZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>Wzhew2076*</t>
+  </si>
+  <si>
+    <t>ENYEL ANTONIO</t>
+  </si>
+  <si>
+    <t>ORDEÑANA TREMINIO</t>
+  </si>
+  <si>
+    <t>Agrfi1324*</t>
+  </si>
+  <si>
+    <t>ELEAZAR ANTONIO</t>
+  </si>
+  <si>
+    <t>Odirh0246-</t>
+  </si>
+  <si>
+    <t>RAMIREZ VALDIVIA</t>
+  </si>
+  <si>
+    <t>Epgnm4789.</t>
+  </si>
+  <si>
+    <t>ANDREA GABRIELA</t>
+  </si>
+  <si>
+    <t>RIOS GARCIA</t>
+  </si>
+  <si>
+    <t>Taojv3087+</t>
+  </si>
+  <si>
+    <t>KATHERINE JUNIETH</t>
+  </si>
+  <si>
+    <t>ROCHA MOLINA</t>
+  </si>
+  <si>
+    <t>Rybzn4725.</t>
+  </si>
+  <si>
+    <t>OSCAR DAVID</t>
+  </si>
+  <si>
+    <t>ROSALES OLIVAS</t>
+  </si>
+  <si>
+    <t>Nfyvj5604-</t>
+  </si>
+  <si>
+    <t>SABALLOS MENDOZA</t>
+  </si>
+  <si>
+    <t>Veatx3952,</t>
+  </si>
+  <si>
+    <t>EDDY ADALID</t>
+  </si>
+  <si>
+    <t>SALINAS FLORES</t>
+  </si>
+  <si>
+    <t>Zwhne3915*</t>
+  </si>
+  <si>
+    <t>ANYELY SUZETTE</t>
+  </si>
+  <si>
+    <t>SANABRIA SOZA</t>
+  </si>
+  <si>
+    <t>Wougt9047*</t>
+  </si>
+  <si>
+    <t>SANCHEZ AVENDAÑO</t>
+  </si>
+  <si>
+    <t>Vmuap3240-</t>
+  </si>
+  <si>
+    <t>SOMARRIBA GOMEZ</t>
+  </si>
+  <si>
+    <t>Eixqu5931/</t>
+  </si>
+  <si>
+    <t>RAMON IVAN</t>
+  </si>
+  <si>
+    <t>SOZA CASTILLO</t>
+  </si>
+  <si>
+    <t>Hulag4782+</t>
+  </si>
+  <si>
+    <t>ERICK MOISES</t>
+  </si>
+  <si>
+    <t>SOZA VIVAS</t>
+  </si>
+  <si>
+    <t>Zyjnd8791.</t>
+  </si>
+  <si>
+    <t>MAYNOR STEVEN</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>Pdlyw8026.</t>
+  </si>
+  <si>
+    <t>CARLOS DANILO</t>
+  </si>
+  <si>
+    <t>URIARTE NAVARRO</t>
+  </si>
+  <si>
+    <t>Scmij5849-</t>
+  </si>
+  <si>
+    <t>ANIELKA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>VARGAS AGUILAR</t>
+  </si>
+  <si>
+    <t>Mymti6728+</t>
+  </si>
+  <si>
+    <t>SHERLYN ANAHI</t>
+  </si>
+  <si>
+    <t>VARGAS RIVAS</t>
+  </si>
+  <si>
+    <t>Vsumc8164+</t>
+  </si>
+  <si>
+    <t>KATHERINE ISABEL</t>
+  </si>
+  <si>
+    <t>VELASQUEZ SALINAS</t>
+  </si>
+  <si>
+    <t>Irhqv7801,</t>
+  </si>
+  <si>
+    <t>FRANCIS DEL CARMEN</t>
+  </si>
+  <si>
+    <t>ZAMORA MERCADO</t>
+  </si>
+  <si>
+    <t>Gurij7139.</t>
+  </si>
+  <si>
+    <t>CRISTIAN ANTONIO</t>
+  </si>
+  <si>
+    <t>ALVAREZ DIAZ</t>
+  </si>
+  <si>
+    <t>Grsiu9317*</t>
+  </si>
+  <si>
+    <t>MASWEL JOSE</t>
+  </si>
+  <si>
+    <t>ARAGON VILLALOBOS</t>
+  </si>
+  <si>
+    <t>Eikec1782+</t>
+  </si>
+  <si>
+    <t>KRYSTHIEL ISABEL</t>
+  </si>
+  <si>
+    <t>BLANDON GIL</t>
+  </si>
+  <si>
+    <t>Refgj5916-</t>
+  </si>
+  <si>
+    <t>SOFIA MARGARITA</t>
+  </si>
+  <si>
+    <t>CARAZO VEGA</t>
+  </si>
+  <si>
+    <t>Jfwlz3619+</t>
+  </si>
+  <si>
+    <t>MAYKELI SUYEN</t>
+  </si>
+  <si>
+    <t>CASTILLO OROZCO</t>
+  </si>
+  <si>
+    <t>Anhzu9857+</t>
+  </si>
+  <si>
+    <t>DARWIN JOSE</t>
+  </si>
+  <si>
+    <t>CENTENO OLIBA</t>
+  </si>
+  <si>
+    <t>Sgilr5230-</t>
+  </si>
+  <si>
+    <t>TEOFILO JOSE</t>
+  </si>
+  <si>
+    <t>Rzimr0167+</t>
+  </si>
+  <si>
+    <t>LEDDYS LEONEL</t>
+  </si>
+  <si>
+    <t>CHAVARRIA VEGA</t>
+  </si>
+  <si>
+    <t>Wkacw8974/</t>
+  </si>
+  <si>
+    <t>KEILY NACIELY</t>
+  </si>
+  <si>
+    <t>Fgytu1258+</t>
+  </si>
+  <si>
+    <t>KENNEDY SNYDER</t>
+  </si>
+  <si>
+    <t>CRUZ GUZMAN</t>
+  </si>
+  <si>
+    <t>Mchrl2648,</t>
+  </si>
+  <si>
+    <t>LUIS FRANCISCO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ RUÍZ</t>
+  </si>
+  <si>
+    <t>Pkwqy4602-</t>
+  </si>
+  <si>
+    <t>JACKSON REYNALDO</t>
+  </si>
+  <si>
+    <t>ESCOTO DORME</t>
+  </si>
+  <si>
+    <t>Vhtor5768-</t>
+  </si>
+  <si>
+    <t>ATZIRI PAOLA</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>Czshn8609,</t>
+  </si>
+  <si>
+    <t>MASSIEL ARGENTINA</t>
+  </si>
+  <si>
+    <t>FLORES BOLAÑOS</t>
+  </si>
+  <si>
+    <t>Iiuzy4683+</t>
+  </si>
+  <si>
+    <t>ROMEYLING GUADALUPE</t>
+  </si>
+  <si>
+    <t>FLORES GARCIA</t>
+  </si>
+  <si>
+    <t>Srpwk0452+</t>
+  </si>
+  <si>
+    <t>JARA BELEN</t>
+  </si>
+  <si>
+    <t>GARCIA ALEMAN</t>
+  </si>
+  <si>
+    <t>Ydtqr3768+</t>
+  </si>
+  <si>
+    <t>CARLOS DANIEL</t>
+  </si>
+  <si>
+    <t>GARCIA SOLANO</t>
+  </si>
+  <si>
+    <t>Fjwkp2907.</t>
+  </si>
+  <si>
+    <t>JAMCARLOS</t>
+  </si>
+  <si>
+    <t>GOMEZ CONDE</t>
+  </si>
+  <si>
+    <t>Zfavm4021,</t>
+  </si>
+  <si>
+    <t>JAHIMA JOSSABETH</t>
+  </si>
+  <si>
+    <t>GONZALEZ ESTRADA</t>
+  </si>
+  <si>
+    <t>Rcfqn7584-</t>
+  </si>
+  <si>
+    <t>JOSE ELIEZER</t>
+  </si>
+  <si>
+    <t>GRANERA PEREZ</t>
+  </si>
+  <si>
+    <t>Crwso0591*</t>
+  </si>
+  <si>
+    <t>MEDERLING DEL SOCORRO</t>
+  </si>
+  <si>
+    <t>Elbya7931.</t>
+  </si>
+  <si>
+    <t>GONZALO MANUEL</t>
+  </si>
+  <si>
+    <t>GUTIERREZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>Ugfkn6392.</t>
+  </si>
+  <si>
+    <t>JELDRING HONIEL</t>
+  </si>
+  <si>
+    <t>HERNANDEZ ALVARES</t>
+  </si>
+  <si>
+    <t>Ydlex5364*</t>
+  </si>
+  <si>
+    <t>Qrgqu5897-</t>
+  </si>
+  <si>
+    <t>MARIS YISSEL</t>
+  </si>
+  <si>
+    <t>HURTADO ZAVALA</t>
+  </si>
+  <si>
+    <t>Noxpt6503*</t>
+  </si>
+  <si>
+    <t>FRANCIS JESSENIA</t>
+  </si>
+  <si>
+    <t>JIMENEZ MIRANDA</t>
+  </si>
+  <si>
+    <t>Ecfbd2516-</t>
+  </si>
+  <si>
+    <t>EVERT ANTONIO</t>
+  </si>
+  <si>
+    <t>JIMENEZ OPORTA</t>
+  </si>
+  <si>
+    <t>Vptxz4752-</t>
+  </si>
+  <si>
+    <t>ENYEL GABRIEL</t>
+  </si>
+  <si>
+    <t>LOPEZ CORTEZ</t>
+  </si>
+  <si>
+    <t>Kxhuk9430.</t>
+  </si>
+  <si>
+    <t>HELEN TATIANA</t>
+  </si>
+  <si>
+    <t>MAIRENA SILVA</t>
+  </si>
+  <si>
+    <t>Ipnyi4371+</t>
+  </si>
+  <si>
+    <t>GENESIS RAQUEL</t>
+  </si>
+  <si>
+    <t>Kfmyp3159-</t>
+  </si>
+  <si>
+    <t>RUBEN DENILSON</t>
+  </si>
+  <si>
+    <t>MENDOZA UMAÑA</t>
+  </si>
+  <si>
+    <t>Chysr7906+</t>
+  </si>
+  <si>
+    <t>OLIVAREZ GOMEZ</t>
+  </si>
+  <si>
+    <t>Kzkjs3486+</t>
+  </si>
+  <si>
+    <t>ROSA IDALIA</t>
+  </si>
+  <si>
+    <t>OPORTA FLORES</t>
+  </si>
+  <si>
+    <t>Qwzbj2031+</t>
+  </si>
+  <si>
+    <t>CRISTOPHER ARMANDO</t>
+  </si>
+  <si>
+    <t>OROZCO MONTIEL</t>
+  </si>
+  <si>
+    <t>Hjgnk6205,</t>
+  </si>
+  <si>
+    <t>ENGEL MARINA</t>
+  </si>
+  <si>
+    <t>OVIEDO</t>
+  </si>
+  <si>
+    <t>Cetsl0785*</t>
+  </si>
+  <si>
+    <t>BETZAIDA BETANIA</t>
+  </si>
+  <si>
+    <t>PUERTO CALERO</t>
+  </si>
+  <si>
+    <t>Sathi4756.</t>
+  </si>
+  <si>
+    <t>QUINTERO BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>Unan.1SEM6711</t>
+  </si>
+  <si>
+    <t>KEY</t>
+  </si>
+  <si>
+    <t>RAMIREZ FIGUEROA</t>
+  </si>
+  <si>
+    <t>Zdbiy2513/</t>
+  </si>
+  <si>
+    <t>KENNEDY JOSE</t>
+  </si>
+  <si>
+    <t>REYES AGUIRRE</t>
+  </si>
+  <si>
+    <t>Vlnqz7394-</t>
+  </si>
+  <si>
+    <t>REYES MORAGA</t>
+  </si>
+  <si>
+    <t>Etjme9824+</t>
+  </si>
+  <si>
+    <t>RIVERA LOPEZ</t>
+  </si>
+  <si>
+    <t>Rasrw4698*</t>
+  </si>
+  <si>
+    <t>LISBETH DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>ROCHA MUÑOZ</t>
+  </si>
+  <si>
+    <t>Pbear4029.</t>
+  </si>
+  <si>
+    <t>JOSHUA ISAAC</t>
+  </si>
+  <si>
+    <t>ROSALES AGUILAR</t>
+  </si>
+  <si>
+    <t>Hlqxp0324.</t>
+  </si>
+  <si>
+    <t>ANKARA JENIETH</t>
+  </si>
+  <si>
+    <t>RUIZ MEMBREÑO</t>
+  </si>
+  <si>
+    <t>Vaocs0193,</t>
+  </si>
+  <si>
+    <t>FRESIA KATIUSCA</t>
+  </si>
+  <si>
+    <t>RUIZ MONTENEGRO</t>
+  </si>
+  <si>
+    <t>Mzuvq3127+</t>
+  </si>
+  <si>
+    <t>KRISTOFER ALEXANDER</t>
+  </si>
+  <si>
+    <t>SUAZO DIAZ</t>
+  </si>
+  <si>
+    <t>Mdmjn8346,</t>
+  </si>
+  <si>
+    <t>ANA GUADALUPE</t>
+  </si>
+  <si>
+    <t>TORUÑO ALFARO</t>
+  </si>
+  <si>
+    <t>Hubvd7159*</t>
+  </si>
+  <si>
+    <t>ROXANA VALERIA</t>
+  </si>
+  <si>
+    <t>TREMINIO AGUIRRE</t>
+  </si>
+  <si>
+    <t>Lthuk9258.</t>
+  </si>
+  <si>
+    <t>RUBEN ANTONIO</t>
+  </si>
+  <si>
+    <t>URRUTIA SOLIS</t>
+  </si>
+  <si>
+    <t>Ownlq5910,</t>
+  </si>
+  <si>
+    <t>VALLEJOS RIVERA</t>
+  </si>
+  <si>
+    <t>Ugury1790-</t>
+  </si>
+  <si>
+    <t>DANIESKA CRISMARA</t>
+  </si>
+  <si>
+    <t>VARGAS VIVAS</t>
+  </si>
+  <si>
+    <t>Mvagb1953+</t>
+  </si>
+  <si>
+    <t>RAUL ENRIQUE</t>
+  </si>
+  <si>
+    <t>VILCHEZ GARCIA</t>
+  </si>
+  <si>
+    <t>Masrn9024/</t>
+  </si>
+  <si>
+    <t>DAVID ANDRES</t>
+  </si>
+  <si>
+    <t>VILLAREINA CACERES</t>
+  </si>
+  <si>
+    <t>Fvgso0472+</t>
+  </si>
+  <si>
+    <t>OSIRIS DAYANA</t>
+  </si>
+  <si>
+    <t>ZAMORA VARGAS</t>
+  </si>
+  <si>
+    <t>Yytwd9206*</t>
+  </si>
+  <si>
+    <t>JOSTIN HUSSEIN</t>
+  </si>
+  <si>
+    <t>ACEVEDO RIVAS</t>
+  </si>
+  <si>
+    <t>Dqjmp4073+</t>
+  </si>
+  <si>
+    <t>JOHESLY NICOL</t>
+  </si>
+  <si>
+    <t>AGUILAR VEGA</t>
+  </si>
+  <si>
+    <t>Zfmjs7521,</t>
+  </si>
+  <si>
+    <t>OMAR STEVEN</t>
+  </si>
+  <si>
+    <t>AMADOR CERNA</t>
+  </si>
+  <si>
+    <t>Oawvy5293*</t>
+  </si>
+  <si>
+    <t>ALLISON CELESTE</t>
+  </si>
+  <si>
+    <t>ANGULO GARCIA</t>
+  </si>
+  <si>
+    <t>Jgspe2560/</t>
+  </si>
+  <si>
+    <t>BYRON OSIEL</t>
+  </si>
+  <si>
+    <t>ARIAS MOYA</t>
+  </si>
+  <si>
+    <t>Yvdau8435*</t>
+  </si>
+  <si>
+    <t>ALISON ANAHI</t>
+  </si>
+  <si>
+    <t>AVILES SANCHEZ</t>
+  </si>
+  <si>
+    <t>Aogbw8432*</t>
+  </si>
+  <si>
+    <t>LORELEY AYELLIN</t>
+  </si>
+  <si>
+    <t>Qcjps9408,</t>
+  </si>
+  <si>
+    <t>DEGLIS JOSUE</t>
+  </si>
+  <si>
+    <t>BLANCO SERRATO</t>
+  </si>
+  <si>
+    <t>Tpfat6478*</t>
+  </si>
+  <si>
+    <t>MARIA LINA</t>
+  </si>
+  <si>
+    <t>CASTILLO GARCIA</t>
+  </si>
+  <si>
+    <t>Syawq3814,</t>
+  </si>
+  <si>
+    <t>OSMANY JESUAR</t>
+  </si>
+  <si>
+    <t>CENTENO ARANA</t>
+  </si>
+  <si>
+    <t>Hqcrf5416*</t>
+  </si>
+  <si>
+    <t>JEFRY</t>
+  </si>
+  <si>
+    <t>CERDA CARBALLO</t>
+  </si>
+  <si>
+    <t>Unan.1SEM7258</t>
+  </si>
+  <si>
+    <t>ALLISON LUCIA</t>
+  </si>
+  <si>
+    <t>CONNER GUTIERREZ</t>
+  </si>
+  <si>
+    <t>Kuvfj5783,</t>
+  </si>
+  <si>
+    <t>WERNER BERNY</t>
+  </si>
+  <si>
+    <t>DANLY ESCOBAR</t>
+  </si>
+  <si>
+    <t>Wcqrn6984*</t>
+  </si>
+  <si>
+    <t>FLORES ACEVEDO</t>
+  </si>
+  <si>
+    <t>Ftwdq7418,</t>
+  </si>
+  <si>
+    <t>JAVI CAROLINA</t>
+  </si>
+  <si>
+    <t>FUENTES CALERO</t>
+  </si>
+  <si>
+    <t>Vmixy5138+</t>
+  </si>
+  <si>
+    <t>ANTHONY IVERSON</t>
+  </si>
+  <si>
+    <t>GAITAN MALESPIN</t>
+  </si>
+  <si>
+    <t>Srswk4097+</t>
+  </si>
+  <si>
+    <t>GENESIS YAZEL</t>
+  </si>
+  <si>
+    <t>GARCIA PICADO</t>
+  </si>
+  <si>
+    <t>Tjrln0279*</t>
+  </si>
+  <si>
+    <t>MONICA RASHEL</t>
+  </si>
+  <si>
+    <t>GONZALEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>Xhdgb4782,</t>
+  </si>
+  <si>
+    <t>ELIUD OBED</t>
+  </si>
+  <si>
+    <t>GRANERA MARTINEZ</t>
+  </si>
+  <si>
+    <t>Khlek1267.</t>
+  </si>
+  <si>
+    <t>ROSA CENELIA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ SALMERON</t>
+  </si>
+  <si>
+    <t>Oizsb8635+</t>
+  </si>
+  <si>
+    <t>JHONY EZEQUIEL</t>
+  </si>
+  <si>
+    <t>HERNANDEZ VELASQUEZ</t>
+  </si>
+  <si>
+    <t>Rdzbw5682/</t>
+  </si>
+  <si>
+    <t>YOSELIN ESTEFANIA</t>
+  </si>
+  <si>
+    <t>HURTADO LOPEZ</t>
+  </si>
+  <si>
+    <t>Fcypk3907+</t>
+  </si>
+  <si>
+    <t>JIMENEZ MIDENSE</t>
+  </si>
+  <si>
+    <t>Rxzpq9306+</t>
+  </si>
+  <si>
+    <t>YASUARA YALI</t>
+  </si>
+  <si>
+    <t>LOPEZ MEJIA</t>
+  </si>
+  <si>
+    <t>Erbgf8751/</t>
+  </si>
+  <si>
+    <t>ASHLEY SARAHI</t>
+  </si>
+  <si>
+    <t>Ixayi0498-</t>
+  </si>
+  <si>
+    <t>Nixwk4617*</t>
+  </si>
+  <si>
+    <t>INGRID DAYANA</t>
+  </si>
+  <si>
+    <t>MATUTE</t>
+  </si>
+  <si>
+    <t>Wiben7543*</t>
+  </si>
+  <si>
+    <t>GABRIEL JOSE</t>
+  </si>
+  <si>
+    <t>MEJIA POVEDA</t>
+  </si>
+  <si>
+    <t>Ergdx8213-</t>
+  </si>
+  <si>
+    <t>SAID ZAYED</t>
+  </si>
+  <si>
+    <t>MENCIA BLANDON</t>
+  </si>
+  <si>
+    <t>Vrlzu2760/</t>
+  </si>
+  <si>
+    <t>MENDEZ ZELEDON</t>
+  </si>
+  <si>
+    <t>Ewpcr6429,</t>
+  </si>
+  <si>
+    <t>LISSERLING LAYESKA</t>
+  </si>
+  <si>
+    <t>MENDOZA GONZALEZ</t>
+  </si>
+  <si>
+    <t>Neamh3704,</t>
+  </si>
+  <si>
+    <t>HALLIE VANESSA</t>
+  </si>
+  <si>
+    <t>MERCADO ARIAS</t>
+  </si>
+  <si>
+    <t>Hhdva3425-</t>
+  </si>
+  <si>
+    <t>AMERICA AYLING</t>
+  </si>
+  <si>
+    <t>Chpxm8067*</t>
+  </si>
+  <si>
+    <t>ALBA JUDITH</t>
+  </si>
+  <si>
+    <t>MURILLO GONZALEZ</t>
+  </si>
+  <si>
+    <t>Bwjpd3071.</t>
+  </si>
+  <si>
+    <t>BRETEL CRISTEL</t>
+  </si>
+  <si>
+    <t>MUÑOZ DUARTE</t>
+  </si>
+  <si>
+    <t>Aryaz5960/</t>
+  </si>
+  <si>
+    <t>YANCARLOS</t>
+  </si>
+  <si>
+    <t>OSORTO DAVILA</t>
+  </si>
+  <si>
+    <t>Eylwb5130,</t>
+  </si>
+  <si>
+    <t>JUDITH ALEXANDRA</t>
+  </si>
+  <si>
+    <t>PEREZ RUIZ</t>
+  </si>
+  <si>
+    <t>Jgsky8396,</t>
+  </si>
+  <si>
+    <t>MARIA GRACIELA</t>
+  </si>
+  <si>
+    <t>PONCE SANDOVAL</t>
+  </si>
+  <si>
+    <t>Lmnky2763.</t>
+  </si>
+  <si>
+    <t>HEIDY ELIETH</t>
+  </si>
+  <si>
+    <t>RAMOS GARCIA</t>
+  </si>
+  <si>
+    <t>Sjnkh5128*</t>
+  </si>
+  <si>
+    <t>GENESIS MATILDE</t>
+  </si>
+  <si>
+    <t>REYES GONZALES</t>
+  </si>
+  <si>
+    <t>Wwfhz1490,</t>
+  </si>
+  <si>
+    <t>STEFANY SCARLETH</t>
+  </si>
+  <si>
+    <t>RIVAS HERNANDEZ</t>
+  </si>
+  <si>
+    <t>Fkwds1936+</t>
+  </si>
+  <si>
+    <t>HEYSEL JOHANNA</t>
+  </si>
+  <si>
+    <t>RIVAS ORTIZ</t>
+  </si>
+  <si>
+    <t>Fypqa9625+</t>
+  </si>
+  <si>
+    <t>YUREILYN ALEJANDRA</t>
+  </si>
+  <si>
+    <t>ROA LAMPIN</t>
+  </si>
+  <si>
+    <t>Xwgyv4312.</t>
+  </si>
+  <si>
+    <t>ARLEN NAYELI</t>
+  </si>
+  <si>
+    <t>Vkeuf9751/</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ MENDOZA</t>
+  </si>
+  <si>
+    <t>Edznh8439*</t>
+  </si>
+  <si>
+    <t>ANDREA SOLANGE</t>
+  </si>
+  <si>
+    <t>SABALLOS CERNA</t>
+  </si>
+  <si>
+    <t>Vvrog2698/</t>
+  </si>
+  <si>
+    <t>YANCARLOS ANTONIO</t>
+  </si>
+  <si>
+    <t>SALGADO MOLINA</t>
+  </si>
+  <si>
+    <t>Tdjva9870-</t>
+  </si>
+  <si>
+    <t>DARVIN ESTIVEN</t>
+  </si>
+  <si>
+    <t>SANDOVAL BRACAMONTES</t>
+  </si>
+  <si>
+    <t>Ndgqh4276-</t>
+  </si>
+  <si>
+    <t>NESTOR RAMON</t>
+  </si>
+  <si>
+    <t>TELLEZ HUERTA</t>
+  </si>
+  <si>
+    <t>Lipqb3627/</t>
+  </si>
+  <si>
+    <t>Cfiga9870.</t>
+  </si>
+  <si>
+    <t>EYMI PAOLA</t>
+  </si>
+  <si>
+    <t>VASQUEZ GOMEZ</t>
+  </si>
+  <si>
+    <t>Powsg4986,</t>
+  </si>
+  <si>
+    <t>ADRIANA VALESKA</t>
+  </si>
+  <si>
+    <t>ABURTO OPORTA</t>
+  </si>
+  <si>
+    <t>Bdqgt5621*</t>
+  </si>
+  <si>
+    <t>BALDELOMAR ANGULO</t>
+  </si>
+  <si>
+    <t>Plifs9854+</t>
+  </si>
+  <si>
+    <t>ANA DANIELKA</t>
+  </si>
+  <si>
+    <t>BARAHONA CARMONA</t>
+  </si>
+  <si>
+    <t>Mqpcb1570,</t>
+  </si>
+  <si>
+    <t>CHRISTIAN FRANCISCO</t>
+  </si>
+  <si>
+    <t>BERMUDEZ PEREZ</t>
+  </si>
+  <si>
+    <t>Wxtcj6240,</t>
+  </si>
+  <si>
+    <t>JONATHAN SAUL</t>
+  </si>
+  <si>
+    <t>CALERO BLASS</t>
+  </si>
+  <si>
+    <t>Elfzp6173,</t>
+  </si>
+  <si>
+    <t>JENNIFER GUADALUPE</t>
+  </si>
+  <si>
+    <t>CALERO HURTADO</t>
+  </si>
+  <si>
+    <t>Wgoza3059.</t>
+  </si>
+  <si>
+    <t>ELENA DAMARIS</t>
+  </si>
+  <si>
+    <t>CALERO MEDINA</t>
+  </si>
+  <si>
+    <t>Kwxog0583/</t>
+  </si>
+  <si>
+    <t>GEYLIN DEL CARMEN</t>
+  </si>
+  <si>
+    <t>CALERO ZELEDON</t>
+  </si>
+  <si>
+    <t>Mclts7856*</t>
+  </si>
+  <si>
+    <t>KENIA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>DE MATA LEIVA</t>
+  </si>
+  <si>
+    <t>Iaxlf2107/</t>
+  </si>
+  <si>
+    <t>ADRIANA SUSANA</t>
+  </si>
+  <si>
+    <t>DIAZ DIAZ</t>
+  </si>
+  <si>
+    <t>Srove5149,</t>
+  </si>
+  <si>
+    <t>YAHIR ABRAHAM</t>
+  </si>
+  <si>
+    <t>ESPINOZA VARELA</t>
+  </si>
+  <si>
+    <t>Apyco8947-</t>
+  </si>
+  <si>
+    <t>SILVIA JAVIERA</t>
+  </si>
+  <si>
+    <t>GAITAN PAVON</t>
+  </si>
+  <si>
+    <t>Ufrzy6708,</t>
+  </si>
+  <si>
+    <t>ESMILSE ESTEFANI</t>
+  </si>
+  <si>
+    <t>Arkwz5317-</t>
+  </si>
+  <si>
+    <t>GOMEZ GARCIA</t>
+  </si>
+  <si>
+    <t>Whqoz6812+</t>
+  </si>
+  <si>
+    <t>DIXON MAGDIEL</t>
+  </si>
+  <si>
+    <t>GOMEZ NARVAEZ</t>
+  </si>
+  <si>
+    <t>Pkihj0351/</t>
+  </si>
+  <si>
+    <t>ANA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>GUERRERO GARCIA</t>
+  </si>
+  <si>
+    <t>Coxvw1609,</t>
+  </si>
+  <si>
+    <t>MARIA ELIA</t>
+  </si>
+  <si>
+    <t>GUERRERO ULLOA</t>
+  </si>
+  <si>
+    <t>Ohwfv7342+</t>
+  </si>
+  <si>
+    <t>OSWALDO SAMIR</t>
+  </si>
+  <si>
+    <t>GUTIERREZ NAVARRO</t>
+  </si>
+  <si>
+    <t>Kcojp9327+</t>
+  </si>
+  <si>
+    <t>ALICIA MARGARITA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ MENDEZ</t>
+  </si>
+  <si>
+    <t>Akpnj6423,</t>
+  </si>
+  <si>
+    <t>HAZEL DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>JALINAS LOPEZ</t>
+  </si>
+  <si>
+    <t>Hfiod7198-</t>
+  </si>
+  <si>
+    <t>JOSE DE JESUS</t>
+  </si>
+  <si>
+    <t>JARQUIN ALEMAN</t>
+  </si>
+  <si>
+    <t>Wzyqm2038-</t>
+  </si>
+  <si>
+    <t>NAHOMI NOHELIA</t>
+  </si>
+  <si>
+    <t>JIRON MARTINEZ</t>
+  </si>
+  <si>
+    <t>Skpvm3276-</t>
+  </si>
+  <si>
+    <t>CARLOS SAMUEL</t>
+  </si>
+  <si>
+    <t>LOPEZ REÑAZCO</t>
+  </si>
+  <si>
+    <t>Bxsig4398*</t>
+  </si>
+  <si>
+    <t>MARGARITA INES</t>
+  </si>
+  <si>
+    <t>MALESPIN</t>
+  </si>
+  <si>
+    <t>Yyxib6837+</t>
+  </si>
+  <si>
+    <t>HEYBRAM LEONEL</t>
+  </si>
+  <si>
+    <t>MARTINEZ GAITAN</t>
+  </si>
+  <si>
+    <t>Qjaog9236*</t>
+  </si>
+  <si>
+    <t>STEFANY JARITZA</t>
+  </si>
+  <si>
+    <t>MARTINEZ MEDINA</t>
+  </si>
+  <si>
+    <t>Lugma1234+</t>
+  </si>
+  <si>
+    <t>ANGELI ESMERALDA</t>
+  </si>
+  <si>
+    <t>Jzyib5136,</t>
+  </si>
+  <si>
+    <t>MICHELLE LLANELI</t>
+  </si>
+  <si>
+    <t>MEMBREÑO CALERO</t>
+  </si>
+  <si>
+    <t>Vgyqu6475+</t>
+  </si>
+  <si>
+    <t>MENA GONZALEZ</t>
+  </si>
+  <si>
+    <t>Ntwgz0598-</t>
+  </si>
+  <si>
+    <t>LAYJANY ANTONELA</t>
+  </si>
+  <si>
+    <t>MERCADO CHAVARRIA</t>
+  </si>
+  <si>
+    <t>Nvazi0461-</t>
+  </si>
+  <si>
+    <t>SHARON ALONDRA</t>
+  </si>
+  <si>
+    <t>MERCADO LOPEZ</t>
+  </si>
+  <si>
+    <t>Idafr4293+</t>
+  </si>
+  <si>
+    <t>MERCADO ORTIZ</t>
+  </si>
+  <si>
+    <t>Xxpml5647-</t>
+  </si>
+  <si>
+    <t>KARINA DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>MEZA PINEDA</t>
+  </si>
+  <si>
+    <t>Wogzl1476,</t>
+  </si>
+  <si>
+    <t>VERONICA DEL SOCORRO</t>
+  </si>
+  <si>
+    <t>MIRANDA FUENTES</t>
+  </si>
+  <si>
+    <t>Ufgcz4092/</t>
+  </si>
+  <si>
+    <t>NATANAEL ISAAC</t>
+  </si>
+  <si>
+    <t>MORALES CAMPO</t>
+  </si>
+  <si>
+    <t>Lpeua4369-</t>
+  </si>
+  <si>
+    <t>FERNANDA GABRIELA</t>
+  </si>
+  <si>
+    <t>OBANDO HIDALGO</t>
+  </si>
+  <si>
+    <t>Nzctn3568+</t>
+  </si>
+  <si>
+    <t>JUAN BOSCO</t>
+  </si>
+  <si>
+    <t>RAMIREZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>Xqcnk9637,</t>
+  </si>
+  <si>
+    <t>DURVIN DAVID</t>
+  </si>
+  <si>
+    <t>RIVAS BLAS</t>
+  </si>
+  <si>
+    <t>Unan.2240703</t>
+  </si>
+  <si>
+    <t>YERALD ANTONIO</t>
+  </si>
+  <si>
+    <t>ROCHA CALDERON</t>
+  </si>
+  <si>
+    <t>Ztfjn5647-</t>
+  </si>
+  <si>
+    <t>JULISSA DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ JIMENEZ</t>
+  </si>
+  <si>
+    <t>Nkrjg7324/</t>
+  </si>
+  <si>
+    <t>ANA ELIZABETH</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ MAIRENA</t>
+  </si>
+  <si>
+    <t>Gkgqd6879/</t>
+  </si>
+  <si>
+    <t>MADELEINE JANOVICK</t>
+  </si>
+  <si>
+    <t>ROJAS TORREZ</t>
+  </si>
+  <si>
+    <t>Fywtk4593,</t>
+  </si>
+  <si>
+    <t>DARIEN BENJAMIN</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>Euvgn3517,</t>
+  </si>
+  <si>
+    <t>NORMAN GEOVANY</t>
+  </si>
+  <si>
+    <t>SALINAS MIRANDA</t>
+  </si>
+  <si>
+    <t>Ttkuo8420*</t>
+  </si>
+  <si>
+    <t>NATALIA PAOLA</t>
+  </si>
+  <si>
+    <t>Mstvj1249-</t>
+  </si>
+  <si>
+    <t>ANIA WALESKA</t>
+  </si>
+  <si>
+    <t>SANCHEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>Atazr9267-</t>
+  </si>
+  <si>
+    <t>EUNISES DALILA</t>
+  </si>
+  <si>
+    <t>Emokx9807,</t>
+  </si>
+  <si>
+    <t>FRANCIS DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>SEQUEIRA FUENTES</t>
+  </si>
+  <si>
+    <t>Drwbj7612*</t>
+  </si>
+  <si>
+    <t>JULISSA DE LOS ÁNGELES</t>
+  </si>
+  <si>
+    <t>TORREZ ALVAREZ</t>
+  </si>
+  <si>
+    <t>Gojvs3079*</t>
+  </si>
+  <si>
+    <t>TORREZ PRAVIA</t>
+  </si>
+  <si>
+    <t>Kczlx3067+</t>
+  </si>
+  <si>
+    <t>GERSON ISAI</t>
+  </si>
+  <si>
+    <t>VANEGAS DIAZ</t>
   </si>
 </sst>
 </file>
@@ -22581,10 +24660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5147"/>
+  <dimension ref="A1:E5398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5110" workbookViewId="0">
-      <selection activeCell="G5048" sqref="G5048"/>
+    <sheetView tabSelected="1" topLeftCell="A5380" workbookViewId="0">
+      <selection activeCell="A5148" sqref="A5148:D5398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -94653,6 +96732,3520 @@
         <v>7397</v>
       </c>
     </row>
+    <row r="5148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5148">
+        <v>25618134</v>
+      </c>
+      <c r="B5148" t="s">
+        <v>7398</v>
+      </c>
+      <c r="C5148" t="s">
+        <v>7399</v>
+      </c>
+      <c r="D5148" t="s">
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="5149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5149">
+        <v>25201894</v>
+      </c>
+      <c r="B5149" t="s">
+        <v>7401</v>
+      </c>
+      <c r="C5149" t="s">
+        <v>7402</v>
+      </c>
+      <c r="D5149" t="s">
+        <v>7403</v>
+      </c>
+    </row>
+    <row r="5150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5150">
+        <v>25201201</v>
+      </c>
+      <c r="B5150" t="s">
+        <v>7404</v>
+      </c>
+      <c r="C5150" t="s">
+        <v>7405</v>
+      </c>
+      <c r="D5150" t="s">
+        <v>7406</v>
+      </c>
+    </row>
+    <row r="5151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5151">
+        <v>25205062</v>
+      </c>
+      <c r="B5151" t="s">
+        <v>7407</v>
+      </c>
+      <c r="C5151" t="s">
+        <v>7408</v>
+      </c>
+      <c r="D5151" t="s">
+        <v>7409</v>
+      </c>
+    </row>
+    <row r="5152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5152">
+        <v>24014795</v>
+      </c>
+      <c r="B5152" t="s">
+        <v>7410</v>
+      </c>
+      <c r="C5152" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D5152" t="s">
+        <v>7411</v>
+      </c>
+    </row>
+    <row r="5153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5153">
+        <v>25207482</v>
+      </c>
+      <c r="B5153" t="s">
+        <v>7412</v>
+      </c>
+      <c r="C5153" t="s">
+        <v>7413</v>
+      </c>
+      <c r="D5153" t="s">
+        <v>7414</v>
+      </c>
+    </row>
+    <row r="5154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5154">
+        <v>25800492</v>
+      </c>
+      <c r="B5154" t="s">
+        <v>7415</v>
+      </c>
+      <c r="C5154" t="s">
+        <v>7416</v>
+      </c>
+      <c r="D5154" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="5155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5155">
+        <v>25213280</v>
+      </c>
+      <c r="B5155" t="s">
+        <v>7417</v>
+      </c>
+      <c r="C5155" t="s">
+        <v>7418</v>
+      </c>
+      <c r="D5155" t="s">
+        <v>7419</v>
+      </c>
+    </row>
+    <row r="5156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5156">
+        <v>17900658</v>
+      </c>
+      <c r="B5156" t="s">
+        <v>7420</v>
+      </c>
+      <c r="C5156" t="s">
+        <v>7421</v>
+      </c>
+      <c r="D5156" t="s">
+        <v>7422</v>
+      </c>
+    </row>
+    <row r="5157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5157">
+        <v>25203270</v>
+      </c>
+      <c r="B5157" t="s">
+        <v>7423</v>
+      </c>
+      <c r="C5157" t="s">
+        <v>7424</v>
+      </c>
+      <c r="D5157" t="s">
+        <v>7425</v>
+      </c>
+    </row>
+    <row r="5158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5158">
+        <v>25205667</v>
+      </c>
+      <c r="B5158" t="s">
+        <v>7426</v>
+      </c>
+      <c r="C5158" t="s">
+        <v>7427</v>
+      </c>
+      <c r="D5158" t="s">
+        <v>7428</v>
+      </c>
+    </row>
+    <row r="5159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5159">
+        <v>25211398</v>
+      </c>
+      <c r="B5159" t="s">
+        <v>7429</v>
+      </c>
+      <c r="C5159" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5159" t="s">
+        <v>7430</v>
+      </c>
+    </row>
+    <row r="5160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5160">
+        <v>25200915</v>
+      </c>
+      <c r="B5160" t="s">
+        <v>7431</v>
+      </c>
+      <c r="C5160" t="s">
+        <v>7432</v>
+      </c>
+      <c r="D5160" t="s">
+        <v>7433</v>
+      </c>
+    </row>
+    <row r="5161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5161">
+        <v>25208472</v>
+      </c>
+      <c r="B5161" t="s">
+        <v>7434</v>
+      </c>
+      <c r="C5161" t="s">
+        <v>7435</v>
+      </c>
+      <c r="D5161" t="s">
+        <v>7436</v>
+      </c>
+    </row>
+    <row r="5162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5162">
+        <v>9209451</v>
+      </c>
+      <c r="B5162" t="s">
+        <v>7437</v>
+      </c>
+      <c r="C5162" t="s">
+        <v>7438</v>
+      </c>
+      <c r="D5162" t="s">
+        <v>7439</v>
+      </c>
+    </row>
+    <row r="5163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5163">
+        <v>22925595</v>
+      </c>
+      <c r="B5163" t="s">
+        <v>7440</v>
+      </c>
+      <c r="C5163" t="s">
+        <v>7441</v>
+      </c>
+      <c r="D5163" t="s">
+        <v>7442</v>
+      </c>
+    </row>
+    <row r="5164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5164">
+        <v>25203380</v>
+      </c>
+      <c r="B5164" t="s">
+        <v>7443</v>
+      </c>
+      <c r="C5164" t="s">
+        <v>7444</v>
+      </c>
+      <c r="D5164" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="5165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5165">
+        <v>25209616</v>
+      </c>
+      <c r="B5165" t="s">
+        <v>7445</v>
+      </c>
+      <c r="C5165" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D5165" t="s">
+        <v>7446</v>
+      </c>
+    </row>
+    <row r="5166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5166">
+        <v>25201377</v>
+      </c>
+      <c r="B5166" t="s">
+        <v>7447</v>
+      </c>
+      <c r="C5166" t="s">
+        <v>7448</v>
+      </c>
+      <c r="D5166" t="s">
+        <v>7449</v>
+      </c>
+    </row>
+    <row r="5167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5167">
+        <v>25204336</v>
+      </c>
+      <c r="B5167" t="s">
+        <v>7450</v>
+      </c>
+      <c r="C5167" t="s">
+        <v>7451</v>
+      </c>
+      <c r="D5167" t="s">
+        <v>7452</v>
+      </c>
+    </row>
+    <row r="5168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5168">
+        <v>25206063</v>
+      </c>
+      <c r="B5168" t="s">
+        <v>7453</v>
+      </c>
+      <c r="C5168" t="s">
+        <v>7454</v>
+      </c>
+      <c r="D5168" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="5169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5169">
+        <v>18019338</v>
+      </c>
+      <c r="B5169" t="s">
+        <v>7455</v>
+      </c>
+      <c r="C5169" t="s">
+        <v>7456</v>
+      </c>
+      <c r="D5169" t="s">
+        <v>7457</v>
+      </c>
+    </row>
+    <row r="5170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5170">
+        <v>25214600</v>
+      </c>
+      <c r="B5170" t="s">
+        <v>7458</v>
+      </c>
+      <c r="C5170" t="s">
+        <v>7459</v>
+      </c>
+      <c r="D5170" t="s">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="5171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5171">
+        <v>2309668</v>
+      </c>
+      <c r="B5171" t="s">
+        <v>7461</v>
+      </c>
+      <c r="C5171" t="s">
+        <v>7462</v>
+      </c>
+      <c r="D5171" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5172">
+        <v>24907698</v>
+      </c>
+      <c r="B5172" t="s">
+        <v>7463</v>
+      </c>
+      <c r="C5172" t="s">
+        <v>7464</v>
+      </c>
+      <c r="D5172" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="5173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5173">
+        <v>25207284</v>
+      </c>
+      <c r="B5173" t="s">
+        <v>7465</v>
+      </c>
+      <c r="C5173" t="s">
+        <v>7466</v>
+      </c>
+      <c r="D5173" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5174">
+        <v>25212498</v>
+      </c>
+      <c r="B5174" t="s">
+        <v>7467</v>
+      </c>
+      <c r="C5174" t="s">
+        <v>7468</v>
+      </c>
+      <c r="D5174" t="s">
+        <v>7469</v>
+      </c>
+    </row>
+    <row r="5175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5175">
+        <v>25211178</v>
+      </c>
+      <c r="B5175" t="s">
+        <v>7470</v>
+      </c>
+      <c r="C5175" t="s">
+        <v>7471</v>
+      </c>
+      <c r="D5175" t="s">
+        <v>7472</v>
+      </c>
+    </row>
+    <row r="5176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5176">
+        <v>25201652</v>
+      </c>
+      <c r="B5176" t="s">
+        <v>7473</v>
+      </c>
+      <c r="C5176" t="s">
+        <v>7474</v>
+      </c>
+      <c r="D5176" t="s">
+        <v>7475</v>
+      </c>
+    </row>
+    <row r="5177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5177">
+        <v>20018755</v>
+      </c>
+      <c r="B5177" t="s">
+        <v>7476</v>
+      </c>
+      <c r="C5177" t="s">
+        <v>7477</v>
+      </c>
+      <c r="D5177" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5178">
+        <v>25208440</v>
+      </c>
+      <c r="B5178" t="s">
+        <v>7478</v>
+      </c>
+      <c r="C5178" t="s">
+        <v>7479</v>
+      </c>
+      <c r="D5178" t="s">
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="5179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5179">
+        <v>21214830</v>
+      </c>
+      <c r="B5179" t="s">
+        <v>7481</v>
+      </c>
+      <c r="C5179" t="s">
+        <v>7482</v>
+      </c>
+      <c r="D5179" t="s">
+        <v>7483</v>
+      </c>
+    </row>
+    <row r="5180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5180">
+        <v>25207504</v>
+      </c>
+      <c r="B5180" t="s">
+        <v>7484</v>
+      </c>
+      <c r="C5180" t="s">
+        <v>7485</v>
+      </c>
+      <c r="D5180" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5181">
+        <v>25202499</v>
+      </c>
+      <c r="B5181" t="s">
+        <v>7486</v>
+      </c>
+      <c r="C5181" t="s">
+        <v>7487</v>
+      </c>
+      <c r="D5181" t="s">
+        <v>7488</v>
+      </c>
+    </row>
+    <row r="5182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5182">
+        <v>25213191</v>
+      </c>
+      <c r="B5182" t="s">
+        <v>7489</v>
+      </c>
+      <c r="C5182" t="s">
+        <v>7490</v>
+      </c>
+      <c r="D5182" t="s">
+        <v>7491</v>
+      </c>
+    </row>
+    <row r="5183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5183">
+        <v>25202862</v>
+      </c>
+      <c r="B5183" t="s">
+        <v>7492</v>
+      </c>
+      <c r="C5183" t="s">
+        <v>7493</v>
+      </c>
+      <c r="D5183" t="s">
+        <v>7494</v>
+      </c>
+    </row>
+    <row r="5184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5184">
+        <v>25210078</v>
+      </c>
+      <c r="B5184" t="s">
+        <v>7495</v>
+      </c>
+      <c r="C5184" t="s">
+        <v>7496</v>
+      </c>
+      <c r="D5184" t="s">
+        <v>7497</v>
+      </c>
+    </row>
+    <row r="5185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5185">
+        <v>25204864</v>
+      </c>
+      <c r="B5185" t="s">
+        <v>7498</v>
+      </c>
+      <c r="C5185" t="s">
+        <v>3710</v>
+      </c>
+      <c r="D5185" t="s">
+        <v>7499</v>
+      </c>
+    </row>
+    <row r="5186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5186">
+        <v>25205139</v>
+      </c>
+      <c r="B5186" t="s">
+        <v>7500</v>
+      </c>
+      <c r="C5186" t="s">
+        <v>7501</v>
+      </c>
+      <c r="D5186" t="s">
+        <v>7502</v>
+      </c>
+    </row>
+    <row r="5187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5187">
+        <v>20808380</v>
+      </c>
+      <c r="B5187" t="s">
+        <v>7503</v>
+      </c>
+      <c r="C5187" t="s">
+        <v>7504</v>
+      </c>
+      <c r="D5187" t="s">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="5188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5188">
+        <v>25613514</v>
+      </c>
+      <c r="B5188" t="s">
+        <v>7506</v>
+      </c>
+      <c r="C5188" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D5188" t="s">
+        <v>7507</v>
+      </c>
+    </row>
+    <row r="5189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5189">
+        <v>25213246</v>
+      </c>
+      <c r="B5189" t="s">
+        <v>7508</v>
+      </c>
+      <c r="C5189" t="s">
+        <v>7509</v>
+      </c>
+      <c r="D5189" t="s">
+        <v>7510</v>
+      </c>
+    </row>
+    <row r="5190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5190">
+        <v>25213675</v>
+      </c>
+      <c r="B5190" t="s">
+        <v>7511</v>
+      </c>
+      <c r="C5190" t="s">
+        <v>3517</v>
+      </c>
+      <c r="D5190" t="s">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="5191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5191">
+        <v>25200717</v>
+      </c>
+      <c r="B5191" t="s">
+        <v>7513</v>
+      </c>
+      <c r="C5191" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D5191" t="s">
+        <v>7514</v>
+      </c>
+    </row>
+    <row r="5192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5192">
+        <v>25203511</v>
+      </c>
+      <c r="B5192" t="s">
+        <v>7515</v>
+      </c>
+      <c r="C5192" t="s">
+        <v>7516</v>
+      </c>
+      <c r="D5192" t="s">
+        <v>7517</v>
+      </c>
+    </row>
+    <row r="5193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5193">
+        <v>23050523</v>
+      </c>
+      <c r="B5193" t="s">
+        <v>7518</v>
+      </c>
+      <c r="C5193" t="s">
+        <v>7519</v>
+      </c>
+      <c r="D5193" t="s">
+        <v>7520</v>
+      </c>
+    </row>
+    <row r="5194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5194">
+        <v>25213390</v>
+      </c>
+      <c r="B5194" t="s">
+        <v>7521</v>
+      </c>
+      <c r="C5194" t="s">
+        <v>7522</v>
+      </c>
+      <c r="D5194" t="s">
+        <v>7523</v>
+      </c>
+    </row>
+    <row r="5195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5195">
+        <v>25208868</v>
+      </c>
+      <c r="B5195" t="s">
+        <v>7524</v>
+      </c>
+      <c r="C5195" t="s">
+        <v>7525</v>
+      </c>
+      <c r="D5195" t="s">
+        <v>7526</v>
+      </c>
+    </row>
+    <row r="5196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5196">
+        <v>25207317</v>
+      </c>
+      <c r="B5196" t="s">
+        <v>7527</v>
+      </c>
+      <c r="C5196" t="s">
+        <v>7528</v>
+      </c>
+      <c r="D5196" t="s">
+        <v>7529</v>
+      </c>
+    </row>
+    <row r="5197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5197">
+        <v>25213048</v>
+      </c>
+      <c r="B5197" t="s">
+        <v>7530</v>
+      </c>
+      <c r="C5197" t="s">
+        <v>7531</v>
+      </c>
+      <c r="D5197" t="s">
+        <v>7532</v>
+      </c>
+    </row>
+    <row r="5198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5198">
+        <v>25209440</v>
+      </c>
+      <c r="B5198" t="s">
+        <v>7533</v>
+      </c>
+      <c r="C5198" t="s">
+        <v>7534</v>
+      </c>
+      <c r="D5198" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="5199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5199">
+        <v>16030943</v>
+      </c>
+      <c r="B5199" t="s">
+        <v>7535</v>
+      </c>
+      <c r="C5199" t="s">
+        <v>7536</v>
+      </c>
+      <c r="D5199" t="s">
+        <v>7537</v>
+      </c>
+    </row>
+    <row r="5200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5200">
+        <v>25213807</v>
+      </c>
+      <c r="B5200" t="s">
+        <v>7538</v>
+      </c>
+      <c r="C5200" t="s">
+        <v>7539</v>
+      </c>
+      <c r="D5200" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="5201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5201">
+        <v>24207163</v>
+      </c>
+      <c r="B5201" t="s">
+        <v>7540</v>
+      </c>
+      <c r="C5201" t="s">
+        <v>7541</v>
+      </c>
+      <c r="D5201" t="s">
+        <v>7542</v>
+      </c>
+    </row>
+    <row r="5202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5202">
+        <v>19202499</v>
+      </c>
+      <c r="B5202" t="s">
+        <v>7543</v>
+      </c>
+      <c r="C5202" t="s">
+        <v>7544</v>
+      </c>
+      <c r="D5202" t="s">
+        <v>7545</v>
+      </c>
+    </row>
+    <row r="5203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5203">
+        <v>25209902</v>
+      </c>
+      <c r="B5203" t="s">
+        <v>7546</v>
+      </c>
+      <c r="C5203" t="s">
+        <v>7547</v>
+      </c>
+      <c r="D5203" t="s">
+        <v>7548</v>
+      </c>
+    </row>
+    <row r="5204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5204">
+        <v>25200519</v>
+      </c>
+      <c r="B5204" t="s">
+        <v>7549</v>
+      </c>
+      <c r="C5204" t="s">
+        <v>7550</v>
+      </c>
+      <c r="D5204" t="s">
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="5205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5205">
+        <v>25205030</v>
+      </c>
+      <c r="B5205" t="s">
+        <v>7551</v>
+      </c>
+      <c r="C5205" t="s">
+        <v>7552</v>
+      </c>
+      <c r="D5205" t="s">
+        <v>7553</v>
+      </c>
+    </row>
+    <row r="5206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5206">
+        <v>25209121</v>
+      </c>
+      <c r="B5206" t="s">
+        <v>7554</v>
+      </c>
+      <c r="C5206" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5206" t="s">
+        <v>7555</v>
+      </c>
+    </row>
+    <row r="5207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5207">
+        <v>25202774</v>
+      </c>
+      <c r="B5207" t="s">
+        <v>7556</v>
+      </c>
+      <c r="C5207" t="s">
+        <v>7557</v>
+      </c>
+      <c r="D5207" t="s">
+        <v>7558</v>
+      </c>
+    </row>
+    <row r="5208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5208">
+        <v>25200630</v>
+      </c>
+      <c r="B5208" t="s">
+        <v>7559</v>
+      </c>
+      <c r="C5208" t="s">
+        <v>7560</v>
+      </c>
+      <c r="D5208" t="s">
+        <v>7561</v>
+      </c>
+    </row>
+    <row r="5209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5209">
+        <v>25213620</v>
+      </c>
+      <c r="B5209" t="s">
+        <v>7562</v>
+      </c>
+      <c r="C5209" t="s">
+        <v>7563</v>
+      </c>
+      <c r="D5209" t="s">
+        <v>7564</v>
+      </c>
+    </row>
+    <row r="5210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5210">
+        <v>22922328</v>
+      </c>
+      <c r="B5210" t="s">
+        <v>7565</v>
+      </c>
+      <c r="C5210" t="s">
+        <v>7566</v>
+      </c>
+      <c r="D5210" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="5211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5211">
+        <v>25203280</v>
+      </c>
+      <c r="B5211" t="s">
+        <v>7567</v>
+      </c>
+      <c r="C5211" t="s">
+        <v>7568</v>
+      </c>
+      <c r="D5211" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="5212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5212">
+        <v>24218053</v>
+      </c>
+      <c r="B5212" t="s">
+        <v>7569</v>
+      </c>
+      <c r="C5212" t="s">
+        <v>7570</v>
+      </c>
+      <c r="D5212" t="s">
+        <v>7571</v>
+      </c>
+    </row>
+    <row r="5213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5213">
+        <v>25200398</v>
+      </c>
+      <c r="B5213" t="s">
+        <v>7572</v>
+      </c>
+      <c r="C5213" t="s">
+        <v>7573</v>
+      </c>
+      <c r="D5213" t="s">
+        <v>7574</v>
+      </c>
+    </row>
+    <row r="5214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5214">
+        <v>25207383</v>
+      </c>
+      <c r="B5214" t="s">
+        <v>7575</v>
+      </c>
+      <c r="C5214" t="s">
+        <v>7576</v>
+      </c>
+      <c r="D5214" t="s">
+        <v>7577</v>
+      </c>
+    </row>
+    <row r="5215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5215">
+        <v>18204413</v>
+      </c>
+      <c r="B5215" t="s">
+        <v>7578</v>
+      </c>
+      <c r="C5215" t="s">
+        <v>7579</v>
+      </c>
+      <c r="D5215" t="s">
+        <v>7580</v>
+      </c>
+    </row>
+    <row r="5216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5216">
+        <v>25022693</v>
+      </c>
+      <c r="B5216" t="s">
+        <v>7581</v>
+      </c>
+      <c r="C5216" t="s">
+        <v>7582</v>
+      </c>
+      <c r="D5216" t="s">
+        <v>7583</v>
+      </c>
+    </row>
+    <row r="5217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5217">
+        <v>21045320</v>
+      </c>
+      <c r="B5217" t="s">
+        <v>7584</v>
+      </c>
+      <c r="C5217" t="s">
+        <v>7585</v>
+      </c>
+      <c r="D5217" t="s">
+        <v>7586</v>
+      </c>
+    </row>
+    <row r="5218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5218">
+        <v>25202818</v>
+      </c>
+      <c r="B5218" t="s">
+        <v>7587</v>
+      </c>
+      <c r="C5218" t="s">
+        <v>7588</v>
+      </c>
+      <c r="D5218" t="s">
+        <v>7589</v>
+      </c>
+    </row>
+    <row r="5219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5219">
+        <v>24400719</v>
+      </c>
+      <c r="B5219" t="s">
+        <v>7590</v>
+      </c>
+      <c r="C5219" t="s">
+        <v>7591</v>
+      </c>
+      <c r="D5219" t="s">
+        <v>7592</v>
+      </c>
+    </row>
+    <row r="5220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5220">
+        <v>25218185</v>
+      </c>
+      <c r="B5220" t="s">
+        <v>7593</v>
+      </c>
+      <c r="C5220" t="s">
+        <v>7594</v>
+      </c>
+      <c r="D5220" t="s">
+        <v>7595</v>
+      </c>
+    </row>
+    <row r="5221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5221">
+        <v>23181390</v>
+      </c>
+      <c r="B5221" t="s">
+        <v>7596</v>
+      </c>
+      <c r="C5221" t="s">
+        <v>7597</v>
+      </c>
+      <c r="D5221" t="s">
+        <v>7598</v>
+      </c>
+    </row>
+    <row r="5222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5222">
+        <v>24915288</v>
+      </c>
+      <c r="B5222" t="s">
+        <v>7599</v>
+      </c>
+      <c r="C5222" t="s">
+        <v>4318</v>
+      </c>
+      <c r="D5222" t="s">
+        <v>6571</v>
+      </c>
+    </row>
+    <row r="5223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5223">
+        <v>25208241</v>
+      </c>
+      <c r="B5223" t="s">
+        <v>7600</v>
+      </c>
+      <c r="C5223" t="s">
+        <v>7601</v>
+      </c>
+      <c r="D5223" t="s">
+        <v>7602</v>
+      </c>
+    </row>
+    <row r="5224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5224">
+        <v>25204633</v>
+      </c>
+      <c r="B5224" t="s">
+        <v>7603</v>
+      </c>
+      <c r="C5224" t="s">
+        <v>7604</v>
+      </c>
+      <c r="D5224" t="s">
+        <v>7605</v>
+      </c>
+    </row>
+    <row r="5225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5225">
+        <v>25207856</v>
+      </c>
+      <c r="B5225" t="s">
+        <v>7606</v>
+      </c>
+      <c r="C5225" t="s">
+        <v>7607</v>
+      </c>
+      <c r="D5225" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="5226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5226">
+        <v>25207262</v>
+      </c>
+      <c r="B5226" t="s">
+        <v>7608</v>
+      </c>
+      <c r="C5226" t="s">
+        <v>4052</v>
+      </c>
+      <c r="D5226" t="s">
+        <v>7609</v>
+      </c>
+    </row>
+    <row r="5227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5227">
+        <v>25208780</v>
+      </c>
+      <c r="B5227" t="s">
+        <v>7610</v>
+      </c>
+      <c r="C5227" t="s">
+        <v>7611</v>
+      </c>
+      <c r="D5227" t="s">
+        <v>7612</v>
+      </c>
+    </row>
+    <row r="5228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5228">
+        <v>16723756</v>
+      </c>
+      <c r="B5228" t="s">
+        <v>7613</v>
+      </c>
+      <c r="C5228" t="s">
+        <v>7614</v>
+      </c>
+      <c r="D5228" t="s">
+        <v>7615</v>
+      </c>
+    </row>
+    <row r="5229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5229">
+        <v>24011946</v>
+      </c>
+      <c r="B5229" t="s">
+        <v>7616</v>
+      </c>
+      <c r="C5229" t="s">
+        <v>7617</v>
+      </c>
+      <c r="D5229" t="s">
+        <v>7618</v>
+      </c>
+    </row>
+    <row r="5230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5230">
+        <v>22018711</v>
+      </c>
+      <c r="B5230" t="s">
+        <v>7619</v>
+      </c>
+      <c r="C5230" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5230" t="s">
+        <v>7620</v>
+      </c>
+    </row>
+    <row r="5231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5231">
+        <v>25208791</v>
+      </c>
+      <c r="B5231" t="s">
+        <v>7621</v>
+      </c>
+      <c r="C5231" t="s">
+        <v>7622</v>
+      </c>
+      <c r="D5231" t="s">
+        <v>7623</v>
+      </c>
+    </row>
+    <row r="5232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5232">
+        <v>25213147</v>
+      </c>
+      <c r="B5232" t="s">
+        <v>7624</v>
+      </c>
+      <c r="C5232" t="s">
+        <v>7625</v>
+      </c>
+      <c r="D5232" t="s">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="5233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5233">
+        <v>25205656</v>
+      </c>
+      <c r="B5233" t="s">
+        <v>7627</v>
+      </c>
+      <c r="C5233" t="s">
+        <v>3710</v>
+      </c>
+      <c r="D5233" t="s">
+        <v>7628</v>
+      </c>
+    </row>
+    <row r="5234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5234">
+        <v>25207867</v>
+      </c>
+      <c r="B5234" t="s">
+        <v>7629</v>
+      </c>
+      <c r="C5234" t="s">
+        <v>5667</v>
+      </c>
+      <c r="D5234" t="s">
+        <v>7630</v>
+      </c>
+    </row>
+    <row r="5235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5235">
+        <v>25206030</v>
+      </c>
+      <c r="B5235" t="s">
+        <v>7631</v>
+      </c>
+      <c r="C5235" t="s">
+        <v>7632</v>
+      </c>
+      <c r="D5235" t="s">
+        <v>7633</v>
+      </c>
+    </row>
+    <row r="5236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5236">
+        <v>25210980</v>
+      </c>
+      <c r="B5236" t="s">
+        <v>7634</v>
+      </c>
+      <c r="C5236" t="s">
+        <v>7635</v>
+      </c>
+      <c r="D5236" t="s">
+        <v>7636</v>
+      </c>
+    </row>
+    <row r="5237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5237">
+        <v>25201641</v>
+      </c>
+      <c r="B5237" t="s">
+        <v>7637</v>
+      </c>
+      <c r="C5237" t="s">
+        <v>7638</v>
+      </c>
+      <c r="D5237" t="s">
+        <v>7639</v>
+      </c>
+    </row>
+    <row r="5238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5238">
+        <v>25210991</v>
+      </c>
+      <c r="B5238" t="s">
+        <v>7640</v>
+      </c>
+      <c r="C5238" t="s">
+        <v>7641</v>
+      </c>
+      <c r="D5238" t="s">
+        <v>7642</v>
+      </c>
+    </row>
+    <row r="5239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5239">
+        <v>25204171</v>
+      </c>
+      <c r="B5239" t="s">
+        <v>7643</v>
+      </c>
+      <c r="C5239" t="s">
+        <v>7644</v>
+      </c>
+      <c r="D5239" t="s">
+        <v>7645</v>
+      </c>
+    </row>
+    <row r="5240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5240">
+        <v>25204820</v>
+      </c>
+      <c r="B5240" t="s">
+        <v>7646</v>
+      </c>
+      <c r="C5240" t="s">
+        <v>7647</v>
+      </c>
+      <c r="D5240" t="s">
+        <v>7648</v>
+      </c>
+    </row>
+    <row r="5241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5241">
+        <v>25202466</v>
+      </c>
+      <c r="B5241" t="s">
+        <v>7649</v>
+      </c>
+      <c r="C5241" t="s">
+        <v>7650</v>
+      </c>
+      <c r="D5241" t="s">
+        <v>7651</v>
+      </c>
+    </row>
+    <row r="5242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5242">
+        <v>25218174</v>
+      </c>
+      <c r="B5242" t="s">
+        <v>7652</v>
+      </c>
+      <c r="C5242" t="s">
+        <v>7653</v>
+      </c>
+      <c r="D5242" t="s">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="5243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5243">
+        <v>25201355</v>
+      </c>
+      <c r="B5243" t="s">
+        <v>7655</v>
+      </c>
+      <c r="C5243" t="s">
+        <v>7656</v>
+      </c>
+      <c r="D5243" t="s">
+        <v>7657</v>
+      </c>
+    </row>
+    <row r="5244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5244">
+        <v>25210738</v>
+      </c>
+      <c r="B5244" t="s">
+        <v>7658</v>
+      </c>
+      <c r="C5244" t="s">
+        <v>7659</v>
+      </c>
+      <c r="D5244" t="s">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="5245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5245">
+        <v>25202125</v>
+      </c>
+      <c r="B5245" t="s">
+        <v>7661</v>
+      </c>
+      <c r="C5245" t="s">
+        <v>7662</v>
+      </c>
+      <c r="D5245" t="s">
+        <v>7663</v>
+      </c>
+    </row>
+    <row r="5246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5246">
+        <v>25201685</v>
+      </c>
+      <c r="B5246" t="s">
+        <v>7664</v>
+      </c>
+      <c r="C5246" t="s">
+        <v>7665</v>
+      </c>
+      <c r="D5246" t="s">
+        <v>7666</v>
+      </c>
+    </row>
+    <row r="5247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5247">
+        <v>25204920</v>
+      </c>
+      <c r="B5247" t="s">
+        <v>7667</v>
+      </c>
+      <c r="C5247" t="s">
+        <v>7668</v>
+      </c>
+      <c r="D5247" t="s">
+        <v>7669</v>
+      </c>
+    </row>
+    <row r="5248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5248">
+        <v>25215391</v>
+      </c>
+      <c r="B5248" t="s">
+        <v>7670</v>
+      </c>
+      <c r="C5248" t="s">
+        <v>7671</v>
+      </c>
+      <c r="D5248" t="s">
+        <v>7672</v>
+      </c>
+    </row>
+    <row r="5249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5249">
+        <v>25211486</v>
+      </c>
+      <c r="B5249" t="s">
+        <v>7673</v>
+      </c>
+      <c r="C5249" t="s">
+        <v>7674</v>
+      </c>
+      <c r="D5249" t="s">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="5250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5250">
+        <v>25213554</v>
+      </c>
+      <c r="B5250" t="s">
+        <v>7675</v>
+      </c>
+      <c r="C5250" t="s">
+        <v>7676</v>
+      </c>
+      <c r="D5250" t="s">
+        <v>7677</v>
+      </c>
+    </row>
+    <row r="5251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5251">
+        <v>25207670</v>
+      </c>
+      <c r="B5251" t="s">
+        <v>7678</v>
+      </c>
+      <c r="C5251" t="s">
+        <v>7679</v>
+      </c>
+      <c r="D5251" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="5252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5252">
+        <v>25213510</v>
+      </c>
+      <c r="B5252" t="s">
+        <v>7680</v>
+      </c>
+      <c r="C5252" t="s">
+        <v>7681</v>
+      </c>
+      <c r="D5252" t="s">
+        <v>7682</v>
+      </c>
+    </row>
+    <row r="5253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5253">
+        <v>21211300</v>
+      </c>
+      <c r="B5253" t="s">
+        <v>7683</v>
+      </c>
+      <c r="C5253" t="s">
+        <v>7684</v>
+      </c>
+      <c r="D5253" t="s">
+        <v>7685</v>
+      </c>
+    </row>
+    <row r="5254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5254">
+        <v>25211684</v>
+      </c>
+      <c r="B5254" t="s">
+        <v>7686</v>
+      </c>
+      <c r="C5254" t="s">
+        <v>7687</v>
+      </c>
+      <c r="D5254" t="s">
+        <v>7688</v>
+      </c>
+    </row>
+    <row r="5255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5255">
+        <v>25211057</v>
+      </c>
+      <c r="B5255" t="s">
+        <v>7689</v>
+      </c>
+      <c r="C5255" t="s">
+        <v>7690</v>
+      </c>
+      <c r="D5255" t="s">
+        <v>7691</v>
+      </c>
+    </row>
+    <row r="5256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5256">
+        <v>25203368</v>
+      </c>
+      <c r="B5256" t="s">
+        <v>7692</v>
+      </c>
+      <c r="C5256" t="s">
+        <v>7693</v>
+      </c>
+      <c r="D5256" t="s">
+        <v>7694</v>
+      </c>
+    </row>
+    <row r="5257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5257">
+        <v>25214236</v>
+      </c>
+      <c r="B5257" t="s">
+        <v>7695</v>
+      </c>
+      <c r="C5257" t="s">
+        <v>7696</v>
+      </c>
+      <c r="D5257" t="s">
+        <v>7697</v>
+      </c>
+    </row>
+    <row r="5258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5258">
+        <v>25213752</v>
+      </c>
+      <c r="B5258" t="s">
+        <v>7698</v>
+      </c>
+      <c r="C5258" t="s">
+        <v>7699</v>
+      </c>
+      <c r="D5258" t="s">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="5259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5259">
+        <v>25205799</v>
+      </c>
+      <c r="B5259" t="s">
+        <v>7701</v>
+      </c>
+      <c r="C5259" t="s">
+        <v>7702</v>
+      </c>
+      <c r="D5259" t="s">
+        <v>7703</v>
+      </c>
+    </row>
+    <row r="5260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5260">
+        <v>25211574</v>
+      </c>
+      <c r="B5260" t="s">
+        <v>7704</v>
+      </c>
+      <c r="C5260" t="s">
+        <v>7705</v>
+      </c>
+      <c r="D5260" t="s">
+        <v>7706</v>
+      </c>
+    </row>
+    <row r="5261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5261">
+        <v>25213323</v>
+      </c>
+      <c r="B5261" t="s">
+        <v>7707</v>
+      </c>
+      <c r="C5261" t="s">
+        <v>7708</v>
+      </c>
+      <c r="D5261" t="s">
+        <v>7709</v>
+      </c>
+    </row>
+    <row r="5262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5262">
+        <v>25207416</v>
+      </c>
+      <c r="B5262" t="s">
+        <v>7710</v>
+      </c>
+      <c r="C5262" t="s">
+        <v>7711</v>
+      </c>
+      <c r="D5262" t="s">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="5263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5263">
+        <v>25204446</v>
+      </c>
+      <c r="B5263" t="s">
+        <v>7713</v>
+      </c>
+      <c r="C5263" t="s">
+        <v>7714</v>
+      </c>
+      <c r="D5263" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5264">
+        <v>25210430</v>
+      </c>
+      <c r="B5264" t="s">
+        <v>7715</v>
+      </c>
+      <c r="C5264" t="s">
+        <v>7716</v>
+      </c>
+      <c r="D5264" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="5265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5265">
+        <v>25207097</v>
+      </c>
+      <c r="B5265" t="s">
+        <v>7718</v>
+      </c>
+      <c r="C5265" t="s">
+        <v>7719</v>
+      </c>
+      <c r="D5265" t="s">
+        <v>7720</v>
+      </c>
+    </row>
+    <row r="5266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5266">
+        <v>25203522</v>
+      </c>
+      <c r="B5266" t="s">
+        <v>7721</v>
+      </c>
+      <c r="C5266" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5266" t="s">
+        <v>6337</v>
+      </c>
+    </row>
+    <row r="5267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5267">
+        <v>20811052</v>
+      </c>
+      <c r="B5267" t="s">
+        <v>7722</v>
+      </c>
+      <c r="C5267" t="s">
+        <v>7723</v>
+      </c>
+      <c r="D5267" t="s">
+        <v>7724</v>
+      </c>
+    </row>
+    <row r="5268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5268">
+        <v>25204776</v>
+      </c>
+      <c r="B5268" t="s">
+        <v>7725</v>
+      </c>
+      <c r="C5268" t="s">
+        <v>7726</v>
+      </c>
+      <c r="D5268" t="s">
+        <v>7727</v>
+      </c>
+    </row>
+    <row r="5269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5269">
+        <v>8042851</v>
+      </c>
+      <c r="B5269" t="s">
+        <v>7728</v>
+      </c>
+      <c r="C5269" t="s">
+        <v>7729</v>
+      </c>
+      <c r="D5269" t="s">
+        <v>7730</v>
+      </c>
+    </row>
+    <row r="5270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5270">
+        <v>25212773</v>
+      </c>
+      <c r="B5270" t="s">
+        <v>7731</v>
+      </c>
+      <c r="C5270" t="s">
+        <v>7732</v>
+      </c>
+      <c r="D5270" t="s">
+        <v>7733</v>
+      </c>
+    </row>
+    <row r="5271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5271">
+        <v>25200750</v>
+      </c>
+      <c r="B5271" t="s">
+        <v>7734</v>
+      </c>
+      <c r="C5271" t="s">
+        <v>7735</v>
+      </c>
+      <c r="D5271" t="s">
+        <v>7736</v>
+      </c>
+    </row>
+    <row r="5272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5272">
+        <v>25211497</v>
+      </c>
+      <c r="B5272" t="s">
+        <v>7737</v>
+      </c>
+      <c r="C5272" t="s">
+        <v>7738</v>
+      </c>
+      <c r="D5272" t="s">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="5273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5273">
+        <v>20209979</v>
+      </c>
+      <c r="B5273" t="s">
+        <v>7739</v>
+      </c>
+      <c r="C5273" t="s">
+        <v>7740</v>
+      </c>
+      <c r="D5273" t="s">
+        <v>7741</v>
+      </c>
+    </row>
+    <row r="5274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5274">
+        <v>21014949</v>
+      </c>
+      <c r="B5274" t="s">
+        <v>7742</v>
+      </c>
+      <c r="C5274" t="s">
+        <v>4756</v>
+      </c>
+      <c r="D5274" t="s">
+        <v>7743</v>
+      </c>
+    </row>
+    <row r="5275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5275">
+        <v>24212619</v>
+      </c>
+      <c r="B5275" t="s">
+        <v>7744</v>
+      </c>
+      <c r="C5275" t="s">
+        <v>7745</v>
+      </c>
+      <c r="D5275" t="s">
+        <v>7746</v>
+      </c>
+    </row>
+    <row r="5276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5276">
+        <v>25205788</v>
+      </c>
+      <c r="B5276" t="s">
+        <v>7747</v>
+      </c>
+      <c r="C5276" t="s">
+        <v>7748</v>
+      </c>
+      <c r="D5276" t="s">
+        <v>7749</v>
+      </c>
+    </row>
+    <row r="5277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5277">
+        <v>25215160</v>
+      </c>
+      <c r="B5277" t="s">
+        <v>7750</v>
+      </c>
+      <c r="C5277" t="s">
+        <v>7751</v>
+      </c>
+      <c r="D5277" t="s">
+        <v>7752</v>
+      </c>
+    </row>
+    <row r="5278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5278">
+        <v>25719125</v>
+      </c>
+      <c r="B5278" t="s">
+        <v>7753</v>
+      </c>
+      <c r="C5278" t="s">
+        <v>7754</v>
+      </c>
+      <c r="D5278" t="s">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="5279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5279">
+        <v>23923406</v>
+      </c>
+      <c r="B5279" t="s">
+        <v>7756</v>
+      </c>
+      <c r="C5279" t="s">
+        <v>7193</v>
+      </c>
+      <c r="D5279" t="s">
+        <v>7757</v>
+      </c>
+    </row>
+    <row r="5280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5280">
+        <v>18180378</v>
+      </c>
+      <c r="B5280" t="s">
+        <v>7758</v>
+      </c>
+      <c r="C5280" t="s">
+        <v>7759</v>
+      </c>
+      <c r="D5280" t="s">
+        <v>7760</v>
+      </c>
+    </row>
+    <row r="5281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5281">
+        <v>25213576</v>
+      </c>
+      <c r="B5281" t="s">
+        <v>7761</v>
+      </c>
+      <c r="C5281" t="s">
+        <v>7762</v>
+      </c>
+      <c r="D5281" t="s">
+        <v>7763</v>
+      </c>
+    </row>
+    <row r="5282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5282">
+        <v>25214797</v>
+      </c>
+      <c r="B5282" t="s">
+        <v>7764</v>
+      </c>
+      <c r="C5282" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5282" t="s">
+        <v>7765</v>
+      </c>
+    </row>
+    <row r="5283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5283">
+        <v>25211410</v>
+      </c>
+      <c r="B5283" t="s">
+        <v>7766</v>
+      </c>
+      <c r="C5283" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D5283" t="s">
+        <v>7767</v>
+      </c>
+    </row>
+    <row r="5284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5284">
+        <v>25211431</v>
+      </c>
+      <c r="B5284" t="s">
+        <v>7768</v>
+      </c>
+      <c r="C5284" t="s">
+        <v>7769</v>
+      </c>
+      <c r="D5284" t="s">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="5285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5285">
+        <v>25215215</v>
+      </c>
+      <c r="B5285" t="s">
+        <v>7771</v>
+      </c>
+      <c r="C5285" t="s">
+        <v>7772</v>
+      </c>
+      <c r="D5285" t="s">
+        <v>7773</v>
+      </c>
+    </row>
+    <row r="5286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5286">
+        <v>25203720</v>
+      </c>
+      <c r="B5286" t="s">
+        <v>7774</v>
+      </c>
+      <c r="C5286" t="s">
+        <v>7775</v>
+      </c>
+      <c r="D5286" t="s">
+        <v>7776</v>
+      </c>
+    </row>
+    <row r="5287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5287">
+        <v>25202720</v>
+      </c>
+      <c r="B5287" t="s">
+        <v>7777</v>
+      </c>
+      <c r="C5287" t="s">
+        <v>7778</v>
+      </c>
+      <c r="D5287" t="s">
+        <v>7779</v>
+      </c>
+    </row>
+    <row r="5288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5288">
+        <v>25205689</v>
+      </c>
+      <c r="B5288" t="s">
+        <v>7780</v>
+      </c>
+      <c r="C5288" t="s">
+        <v>7781</v>
+      </c>
+      <c r="D5288" t="s">
+        <v>7782</v>
+      </c>
+    </row>
+    <row r="5289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5289">
+        <v>25218262</v>
+      </c>
+      <c r="B5289" t="s">
+        <v>7783</v>
+      </c>
+      <c r="C5289" t="s">
+        <v>7784</v>
+      </c>
+      <c r="D5289" t="s">
+        <v>7785</v>
+      </c>
+    </row>
+    <row r="5290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5290">
+        <v>23184162</v>
+      </c>
+      <c r="B5290" t="s">
+        <v>7786</v>
+      </c>
+      <c r="C5290" t="s">
+        <v>7787</v>
+      </c>
+      <c r="D5290" t="s">
+        <v>7788</v>
+      </c>
+    </row>
+    <row r="5291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5291">
+        <v>25202279</v>
+      </c>
+      <c r="B5291" t="s">
+        <v>7789</v>
+      </c>
+      <c r="C5291" t="s">
+        <v>7790</v>
+      </c>
+      <c r="D5291" t="s">
+        <v>7791</v>
+      </c>
+    </row>
+    <row r="5292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5292">
+        <v>25807060</v>
+      </c>
+      <c r="B5292" t="s">
+        <v>7792</v>
+      </c>
+      <c r="C5292" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D5292" t="s">
+        <v>7793</v>
+      </c>
+    </row>
+    <row r="5293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5293">
+        <v>23201102</v>
+      </c>
+      <c r="B5293" t="s">
+        <v>7794</v>
+      </c>
+      <c r="C5293" t="s">
+        <v>7795</v>
+      </c>
+      <c r="D5293" t="s">
+        <v>7796</v>
+      </c>
+    </row>
+    <row r="5294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5294">
+        <v>25214159</v>
+      </c>
+      <c r="B5294" t="s">
+        <v>7797</v>
+      </c>
+      <c r="C5294" t="s">
+        <v>7798</v>
+      </c>
+      <c r="D5294" t="s">
+        <v>7799</v>
+      </c>
+    </row>
+    <row r="5295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5295">
+        <v>25204325</v>
+      </c>
+      <c r="B5295" t="s">
+        <v>7800</v>
+      </c>
+      <c r="C5295" t="s">
+        <v>7801</v>
+      </c>
+      <c r="D5295" t="s">
+        <v>7802</v>
+      </c>
+    </row>
+    <row r="5296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5296">
+        <v>25208307</v>
+      </c>
+      <c r="B5296" t="s">
+        <v>7803</v>
+      </c>
+      <c r="C5296" t="s">
+        <v>7804</v>
+      </c>
+      <c r="D5296" t="s">
+        <v>7805</v>
+      </c>
+    </row>
+    <row r="5297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5297">
+        <v>25213378</v>
+      </c>
+      <c r="B5297" t="s">
+        <v>7806</v>
+      </c>
+      <c r="C5297" t="s">
+        <v>7807</v>
+      </c>
+      <c r="D5297" t="s">
+        <v>7808</v>
+      </c>
+    </row>
+    <row r="5298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5298">
+        <v>25207757</v>
+      </c>
+      <c r="B5298" t="s">
+        <v>7809</v>
+      </c>
+      <c r="C5298" t="s">
+        <v>7810</v>
+      </c>
+      <c r="D5298" t="s">
+        <v>7811</v>
+      </c>
+    </row>
+    <row r="5299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5299">
+        <v>25804980</v>
+      </c>
+      <c r="B5299" t="s">
+        <v>7812</v>
+      </c>
+      <c r="C5299" t="s">
+        <v>7813</v>
+      </c>
+      <c r="D5299" t="s">
+        <v>7814</v>
+      </c>
+    </row>
+    <row r="5300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5300">
+        <v>25203160</v>
+      </c>
+      <c r="B5300" t="s">
+        <v>7815</v>
+      </c>
+      <c r="C5300" t="s">
+        <v>7816</v>
+      </c>
+      <c r="D5300" t="s">
+        <v>7817</v>
+      </c>
+    </row>
+    <row r="5301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5301">
+        <v>25203126</v>
+      </c>
+      <c r="B5301" t="s">
+        <v>7818</v>
+      </c>
+      <c r="C5301" t="s">
+        <v>7819</v>
+      </c>
+      <c r="D5301" t="s">
+        <v>7820</v>
+      </c>
+    </row>
+    <row r="5302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5302">
+        <v>25208550</v>
+      </c>
+      <c r="B5302" t="s">
+        <v>7821</v>
+      </c>
+      <c r="C5302" t="s">
+        <v>7822</v>
+      </c>
+      <c r="D5302" t="s">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="5303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5303">
+        <v>25204677</v>
+      </c>
+      <c r="B5303" t="s">
+        <v>7824</v>
+      </c>
+      <c r="C5303" t="s">
+        <v>7825</v>
+      </c>
+      <c r="D5303" t="s">
+        <v>5034</v>
+      </c>
+    </row>
+    <row r="5304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5304">
+        <v>25200992</v>
+      </c>
+      <c r="B5304" t="s">
+        <v>7826</v>
+      </c>
+      <c r="C5304" t="s">
+        <v>7827</v>
+      </c>
+      <c r="D5304" t="s">
+        <v>7828</v>
+      </c>
+    </row>
+    <row r="5305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5305">
+        <v>25206822</v>
+      </c>
+      <c r="B5305" t="s">
+        <v>7829</v>
+      </c>
+      <c r="C5305" t="s">
+        <v>7830</v>
+      </c>
+      <c r="D5305" t="s">
+        <v>7831</v>
+      </c>
+    </row>
+    <row r="5306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5306">
+        <v>25213587</v>
+      </c>
+      <c r="B5306" t="s">
+        <v>7832</v>
+      </c>
+      <c r="C5306" t="s">
+        <v>7833</v>
+      </c>
+      <c r="D5306" t="s">
+        <v>7834</v>
+      </c>
+    </row>
+    <row r="5307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5307">
+        <v>25209396</v>
+      </c>
+      <c r="B5307" t="s">
+        <v>7835</v>
+      </c>
+      <c r="C5307" t="s">
+        <v>7836</v>
+      </c>
+      <c r="D5307" t="s">
+        <v>7837</v>
+      </c>
+    </row>
+    <row r="5308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5308">
+        <v>17032813</v>
+      </c>
+      <c r="B5308" t="s">
+        <v>7838</v>
+      </c>
+      <c r="C5308" t="s">
+        <v>7839</v>
+      </c>
+      <c r="D5308" t="s">
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="5309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5309">
+        <v>25204237</v>
+      </c>
+      <c r="B5309" t="s">
+        <v>7841</v>
+      </c>
+      <c r="C5309" t="s">
+        <v>7842</v>
+      </c>
+      <c r="D5309" t="s">
+        <v>7843</v>
+      </c>
+    </row>
+    <row r="5310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5310">
+        <v>25202048</v>
+      </c>
+      <c r="B5310" t="s">
+        <v>7844</v>
+      </c>
+      <c r="C5310" t="s">
+        <v>5124</v>
+      </c>
+      <c r="D5310" t="s">
+        <v>7845</v>
+      </c>
+    </row>
+    <row r="5311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5311">
+        <v>25202147</v>
+      </c>
+      <c r="B5311" t="s">
+        <v>7846</v>
+      </c>
+      <c r="C5311" t="s">
+        <v>7847</v>
+      </c>
+      <c r="D5311" t="s">
+        <v>7848</v>
+      </c>
+    </row>
+    <row r="5312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5312">
+        <v>25209319</v>
+      </c>
+      <c r="B5312" t="s">
+        <v>7849</v>
+      </c>
+      <c r="C5312" t="s">
+        <v>7850</v>
+      </c>
+      <c r="D5312" t="s">
+        <v>7851</v>
+      </c>
+    </row>
+    <row r="5313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5313">
+        <v>25204270</v>
+      </c>
+      <c r="B5313" t="s">
+        <v>7852</v>
+      </c>
+      <c r="C5313" t="s">
+        <v>7853</v>
+      </c>
+      <c r="D5313" t="s">
+        <v>7854</v>
+      </c>
+    </row>
+    <row r="5314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5314">
+        <v>24211805</v>
+      </c>
+      <c r="B5314" t="s">
+        <v>7855</v>
+      </c>
+      <c r="C5314" t="s">
+        <v>7856</v>
+      </c>
+      <c r="D5314" t="s">
+        <v>7857</v>
+      </c>
+    </row>
+    <row r="5315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5315">
+        <v>25211442</v>
+      </c>
+      <c r="B5315" t="s">
+        <v>7858</v>
+      </c>
+      <c r="C5315" t="s">
+        <v>7859</v>
+      </c>
+      <c r="D5315" t="s">
+        <v>7860</v>
+      </c>
+    </row>
+    <row r="5316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5316">
+        <v>25201509</v>
+      </c>
+      <c r="B5316" t="s">
+        <v>7861</v>
+      </c>
+      <c r="C5316" t="s">
+        <v>7862</v>
+      </c>
+      <c r="D5316" t="s">
+        <v>7863</v>
+      </c>
+    </row>
+    <row r="5317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5317">
+        <v>19904057</v>
+      </c>
+      <c r="B5317" t="s">
+        <v>7864</v>
+      </c>
+      <c r="C5317" t="s">
+        <v>7865</v>
+      </c>
+      <c r="D5317" t="s">
+        <v>7866</v>
+      </c>
+    </row>
+    <row r="5318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5318">
+        <v>25203555</v>
+      </c>
+      <c r="B5318" t="s">
+        <v>7867</v>
+      </c>
+      <c r="C5318" t="s">
+        <v>7868</v>
+      </c>
+      <c r="D5318" t="s">
+        <v>7869</v>
+      </c>
+    </row>
+    <row r="5319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5319">
+        <v>25205414</v>
+      </c>
+      <c r="B5319" t="s">
+        <v>7870</v>
+      </c>
+      <c r="C5319" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5319" t="s">
+        <v>7871</v>
+      </c>
+    </row>
+    <row r="5320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5320">
+        <v>25214270</v>
+      </c>
+      <c r="B5320" t="s">
+        <v>7872</v>
+      </c>
+      <c r="C5320" t="s">
+        <v>7873</v>
+      </c>
+      <c r="D5320" t="s">
+        <v>7874</v>
+      </c>
+    </row>
+    <row r="5321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5321">
+        <v>25214335</v>
+      </c>
+      <c r="B5321" t="s">
+        <v>7875</v>
+      </c>
+      <c r="C5321" t="s">
+        <v>7876</v>
+      </c>
+      <c r="D5321" t="s">
+        <v>5372</v>
+      </c>
+    </row>
+    <row r="5322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5322">
+        <v>25208527</v>
+      </c>
+      <c r="B5322" t="s">
+        <v>7877</v>
+      </c>
+      <c r="C5322" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D5322" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="5323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5323">
+        <v>25214885</v>
+      </c>
+      <c r="B5323" t="s">
+        <v>7878</v>
+      </c>
+      <c r="C5323" t="s">
+        <v>7879</v>
+      </c>
+      <c r="D5323" t="s">
+        <v>7880</v>
+      </c>
+    </row>
+    <row r="5324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5324">
+        <v>25209484</v>
+      </c>
+      <c r="B5324" t="s">
+        <v>7881</v>
+      </c>
+      <c r="C5324" t="s">
+        <v>7882</v>
+      </c>
+      <c r="D5324" t="s">
+        <v>7883</v>
+      </c>
+    </row>
+    <row r="5325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5325">
+        <v>25211706</v>
+      </c>
+      <c r="B5325" t="s">
+        <v>7884</v>
+      </c>
+      <c r="C5325" t="s">
+        <v>7885</v>
+      </c>
+      <c r="D5325" t="s">
+        <v>7886</v>
+      </c>
+    </row>
+    <row r="5326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5326">
+        <v>25207515</v>
+      </c>
+      <c r="B5326" t="s">
+        <v>7887</v>
+      </c>
+      <c r="C5326" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D5326" t="s">
+        <v>7888</v>
+      </c>
+    </row>
+    <row r="5327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5327">
+        <v>25204215</v>
+      </c>
+      <c r="B5327" t="s">
+        <v>7889</v>
+      </c>
+      <c r="C5327" t="s">
+        <v>7890</v>
+      </c>
+      <c r="D5327" t="s">
+        <v>7891</v>
+      </c>
+    </row>
+    <row r="5328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5328">
+        <v>25204666</v>
+      </c>
+      <c r="B5328" t="s">
+        <v>7892</v>
+      </c>
+      <c r="C5328" t="s">
+        <v>7893</v>
+      </c>
+      <c r="D5328" t="s">
+        <v>7894</v>
+      </c>
+    </row>
+    <row r="5329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5329">
+        <v>25211376</v>
+      </c>
+      <c r="B5329" t="s">
+        <v>7895</v>
+      </c>
+      <c r="C5329" t="s">
+        <v>7896</v>
+      </c>
+      <c r="D5329" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5330">
+        <v>25214852</v>
+      </c>
+      <c r="B5330" t="s">
+        <v>7897</v>
+      </c>
+      <c r="C5330" t="s">
+        <v>7898</v>
+      </c>
+      <c r="D5330" t="s">
+        <v>7899</v>
+      </c>
+    </row>
+    <row r="5331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5331">
+        <v>25209242</v>
+      </c>
+      <c r="B5331" t="s">
+        <v>7900</v>
+      </c>
+      <c r="C5331" t="s">
+        <v>7901</v>
+      </c>
+      <c r="D5331" t="s">
+        <v>7902</v>
+      </c>
+    </row>
+    <row r="5332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5332">
+        <v>25208681</v>
+      </c>
+      <c r="B5332" t="s">
+        <v>7903</v>
+      </c>
+      <c r="C5332" t="s">
+        <v>7904</v>
+      </c>
+      <c r="D5332" t="s">
+        <v>7905</v>
+      </c>
+    </row>
+    <row r="5333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5333">
+        <v>25200563</v>
+      </c>
+      <c r="B5333" t="s">
+        <v>7906</v>
+      </c>
+      <c r="C5333" t="s">
+        <v>7907</v>
+      </c>
+      <c r="D5333" t="s">
+        <v>7908</v>
+      </c>
+    </row>
+    <row r="5334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5334">
+        <v>25203600</v>
+      </c>
+      <c r="B5334" t="s">
+        <v>7909</v>
+      </c>
+      <c r="C5334" t="s">
+        <v>7910</v>
+      </c>
+      <c r="D5334" t="s">
+        <v>7911</v>
+      </c>
+    </row>
+    <row r="5335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5335">
+        <v>25209165</v>
+      </c>
+      <c r="B5335" t="s">
+        <v>7912</v>
+      </c>
+      <c r="C5335" t="s">
+        <v>7913</v>
+      </c>
+      <c r="D5335" t="s">
+        <v>7914</v>
+      </c>
+    </row>
+    <row r="5336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5336">
+        <v>25201916</v>
+      </c>
+      <c r="B5336" t="s">
+        <v>7915</v>
+      </c>
+      <c r="C5336" t="s">
+        <v>7916</v>
+      </c>
+      <c r="D5336" t="s">
+        <v>7917</v>
+      </c>
+    </row>
+    <row r="5337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5337">
+        <v>25206800</v>
+      </c>
+      <c r="B5337" t="s">
+        <v>7918</v>
+      </c>
+      <c r="C5337" t="s">
+        <v>7919</v>
+      </c>
+      <c r="D5337" t="s">
+        <v>7920</v>
+      </c>
+    </row>
+    <row r="5338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5338">
+        <v>25205546</v>
+      </c>
+      <c r="B5338" t="s">
+        <v>7921</v>
+      </c>
+      <c r="C5338" t="s">
+        <v>7922</v>
+      </c>
+      <c r="D5338" t="s">
+        <v>7923</v>
+      </c>
+    </row>
+    <row r="5339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5339">
+        <v>25205777</v>
+      </c>
+      <c r="B5339" t="s">
+        <v>7924</v>
+      </c>
+      <c r="C5339" t="s">
+        <v>7925</v>
+      </c>
+      <c r="D5339" t="s">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="5340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5340">
+        <v>25207625</v>
+      </c>
+      <c r="B5340" t="s">
+        <v>7927</v>
+      </c>
+      <c r="C5340" t="s">
+        <v>7928</v>
+      </c>
+      <c r="D5340" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5341">
+        <v>25213532</v>
+      </c>
+      <c r="B5341" t="s">
+        <v>7929</v>
+      </c>
+      <c r="C5341" t="s">
+        <v>6186</v>
+      </c>
+      <c r="D5341" t="s">
+        <v>7930</v>
+      </c>
+    </row>
+    <row r="5342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5342">
+        <v>25202202</v>
+      </c>
+      <c r="B5342" t="s">
+        <v>7931</v>
+      </c>
+      <c r="C5342" t="s">
+        <v>7932</v>
+      </c>
+      <c r="D5342" t="s">
+        <v>7933</v>
+      </c>
+    </row>
+    <row r="5343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5343">
+        <v>25204150</v>
+      </c>
+      <c r="B5343" t="s">
+        <v>7934</v>
+      </c>
+      <c r="C5343" t="s">
+        <v>7935</v>
+      </c>
+      <c r="D5343" t="s">
+        <v>7936</v>
+      </c>
+    </row>
+    <row r="5344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5344">
+        <v>25210199</v>
+      </c>
+      <c r="B5344" t="s">
+        <v>7937</v>
+      </c>
+      <c r="C5344" t="s">
+        <v>7938</v>
+      </c>
+      <c r="D5344" t="s">
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="5345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5345">
+        <v>25209209</v>
+      </c>
+      <c r="B5345" t="s">
+        <v>7940</v>
+      </c>
+      <c r="C5345" t="s">
+        <v>7941</v>
+      </c>
+      <c r="D5345" t="s">
+        <v>7942</v>
+      </c>
+    </row>
+    <row r="5346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5346">
+        <v>18014300</v>
+      </c>
+      <c r="B5346" t="s">
+        <v>7943</v>
+      </c>
+      <c r="C5346" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5346" t="s">
+        <v>7107</v>
+      </c>
+    </row>
+    <row r="5347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5347">
+        <v>25207724</v>
+      </c>
+      <c r="B5347" t="s">
+        <v>7944</v>
+      </c>
+      <c r="C5347" t="s">
+        <v>7945</v>
+      </c>
+      <c r="D5347" t="s">
+        <v>7946</v>
+      </c>
+    </row>
+    <row r="5348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5348">
+        <v>25201542</v>
+      </c>
+      <c r="B5348" t="s">
+        <v>7947</v>
+      </c>
+      <c r="C5348" t="s">
+        <v>7948</v>
+      </c>
+      <c r="D5348" t="s">
+        <v>7949</v>
+      </c>
+    </row>
+    <row r="5349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5349">
+        <v>25205931</v>
+      </c>
+      <c r="B5349" t="s">
+        <v>7950</v>
+      </c>
+      <c r="C5349" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5349" t="s">
+        <v>7951</v>
+      </c>
+    </row>
+    <row r="5350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5350">
+        <v>25209650</v>
+      </c>
+      <c r="B5350" t="s">
+        <v>7952</v>
+      </c>
+      <c r="C5350" t="s">
+        <v>7953</v>
+      </c>
+      <c r="D5350" t="s">
+        <v>7954</v>
+      </c>
+    </row>
+    <row r="5351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5351">
+        <v>25205722</v>
+      </c>
+      <c r="B5351" t="s">
+        <v>7955</v>
+      </c>
+      <c r="C5351" t="s">
+        <v>7956</v>
+      </c>
+      <c r="D5351" t="s">
+        <v>7957</v>
+      </c>
+    </row>
+    <row r="5352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5352">
+        <v>25201344</v>
+      </c>
+      <c r="B5352" t="s">
+        <v>7958</v>
+      </c>
+      <c r="C5352" t="s">
+        <v>7959</v>
+      </c>
+      <c r="D5352" t="s">
+        <v>7960</v>
+      </c>
+    </row>
+    <row r="5353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5353">
+        <v>25206294</v>
+      </c>
+      <c r="B5353" t="s">
+        <v>7961</v>
+      </c>
+      <c r="C5353" t="s">
+        <v>7962</v>
+      </c>
+      <c r="D5353" t="s">
+        <v>7963</v>
+      </c>
+    </row>
+    <row r="5354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5354">
+        <v>25214456</v>
+      </c>
+      <c r="B5354" t="s">
+        <v>7964</v>
+      </c>
+      <c r="C5354" t="s">
+        <v>7965</v>
+      </c>
+      <c r="D5354" t="s">
+        <v>7966</v>
+      </c>
+    </row>
+    <row r="5355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5355">
+        <v>25200156</v>
+      </c>
+      <c r="B5355" t="s">
+        <v>7967</v>
+      </c>
+      <c r="C5355" t="s">
+        <v>7968</v>
+      </c>
+      <c r="D5355" t="s">
+        <v>7969</v>
+      </c>
+    </row>
+    <row r="5356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5356">
+        <v>25202917</v>
+      </c>
+      <c r="B5356" t="s">
+        <v>7970</v>
+      </c>
+      <c r="C5356" t="s">
+        <v>7971</v>
+      </c>
+      <c r="D5356" t="s">
+        <v>7972</v>
+      </c>
+    </row>
+    <row r="5357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5357">
+        <v>25203467</v>
+      </c>
+      <c r="B5357" t="s">
+        <v>7973</v>
+      </c>
+      <c r="C5357" t="s">
+        <v>7974</v>
+      </c>
+      <c r="D5357" t="s">
+        <v>7975</v>
+      </c>
+    </row>
+    <row r="5358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5358">
+        <v>25203797</v>
+      </c>
+      <c r="B5358" t="s">
+        <v>7976</v>
+      </c>
+      <c r="C5358" t="s">
+        <v>7977</v>
+      </c>
+      <c r="D5358" t="s">
+        <v>7978</v>
+      </c>
+    </row>
+    <row r="5359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5359">
+        <v>24901263</v>
+      </c>
+      <c r="B5359" t="s">
+        <v>7979</v>
+      </c>
+      <c r="C5359" t="s">
+        <v>7980</v>
+      </c>
+      <c r="D5359" t="s">
+        <v>7981</v>
+      </c>
+    </row>
+    <row r="5360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5360">
+        <v>25212707</v>
+      </c>
+      <c r="B5360" t="s">
+        <v>7982</v>
+      </c>
+      <c r="C5360" t="s">
+        <v>7983</v>
+      </c>
+      <c r="D5360" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="5361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5361">
+        <v>25202576</v>
+      </c>
+      <c r="B5361" t="s">
+        <v>7984</v>
+      </c>
+      <c r="C5361" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D5361" t="s">
+        <v>7985</v>
+      </c>
+    </row>
+    <row r="5362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5362">
+        <v>25218230</v>
+      </c>
+      <c r="B5362" t="s">
+        <v>7986</v>
+      </c>
+      <c r="C5362" t="s">
+        <v>7987</v>
+      </c>
+      <c r="D5362" t="s">
+        <v>7988</v>
+      </c>
+    </row>
+    <row r="5363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5363">
+        <v>25215248</v>
+      </c>
+      <c r="B5363" t="s">
+        <v>7989</v>
+      </c>
+      <c r="C5363" t="s">
+        <v>7990</v>
+      </c>
+      <c r="D5363" t="s">
+        <v>7991</v>
+      </c>
+    </row>
+    <row r="5364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5364">
+        <v>25303424</v>
+      </c>
+      <c r="B5364" t="s">
+        <v>7992</v>
+      </c>
+      <c r="C5364" t="s">
+        <v>7993</v>
+      </c>
+      <c r="D5364" t="s">
+        <v>7994</v>
+      </c>
+    </row>
+    <row r="5365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5365">
+        <v>25212575</v>
+      </c>
+      <c r="B5365" t="s">
+        <v>7995</v>
+      </c>
+      <c r="C5365" t="s">
+        <v>7996</v>
+      </c>
+      <c r="D5365" t="s">
+        <v>7997</v>
+      </c>
+    </row>
+    <row r="5366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5366">
+        <v>25200960</v>
+      </c>
+      <c r="B5366" t="s">
+        <v>7998</v>
+      </c>
+      <c r="C5366" t="s">
+        <v>7999</v>
+      </c>
+      <c r="D5366" t="s">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5367">
+        <v>25208560</v>
+      </c>
+      <c r="B5367" t="s">
+        <v>8001</v>
+      </c>
+      <c r="C5367" t="s">
+        <v>8002</v>
+      </c>
+      <c r="D5367" t="s">
+        <v>8003</v>
+      </c>
+    </row>
+    <row r="5368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5368">
+        <v>25206525</v>
+      </c>
+      <c r="B5368" t="s">
+        <v>8004</v>
+      </c>
+      <c r="C5368" t="s">
+        <v>8005</v>
+      </c>
+      <c r="D5368" t="s">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="5369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5369">
+        <v>25210090</v>
+      </c>
+      <c r="B5369" t="s">
+        <v>8007</v>
+      </c>
+      <c r="C5369" t="s">
+        <v>8008</v>
+      </c>
+      <c r="D5369" t="s">
+        <v>8009</v>
+      </c>
+    </row>
+    <row r="5370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5370">
+        <v>25211134</v>
+      </c>
+      <c r="B5370" t="s">
+        <v>8010</v>
+      </c>
+      <c r="C5370" t="s">
+        <v>8011</v>
+      </c>
+      <c r="D5370" t="s">
+        <v>8012</v>
+      </c>
+    </row>
+    <row r="5371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5371">
+        <v>24205788</v>
+      </c>
+      <c r="B5371" t="s">
+        <v>8013</v>
+      </c>
+      <c r="C5371" t="s">
+        <v>8014</v>
+      </c>
+      <c r="D5371" t="s">
+        <v>8015</v>
+      </c>
+    </row>
+    <row r="5372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5372">
+        <v>25212751</v>
+      </c>
+      <c r="B5372" t="s">
+        <v>8016</v>
+      </c>
+      <c r="C5372" t="s">
+        <v>8017</v>
+      </c>
+      <c r="D5372" t="s">
+        <v>8018</v>
+      </c>
+    </row>
+    <row r="5373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5373">
+        <v>23045859</v>
+      </c>
+      <c r="B5373" t="s">
+        <v>8019</v>
+      </c>
+      <c r="C5373" t="s">
+        <v>8020</v>
+      </c>
+      <c r="D5373" t="s">
+        <v>8021</v>
+      </c>
+    </row>
+    <row r="5374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5374">
+        <v>25205326</v>
+      </c>
+      <c r="B5374" t="s">
+        <v>8022</v>
+      </c>
+      <c r="C5374" t="s">
+        <v>8023</v>
+      </c>
+      <c r="D5374" t="s">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="5375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5375">
+        <v>25203676</v>
+      </c>
+      <c r="B5375" t="s">
+        <v>8024</v>
+      </c>
+      <c r="C5375" t="s">
+        <v>8025</v>
+      </c>
+      <c r="D5375" t="s">
+        <v>8026</v>
+      </c>
+    </row>
+    <row r="5376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5376">
+        <v>22018865</v>
+      </c>
+      <c r="B5376" t="s">
+        <v>8027</v>
+      </c>
+      <c r="C5376" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5376" t="s">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="5377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5377">
+        <v>25210518</v>
+      </c>
+      <c r="B5377" t="s">
+        <v>8029</v>
+      </c>
+      <c r="C5377" t="s">
+        <v>8030</v>
+      </c>
+      <c r="D5377" t="s">
+        <v>8031</v>
+      </c>
+    </row>
+    <row r="5378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5378">
+        <v>25201180</v>
+      </c>
+      <c r="B5378" t="s">
+        <v>8032</v>
+      </c>
+      <c r="C5378" t="s">
+        <v>8033</v>
+      </c>
+      <c r="D5378" t="s">
+        <v>8034</v>
+      </c>
+    </row>
+    <row r="5379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5379">
+        <v>25207042</v>
+      </c>
+      <c r="B5379" t="s">
+        <v>8035</v>
+      </c>
+      <c r="C5379" t="s">
+        <v>5678</v>
+      </c>
+      <c r="D5379" t="s">
+        <v>8036</v>
+      </c>
+    </row>
+    <row r="5380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5380">
+        <v>25802550</v>
+      </c>
+      <c r="B5380" t="s">
+        <v>8037</v>
+      </c>
+      <c r="C5380" t="s">
+        <v>8038</v>
+      </c>
+      <c r="D5380" t="s">
+        <v>8039</v>
+      </c>
+    </row>
+    <row r="5381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5381">
+        <v>25213103</v>
+      </c>
+      <c r="B5381" t="s">
+        <v>8040</v>
+      </c>
+      <c r="C5381" t="s">
+        <v>8041</v>
+      </c>
+      <c r="D5381" t="s">
+        <v>8042</v>
+      </c>
+    </row>
+    <row r="5382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5382">
+        <v>25212234</v>
+      </c>
+      <c r="B5382" t="s">
+        <v>8043</v>
+      </c>
+      <c r="C5382" t="s">
+        <v>8044</v>
+      </c>
+      <c r="D5382" t="s">
+        <v>8045</v>
+      </c>
+    </row>
+    <row r="5383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5383">
+        <v>25212938</v>
+      </c>
+      <c r="B5383" t="s">
+        <v>8046</v>
+      </c>
+      <c r="C5383" t="s">
+        <v>8047</v>
+      </c>
+      <c r="D5383" t="s">
+        <v>8048</v>
+      </c>
+    </row>
+    <row r="5384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5384">
+        <v>25202928</v>
+      </c>
+      <c r="B5384" t="s">
+        <v>8049</v>
+      </c>
+      <c r="C5384" t="s">
+        <v>8050</v>
+      </c>
+      <c r="D5384" t="s">
+        <v>8051</v>
+      </c>
+    </row>
+    <row r="5385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5385">
+        <v>25206228</v>
+      </c>
+      <c r="B5385" t="s">
+        <v>8052</v>
+      </c>
+      <c r="C5385" t="s">
+        <v>8053</v>
+      </c>
+      <c r="D5385" t="s">
+        <v>8054</v>
+      </c>
+    </row>
+    <row r="5386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5386">
+        <v>17203214</v>
+      </c>
+      <c r="B5386" t="s">
+        <v>8055</v>
+      </c>
+      <c r="C5386" t="s">
+        <v>8056</v>
+      </c>
+      <c r="D5386" t="s">
+        <v>8057</v>
+      </c>
+    </row>
+    <row r="5387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5387">
+        <v>25212817</v>
+      </c>
+      <c r="B5387" t="s">
+        <v>8058</v>
+      </c>
+      <c r="C5387" t="s">
+        <v>8059</v>
+      </c>
+      <c r="D5387" t="s">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="5388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5388">
+        <v>25208384</v>
+      </c>
+      <c r="B5388" t="s">
+        <v>8061</v>
+      </c>
+      <c r="C5388" t="s">
+        <v>8062</v>
+      </c>
+      <c r="D5388" t="s">
+        <v>8063</v>
+      </c>
+    </row>
+    <row r="5389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5389">
+        <v>25213983</v>
+      </c>
+      <c r="B5389" t="s">
+        <v>8064</v>
+      </c>
+      <c r="C5389" t="s">
+        <v>8065</v>
+      </c>
+      <c r="D5389" t="s">
+        <v>8066</v>
+      </c>
+    </row>
+    <row r="5390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5390">
+        <v>25213697</v>
+      </c>
+      <c r="B5390" t="s">
+        <v>8067</v>
+      </c>
+      <c r="C5390" t="s">
+        <v>8068</v>
+      </c>
+      <c r="D5390" t="s">
+        <v>8069</v>
+      </c>
+    </row>
+    <row r="5391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5391">
+        <v>22204754</v>
+      </c>
+      <c r="B5391" t="s">
+        <v>8070</v>
+      </c>
+      <c r="C5391" t="s">
+        <v>8071</v>
+      </c>
+      <c r="D5391" t="s">
+        <v>8072</v>
+      </c>
+    </row>
+    <row r="5392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5392">
+        <v>25805739</v>
+      </c>
+      <c r="B5392" t="s">
+        <v>8073</v>
+      </c>
+      <c r="C5392" t="s">
+        <v>8074</v>
+      </c>
+      <c r="D5392" t="s">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="5393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5393">
+        <v>25213851</v>
+      </c>
+      <c r="B5393" t="s">
+        <v>8075</v>
+      </c>
+      <c r="C5393" t="s">
+        <v>8076</v>
+      </c>
+      <c r="D5393" t="s">
+        <v>8077</v>
+      </c>
+    </row>
+    <row r="5394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5394">
+        <v>25206239</v>
+      </c>
+      <c r="B5394" t="s">
+        <v>8078</v>
+      </c>
+      <c r="C5394" t="s">
+        <v>8079</v>
+      </c>
+      <c r="D5394" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="5395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5395">
+        <v>25208505</v>
+      </c>
+      <c r="B5395" t="s">
+        <v>8080</v>
+      </c>
+      <c r="C5395" t="s">
+        <v>8081</v>
+      </c>
+      <c r="D5395" t="s">
+        <v>8082</v>
+      </c>
+    </row>
+    <row r="5396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5396">
+        <v>24402930</v>
+      </c>
+      <c r="B5396" t="s">
+        <v>8083</v>
+      </c>
+      <c r="C5396" t="s">
+        <v>8084</v>
+      </c>
+      <c r="D5396" t="s">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="5397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5397">
+        <v>25205469</v>
+      </c>
+      <c r="B5397" t="s">
+        <v>8086</v>
+      </c>
+      <c r="C5397" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5397" t="s">
+        <v>8087</v>
+      </c>
+    </row>
+    <row r="5398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5398">
+        <v>25206680</v>
+      </c>
+      <c r="B5398" t="s">
+        <v>8088</v>
+      </c>
+      <c r="C5398" t="s">
+        <v>8089</v>
+      </c>
+      <c r="D5398" t="s">
+        <v>8090</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contrasena.xlsx
+++ b/contrasena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solis\Desktop\ApiClave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86801E1E-CA02-4231-B221-67DB06F21131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4608EFC-2FCA-44E3-9972-B9A75AF2F051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16226" uniqueCount="8091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16303" uniqueCount="8158">
   <si>
     <t>Carnet</t>
   </si>
@@ -21073,9 +21073,6 @@
     <t>GUTIERREZ GUERRERO</t>
   </si>
   <si>
-    <t>lesthergut2002@gmail.com</t>
-  </si>
-  <si>
     <t>Xcnay3476-</t>
   </si>
   <si>
@@ -24293,6 +24290,210 @@
   </si>
   <si>
     <t>VANEGAS DIAZ</t>
+  </si>
+  <si>
+    <t>Gnjeh2476/</t>
+  </si>
+  <si>
+    <t>ASHLY NICOLE</t>
+  </si>
+  <si>
+    <t>AGUINAGA</t>
+  </si>
+  <si>
+    <t>Loqtw8469*</t>
+  </si>
+  <si>
+    <t>AGUIRRE CANO</t>
+  </si>
+  <si>
+    <t>Ejdyt2614-</t>
+  </si>
+  <si>
+    <t>JOARDY JEEN</t>
+  </si>
+  <si>
+    <t>ALFARO LÁNDEZ</t>
+  </si>
+  <si>
+    <t>Hpidq0894.</t>
+  </si>
+  <si>
+    <t>NICK ADOLFO</t>
+  </si>
+  <si>
+    <t>AMACIO MAIKEL</t>
+  </si>
+  <si>
+    <t>Yjdgx2548-</t>
+  </si>
+  <si>
+    <t>CASTILLO JARQUIN</t>
+  </si>
+  <si>
+    <t>Chyce0961+</t>
+  </si>
+  <si>
+    <t>DANY DANIEL</t>
+  </si>
+  <si>
+    <t>CORDOBA RUGAMA</t>
+  </si>
+  <si>
+    <t>Jdoer8794-</t>
+  </si>
+  <si>
+    <t>MISAEL FRANCISCO</t>
+  </si>
+  <si>
+    <t>DIAZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>Ycfte9204+</t>
+  </si>
+  <si>
+    <t>ALEX ANTONIO</t>
+  </si>
+  <si>
+    <t>FLORES ALVAREZ</t>
+  </si>
+  <si>
+    <t>Lgipa7261-</t>
+  </si>
+  <si>
+    <t>JOSEPH ENMANUEL</t>
+  </si>
+  <si>
+    <t>GUTIERREZ CARRILLO</t>
+  </si>
+  <si>
+    <t>Uxvzq1940/</t>
+  </si>
+  <si>
+    <t>JIRESH ISRAEL</t>
+  </si>
+  <si>
+    <t>Mfvju9260+</t>
+  </si>
+  <si>
+    <t>ELIZABETH PATRICIA</t>
+  </si>
+  <si>
+    <t>HUETES GONZALEZ</t>
+  </si>
+  <si>
+    <t>Kzqfy2417+</t>
+  </si>
+  <si>
+    <t>JANES BENLY</t>
+  </si>
+  <si>
+    <t>Mjmrv9075.</t>
+  </si>
+  <si>
+    <t>BRANDON ELIAS</t>
+  </si>
+  <si>
+    <t>LOPEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>Ffoim4106/</t>
+  </si>
+  <si>
+    <t>LOPEZ MALDONADO</t>
+  </si>
+  <si>
+    <t>Rnzyl1236,</t>
+  </si>
+  <si>
+    <t>JUAN ANDRES</t>
+  </si>
+  <si>
+    <t>LOPEZ POTOSME</t>
+  </si>
+  <si>
+    <t>Lrxti5378+</t>
+  </si>
+  <si>
+    <t>ANDERSON VLADIMIR</t>
+  </si>
+  <si>
+    <t>MENDOZA AGUILAR</t>
+  </si>
+  <si>
+    <t>Okvrj3859,</t>
+  </si>
+  <si>
+    <t>MOLINA MELENDEZ</t>
+  </si>
+  <si>
+    <t>Ypkmb4206-</t>
+  </si>
+  <si>
+    <t>KIRAN STICK</t>
+  </si>
+  <si>
+    <t>Revfx5741+</t>
+  </si>
+  <si>
+    <t>RICHARD JOSEPH</t>
+  </si>
+  <si>
+    <t>OROZCO GOMEZ</t>
+  </si>
+  <si>
+    <t>Rnvlc3595+</t>
+  </si>
+  <si>
+    <t>PANTOJA SANCHEZ</t>
+  </si>
+  <si>
+    <t>Rklyz5942-</t>
+  </si>
+  <si>
+    <t>FERNANDO ISAIAS</t>
+  </si>
+  <si>
+    <t>Uwclu0246*</t>
+  </si>
+  <si>
+    <t>FERNANDO ISRAEL</t>
+  </si>
+  <si>
+    <t>SANCHEZ SANDINO</t>
+  </si>
+  <si>
+    <t>Iltub4537-</t>
+  </si>
+  <si>
+    <t>TARDENCILLA POTOSME</t>
+  </si>
+  <si>
+    <t>Vjrbd9841/</t>
+  </si>
+  <si>
+    <t>CHRIST EDUARDO</t>
+  </si>
+  <si>
+    <t>TELLERIA ALVAREZ</t>
+  </si>
+  <si>
+    <t>Gzpho6023.</t>
+  </si>
+  <si>
+    <t>MAYERLING MICHELLE</t>
+  </si>
+  <si>
+    <t>VILLAGRA PARAMO</t>
+  </si>
+  <si>
+    <t>Ttazn3148.</t>
+  </si>
+  <si>
+    <t>ELKIN FRANCISCO</t>
+  </si>
+  <si>
+    <t>VILLARREAL RAMIREZ</t>
   </si>
 </sst>
 </file>
@@ -24660,10 +24861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5398"/>
+  <dimension ref="A1:D5424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5380" workbookViewId="0">
-      <selection activeCell="A5148" sqref="A5148:D5398"/>
+    <sheetView tabSelected="1" topLeftCell="A5323" workbookViewId="0">
+      <selection activeCell="E5380" sqref="E1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -94783,7 +94984,7 @@
         <v>7004</v>
       </c>
     </row>
-    <row r="5009" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5009" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5009">
         <v>25208032</v>
       </c>
@@ -94797,7 +94998,7 @@
         <v>7007</v>
       </c>
     </row>
-    <row r="5010" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5010" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5010">
         <v>25210287</v>
       </c>
@@ -94811,7 +95012,7 @@
         <v>7010</v>
       </c>
     </row>
-    <row r="5011" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5011" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5011">
         <v>25201080</v>
       </c>
@@ -94825,7 +95026,7 @@
         <v>7013</v>
       </c>
     </row>
-    <row r="5012" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5012" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5012">
         <v>20046002</v>
       </c>
@@ -94838,176 +95039,173 @@
       <c r="D5012" t="s">
         <v>7016</v>
       </c>
-      <c r="E5012" t="s">
-        <v>7017</v>
-      </c>
-    </row>
-    <row r="5013" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5013" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5013">
         <v>25208043</v>
       </c>
       <c r="B5013" t="s">
+        <v>7017</v>
+      </c>
+      <c r="C5013" t="s">
         <v>7018</v>
       </c>
-      <c r="C5013" t="s">
+      <c r="D5013" t="s">
         <v>7019</v>
       </c>
-      <c r="D5013" t="s">
-        <v>7020</v>
-      </c>
-    </row>
-    <row r="5014" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5014" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5014">
         <v>25211101</v>
       </c>
       <c r="B5014" t="s">
+        <v>7020</v>
+      </c>
+      <c r="C5014" t="s">
         <v>7021</v>
       </c>
-      <c r="C5014" t="s">
+      <c r="D5014" t="s">
         <v>7022</v>
       </c>
-      <c r="D5014" t="s">
-        <v>7023</v>
-      </c>
-    </row>
-    <row r="5015" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5015" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5015">
         <v>25204765</v>
       </c>
       <c r="B5015" t="s">
+        <v>7023</v>
+      </c>
+      <c r="C5015" t="s">
         <v>7024</v>
       </c>
-      <c r="C5015" t="s">
+      <c r="D5015" t="s">
         <v>7025</v>
       </c>
-      <c r="D5015" t="s">
-        <v>7026</v>
-      </c>
-    </row>
-    <row r="5016" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5016" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5016">
         <v>25013090</v>
       </c>
       <c r="B5016" t="s">
+        <v>7026</v>
+      </c>
+      <c r="C5016" t="s">
         <v>7027</v>
       </c>
-      <c r="C5016" t="s">
+      <c r="D5016" t="s">
         <v>7028</v>
       </c>
-      <c r="D5016" t="s">
-        <v>7029</v>
-      </c>
-    </row>
-    <row r="5017" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5017" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5017">
         <v>25201465</v>
       </c>
       <c r="B5017" t="s">
+        <v>7029</v>
+      </c>
+      <c r="C5017" t="s">
         <v>7030</v>
       </c>
-      <c r="C5017" t="s">
+      <c r="D5017" t="s">
         <v>7031</v>
       </c>
-      <c r="D5017" t="s">
-        <v>7032</v>
-      </c>
-    </row>
-    <row r="5018" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5018" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5018">
         <v>25213466</v>
       </c>
       <c r="B5018" t="s">
+        <v>7032</v>
+      </c>
+      <c r="C5018" t="s">
         <v>7033</v>
       </c>
-      <c r="C5018" t="s">
+      <c r="D5018" t="s">
         <v>7034</v>
       </c>
-      <c r="D5018" t="s">
-        <v>7035</v>
-      </c>
-    </row>
-    <row r="5019" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5019" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5019">
         <v>25202510</v>
       </c>
       <c r="B5019" t="s">
+        <v>7035</v>
+      </c>
+      <c r="C5019" t="s">
         <v>7036</v>
       </c>
-      <c r="C5019" t="s">
+      <c r="D5019" t="s">
         <v>7037</v>
       </c>
-      <c r="D5019" t="s">
-        <v>7038</v>
-      </c>
-    </row>
-    <row r="5020" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5020" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5020">
         <v>25210771</v>
       </c>
       <c r="B5020" t="s">
+        <v>7038</v>
+      </c>
+      <c r="C5020" t="s">
         <v>7039</v>
       </c>
-      <c r="C5020" t="s">
+      <c r="D5020" t="s">
         <v>7040</v>
       </c>
-      <c r="D5020" t="s">
-        <v>7041</v>
-      </c>
-    </row>
-    <row r="5021" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5021" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5021">
         <v>25200651</v>
       </c>
       <c r="B5021" t="s">
+        <v>7041</v>
+      </c>
+      <c r="C5021" t="s">
         <v>7042</v>
       </c>
-      <c r="C5021" t="s">
+      <c r="D5021" t="s">
         <v>7043</v>
       </c>
-      <c r="D5021" t="s">
-        <v>7044</v>
-      </c>
-    </row>
-    <row r="5022" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5022" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5022">
         <v>25201443</v>
       </c>
       <c r="B5022" t="s">
-        <v>7045</v>
+        <v>7044</v>
       </c>
       <c r="C5022" t="s">
         <v>6435</v>
       </c>
       <c r="D5022" t="s">
-        <v>7046</v>
-      </c>
-    </row>
-    <row r="5023" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7045</v>
+      </c>
+    </row>
+    <row r="5023" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5023">
         <v>25211024</v>
       </c>
       <c r="B5023" t="s">
+        <v>7046</v>
+      </c>
+      <c r="C5023" t="s">
         <v>7047</v>
       </c>
-      <c r="C5023" t="s">
+      <c r="D5023" t="s">
         <v>7048</v>
       </c>
-      <c r="D5023" t="s">
-        <v>7049</v>
-      </c>
-    </row>
-    <row r="5024" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5024" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5024">
         <v>25201135</v>
       </c>
       <c r="B5024" t="s">
+        <v>7049</v>
+      </c>
+      <c r="C5024" t="s">
         <v>7050</v>
       </c>
-      <c r="C5024" t="s">
+      <c r="D5024" t="s">
         <v>7051</v>
-      </c>
-      <c r="D5024" t="s">
-        <v>7052</v>
       </c>
     </row>
     <row r="5025" spans="1:4" x14ac:dyDescent="0.25">
@@ -95015,13 +95213,13 @@
         <v>25211420</v>
       </c>
       <c r="B5025" t="s">
+        <v>7052</v>
+      </c>
+      <c r="C5025" t="s">
         <v>7053</v>
       </c>
-      <c r="C5025" t="s">
+      <c r="D5025" t="s">
         <v>7054</v>
-      </c>
-      <c r="D5025" t="s">
-        <v>7055</v>
       </c>
     </row>
     <row r="5026" spans="1:4" x14ac:dyDescent="0.25">
@@ -95029,13 +95227,13 @@
         <v>25211520</v>
       </c>
       <c r="B5026" t="s">
+        <v>7055</v>
+      </c>
+      <c r="C5026" t="s">
         <v>7056</v>
       </c>
-      <c r="C5026" t="s">
+      <c r="D5026" t="s">
         <v>7057</v>
-      </c>
-      <c r="D5026" t="s">
-        <v>7058</v>
       </c>
     </row>
     <row r="5027" spans="1:4" x14ac:dyDescent="0.25">
@@ -95043,13 +95241,13 @@
         <v>25207295</v>
       </c>
       <c r="B5027" t="s">
+        <v>7058</v>
+      </c>
+      <c r="C5027" t="s">
         <v>7059</v>
       </c>
-      <c r="C5027" t="s">
+      <c r="D5027" t="s">
         <v>7060</v>
-      </c>
-      <c r="D5027" t="s">
-        <v>7061</v>
       </c>
     </row>
     <row r="5028" spans="1:4" x14ac:dyDescent="0.25">
@@ -95057,13 +95255,13 @@
         <v>25204028</v>
       </c>
       <c r="B5028" t="s">
+        <v>7061</v>
+      </c>
+      <c r="C5028" t="s">
         <v>7062</v>
       </c>
-      <c r="C5028" t="s">
+      <c r="D5028" t="s">
         <v>7063</v>
-      </c>
-      <c r="D5028" t="s">
-        <v>7064</v>
       </c>
     </row>
     <row r="5029" spans="1:4" x14ac:dyDescent="0.25">
@@ -95071,13 +95269,13 @@
         <v>25207999</v>
       </c>
       <c r="B5029" t="s">
+        <v>7064</v>
+      </c>
+      <c r="C5029" t="s">
         <v>7065</v>
       </c>
-      <c r="C5029" t="s">
+      <c r="D5029" t="s">
         <v>7066</v>
-      </c>
-      <c r="D5029" t="s">
-        <v>7067</v>
       </c>
     </row>
     <row r="5030" spans="1:4" x14ac:dyDescent="0.25">
@@ -95085,13 +95283,13 @@
         <v>25210463</v>
       </c>
       <c r="B5030" t="s">
+        <v>7067</v>
+      </c>
+      <c r="C5030" t="s">
         <v>7068</v>
       </c>
-      <c r="C5030" t="s">
+      <c r="D5030" t="s">
         <v>7069</v>
-      </c>
-      <c r="D5030" t="s">
-        <v>7070</v>
       </c>
     </row>
     <row r="5031" spans="1:4" x14ac:dyDescent="0.25">
@@ -95099,13 +95297,13 @@
         <v>25211816</v>
       </c>
       <c r="B5031" t="s">
+        <v>7070</v>
+      </c>
+      <c r="C5031" t="s">
         <v>7071</v>
       </c>
-      <c r="C5031" t="s">
+      <c r="D5031" t="s">
         <v>7072</v>
-      </c>
-      <c r="D5031" t="s">
-        <v>7073</v>
       </c>
     </row>
     <row r="5032" spans="1:4" x14ac:dyDescent="0.25">
@@ -95113,13 +95311,13 @@
         <v>25201410</v>
       </c>
       <c r="B5032" t="s">
-        <v>7074</v>
+        <v>7073</v>
       </c>
       <c r="C5032" t="s">
         <v>3566</v>
       </c>
       <c r="D5032" t="s">
-        <v>7075</v>
+        <v>7074</v>
       </c>
     </row>
     <row r="5033" spans="1:4" x14ac:dyDescent="0.25">
@@ -95127,13 +95325,13 @@
         <v>25210397</v>
       </c>
       <c r="B5033" t="s">
+        <v>7075</v>
+      </c>
+      <c r="C5033" t="s">
         <v>7076</v>
       </c>
-      <c r="C5033" t="s">
+      <c r="D5033" t="s">
         <v>7077</v>
-      </c>
-      <c r="D5033" t="s">
-        <v>7078</v>
       </c>
     </row>
     <row r="5034" spans="1:4" x14ac:dyDescent="0.25">
@@ -95141,13 +95339,13 @@
         <v>25202554</v>
       </c>
       <c r="B5034" t="s">
+        <v>7078</v>
+      </c>
+      <c r="C5034" t="s">
         <v>7079</v>
       </c>
-      <c r="C5034" t="s">
+      <c r="D5034" t="s">
         <v>7080</v>
-      </c>
-      <c r="D5034" t="s">
-        <v>7081</v>
       </c>
     </row>
     <row r="5035" spans="1:4" x14ac:dyDescent="0.25">
@@ -95155,13 +95353,13 @@
         <v>25613635</v>
       </c>
       <c r="B5035" t="s">
+        <v>7081</v>
+      </c>
+      <c r="C5035" t="s">
         <v>7082</v>
       </c>
-      <c r="C5035" t="s">
+      <c r="D5035" t="s">
         <v>7083</v>
-      </c>
-      <c r="D5035" t="s">
-        <v>7084</v>
       </c>
     </row>
     <row r="5036" spans="1:4" x14ac:dyDescent="0.25">
@@ -95169,10 +95367,10 @@
         <v>25212806</v>
       </c>
       <c r="B5036" t="s">
+        <v>7084</v>
+      </c>
+      <c r="C5036" t="s">
         <v>7085</v>
-      </c>
-      <c r="C5036" t="s">
-        <v>7086</v>
       </c>
       <c r="D5036" t="s">
         <v>6377</v>
@@ -95183,13 +95381,13 @@
         <v>25206723</v>
       </c>
       <c r="B5037" t="s">
+        <v>7086</v>
+      </c>
+      <c r="C5037" t="s">
         <v>7087</v>
       </c>
-      <c r="C5037" t="s">
+      <c r="D5037" t="s">
         <v>7088</v>
-      </c>
-      <c r="D5037" t="s">
-        <v>7089</v>
       </c>
     </row>
     <row r="5038" spans="1:4" x14ac:dyDescent="0.25">
@@ -95197,13 +95395,13 @@
         <v>25211541</v>
       </c>
       <c r="B5038" t="s">
+        <v>7089</v>
+      </c>
+      <c r="C5038" t="s">
         <v>7090</v>
       </c>
-      <c r="C5038" t="s">
+      <c r="D5038" t="s">
         <v>7091</v>
-      </c>
-      <c r="D5038" t="s">
-        <v>7092</v>
       </c>
     </row>
     <row r="5039" spans="1:4" x14ac:dyDescent="0.25">
@@ -95211,13 +95409,13 @@
         <v>25209044</v>
       </c>
       <c r="B5039" t="s">
+        <v>7092</v>
+      </c>
+      <c r="C5039" t="s">
         <v>7093</v>
       </c>
-      <c r="C5039" t="s">
+      <c r="D5039" t="s">
         <v>7094</v>
-      </c>
-      <c r="D5039" t="s">
-        <v>7095</v>
       </c>
     </row>
     <row r="5040" spans="1:4" x14ac:dyDescent="0.25">
@@ -95225,13 +95423,13 @@
         <v>25208582</v>
       </c>
       <c r="B5040" t="s">
+        <v>7095</v>
+      </c>
+      <c r="C5040" t="s">
         <v>7096</v>
       </c>
-      <c r="C5040" t="s">
+      <c r="D5040" t="s">
         <v>7097</v>
-      </c>
-      <c r="D5040" t="s">
-        <v>7098</v>
       </c>
     </row>
     <row r="5041" spans="1:4" x14ac:dyDescent="0.25">
@@ -95239,13 +95437,13 @@
         <v>25200080</v>
       </c>
       <c r="B5041" t="s">
+        <v>7098</v>
+      </c>
+      <c r="C5041" t="s">
         <v>7099</v>
       </c>
-      <c r="C5041" t="s">
+      <c r="D5041" t="s">
         <v>7100</v>
-      </c>
-      <c r="D5041" t="s">
-        <v>7101</v>
       </c>
     </row>
     <row r="5042" spans="1:4" x14ac:dyDescent="0.25">
@@ -95253,13 +95451,13 @@
         <v>25218713</v>
       </c>
       <c r="B5042" t="s">
+        <v>7101</v>
+      </c>
+      <c r="C5042" t="s">
         <v>7102</v>
       </c>
-      <c r="C5042" t="s">
+      <c r="D5042" t="s">
         <v>7103</v>
-      </c>
-      <c r="D5042" t="s">
-        <v>7104</v>
       </c>
     </row>
     <row r="5043" spans="1:4" x14ac:dyDescent="0.25">
@@ -95267,13 +95465,13 @@
         <v>23206734</v>
       </c>
       <c r="B5043" t="s">
+        <v>7104</v>
+      </c>
+      <c r="C5043" t="s">
         <v>7105</v>
       </c>
-      <c r="C5043" t="s">
+      <c r="D5043" t="s">
         <v>7106</v>
-      </c>
-      <c r="D5043" t="s">
-        <v>7107</v>
       </c>
     </row>
     <row r="5044" spans="1:4" x14ac:dyDescent="0.25">
@@ -95281,13 +95479,13 @@
         <v>25213741</v>
       </c>
       <c r="B5044" t="s">
+        <v>7107</v>
+      </c>
+      <c r="C5044" t="s">
         <v>7108</v>
       </c>
-      <c r="C5044" t="s">
+      <c r="D5044" t="s">
         <v>7109</v>
-      </c>
-      <c r="D5044" t="s">
-        <v>7110</v>
       </c>
     </row>
     <row r="5045" spans="1:4" x14ac:dyDescent="0.25">
@@ -95295,13 +95493,13 @@
         <v>25204787</v>
       </c>
       <c r="B5045" t="s">
+        <v>7110</v>
+      </c>
+      <c r="C5045" t="s">
         <v>7111</v>
       </c>
-      <c r="C5045" t="s">
+      <c r="D5045" t="s">
         <v>7112</v>
-      </c>
-      <c r="D5045" t="s">
-        <v>7113</v>
       </c>
     </row>
     <row r="5046" spans="1:4" x14ac:dyDescent="0.25">
@@ -95309,13 +95507,13 @@
         <v>24207669</v>
       </c>
       <c r="B5046" t="s">
+        <v>7113</v>
+      </c>
+      <c r="C5046" t="s">
         <v>7114</v>
       </c>
-      <c r="C5046" t="s">
+      <c r="D5046" t="s">
         <v>7115</v>
-      </c>
-      <c r="D5046" t="s">
-        <v>7116</v>
       </c>
     </row>
     <row r="5047" spans="1:4" x14ac:dyDescent="0.25">
@@ -95323,13 +95521,13 @@
         <v>25203819</v>
       </c>
       <c r="B5047" t="s">
+        <v>7116</v>
+      </c>
+      <c r="C5047" t="s">
         <v>7117</v>
       </c>
-      <c r="C5047" t="s">
+      <c r="D5047" t="s">
         <v>7118</v>
-      </c>
-      <c r="D5047" t="s">
-        <v>7119</v>
       </c>
     </row>
     <row r="5048" spans="1:4" x14ac:dyDescent="0.25">
@@ -95337,13 +95535,13 @@
         <v>25203709</v>
       </c>
       <c r="B5048" t="s">
+        <v>7119</v>
+      </c>
+      <c r="C5048" t="s">
         <v>7120</v>
       </c>
-      <c r="C5048" t="s">
+      <c r="D5048" t="s">
         <v>7121</v>
-      </c>
-      <c r="D5048" t="s">
-        <v>7122</v>
       </c>
     </row>
     <row r="5049" spans="1:4" x14ac:dyDescent="0.25">
@@ -95351,13 +95549,13 @@
         <v>25212916</v>
       </c>
       <c r="B5049" t="s">
+        <v>7122</v>
+      </c>
+      <c r="C5049" t="s">
         <v>7123</v>
       </c>
-      <c r="C5049" t="s">
+      <c r="D5049" t="s">
         <v>7124</v>
-      </c>
-      <c r="D5049" t="s">
-        <v>7125</v>
       </c>
     </row>
     <row r="5050" spans="1:4" x14ac:dyDescent="0.25">
@@ -95365,13 +95563,13 @@
         <v>25209880</v>
       </c>
       <c r="B5050" t="s">
+        <v>7125</v>
+      </c>
+      <c r="C5050" t="s">
         <v>7126</v>
       </c>
-      <c r="C5050" t="s">
+      <c r="D5050" t="s">
         <v>7127</v>
-      </c>
-      <c r="D5050" t="s">
-        <v>7128</v>
       </c>
     </row>
     <row r="5051" spans="1:4" x14ac:dyDescent="0.25">
@@ -95379,13 +95577,13 @@
         <v>25208340</v>
       </c>
       <c r="B5051" t="s">
-        <v>7129</v>
+        <v>7128</v>
       </c>
       <c r="C5051" t="s">
         <v>2661</v>
       </c>
       <c r="D5051" t="s">
-        <v>7130</v>
+        <v>7129</v>
       </c>
     </row>
     <row r="5052" spans="1:4" x14ac:dyDescent="0.25">
@@ -95393,13 +95591,13 @@
         <v>25201740</v>
       </c>
       <c r="B5052" t="s">
+        <v>7130</v>
+      </c>
+      <c r="C5052" t="s">
         <v>7131</v>
       </c>
-      <c r="C5052" t="s">
+      <c r="D5052" t="s">
         <v>7132</v>
-      </c>
-      <c r="D5052" t="s">
-        <v>7133</v>
       </c>
     </row>
     <row r="5053" spans="1:4" x14ac:dyDescent="0.25">
@@ -95407,13 +95605,13 @@
         <v>24205535</v>
       </c>
       <c r="B5053" t="s">
+        <v>7133</v>
+      </c>
+      <c r="C5053" t="s">
         <v>7134</v>
       </c>
-      <c r="C5053" t="s">
+      <c r="D5053" t="s">
         <v>7135</v>
-      </c>
-      <c r="D5053" t="s">
-        <v>7136</v>
       </c>
     </row>
     <row r="5054" spans="1:4" x14ac:dyDescent="0.25">
@@ -95421,13 +95619,13 @@
         <v>25206052</v>
       </c>
       <c r="B5054" t="s">
+        <v>7136</v>
+      </c>
+      <c r="C5054" t="s">
         <v>7137</v>
       </c>
-      <c r="C5054" t="s">
+      <c r="D5054" t="s">
         <v>7138</v>
-      </c>
-      <c r="D5054" t="s">
-        <v>7139</v>
       </c>
     </row>
     <row r="5055" spans="1:4" x14ac:dyDescent="0.25">
@@ -95435,7 +95633,7 @@
         <v>25208813</v>
       </c>
       <c r="B5055" t="s">
-        <v>7140</v>
+        <v>7139</v>
       </c>
       <c r="C5055" t="s">
         <v>6199</v>
@@ -95449,13 +95647,13 @@
         <v>25210331</v>
       </c>
       <c r="B5056" t="s">
+        <v>7140</v>
+      </c>
+      <c r="C5056" t="s">
         <v>7141</v>
       </c>
-      <c r="C5056" t="s">
+      <c r="D5056" t="s">
         <v>7142</v>
-      </c>
-      <c r="D5056" t="s">
-        <v>7143</v>
       </c>
     </row>
     <row r="5057" spans="1:4" x14ac:dyDescent="0.25">
@@ -95463,10 +95661,10 @@
         <v>25204105</v>
       </c>
       <c r="B5057" t="s">
+        <v>7143</v>
+      </c>
+      <c r="C5057" t="s">
         <v>7144</v>
-      </c>
-      <c r="C5057" t="s">
-        <v>7145</v>
       </c>
       <c r="D5057" t="s">
         <v>821</v>
@@ -95477,10 +95675,10 @@
         <v>25208065</v>
       </c>
       <c r="B5058" t="s">
+        <v>7145</v>
+      </c>
+      <c r="C5058" t="s">
         <v>7146</v>
-      </c>
-      <c r="C5058" t="s">
-        <v>7147</v>
       </c>
       <c r="D5058" t="s">
         <v>6125</v>
@@ -95491,13 +95689,13 @@
         <v>25212685</v>
       </c>
       <c r="B5059" t="s">
+        <v>7147</v>
+      </c>
+      <c r="C5059" t="s">
         <v>7148</v>
       </c>
-      <c r="C5059" t="s">
+      <c r="D5059" t="s">
         <v>7149</v>
-      </c>
-      <c r="D5059" t="s">
-        <v>7150</v>
       </c>
     </row>
     <row r="5060" spans="1:4" x14ac:dyDescent="0.25">
@@ -95505,13 +95703,13 @@
         <v>25211299</v>
       </c>
       <c r="B5060" t="s">
+        <v>7150</v>
+      </c>
+      <c r="C5060" t="s">
         <v>7151</v>
       </c>
-      <c r="C5060" t="s">
+      <c r="D5060" t="s">
         <v>7152</v>
-      </c>
-      <c r="D5060" t="s">
-        <v>7153</v>
       </c>
     </row>
     <row r="5061" spans="1:4" x14ac:dyDescent="0.25">
@@ -95519,13 +95717,13 @@
         <v>25213092</v>
       </c>
       <c r="B5061" t="s">
-        <v>7154</v>
+        <v>7153</v>
       </c>
       <c r="C5061" t="s">
         <v>4136</v>
       </c>
       <c r="D5061" t="s">
-        <v>7155</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="5062" spans="1:4" x14ac:dyDescent="0.25">
@@ -95533,13 +95731,13 @@
         <v>25203060</v>
       </c>
       <c r="B5062" t="s">
+        <v>7155</v>
+      </c>
+      <c r="C5062" t="s">
         <v>7156</v>
       </c>
-      <c r="C5062" t="s">
+      <c r="D5062" t="s">
         <v>7157</v>
-      </c>
-      <c r="D5062" t="s">
-        <v>7158</v>
       </c>
     </row>
     <row r="5063" spans="1:4" x14ac:dyDescent="0.25">
@@ -95547,13 +95745,13 @@
         <v>20731126</v>
       </c>
       <c r="B5063" t="s">
-        <v>7159</v>
+        <v>7158</v>
       </c>
       <c r="C5063" t="s">
         <v>154</v>
       </c>
       <c r="D5063" t="s">
-        <v>7160</v>
+        <v>7159</v>
       </c>
     </row>
     <row r="5064" spans="1:4" x14ac:dyDescent="0.25">
@@ -95561,13 +95759,13 @@
         <v>25200266</v>
       </c>
       <c r="B5064" t="s">
+        <v>7160</v>
+      </c>
+      <c r="C5064" t="s">
         <v>7161</v>
       </c>
-      <c r="C5064" t="s">
+      <c r="D5064" t="s">
         <v>7162</v>
-      </c>
-      <c r="D5064" t="s">
-        <v>7163</v>
       </c>
     </row>
     <row r="5065" spans="1:4" x14ac:dyDescent="0.25">
@@ -95575,13 +95773,13 @@
         <v>25200794</v>
       </c>
       <c r="B5065" t="s">
+        <v>7163</v>
+      </c>
+      <c r="C5065" t="s">
         <v>7164</v>
       </c>
-      <c r="C5065" t="s">
+      <c r="D5065" t="s">
         <v>7165</v>
-      </c>
-      <c r="D5065" t="s">
-        <v>7166</v>
       </c>
     </row>
     <row r="5066" spans="1:4" x14ac:dyDescent="0.25">
@@ -95589,13 +95787,13 @@
         <v>25213268</v>
       </c>
       <c r="B5066" t="s">
+        <v>7166</v>
+      </c>
+      <c r="C5066" t="s">
         <v>7167</v>
       </c>
-      <c r="C5066" t="s">
+      <c r="D5066" t="s">
         <v>7168</v>
-      </c>
-      <c r="D5066" t="s">
-        <v>7169</v>
       </c>
     </row>
     <row r="5067" spans="1:4" x14ac:dyDescent="0.25">
@@ -95603,13 +95801,13 @@
         <v>25209033</v>
       </c>
       <c r="B5067" t="s">
+        <v>7169</v>
+      </c>
+      <c r="C5067" t="s">
         <v>7170</v>
       </c>
-      <c r="C5067" t="s">
+      <c r="D5067" t="s">
         <v>7171</v>
-      </c>
-      <c r="D5067" t="s">
-        <v>7172</v>
       </c>
     </row>
     <row r="5068" spans="1:4" x14ac:dyDescent="0.25">
@@ -95617,13 +95815,13 @@
         <v>25604527</v>
       </c>
       <c r="B5068" t="s">
+        <v>7172</v>
+      </c>
+      <c r="C5068" t="s">
         <v>7173</v>
       </c>
-      <c r="C5068" t="s">
+      <c r="D5068" t="s">
         <v>7174</v>
-      </c>
-      <c r="D5068" t="s">
-        <v>7175</v>
       </c>
     </row>
     <row r="5069" spans="1:4" x14ac:dyDescent="0.25">
@@ -95631,13 +95829,13 @@
         <v>25200706</v>
       </c>
       <c r="B5069" t="s">
+        <v>7175</v>
+      </c>
+      <c r="C5069" t="s">
         <v>7176</v>
       </c>
-      <c r="C5069" t="s">
+      <c r="D5069" t="s">
         <v>7177</v>
-      </c>
-      <c r="D5069" t="s">
-        <v>7178</v>
       </c>
     </row>
     <row r="5070" spans="1:4" x14ac:dyDescent="0.25">
@@ -95645,13 +95843,13 @@
         <v>25209682</v>
       </c>
       <c r="B5070" t="s">
+        <v>7178</v>
+      </c>
+      <c r="C5070" t="s">
         <v>7179</v>
       </c>
-      <c r="C5070" t="s">
+      <c r="D5070" t="s">
         <v>7180</v>
-      </c>
-      <c r="D5070" t="s">
-        <v>7181</v>
       </c>
     </row>
     <row r="5071" spans="1:4" x14ac:dyDescent="0.25">
@@ -95659,13 +95857,13 @@
         <v>25607354</v>
       </c>
       <c r="B5071" t="s">
+        <v>7181</v>
+      </c>
+      <c r="C5071" t="s">
         <v>7182</v>
       </c>
-      <c r="C5071" t="s">
+      <c r="D5071" t="s">
         <v>7183</v>
-      </c>
-      <c r="D5071" t="s">
-        <v>7184</v>
       </c>
     </row>
     <row r="5072" spans="1:4" x14ac:dyDescent="0.25">
@@ -95673,13 +95871,13 @@
         <v>25212080</v>
       </c>
       <c r="B5072" t="s">
+        <v>7184</v>
+      </c>
+      <c r="C5072" t="s">
+        <v>7079</v>
+      </c>
+      <c r="D5072" t="s">
         <v>7185</v>
-      </c>
-      <c r="C5072" t="s">
-        <v>7080</v>
-      </c>
-      <c r="D5072" t="s">
-        <v>7186</v>
       </c>
     </row>
     <row r="5073" spans="1:4" x14ac:dyDescent="0.25">
@@ -95687,13 +95885,13 @@
         <v>25214060</v>
       </c>
       <c r="B5073" t="s">
+        <v>7186</v>
+      </c>
+      <c r="C5073" t="s">
         <v>7187</v>
       </c>
-      <c r="C5073" t="s">
+      <c r="D5073" t="s">
         <v>7188</v>
-      </c>
-      <c r="D5073" t="s">
-        <v>7189</v>
       </c>
     </row>
     <row r="5074" spans="1:4" x14ac:dyDescent="0.25">
@@ -95701,13 +95899,13 @@
         <v>25206217</v>
       </c>
       <c r="B5074" t="s">
-        <v>7190</v>
+        <v>7189</v>
       </c>
       <c r="C5074" t="s">
         <v>6151</v>
       </c>
       <c r="D5074" t="s">
-        <v>7191</v>
+        <v>7190</v>
       </c>
     </row>
     <row r="5075" spans="1:4" x14ac:dyDescent="0.25">
@@ -95715,13 +95913,13 @@
         <v>25204116</v>
       </c>
       <c r="B5075" t="s">
+        <v>7191</v>
+      </c>
+      <c r="C5075" t="s">
         <v>7192</v>
       </c>
-      <c r="C5075" t="s">
+      <c r="D5075" t="s">
         <v>7193</v>
-      </c>
-      <c r="D5075" t="s">
-        <v>7194</v>
       </c>
     </row>
     <row r="5076" spans="1:4" x14ac:dyDescent="0.25">
@@ -95729,13 +95927,13 @@
         <v>25209561</v>
       </c>
       <c r="B5076" t="s">
+        <v>7194</v>
+      </c>
+      <c r="C5076" t="s">
         <v>7195</v>
       </c>
-      <c r="C5076" t="s">
+      <c r="D5076" t="s">
         <v>7196</v>
-      </c>
-      <c r="D5076" t="s">
-        <v>7197</v>
       </c>
     </row>
     <row r="5077" spans="1:4" x14ac:dyDescent="0.25">
@@ -95743,13 +95941,13 @@
         <v>25203478</v>
       </c>
       <c r="B5077" t="s">
+        <v>7197</v>
+      </c>
+      <c r="C5077" t="s">
         <v>7198</v>
       </c>
-      <c r="C5077" t="s">
+      <c r="D5077" t="s">
         <v>7199</v>
-      </c>
-      <c r="D5077" t="s">
-        <v>7200</v>
       </c>
     </row>
     <row r="5078" spans="1:4" x14ac:dyDescent="0.25">
@@ -95757,13 +95955,13 @@
         <v>25207471</v>
       </c>
       <c r="B5078" t="s">
-        <v>7201</v>
+        <v>7200</v>
       </c>
       <c r="C5078" t="s">
         <v>1752</v>
       </c>
       <c r="D5078" t="s">
-        <v>7202</v>
+        <v>7201</v>
       </c>
     </row>
     <row r="5079" spans="1:4" x14ac:dyDescent="0.25">
@@ -95771,13 +95969,13 @@
         <v>25204138</v>
       </c>
       <c r="B5079" t="s">
+        <v>7202</v>
+      </c>
+      <c r="C5079" t="s">
         <v>7203</v>
       </c>
-      <c r="C5079" t="s">
+      <c r="D5079" t="s">
         <v>7204</v>
-      </c>
-      <c r="D5079" t="s">
-        <v>7205</v>
       </c>
     </row>
     <row r="5080" spans="1:4" x14ac:dyDescent="0.25">
@@ -95785,13 +95983,13 @@
         <v>25207328</v>
       </c>
       <c r="B5080" t="s">
+        <v>7205</v>
+      </c>
+      <c r="C5080" t="s">
         <v>7206</v>
       </c>
-      <c r="C5080" t="s">
+      <c r="D5080" t="s">
         <v>7207</v>
-      </c>
-      <c r="D5080" t="s">
-        <v>7208</v>
       </c>
     </row>
     <row r="5081" spans="1:4" x14ac:dyDescent="0.25">
@@ -95799,13 +95997,13 @@
         <v>25210970</v>
       </c>
       <c r="B5081" t="s">
+        <v>7208</v>
+      </c>
+      <c r="C5081" t="s">
         <v>7209</v>
       </c>
-      <c r="C5081" t="s">
+      <c r="D5081" t="s">
         <v>7210</v>
-      </c>
-      <c r="D5081" t="s">
-        <v>7211</v>
       </c>
     </row>
     <row r="5082" spans="1:4" x14ac:dyDescent="0.25">
@@ -95813,10 +96011,10 @@
         <v>25606606</v>
       </c>
       <c r="B5082" t="s">
+        <v>7211</v>
+      </c>
+      <c r="C5082" t="s">
         <v>7212</v>
-      </c>
-      <c r="C5082" t="s">
-        <v>7213</v>
       </c>
       <c r="D5082" t="s">
         <v>3789</v>
@@ -95827,13 +96025,13 @@
         <v>25208483</v>
       </c>
       <c r="B5083" t="s">
+        <v>7213</v>
+      </c>
+      <c r="C5083" t="s">
         <v>7214</v>
       </c>
-      <c r="C5083" t="s">
+      <c r="D5083" t="s">
         <v>7215</v>
-      </c>
-      <c r="D5083" t="s">
-        <v>7216</v>
       </c>
     </row>
     <row r="5084" spans="1:4" x14ac:dyDescent="0.25">
@@ -95841,13 +96039,13 @@
         <v>25212113</v>
       </c>
       <c r="B5084" t="s">
+        <v>7216</v>
+      </c>
+      <c r="C5084" t="s">
         <v>7217</v>
       </c>
-      <c r="C5084" t="s">
+      <c r="D5084" t="s">
         <v>7218</v>
-      </c>
-      <c r="D5084" t="s">
-        <v>7219</v>
       </c>
     </row>
     <row r="5085" spans="1:4" x14ac:dyDescent="0.25">
@@ -95855,13 +96053,13 @@
         <v>25205733</v>
       </c>
       <c r="B5085" t="s">
+        <v>7219</v>
+      </c>
+      <c r="C5085" t="s">
         <v>7220</v>
       </c>
-      <c r="C5085" t="s">
+      <c r="D5085" t="s">
         <v>7221</v>
-      </c>
-      <c r="D5085" t="s">
-        <v>7222</v>
       </c>
     </row>
     <row r="5086" spans="1:4" x14ac:dyDescent="0.25">
@@ -95869,13 +96067,13 @@
         <v>25205205</v>
       </c>
       <c r="B5086" t="s">
+        <v>7222</v>
+      </c>
+      <c r="C5086" t="s">
         <v>7223</v>
       </c>
-      <c r="C5086" t="s">
+      <c r="D5086" t="s">
         <v>7224</v>
-      </c>
-      <c r="D5086" t="s">
-        <v>7225</v>
       </c>
     </row>
     <row r="5087" spans="1:4" x14ac:dyDescent="0.25">
@@ -95883,13 +96081,13 @@
         <v>16013300</v>
       </c>
       <c r="B5087" t="s">
+        <v>7225</v>
+      </c>
+      <c r="C5087" t="s">
         <v>7226</v>
       </c>
-      <c r="C5087" t="s">
+      <c r="D5087" t="s">
         <v>7227</v>
-      </c>
-      <c r="D5087" t="s">
-        <v>7228</v>
       </c>
     </row>
     <row r="5088" spans="1:4" x14ac:dyDescent="0.25">
@@ -95897,10 +96095,10 @@
         <v>25217921</v>
       </c>
       <c r="B5088" t="s">
+        <v>7228</v>
+      </c>
+      <c r="C5088" t="s">
         <v>7229</v>
-      </c>
-      <c r="C5088" t="s">
-        <v>7230</v>
       </c>
       <c r="D5088" t="s">
         <v>6122</v>
@@ -95911,13 +96109,13 @@
         <v>25210540</v>
       </c>
       <c r="B5089" t="s">
+        <v>7230</v>
+      </c>
+      <c r="C5089" t="s">
         <v>7231</v>
       </c>
-      <c r="C5089" t="s">
+      <c r="D5089" t="s">
         <v>7232</v>
-      </c>
-      <c r="D5089" t="s">
-        <v>7233</v>
       </c>
     </row>
     <row r="5090" spans="1:4" x14ac:dyDescent="0.25">
@@ -95925,13 +96123,13 @@
         <v>25211871</v>
       </c>
       <c r="B5090" t="s">
+        <v>7233</v>
+      </c>
+      <c r="C5090" t="s">
         <v>7234</v>
       </c>
-      <c r="C5090" t="s">
+      <c r="D5090" t="s">
         <v>7235</v>
-      </c>
-      <c r="D5090" t="s">
-        <v>7236</v>
       </c>
     </row>
     <row r="5091" spans="1:4" x14ac:dyDescent="0.25">
@@ -95939,13 +96137,13 @@
         <v>25605099</v>
       </c>
       <c r="B5091" t="s">
+        <v>7236</v>
+      </c>
+      <c r="C5091" t="s">
         <v>7237</v>
       </c>
-      <c r="C5091" t="s">
+      <c r="D5091" t="s">
         <v>7238</v>
-      </c>
-      <c r="D5091" t="s">
-        <v>7239</v>
       </c>
     </row>
     <row r="5092" spans="1:4" x14ac:dyDescent="0.25">
@@ -95953,13 +96151,13 @@
         <v>25200508</v>
       </c>
       <c r="B5092" t="s">
+        <v>7239</v>
+      </c>
+      <c r="C5092" t="s">
         <v>7240</v>
       </c>
-      <c r="C5092" t="s">
+      <c r="D5092" t="s">
         <v>7241</v>
-      </c>
-      <c r="D5092" t="s">
-        <v>7242</v>
       </c>
     </row>
     <row r="5093" spans="1:4" x14ac:dyDescent="0.25">
@@ -95967,13 +96165,13 @@
         <v>25208230</v>
       </c>
       <c r="B5093" t="s">
+        <v>7242</v>
+      </c>
+      <c r="C5093" t="s">
         <v>7243</v>
       </c>
-      <c r="C5093" t="s">
+      <c r="D5093" t="s">
         <v>7244</v>
-      </c>
-      <c r="D5093" t="s">
-        <v>7245</v>
       </c>
     </row>
     <row r="5094" spans="1:4" x14ac:dyDescent="0.25">
@@ -95981,13 +96179,13 @@
         <v>25204853</v>
       </c>
       <c r="B5094" t="s">
+        <v>7245</v>
+      </c>
+      <c r="C5094" t="s">
         <v>7246</v>
       </c>
-      <c r="C5094" t="s">
+      <c r="D5094" t="s">
         <v>7247</v>
-      </c>
-      <c r="D5094" t="s">
-        <v>7248</v>
       </c>
     </row>
     <row r="5095" spans="1:4" x14ac:dyDescent="0.25">
@@ -95995,13 +96193,13 @@
         <v>25204083</v>
       </c>
       <c r="B5095" t="s">
+        <v>7248</v>
+      </c>
+      <c r="C5095" t="s">
         <v>7249</v>
       </c>
-      <c r="C5095" t="s">
+      <c r="D5095" t="s">
         <v>7250</v>
-      </c>
-      <c r="D5095" t="s">
-        <v>7251</v>
       </c>
     </row>
     <row r="5096" spans="1:4" x14ac:dyDescent="0.25">
@@ -96009,13 +96207,13 @@
         <v>25200200</v>
       </c>
       <c r="B5096" t="s">
+        <v>7251</v>
+      </c>
+      <c r="C5096" t="s">
         <v>7252</v>
       </c>
-      <c r="C5096" t="s">
+      <c r="D5096" t="s">
         <v>7253</v>
-      </c>
-      <c r="D5096" t="s">
-        <v>7254</v>
       </c>
     </row>
     <row r="5097" spans="1:4" x14ac:dyDescent="0.25">
@@ -96023,13 +96221,13 @@
         <v>25611468</v>
       </c>
       <c r="B5097" t="s">
+        <v>7254</v>
+      </c>
+      <c r="C5097" t="s">
         <v>7255</v>
       </c>
-      <c r="C5097" t="s">
+      <c r="D5097" t="s">
         <v>7256</v>
-      </c>
-      <c r="D5097" t="s">
-        <v>7257</v>
       </c>
     </row>
     <row r="5098" spans="1:4" x14ac:dyDescent="0.25">
@@ -96037,13 +96235,13 @@
         <v>25608047</v>
       </c>
       <c r="B5098" t="s">
+        <v>7257</v>
+      </c>
+      <c r="C5098" t="s">
         <v>7258</v>
       </c>
-      <c r="C5098" t="s">
+      <c r="D5098" t="s">
         <v>7259</v>
-      </c>
-      <c r="D5098" t="s">
-        <v>7260</v>
       </c>
     </row>
     <row r="5099" spans="1:4" x14ac:dyDescent="0.25">
@@ -96051,13 +96249,13 @@
         <v>25214830</v>
       </c>
       <c r="B5099" t="s">
+        <v>7260</v>
+      </c>
+      <c r="C5099" t="s">
         <v>7261</v>
       </c>
-      <c r="C5099" t="s">
+      <c r="D5099" t="s">
         <v>7262</v>
-      </c>
-      <c r="D5099" t="s">
-        <v>7263</v>
       </c>
     </row>
     <row r="5100" spans="1:4" x14ac:dyDescent="0.25">
@@ -96065,13 +96263,13 @@
         <v>25200189</v>
       </c>
       <c r="B5100" t="s">
+        <v>7263</v>
+      </c>
+      <c r="C5100" t="s">
         <v>7264</v>
       </c>
-      <c r="C5100" t="s">
+      <c r="D5100" t="s">
         <v>7265</v>
-      </c>
-      <c r="D5100" t="s">
-        <v>7266</v>
       </c>
     </row>
     <row r="5101" spans="1:4" x14ac:dyDescent="0.25">
@@ -96079,13 +96277,13 @@
         <v>25204457</v>
       </c>
       <c r="B5101" t="s">
+        <v>7266</v>
+      </c>
+      <c r="C5101" t="s">
         <v>7267</v>
       </c>
-      <c r="C5101" t="s">
+      <c r="D5101" t="s">
         <v>7268</v>
-      </c>
-      <c r="D5101" t="s">
-        <v>7269</v>
       </c>
     </row>
     <row r="5102" spans="1:4" x14ac:dyDescent="0.25">
@@ -96093,13 +96291,13 @@
         <v>25203951</v>
       </c>
       <c r="B5102" t="s">
+        <v>7269</v>
+      </c>
+      <c r="C5102" t="s">
         <v>7270</v>
       </c>
-      <c r="C5102" t="s">
+      <c r="D5102" t="s">
         <v>7271</v>
-      </c>
-      <c r="D5102" t="s">
-        <v>7272</v>
       </c>
     </row>
     <row r="5103" spans="1:4" x14ac:dyDescent="0.25">
@@ -96107,13 +96305,13 @@
         <v>25209308</v>
       </c>
       <c r="B5103" t="s">
+        <v>7272</v>
+      </c>
+      <c r="C5103" t="s">
         <v>7273</v>
       </c>
-      <c r="C5103" t="s">
+      <c r="D5103" t="s">
         <v>7274</v>
-      </c>
-      <c r="D5103" t="s">
-        <v>7275</v>
       </c>
     </row>
     <row r="5104" spans="1:4" x14ac:dyDescent="0.25">
@@ -96121,13 +96319,13 @@
         <v>25209264</v>
       </c>
       <c r="B5104" t="s">
+        <v>7275</v>
+      </c>
+      <c r="C5104" t="s">
         <v>7276</v>
       </c>
-      <c r="C5104" t="s">
+      <c r="D5104" t="s">
         <v>7277</v>
-      </c>
-      <c r="D5104" t="s">
-        <v>7278</v>
       </c>
     </row>
     <row r="5105" spans="1:4" x14ac:dyDescent="0.25">
@@ -96135,13 +96333,13 @@
         <v>25218284</v>
       </c>
       <c r="B5105" t="s">
+        <v>7278</v>
+      </c>
+      <c r="C5105" t="s">
         <v>7279</v>
       </c>
-      <c r="C5105" t="s">
+      <c r="D5105" t="s">
         <v>7280</v>
-      </c>
-      <c r="D5105" t="s">
-        <v>7281</v>
       </c>
     </row>
     <row r="5106" spans="1:4" x14ac:dyDescent="0.25">
@@ -96149,10 +96347,10 @@
         <v>25211244</v>
       </c>
       <c r="B5106" t="s">
+        <v>7281</v>
+      </c>
+      <c r="C5106" t="s">
         <v>7282</v>
-      </c>
-      <c r="C5106" t="s">
-        <v>7283</v>
       </c>
       <c r="D5106" t="s">
         <v>6604</v>
@@ -96163,10 +96361,10 @@
         <v>25200112</v>
       </c>
       <c r="B5107" t="s">
+        <v>7283</v>
+      </c>
+      <c r="C5107" t="s">
         <v>7284</v>
-      </c>
-      <c r="C5107" t="s">
-        <v>7285</v>
       </c>
       <c r="D5107" t="s">
         <v>2253</v>
@@ -96177,13 +96375,13 @@
         <v>25209429</v>
       </c>
       <c r="B5108" t="s">
+        <v>7285</v>
+      </c>
+      <c r="C5108" t="s">
         <v>7286</v>
       </c>
-      <c r="C5108" t="s">
+      <c r="D5108" t="s">
         <v>7287</v>
-      </c>
-      <c r="D5108" t="s">
-        <v>7288</v>
       </c>
     </row>
     <row r="5109" spans="1:4" x14ac:dyDescent="0.25">
@@ -96191,13 +96389,13 @@
         <v>25210155</v>
       </c>
       <c r="B5109" t="s">
+        <v>7288</v>
+      </c>
+      <c r="C5109" t="s">
         <v>7289</v>
       </c>
-      <c r="C5109" t="s">
+      <c r="D5109" t="s">
         <v>7290</v>
-      </c>
-      <c r="D5109" t="s">
-        <v>7291</v>
       </c>
     </row>
     <row r="5110" spans="1:4" x14ac:dyDescent="0.25">
@@ -96205,13 +96403,13 @@
         <v>25203104</v>
       </c>
       <c r="B5110" t="s">
+        <v>7291</v>
+      </c>
+      <c r="C5110" t="s">
         <v>7292</v>
       </c>
-      <c r="C5110" t="s">
+      <c r="D5110" t="s">
         <v>7293</v>
-      </c>
-      <c r="D5110" t="s">
-        <v>7294</v>
       </c>
     </row>
     <row r="5111" spans="1:4" x14ac:dyDescent="0.25">
@@ -96219,13 +96417,13 @@
         <v>25210298</v>
       </c>
       <c r="B5111" t="s">
+        <v>7294</v>
+      </c>
+      <c r="C5111" t="s">
         <v>7295</v>
       </c>
-      <c r="C5111" t="s">
+      <c r="D5111" t="s">
         <v>7296</v>
-      </c>
-      <c r="D5111" t="s">
-        <v>7297</v>
       </c>
     </row>
     <row r="5112" spans="1:4" x14ac:dyDescent="0.25">
@@ -96233,13 +96431,13 @@
         <v>25208000</v>
       </c>
       <c r="B5112" t="s">
+        <v>7297</v>
+      </c>
+      <c r="C5112" t="s">
         <v>7298</v>
       </c>
-      <c r="C5112" t="s">
+      <c r="D5112" t="s">
         <v>7299</v>
-      </c>
-      <c r="D5112" t="s">
-        <v>7300</v>
       </c>
     </row>
     <row r="5113" spans="1:4" x14ac:dyDescent="0.25">
@@ -96247,13 +96445,13 @@
         <v>25214247</v>
       </c>
       <c r="B5113" t="s">
+        <v>7300</v>
+      </c>
+      <c r="C5113" t="s">
         <v>7301</v>
       </c>
-      <c r="C5113" t="s">
+      <c r="D5113" t="s">
         <v>7302</v>
-      </c>
-      <c r="D5113" t="s">
-        <v>7303</v>
       </c>
     </row>
     <row r="5114" spans="1:4" x14ac:dyDescent="0.25">
@@ -96261,10 +96459,10 @@
         <v>25211959</v>
       </c>
       <c r="B5114" t="s">
+        <v>7303</v>
+      </c>
+      <c r="C5114" t="s">
         <v>7304</v>
-      </c>
-      <c r="C5114" t="s">
-        <v>7305</v>
       </c>
       <c r="D5114" t="s">
         <v>2962</v>
@@ -96275,13 +96473,13 @@
         <v>25210694</v>
       </c>
       <c r="B5115" t="s">
+        <v>7305</v>
+      </c>
+      <c r="C5115" t="s">
         <v>7306</v>
       </c>
-      <c r="C5115" t="s">
+      <c r="D5115" t="s">
         <v>7307</v>
-      </c>
-      <c r="D5115" t="s">
-        <v>7308</v>
       </c>
     </row>
     <row r="5116" spans="1:4" x14ac:dyDescent="0.25">
@@ -96289,13 +96487,13 @@
         <v>25601843</v>
       </c>
       <c r="B5116" t="s">
+        <v>7308</v>
+      </c>
+      <c r="C5116" t="s">
         <v>7309</v>
       </c>
-      <c r="C5116" t="s">
+      <c r="D5116" t="s">
         <v>7310</v>
-      </c>
-      <c r="D5116" t="s">
-        <v>7311</v>
       </c>
     </row>
     <row r="5117" spans="1:4" x14ac:dyDescent="0.25">
@@ -96303,13 +96501,13 @@
         <v>25213939</v>
       </c>
       <c r="B5117" t="s">
+        <v>7311</v>
+      </c>
+      <c r="C5117" t="s">
         <v>7312</v>
       </c>
-      <c r="C5117" t="s">
+      <c r="D5117" t="s">
         <v>7313</v>
-      </c>
-      <c r="D5117" t="s">
-        <v>7314</v>
       </c>
     </row>
     <row r="5118" spans="1:4" x14ac:dyDescent="0.25">
@@ -96317,13 +96515,13 @@
         <v>25215072</v>
       </c>
       <c r="B5118" t="s">
+        <v>7314</v>
+      </c>
+      <c r="C5118" t="s">
         <v>7315</v>
       </c>
-      <c r="C5118" t="s">
+      <c r="D5118" t="s">
         <v>7316</v>
-      </c>
-      <c r="D5118" t="s">
-        <v>7317</v>
       </c>
     </row>
     <row r="5119" spans="1:4" x14ac:dyDescent="0.25">
@@ -96331,13 +96529,13 @@
         <v>25202356</v>
       </c>
       <c r="B5119" t="s">
-        <v>7318</v>
+        <v>7317</v>
       </c>
       <c r="C5119" t="s">
         <v>2347</v>
       </c>
       <c r="D5119" t="s">
-        <v>7319</v>
+        <v>7318</v>
       </c>
     </row>
     <row r="5120" spans="1:4" x14ac:dyDescent="0.25">
@@ -96345,13 +96543,13 @@
         <v>25208912</v>
       </c>
       <c r="B5120" t="s">
+        <v>7319</v>
+      </c>
+      <c r="C5120" t="s">
         <v>7320</v>
       </c>
-      <c r="C5120" t="s">
+      <c r="D5120" t="s">
         <v>7321</v>
-      </c>
-      <c r="D5120" t="s">
-        <v>7322</v>
       </c>
     </row>
     <row r="5121" spans="1:4" x14ac:dyDescent="0.25">
@@ -96359,13 +96557,13 @@
         <v>25203049</v>
       </c>
       <c r="B5121" t="s">
-        <v>7323</v>
+        <v>7322</v>
       </c>
       <c r="C5121" t="s">
         <v>6330</v>
       </c>
       <c r="D5121" t="s">
-        <v>7324</v>
+        <v>7323</v>
       </c>
     </row>
     <row r="5122" spans="1:4" x14ac:dyDescent="0.25">
@@ -96373,13 +96571,13 @@
         <v>25212620</v>
       </c>
       <c r="B5122" t="s">
+        <v>7324</v>
+      </c>
+      <c r="C5122" t="s">
         <v>7325</v>
       </c>
-      <c r="C5122" t="s">
+      <c r="D5122" t="s">
         <v>7326</v>
-      </c>
-      <c r="D5122" t="s">
-        <v>7327</v>
       </c>
     </row>
     <row r="5123" spans="1:4" x14ac:dyDescent="0.25">
@@ -96387,13 +96585,13 @@
         <v>25206460</v>
       </c>
       <c r="B5123" t="s">
+        <v>7327</v>
+      </c>
+      <c r="C5123" t="s">
         <v>7328</v>
       </c>
-      <c r="C5123" t="s">
+      <c r="D5123" t="s">
         <v>7329</v>
-      </c>
-      <c r="D5123" t="s">
-        <v>7330</v>
       </c>
     </row>
     <row r="5124" spans="1:4" x14ac:dyDescent="0.25">
@@ -96401,13 +96599,13 @@
         <v>25207691</v>
       </c>
       <c r="B5124" t="s">
+        <v>7330</v>
+      </c>
+      <c r="C5124" t="s">
         <v>7331</v>
       </c>
-      <c r="C5124" t="s">
+      <c r="D5124" t="s">
         <v>7332</v>
-      </c>
-      <c r="D5124" t="s">
-        <v>7333</v>
       </c>
     </row>
     <row r="5125" spans="1:4" x14ac:dyDescent="0.25">
@@ -96415,13 +96613,13 @@
         <v>25202829</v>
       </c>
       <c r="B5125" t="s">
-        <v>7334</v>
+        <v>7333</v>
       </c>
       <c r="C5125" t="s">
         <v>1012</v>
       </c>
       <c r="D5125" t="s">
-        <v>7335</v>
+        <v>7334</v>
       </c>
     </row>
     <row r="5126" spans="1:4" x14ac:dyDescent="0.25">
@@ -96429,13 +96627,13 @@
         <v>25213719</v>
       </c>
       <c r="B5126" t="s">
+        <v>7335</v>
+      </c>
+      <c r="C5126" t="s">
         <v>7336</v>
       </c>
-      <c r="C5126" t="s">
+      <c r="D5126" t="s">
         <v>7337</v>
-      </c>
-      <c r="D5126" t="s">
-        <v>7338</v>
       </c>
     </row>
     <row r="5127" spans="1:4" x14ac:dyDescent="0.25">
@@ -96443,13 +96641,13 @@
         <v>25214874</v>
       </c>
       <c r="B5127" t="s">
+        <v>7338</v>
+      </c>
+      <c r="C5127" t="s">
         <v>7339</v>
       </c>
-      <c r="C5127" t="s">
+      <c r="D5127" t="s">
         <v>7340</v>
-      </c>
-      <c r="D5127" t="s">
-        <v>7341</v>
       </c>
     </row>
     <row r="5128" spans="1:4" x14ac:dyDescent="0.25">
@@ -96457,13 +96655,13 @@
         <v>25211552</v>
       </c>
       <c r="B5128" t="s">
+        <v>7341</v>
+      </c>
+      <c r="C5128" t="s">
         <v>7342</v>
       </c>
-      <c r="C5128" t="s">
+      <c r="D5128" t="s">
         <v>7343</v>
-      </c>
-      <c r="D5128" t="s">
-        <v>7344</v>
       </c>
     </row>
     <row r="5129" spans="1:4" x14ac:dyDescent="0.25">
@@ -96471,13 +96669,13 @@
         <v>25210760</v>
       </c>
       <c r="B5129" t="s">
+        <v>7344</v>
+      </c>
+      <c r="C5129" t="s">
         <v>7345</v>
       </c>
-      <c r="C5129" t="s">
+      <c r="D5129" t="s">
         <v>7346</v>
-      </c>
-      <c r="D5129" t="s">
-        <v>7347</v>
       </c>
     </row>
     <row r="5130" spans="1:4" x14ac:dyDescent="0.25">
@@ -96485,13 +96683,13 @@
         <v>25212322</v>
       </c>
       <c r="B5130" t="s">
+        <v>7347</v>
+      </c>
+      <c r="C5130" t="s">
         <v>7348</v>
       </c>
-      <c r="C5130" t="s">
+      <c r="D5130" t="s">
         <v>7349</v>
-      </c>
-      <c r="D5130" t="s">
-        <v>7350</v>
       </c>
     </row>
     <row r="5131" spans="1:4" x14ac:dyDescent="0.25">
@@ -96499,13 +96697,13 @@
         <v>25207680</v>
       </c>
       <c r="B5131" t="s">
+        <v>7350</v>
+      </c>
+      <c r="C5131" t="s">
         <v>7351</v>
       </c>
-      <c r="C5131" t="s">
+      <c r="D5131" t="s">
         <v>7352</v>
-      </c>
-      <c r="D5131" t="s">
-        <v>7353</v>
       </c>
     </row>
     <row r="5132" spans="1:4" x14ac:dyDescent="0.25">
@@ -96513,13 +96711,13 @@
         <v>25216326</v>
       </c>
       <c r="B5132" t="s">
+        <v>7353</v>
+      </c>
+      <c r="C5132" t="s">
         <v>7354</v>
       </c>
-      <c r="C5132" t="s">
+      <c r="D5132" t="s">
         <v>7355</v>
-      </c>
-      <c r="D5132" t="s">
-        <v>7356</v>
       </c>
     </row>
     <row r="5133" spans="1:4" x14ac:dyDescent="0.25">
@@ -96527,13 +96725,13 @@
         <v>25211321</v>
       </c>
       <c r="B5133" t="s">
+        <v>7356</v>
+      </c>
+      <c r="C5133" t="s">
         <v>7357</v>
       </c>
-      <c r="C5133" t="s">
+      <c r="D5133" t="s">
         <v>7358</v>
-      </c>
-      <c r="D5133" t="s">
-        <v>7359</v>
       </c>
     </row>
     <row r="5134" spans="1:4" x14ac:dyDescent="0.25">
@@ -96541,13 +96739,13 @@
         <v>25207010</v>
       </c>
       <c r="B5134" t="s">
-        <v>7360</v>
+        <v>7359</v>
       </c>
       <c r="C5134" t="s">
         <v>5451</v>
       </c>
       <c r="D5134" t="s">
-        <v>7361</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="5135" spans="1:4" x14ac:dyDescent="0.25">
@@ -96555,13 +96753,13 @@
         <v>25217767</v>
       </c>
       <c r="B5135" t="s">
+        <v>7361</v>
+      </c>
+      <c r="C5135" t="s">
         <v>7362</v>
       </c>
-      <c r="C5135" t="s">
+      <c r="D5135" t="s">
         <v>7363</v>
-      </c>
-      <c r="D5135" t="s">
-        <v>7364</v>
       </c>
     </row>
     <row r="5136" spans="1:4" x14ac:dyDescent="0.25">
@@ -96569,10 +96767,10 @@
         <v>25210420</v>
       </c>
       <c r="B5136" t="s">
+        <v>7364</v>
+      </c>
+      <c r="C5136" t="s">
         <v>7365</v>
-      </c>
-      <c r="C5136" t="s">
-        <v>7366</v>
       </c>
       <c r="D5136" t="s">
         <v>3940</v>
@@ -96583,13 +96781,13 @@
         <v>25202939</v>
       </c>
       <c r="B5137" t="s">
+        <v>7366</v>
+      </c>
+      <c r="C5137" t="s">
         <v>7367</v>
       </c>
-      <c r="C5137" t="s">
+      <c r="D5137" t="s">
         <v>7368</v>
-      </c>
-      <c r="D5137" t="s">
-        <v>7369</v>
       </c>
     </row>
     <row r="5138" spans="1:4" x14ac:dyDescent="0.25">
@@ -96597,13 +96795,13 @@
         <v>25207152</v>
       </c>
       <c r="B5138" t="s">
+        <v>7369</v>
+      </c>
+      <c r="C5138" t="s">
         <v>7370</v>
       </c>
-      <c r="C5138" t="s">
+      <c r="D5138" t="s">
         <v>7371</v>
-      </c>
-      <c r="D5138" t="s">
-        <v>7372</v>
       </c>
     </row>
     <row r="5139" spans="1:4" x14ac:dyDescent="0.25">
@@ -96611,13 +96809,13 @@
         <v>25615440</v>
       </c>
       <c r="B5139" t="s">
+        <v>7372</v>
+      </c>
+      <c r="C5139" t="s">
         <v>7373</v>
       </c>
-      <c r="C5139" t="s">
+      <c r="D5139" t="s">
         <v>7374</v>
-      </c>
-      <c r="D5139" t="s">
-        <v>7375</v>
       </c>
     </row>
     <row r="5140" spans="1:4" x14ac:dyDescent="0.25">
@@ -96625,13 +96823,13 @@
         <v>25210045</v>
       </c>
       <c r="B5140" t="s">
+        <v>7375</v>
+      </c>
+      <c r="C5140" t="s">
         <v>7376</v>
       </c>
-      <c r="C5140" t="s">
+      <c r="D5140" t="s">
         <v>7377</v>
-      </c>
-      <c r="D5140" t="s">
-        <v>7378</v>
       </c>
     </row>
     <row r="5141" spans="1:4" x14ac:dyDescent="0.25">
@@ -96639,13 +96837,13 @@
         <v>25211068</v>
       </c>
       <c r="B5141" t="s">
+        <v>7378</v>
+      </c>
+      <c r="C5141" t="s">
         <v>7379</v>
       </c>
-      <c r="C5141" t="s">
+      <c r="D5141" t="s">
         <v>7380</v>
-      </c>
-      <c r="D5141" t="s">
-        <v>7381</v>
       </c>
     </row>
     <row r="5142" spans="1:4" x14ac:dyDescent="0.25">
@@ -96653,13 +96851,13 @@
         <v>24755337</v>
       </c>
       <c r="B5142" t="s">
-        <v>7382</v>
+        <v>7381</v>
       </c>
       <c r="C5142" t="s">
         <v>2470</v>
       </c>
       <c r="D5142" t="s">
-        <v>7383</v>
+        <v>7382</v>
       </c>
     </row>
     <row r="5143" spans="1:4" x14ac:dyDescent="0.25">
@@ -96667,10 +96865,10 @@
         <v>25211981</v>
       </c>
       <c r="B5143" t="s">
+        <v>7383</v>
+      </c>
+      <c r="C5143" t="s">
         <v>7384</v>
-      </c>
-      <c r="C5143" t="s">
-        <v>7385</v>
       </c>
       <c r="D5143" t="s">
         <v>5609</v>
@@ -96681,13 +96879,13 @@
         <v>25201256</v>
       </c>
       <c r="B5144" t="s">
+        <v>7385</v>
+      </c>
+      <c r="C5144" t="s">
         <v>7386</v>
       </c>
-      <c r="C5144" t="s">
+      <c r="D5144" t="s">
         <v>7387</v>
-      </c>
-      <c r="D5144" t="s">
-        <v>7388</v>
       </c>
     </row>
     <row r="5145" spans="1:4" x14ac:dyDescent="0.25">
@@ -96695,13 +96893,13 @@
         <v>25613789</v>
       </c>
       <c r="B5145" t="s">
+        <v>7388</v>
+      </c>
+      <c r="C5145" t="s">
         <v>7389</v>
       </c>
-      <c r="C5145" t="s">
+      <c r="D5145" t="s">
         <v>7390</v>
-      </c>
-      <c r="D5145" t="s">
-        <v>7391</v>
       </c>
     </row>
     <row r="5146" spans="1:4" x14ac:dyDescent="0.25">
@@ -96709,13 +96907,13 @@
         <v>25218273</v>
       </c>
       <c r="B5146" t="s">
+        <v>7391</v>
+      </c>
+      <c r="C5146" t="s">
         <v>7392</v>
       </c>
-      <c r="C5146" t="s">
+      <c r="D5146" t="s">
         <v>7393</v>
-      </c>
-      <c r="D5146" t="s">
-        <v>7394</v>
       </c>
     </row>
     <row r="5147" spans="1:4" x14ac:dyDescent="0.25">
@@ -96723,13 +96921,13 @@
         <v>25212003</v>
       </c>
       <c r="B5147" t="s">
+        <v>7394</v>
+      </c>
+      <c r="C5147" t="s">
         <v>7395</v>
       </c>
-      <c r="C5147" t="s">
+      <c r="D5147" t="s">
         <v>7396</v>
-      </c>
-      <c r="D5147" t="s">
-        <v>7397</v>
       </c>
     </row>
     <row r="5148" spans="1:4" x14ac:dyDescent="0.25">
@@ -96737,13 +96935,13 @@
         <v>25618134</v>
       </c>
       <c r="B5148" t="s">
+        <v>7397</v>
+      </c>
+      <c r="C5148" t="s">
         <v>7398</v>
       </c>
-      <c r="C5148" t="s">
+      <c r="D5148" t="s">
         <v>7399</v>
-      </c>
-      <c r="D5148" t="s">
-        <v>7400</v>
       </c>
     </row>
     <row r="5149" spans="1:4" x14ac:dyDescent="0.25">
@@ -96751,13 +96949,13 @@
         <v>25201894</v>
       </c>
       <c r="B5149" t="s">
+        <v>7400</v>
+      </c>
+      <c r="C5149" t="s">
         <v>7401</v>
       </c>
-      <c r="C5149" t="s">
+      <c r="D5149" t="s">
         <v>7402</v>
-      </c>
-      <c r="D5149" t="s">
-        <v>7403</v>
       </c>
     </row>
     <row r="5150" spans="1:4" x14ac:dyDescent="0.25">
@@ -96765,13 +96963,13 @@
         <v>25201201</v>
       </c>
       <c r="B5150" t="s">
+        <v>7403</v>
+      </c>
+      <c r="C5150" t="s">
         <v>7404</v>
       </c>
-      <c r="C5150" t="s">
+      <c r="D5150" t="s">
         <v>7405</v>
-      </c>
-      <c r="D5150" t="s">
-        <v>7406</v>
       </c>
     </row>
     <row r="5151" spans="1:4" x14ac:dyDescent="0.25">
@@ -96779,13 +96977,13 @@
         <v>25205062</v>
       </c>
       <c r="B5151" t="s">
+        <v>7406</v>
+      </c>
+      <c r="C5151" t="s">
         <v>7407</v>
       </c>
-      <c r="C5151" t="s">
+      <c r="D5151" t="s">
         <v>7408</v>
-      </c>
-      <c r="D5151" t="s">
-        <v>7409</v>
       </c>
     </row>
     <row r="5152" spans="1:4" x14ac:dyDescent="0.25">
@@ -96793,13 +96991,13 @@
         <v>24014795</v>
       </c>
       <c r="B5152" t="s">
-        <v>7410</v>
+        <v>7409</v>
       </c>
       <c r="C5152" t="s">
         <v>1145</v>
       </c>
       <c r="D5152" t="s">
-        <v>7411</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="5153" spans="1:4" x14ac:dyDescent="0.25">
@@ -96807,13 +97005,13 @@
         <v>25207482</v>
       </c>
       <c r="B5153" t="s">
+        <v>7411</v>
+      </c>
+      <c r="C5153" t="s">
         <v>7412</v>
       </c>
-      <c r="C5153" t="s">
+      <c r="D5153" t="s">
         <v>7413</v>
-      </c>
-      <c r="D5153" t="s">
-        <v>7414</v>
       </c>
     </row>
     <row r="5154" spans="1:4" x14ac:dyDescent="0.25">
@@ -96821,10 +97019,10 @@
         <v>25800492</v>
       </c>
       <c r="B5154" t="s">
+        <v>7414</v>
+      </c>
+      <c r="C5154" t="s">
         <v>7415</v>
-      </c>
-      <c r="C5154" t="s">
-        <v>7416</v>
       </c>
       <c r="D5154" t="s">
         <v>1777</v>
@@ -96835,13 +97033,13 @@
         <v>25213280</v>
       </c>
       <c r="B5155" t="s">
+        <v>7416</v>
+      </c>
+      <c r="C5155" t="s">
         <v>7417</v>
       </c>
-      <c r="C5155" t="s">
+      <c r="D5155" t="s">
         <v>7418</v>
-      </c>
-      <c r="D5155" t="s">
-        <v>7419</v>
       </c>
     </row>
     <row r="5156" spans="1:4" x14ac:dyDescent="0.25">
@@ -96849,13 +97047,13 @@
         <v>17900658</v>
       </c>
       <c r="B5156" t="s">
+        <v>7419</v>
+      </c>
+      <c r="C5156" t="s">
         <v>7420</v>
       </c>
-      <c r="C5156" t="s">
+      <c r="D5156" t="s">
         <v>7421</v>
-      </c>
-      <c r="D5156" t="s">
-        <v>7422</v>
       </c>
     </row>
     <row r="5157" spans="1:4" x14ac:dyDescent="0.25">
@@ -96863,13 +97061,13 @@
         <v>25203270</v>
       </c>
       <c r="B5157" t="s">
+        <v>7422</v>
+      </c>
+      <c r="C5157" t="s">
         <v>7423</v>
       </c>
-      <c r="C5157" t="s">
+      <c r="D5157" t="s">
         <v>7424</v>
-      </c>
-      <c r="D5157" t="s">
-        <v>7425</v>
       </c>
     </row>
     <row r="5158" spans="1:4" x14ac:dyDescent="0.25">
@@ -96877,13 +97075,13 @@
         <v>25205667</v>
       </c>
       <c r="B5158" t="s">
+        <v>7425</v>
+      </c>
+      <c r="C5158" t="s">
         <v>7426</v>
       </c>
-      <c r="C5158" t="s">
+      <c r="D5158" t="s">
         <v>7427</v>
-      </c>
-      <c r="D5158" t="s">
-        <v>7428</v>
       </c>
     </row>
     <row r="5159" spans="1:4" x14ac:dyDescent="0.25">
@@ -96891,13 +97089,13 @@
         <v>25211398</v>
       </c>
       <c r="B5159" t="s">
-        <v>7429</v>
+        <v>7428</v>
       </c>
       <c r="C5159" t="s">
         <v>245</v>
       </c>
       <c r="D5159" t="s">
-        <v>7430</v>
+        <v>7429</v>
       </c>
     </row>
     <row r="5160" spans="1:4" x14ac:dyDescent="0.25">
@@ -96905,13 +97103,13 @@
         <v>25200915</v>
       </c>
       <c r="B5160" t="s">
+        <v>7430</v>
+      </c>
+      <c r="C5160" t="s">
         <v>7431</v>
       </c>
-      <c r="C5160" t="s">
+      <c r="D5160" t="s">
         <v>7432</v>
-      </c>
-      <c r="D5160" t="s">
-        <v>7433</v>
       </c>
     </row>
     <row r="5161" spans="1:4" x14ac:dyDescent="0.25">
@@ -96919,13 +97117,13 @@
         <v>25208472</v>
       </c>
       <c r="B5161" t="s">
+        <v>7433</v>
+      </c>
+      <c r="C5161" t="s">
         <v>7434</v>
       </c>
-      <c r="C5161" t="s">
+      <c r="D5161" t="s">
         <v>7435</v>
-      </c>
-      <c r="D5161" t="s">
-        <v>7436</v>
       </c>
     </row>
     <row r="5162" spans="1:4" x14ac:dyDescent="0.25">
@@ -96933,13 +97131,13 @@
         <v>9209451</v>
       </c>
       <c r="B5162" t="s">
+        <v>7436</v>
+      </c>
+      <c r="C5162" t="s">
         <v>7437</v>
       </c>
-      <c r="C5162" t="s">
+      <c r="D5162" t="s">
         <v>7438</v>
-      </c>
-      <c r="D5162" t="s">
-        <v>7439</v>
       </c>
     </row>
     <row r="5163" spans="1:4" x14ac:dyDescent="0.25">
@@ -96947,13 +97145,13 @@
         <v>22925595</v>
       </c>
       <c r="B5163" t="s">
+        <v>7439</v>
+      </c>
+      <c r="C5163" t="s">
         <v>7440</v>
       </c>
-      <c r="C5163" t="s">
+      <c r="D5163" t="s">
         <v>7441</v>
-      </c>
-      <c r="D5163" t="s">
-        <v>7442</v>
       </c>
     </row>
     <row r="5164" spans="1:4" x14ac:dyDescent="0.25">
@@ -96961,10 +97159,10 @@
         <v>25203380</v>
       </c>
       <c r="B5164" t="s">
+        <v>7442</v>
+      </c>
+      <c r="C5164" t="s">
         <v>7443</v>
-      </c>
-      <c r="C5164" t="s">
-        <v>7444</v>
       </c>
       <c r="D5164" t="s">
         <v>2288</v>
@@ -96975,13 +97173,13 @@
         <v>25209616</v>
       </c>
       <c r="B5165" t="s">
-        <v>7445</v>
+        <v>7444</v>
       </c>
       <c r="C5165" t="s">
         <v>2901</v>
       </c>
       <c r="D5165" t="s">
-        <v>7446</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="5166" spans="1:4" x14ac:dyDescent="0.25">
@@ -96989,13 +97187,13 @@
         <v>25201377</v>
       </c>
       <c r="B5166" t="s">
+        <v>7446</v>
+      </c>
+      <c r="C5166" t="s">
         <v>7447</v>
       </c>
-      <c r="C5166" t="s">
+      <c r="D5166" t="s">
         <v>7448</v>
-      </c>
-      <c r="D5166" t="s">
-        <v>7449</v>
       </c>
     </row>
     <row r="5167" spans="1:4" x14ac:dyDescent="0.25">
@@ -97003,13 +97201,13 @@
         <v>25204336</v>
       </c>
       <c r="B5167" t="s">
+        <v>7449</v>
+      </c>
+      <c r="C5167" t="s">
         <v>7450</v>
       </c>
-      <c r="C5167" t="s">
+      <c r="D5167" t="s">
         <v>7451</v>
-      </c>
-      <c r="D5167" t="s">
-        <v>7452</v>
       </c>
     </row>
     <row r="5168" spans="1:4" x14ac:dyDescent="0.25">
@@ -97017,10 +97215,10 @@
         <v>25206063</v>
       </c>
       <c r="B5168" t="s">
+        <v>7452</v>
+      </c>
+      <c r="C5168" t="s">
         <v>7453</v>
-      </c>
-      <c r="C5168" t="s">
-        <v>7454</v>
       </c>
       <c r="D5168" t="s">
         <v>881</v>
@@ -97031,13 +97229,13 @@
         <v>18019338</v>
       </c>
       <c r="B5169" t="s">
+        <v>7454</v>
+      </c>
+      <c r="C5169" t="s">
         <v>7455</v>
       </c>
-      <c r="C5169" t="s">
+      <c r="D5169" t="s">
         <v>7456</v>
-      </c>
-      <c r="D5169" t="s">
-        <v>7457</v>
       </c>
     </row>
     <row r="5170" spans="1:4" x14ac:dyDescent="0.25">
@@ -97045,13 +97243,13 @@
         <v>25214600</v>
       </c>
       <c r="B5170" t="s">
+        <v>7457</v>
+      </c>
+      <c r="C5170" t="s">
         <v>7458</v>
       </c>
-      <c r="C5170" t="s">
+      <c r="D5170" t="s">
         <v>7459</v>
-      </c>
-      <c r="D5170" t="s">
-        <v>7460</v>
       </c>
     </row>
     <row r="5171" spans="1:4" x14ac:dyDescent="0.25">
@@ -97059,10 +97257,10 @@
         <v>2309668</v>
       </c>
       <c r="B5171" t="s">
+        <v>7460</v>
+      </c>
+      <c r="C5171" t="s">
         <v>7461</v>
-      </c>
-      <c r="C5171" t="s">
-        <v>7462</v>
       </c>
       <c r="D5171" t="s">
         <v>449</v>
@@ -97073,10 +97271,10 @@
         <v>24907698</v>
       </c>
       <c r="B5172" t="s">
+        <v>7462</v>
+      </c>
+      <c r="C5172" t="s">
         <v>7463</v>
-      </c>
-      <c r="C5172" t="s">
-        <v>7464</v>
       </c>
       <c r="D5172" t="s">
         <v>3527</v>
@@ -97087,10 +97285,10 @@
         <v>25207284</v>
       </c>
       <c r="B5173" t="s">
+        <v>7464</v>
+      </c>
+      <c r="C5173" t="s">
         <v>7465</v>
-      </c>
-      <c r="C5173" t="s">
-        <v>7466</v>
       </c>
       <c r="D5173" t="s">
         <v>189</v>
@@ -97101,13 +97299,13 @@
         <v>25212498</v>
       </c>
       <c r="B5174" t="s">
+        <v>7466</v>
+      </c>
+      <c r="C5174" t="s">
         <v>7467</v>
       </c>
-      <c r="C5174" t="s">
+      <c r="D5174" t="s">
         <v>7468</v>
-      </c>
-      <c r="D5174" t="s">
-        <v>7469</v>
       </c>
     </row>
     <row r="5175" spans="1:4" x14ac:dyDescent="0.25">
@@ -97115,13 +97313,13 @@
         <v>25211178</v>
       </c>
       <c r="B5175" t="s">
+        <v>7469</v>
+      </c>
+      <c r="C5175" t="s">
         <v>7470</v>
       </c>
-      <c r="C5175" t="s">
+      <c r="D5175" t="s">
         <v>7471</v>
-      </c>
-      <c r="D5175" t="s">
-        <v>7472</v>
       </c>
     </row>
     <row r="5176" spans="1:4" x14ac:dyDescent="0.25">
@@ -97129,13 +97327,13 @@
         <v>25201652</v>
       </c>
       <c r="B5176" t="s">
+        <v>7472</v>
+      </c>
+      <c r="C5176" t="s">
         <v>7473</v>
       </c>
-      <c r="C5176" t="s">
+      <c r="D5176" t="s">
         <v>7474</v>
-      </c>
-      <c r="D5176" t="s">
-        <v>7475</v>
       </c>
     </row>
     <row r="5177" spans="1:4" x14ac:dyDescent="0.25">
@@ -97143,10 +97341,10 @@
         <v>20018755</v>
       </c>
       <c r="B5177" t="s">
+        <v>7475</v>
+      </c>
+      <c r="C5177" t="s">
         <v>7476</v>
-      </c>
-      <c r="C5177" t="s">
-        <v>7477</v>
       </c>
       <c r="D5177" t="s">
         <v>305</v>
@@ -97157,13 +97355,13 @@
         <v>25208440</v>
       </c>
       <c r="B5178" t="s">
+        <v>7477</v>
+      </c>
+      <c r="C5178" t="s">
         <v>7478</v>
       </c>
-      <c r="C5178" t="s">
+      <c r="D5178" t="s">
         <v>7479</v>
-      </c>
-      <c r="D5178" t="s">
-        <v>7480</v>
       </c>
     </row>
     <row r="5179" spans="1:4" x14ac:dyDescent="0.25">
@@ -97171,13 +97369,13 @@
         <v>21214830</v>
       </c>
       <c r="B5179" t="s">
+        <v>7480</v>
+      </c>
+      <c r="C5179" t="s">
         <v>7481</v>
       </c>
-      <c r="C5179" t="s">
+      <c r="D5179" t="s">
         <v>7482</v>
-      </c>
-      <c r="D5179" t="s">
-        <v>7483</v>
       </c>
     </row>
     <row r="5180" spans="1:4" x14ac:dyDescent="0.25">
@@ -97185,10 +97383,10 @@
         <v>25207504</v>
       </c>
       <c r="B5180" t="s">
+        <v>7483</v>
+      </c>
+      <c r="C5180" t="s">
         <v>7484</v>
-      </c>
-      <c r="C5180" t="s">
-        <v>7485</v>
       </c>
       <c r="D5180" t="s">
         <v>434</v>
@@ -97199,13 +97397,13 @@
         <v>25202499</v>
       </c>
       <c r="B5181" t="s">
+        <v>7485</v>
+      </c>
+      <c r="C5181" t="s">
         <v>7486</v>
       </c>
-      <c r="C5181" t="s">
+      <c r="D5181" t="s">
         <v>7487</v>
-      </c>
-      <c r="D5181" t="s">
-        <v>7488</v>
       </c>
     </row>
     <row r="5182" spans="1:4" x14ac:dyDescent="0.25">
@@ -97213,13 +97411,13 @@
         <v>25213191</v>
       </c>
       <c r="B5182" t="s">
+        <v>7488</v>
+      </c>
+      <c r="C5182" t="s">
         <v>7489</v>
       </c>
-      <c r="C5182" t="s">
+      <c r="D5182" t="s">
         <v>7490</v>
-      </c>
-      <c r="D5182" t="s">
-        <v>7491</v>
       </c>
     </row>
     <row r="5183" spans="1:4" x14ac:dyDescent="0.25">
@@ -97227,13 +97425,13 @@
         <v>25202862</v>
       </c>
       <c r="B5183" t="s">
+        <v>7491</v>
+      </c>
+      <c r="C5183" t="s">
         <v>7492</v>
       </c>
-      <c r="C5183" t="s">
+      <c r="D5183" t="s">
         <v>7493</v>
-      </c>
-      <c r="D5183" t="s">
-        <v>7494</v>
       </c>
     </row>
     <row r="5184" spans="1:4" x14ac:dyDescent="0.25">
@@ -97241,13 +97439,13 @@
         <v>25210078</v>
       </c>
       <c r="B5184" t="s">
+        <v>7494</v>
+      </c>
+      <c r="C5184" t="s">
         <v>7495</v>
       </c>
-      <c r="C5184" t="s">
+      <c r="D5184" t="s">
         <v>7496</v>
-      </c>
-      <c r="D5184" t="s">
-        <v>7497</v>
       </c>
     </row>
     <row r="5185" spans="1:4" x14ac:dyDescent="0.25">
@@ -97255,13 +97453,13 @@
         <v>25204864</v>
       </c>
       <c r="B5185" t="s">
-        <v>7498</v>
+        <v>7497</v>
       </c>
       <c r="C5185" t="s">
         <v>3710</v>
       </c>
       <c r="D5185" t="s">
-        <v>7499</v>
+        <v>7498</v>
       </c>
     </row>
     <row r="5186" spans="1:4" x14ac:dyDescent="0.25">
@@ -97269,13 +97467,13 @@
         <v>25205139</v>
       </c>
       <c r="B5186" t="s">
+        <v>7499</v>
+      </c>
+      <c r="C5186" t="s">
         <v>7500</v>
       </c>
-      <c r="C5186" t="s">
+      <c r="D5186" t="s">
         <v>7501</v>
-      </c>
-      <c r="D5186" t="s">
-        <v>7502</v>
       </c>
     </row>
     <row r="5187" spans="1:4" x14ac:dyDescent="0.25">
@@ -97283,13 +97481,13 @@
         <v>20808380</v>
       </c>
       <c r="B5187" t="s">
+        <v>7502</v>
+      </c>
+      <c r="C5187" t="s">
         <v>7503</v>
       </c>
-      <c r="C5187" t="s">
+      <c r="D5187" t="s">
         <v>7504</v>
-      </c>
-      <c r="D5187" t="s">
-        <v>7505</v>
       </c>
     </row>
     <row r="5188" spans="1:4" x14ac:dyDescent="0.25">
@@ -97297,13 +97495,13 @@
         <v>25613514</v>
       </c>
       <c r="B5188" t="s">
-        <v>7506</v>
+        <v>7505</v>
       </c>
       <c r="C5188" t="s">
         <v>2995</v>
       </c>
       <c r="D5188" t="s">
-        <v>7507</v>
+        <v>7506</v>
       </c>
     </row>
     <row r="5189" spans="1:4" x14ac:dyDescent="0.25">
@@ -97311,13 +97509,13 @@
         <v>25213246</v>
       </c>
       <c r="B5189" t="s">
+        <v>7507</v>
+      </c>
+      <c r="C5189" t="s">
         <v>7508</v>
       </c>
-      <c r="C5189" t="s">
+      <c r="D5189" t="s">
         <v>7509</v>
-      </c>
-      <c r="D5189" t="s">
-        <v>7510</v>
       </c>
     </row>
     <row r="5190" spans="1:4" x14ac:dyDescent="0.25">
@@ -97325,13 +97523,13 @@
         <v>25213675</v>
       </c>
       <c r="B5190" t="s">
-        <v>7511</v>
+        <v>7510</v>
       </c>
       <c r="C5190" t="s">
         <v>3517</v>
       </c>
       <c r="D5190" t="s">
-        <v>7512</v>
+        <v>7511</v>
       </c>
     </row>
     <row r="5191" spans="1:4" x14ac:dyDescent="0.25">
@@ -97339,13 +97537,13 @@
         <v>25200717</v>
       </c>
       <c r="B5191" t="s">
-        <v>7513</v>
+        <v>7512</v>
       </c>
       <c r="C5191" t="s">
         <v>4019</v>
       </c>
       <c r="D5191" t="s">
-        <v>7514</v>
+        <v>7513</v>
       </c>
     </row>
     <row r="5192" spans="1:4" x14ac:dyDescent="0.25">
@@ -97353,13 +97551,13 @@
         <v>25203511</v>
       </c>
       <c r="B5192" t="s">
+        <v>7514</v>
+      </c>
+      <c r="C5192" t="s">
         <v>7515</v>
       </c>
-      <c r="C5192" t="s">
+      <c r="D5192" t="s">
         <v>7516</v>
-      </c>
-      <c r="D5192" t="s">
-        <v>7517</v>
       </c>
     </row>
     <row r="5193" spans="1:4" x14ac:dyDescent="0.25">
@@ -97367,13 +97565,13 @@
         <v>23050523</v>
       </c>
       <c r="B5193" t="s">
+        <v>7517</v>
+      </c>
+      <c r="C5193" t="s">
         <v>7518</v>
       </c>
-      <c r="C5193" t="s">
+      <c r="D5193" t="s">
         <v>7519</v>
-      </c>
-      <c r="D5193" t="s">
-        <v>7520</v>
       </c>
     </row>
     <row r="5194" spans="1:4" x14ac:dyDescent="0.25">
@@ -97381,13 +97579,13 @@
         <v>25213390</v>
       </c>
       <c r="B5194" t="s">
+        <v>7520</v>
+      </c>
+      <c r="C5194" t="s">
         <v>7521</v>
       </c>
-      <c r="C5194" t="s">
+      <c r="D5194" t="s">
         <v>7522</v>
-      </c>
-      <c r="D5194" t="s">
-        <v>7523</v>
       </c>
     </row>
     <row r="5195" spans="1:4" x14ac:dyDescent="0.25">
@@ -97395,13 +97593,13 @@
         <v>25208868</v>
       </c>
       <c r="B5195" t="s">
+        <v>7523</v>
+      </c>
+      <c r="C5195" t="s">
         <v>7524</v>
       </c>
-      <c r="C5195" t="s">
+      <c r="D5195" t="s">
         <v>7525</v>
-      </c>
-      <c r="D5195" t="s">
-        <v>7526</v>
       </c>
     </row>
     <row r="5196" spans="1:4" x14ac:dyDescent="0.25">
@@ -97409,13 +97607,13 @@
         <v>25207317</v>
       </c>
       <c r="B5196" t="s">
+        <v>7526</v>
+      </c>
+      <c r="C5196" t="s">
         <v>7527</v>
       </c>
-      <c r="C5196" t="s">
+      <c r="D5196" t="s">
         <v>7528</v>
-      </c>
-      <c r="D5196" t="s">
-        <v>7529</v>
       </c>
     </row>
     <row r="5197" spans="1:4" x14ac:dyDescent="0.25">
@@ -97423,13 +97621,13 @@
         <v>25213048</v>
       </c>
       <c r="B5197" t="s">
+        <v>7529</v>
+      </c>
+      <c r="C5197" t="s">
         <v>7530</v>
       </c>
-      <c r="C5197" t="s">
+      <c r="D5197" t="s">
         <v>7531</v>
-      </c>
-      <c r="D5197" t="s">
-        <v>7532</v>
       </c>
     </row>
     <row r="5198" spans="1:4" x14ac:dyDescent="0.25">
@@ -97437,10 +97635,10 @@
         <v>25209440</v>
       </c>
       <c r="B5198" t="s">
+        <v>7532</v>
+      </c>
+      <c r="C5198" t="s">
         <v>7533</v>
-      </c>
-      <c r="C5198" t="s">
-        <v>7534</v>
       </c>
       <c r="D5198" t="s">
         <v>4569</v>
@@ -97451,13 +97649,13 @@
         <v>16030943</v>
       </c>
       <c r="B5199" t="s">
+        <v>7534</v>
+      </c>
+      <c r="C5199" t="s">
         <v>7535</v>
       </c>
-      <c r="C5199" t="s">
+      <c r="D5199" t="s">
         <v>7536</v>
-      </c>
-      <c r="D5199" t="s">
-        <v>7537</v>
       </c>
     </row>
     <row r="5200" spans="1:4" x14ac:dyDescent="0.25">
@@ -97465,10 +97663,10 @@
         <v>25213807</v>
       </c>
       <c r="B5200" t="s">
+        <v>7537</v>
+      </c>
+      <c r="C5200" t="s">
         <v>7538</v>
-      </c>
-      <c r="C5200" t="s">
-        <v>7539</v>
       </c>
       <c r="D5200" t="s">
         <v>1622</v>
@@ -97479,13 +97677,13 @@
         <v>24207163</v>
       </c>
       <c r="B5201" t="s">
+        <v>7539</v>
+      </c>
+      <c r="C5201" t="s">
         <v>7540</v>
       </c>
-      <c r="C5201" t="s">
+      <c r="D5201" t="s">
         <v>7541</v>
-      </c>
-      <c r="D5201" t="s">
-        <v>7542</v>
       </c>
     </row>
     <row r="5202" spans="1:4" x14ac:dyDescent="0.25">
@@ -97493,13 +97691,13 @@
         <v>19202499</v>
       </c>
       <c r="B5202" t="s">
+        <v>7542</v>
+      </c>
+      <c r="C5202" t="s">
         <v>7543</v>
       </c>
-      <c r="C5202" t="s">
+      <c r="D5202" t="s">
         <v>7544</v>
-      </c>
-      <c r="D5202" t="s">
-        <v>7545</v>
       </c>
     </row>
     <row r="5203" spans="1:4" x14ac:dyDescent="0.25">
@@ -97507,13 +97705,13 @@
         <v>25209902</v>
       </c>
       <c r="B5203" t="s">
+        <v>7545</v>
+      </c>
+      <c r="C5203" t="s">
         <v>7546</v>
       </c>
-      <c r="C5203" t="s">
+      <c r="D5203" t="s">
         <v>7547</v>
-      </c>
-      <c r="D5203" t="s">
-        <v>7548</v>
       </c>
     </row>
     <row r="5204" spans="1:4" x14ac:dyDescent="0.25">
@@ -97521,10 +97719,10 @@
         <v>25200519</v>
       </c>
       <c r="B5204" t="s">
+        <v>7548</v>
+      </c>
+      <c r="C5204" t="s">
         <v>7549</v>
-      </c>
-      <c r="C5204" t="s">
-        <v>7550</v>
       </c>
       <c r="D5204" t="s">
         <v>6577</v>
@@ -97535,13 +97733,13 @@
         <v>25205030</v>
       </c>
       <c r="B5205" t="s">
+        <v>7550</v>
+      </c>
+      <c r="C5205" t="s">
         <v>7551</v>
       </c>
-      <c r="C5205" t="s">
+      <c r="D5205" t="s">
         <v>7552</v>
-      </c>
-      <c r="D5205" t="s">
-        <v>7553</v>
       </c>
     </row>
     <row r="5206" spans="1:4" x14ac:dyDescent="0.25">
@@ -97549,13 +97747,13 @@
         <v>25209121</v>
       </c>
       <c r="B5206" t="s">
-        <v>7554</v>
+        <v>7553</v>
       </c>
       <c r="C5206" t="s">
         <v>518</v>
       </c>
       <c r="D5206" t="s">
-        <v>7555</v>
+        <v>7554</v>
       </c>
     </row>
     <row r="5207" spans="1:4" x14ac:dyDescent="0.25">
@@ -97563,13 +97761,13 @@
         <v>25202774</v>
       </c>
       <c r="B5207" t="s">
+        <v>7555</v>
+      </c>
+      <c r="C5207" t="s">
         <v>7556</v>
       </c>
-      <c r="C5207" t="s">
+      <c r="D5207" t="s">
         <v>7557</v>
-      </c>
-      <c r="D5207" t="s">
-        <v>7558</v>
       </c>
     </row>
     <row r="5208" spans="1:4" x14ac:dyDescent="0.25">
@@ -97577,13 +97775,13 @@
         <v>25200630</v>
       </c>
       <c r="B5208" t="s">
+        <v>7558</v>
+      </c>
+      <c r="C5208" t="s">
         <v>7559</v>
       </c>
-      <c r="C5208" t="s">
+      <c r="D5208" t="s">
         <v>7560</v>
-      </c>
-      <c r="D5208" t="s">
-        <v>7561</v>
       </c>
     </row>
     <row r="5209" spans="1:4" x14ac:dyDescent="0.25">
@@ -97591,13 +97789,13 @@
         <v>25213620</v>
       </c>
       <c r="B5209" t="s">
+        <v>7561</v>
+      </c>
+      <c r="C5209" t="s">
         <v>7562</v>
       </c>
-      <c r="C5209" t="s">
+      <c r="D5209" t="s">
         <v>7563</v>
-      </c>
-      <c r="D5209" t="s">
-        <v>7564</v>
       </c>
     </row>
     <row r="5210" spans="1:4" x14ac:dyDescent="0.25">
@@ -97605,10 +97803,10 @@
         <v>22922328</v>
       </c>
       <c r="B5210" t="s">
+        <v>7564</v>
+      </c>
+      <c r="C5210" t="s">
         <v>7565</v>
-      </c>
-      <c r="C5210" t="s">
-        <v>7566</v>
       </c>
       <c r="D5210" t="s">
         <v>2962</v>
@@ -97619,10 +97817,10 @@
         <v>25203280</v>
       </c>
       <c r="B5211" t="s">
+        <v>7566</v>
+      </c>
+      <c r="C5211" t="s">
         <v>7567</v>
-      </c>
-      <c r="C5211" t="s">
-        <v>7568</v>
       </c>
       <c r="D5211" t="s">
         <v>4563</v>
@@ -97633,13 +97831,13 @@
         <v>24218053</v>
       </c>
       <c r="B5212" t="s">
+        <v>7568</v>
+      </c>
+      <c r="C5212" t="s">
         <v>7569</v>
       </c>
-      <c r="C5212" t="s">
+      <c r="D5212" t="s">
         <v>7570</v>
-      </c>
-      <c r="D5212" t="s">
-        <v>7571</v>
       </c>
     </row>
     <row r="5213" spans="1:4" x14ac:dyDescent="0.25">
@@ -97647,13 +97845,13 @@
         <v>25200398</v>
       </c>
       <c r="B5213" t="s">
+        <v>7571</v>
+      </c>
+      <c r="C5213" t="s">
         <v>7572</v>
       </c>
-      <c r="C5213" t="s">
+      <c r="D5213" t="s">
         <v>7573</v>
-      </c>
-      <c r="D5213" t="s">
-        <v>7574</v>
       </c>
     </row>
     <row r="5214" spans="1:4" x14ac:dyDescent="0.25">
@@ -97661,13 +97859,13 @@
         <v>25207383</v>
       </c>
       <c r="B5214" t="s">
+        <v>7574</v>
+      </c>
+      <c r="C5214" t="s">
         <v>7575</v>
       </c>
-      <c r="C5214" t="s">
+      <c r="D5214" t="s">
         <v>7576</v>
-      </c>
-      <c r="D5214" t="s">
-        <v>7577</v>
       </c>
     </row>
     <row r="5215" spans="1:4" x14ac:dyDescent="0.25">
@@ -97675,13 +97873,13 @@
         <v>18204413</v>
       </c>
       <c r="B5215" t="s">
+        <v>7577</v>
+      </c>
+      <c r="C5215" t="s">
         <v>7578</v>
       </c>
-      <c r="C5215" t="s">
+      <c r="D5215" t="s">
         <v>7579</v>
-      </c>
-      <c r="D5215" t="s">
-        <v>7580</v>
       </c>
     </row>
     <row r="5216" spans="1:4" x14ac:dyDescent="0.25">
@@ -97689,13 +97887,13 @@
         <v>25022693</v>
       </c>
       <c r="B5216" t="s">
+        <v>7580</v>
+      </c>
+      <c r="C5216" t="s">
         <v>7581</v>
       </c>
-      <c r="C5216" t="s">
+      <c r="D5216" t="s">
         <v>7582</v>
-      </c>
-      <c r="D5216" t="s">
-        <v>7583</v>
       </c>
     </row>
     <row r="5217" spans="1:4" x14ac:dyDescent="0.25">
@@ -97703,13 +97901,13 @@
         <v>21045320</v>
       </c>
       <c r="B5217" t="s">
+        <v>7583</v>
+      </c>
+      <c r="C5217" t="s">
         <v>7584</v>
       </c>
-      <c r="C5217" t="s">
+      <c r="D5217" t="s">
         <v>7585</v>
-      </c>
-      <c r="D5217" t="s">
-        <v>7586</v>
       </c>
     </row>
     <row r="5218" spans="1:4" x14ac:dyDescent="0.25">
@@ -97717,13 +97915,13 @@
         <v>25202818</v>
       </c>
       <c r="B5218" t="s">
+        <v>7586</v>
+      </c>
+      <c r="C5218" t="s">
         <v>7587</v>
       </c>
-      <c r="C5218" t="s">
+      <c r="D5218" t="s">
         <v>7588</v>
-      </c>
-      <c r="D5218" t="s">
-        <v>7589</v>
       </c>
     </row>
     <row r="5219" spans="1:4" x14ac:dyDescent="0.25">
@@ -97731,13 +97929,13 @@
         <v>24400719</v>
       </c>
       <c r="B5219" t="s">
+        <v>7589</v>
+      </c>
+      <c r="C5219" t="s">
         <v>7590</v>
       </c>
-      <c r="C5219" t="s">
+      <c r="D5219" t="s">
         <v>7591</v>
-      </c>
-      <c r="D5219" t="s">
-        <v>7592</v>
       </c>
     </row>
     <row r="5220" spans="1:4" x14ac:dyDescent="0.25">
@@ -97745,13 +97943,13 @@
         <v>25218185</v>
       </c>
       <c r="B5220" t="s">
+        <v>7592</v>
+      </c>
+      <c r="C5220" t="s">
         <v>7593</v>
       </c>
-      <c r="C5220" t="s">
+      <c r="D5220" t="s">
         <v>7594</v>
-      </c>
-      <c r="D5220" t="s">
-        <v>7595</v>
       </c>
     </row>
     <row r="5221" spans="1:4" x14ac:dyDescent="0.25">
@@ -97759,13 +97957,13 @@
         <v>23181390</v>
       </c>
       <c r="B5221" t="s">
+        <v>7595</v>
+      </c>
+      <c r="C5221" t="s">
         <v>7596</v>
       </c>
-      <c r="C5221" t="s">
+      <c r="D5221" t="s">
         <v>7597</v>
-      </c>
-      <c r="D5221" t="s">
-        <v>7598</v>
       </c>
     </row>
     <row r="5222" spans="1:4" x14ac:dyDescent="0.25">
@@ -97773,7 +97971,7 @@
         <v>24915288</v>
       </c>
       <c r="B5222" t="s">
-        <v>7599</v>
+        <v>7598</v>
       </c>
       <c r="C5222" t="s">
         <v>4318</v>
@@ -97787,13 +97985,13 @@
         <v>25208241</v>
       </c>
       <c r="B5223" t="s">
+        <v>7599</v>
+      </c>
+      <c r="C5223" t="s">
         <v>7600</v>
       </c>
-      <c r="C5223" t="s">
+      <c r="D5223" t="s">
         <v>7601</v>
-      </c>
-      <c r="D5223" t="s">
-        <v>7602</v>
       </c>
     </row>
     <row r="5224" spans="1:4" x14ac:dyDescent="0.25">
@@ -97801,13 +97999,13 @@
         <v>25204633</v>
       </c>
       <c r="B5224" t="s">
+        <v>7602</v>
+      </c>
+      <c r="C5224" t="s">
         <v>7603</v>
       </c>
-      <c r="C5224" t="s">
+      <c r="D5224" t="s">
         <v>7604</v>
-      </c>
-      <c r="D5224" t="s">
-        <v>7605</v>
       </c>
     </row>
     <row r="5225" spans="1:4" x14ac:dyDescent="0.25">
@@ -97815,10 +98013,10 @@
         <v>25207856</v>
       </c>
       <c r="B5225" t="s">
+        <v>7605</v>
+      </c>
+      <c r="C5225" t="s">
         <v>7606</v>
-      </c>
-      <c r="C5225" t="s">
-        <v>7607</v>
       </c>
       <c r="D5225" t="s">
         <v>4280</v>
@@ -97829,13 +98027,13 @@
         <v>25207262</v>
       </c>
       <c r="B5226" t="s">
-        <v>7608</v>
+        <v>7607</v>
       </c>
       <c r="C5226" t="s">
         <v>4052</v>
       </c>
       <c r="D5226" t="s">
-        <v>7609</v>
+        <v>7608</v>
       </c>
     </row>
     <row r="5227" spans="1:4" x14ac:dyDescent="0.25">
@@ -97843,13 +98041,13 @@
         <v>25208780</v>
       </c>
       <c r="B5227" t="s">
+        <v>7609</v>
+      </c>
+      <c r="C5227" t="s">
         <v>7610</v>
       </c>
-      <c r="C5227" t="s">
+      <c r="D5227" t="s">
         <v>7611</v>
-      </c>
-      <c r="D5227" t="s">
-        <v>7612</v>
       </c>
     </row>
     <row r="5228" spans="1:4" x14ac:dyDescent="0.25">
@@ -97857,13 +98055,13 @@
         <v>16723756</v>
       </c>
       <c r="B5228" t="s">
+        <v>7612</v>
+      </c>
+      <c r="C5228" t="s">
         <v>7613</v>
       </c>
-      <c r="C5228" t="s">
+      <c r="D5228" t="s">
         <v>7614</v>
-      </c>
-      <c r="D5228" t="s">
-        <v>7615</v>
       </c>
     </row>
     <row r="5229" spans="1:4" x14ac:dyDescent="0.25">
@@ -97871,13 +98069,13 @@
         <v>24011946</v>
       </c>
       <c r="B5229" t="s">
+        <v>7615</v>
+      </c>
+      <c r="C5229" t="s">
         <v>7616</v>
       </c>
-      <c r="C5229" t="s">
+      <c r="D5229" t="s">
         <v>7617</v>
-      </c>
-      <c r="D5229" t="s">
-        <v>7618</v>
       </c>
     </row>
     <row r="5230" spans="1:4" x14ac:dyDescent="0.25">
@@ -97885,13 +98083,13 @@
         <v>22018711</v>
       </c>
       <c r="B5230" t="s">
-        <v>7619</v>
+        <v>7618</v>
       </c>
       <c r="C5230" t="s">
         <v>518</v>
       </c>
       <c r="D5230" t="s">
-        <v>7620</v>
+        <v>7619</v>
       </c>
     </row>
     <row r="5231" spans="1:4" x14ac:dyDescent="0.25">
@@ -97899,13 +98097,13 @@
         <v>25208791</v>
       </c>
       <c r="B5231" t="s">
+        <v>7620</v>
+      </c>
+      <c r="C5231" t="s">
         <v>7621</v>
       </c>
-      <c r="C5231" t="s">
+      <c r="D5231" t="s">
         <v>7622</v>
-      </c>
-      <c r="D5231" t="s">
-        <v>7623</v>
       </c>
     </row>
     <row r="5232" spans="1:4" x14ac:dyDescent="0.25">
@@ -97913,13 +98111,13 @@
         <v>25213147</v>
       </c>
       <c r="B5232" t="s">
+        <v>7623</v>
+      </c>
+      <c r="C5232" t="s">
         <v>7624</v>
       </c>
-      <c r="C5232" t="s">
+      <c r="D5232" t="s">
         <v>7625</v>
-      </c>
-      <c r="D5232" t="s">
-        <v>7626</v>
       </c>
     </row>
     <row r="5233" spans="1:4" x14ac:dyDescent="0.25">
@@ -97927,13 +98125,13 @@
         <v>25205656</v>
       </c>
       <c r="B5233" t="s">
-        <v>7627</v>
+        <v>7626</v>
       </c>
       <c r="C5233" t="s">
         <v>3710</v>
       </c>
       <c r="D5233" t="s">
-        <v>7628</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="5234" spans="1:4" x14ac:dyDescent="0.25">
@@ -97941,13 +98139,13 @@
         <v>25207867</v>
       </c>
       <c r="B5234" t="s">
-        <v>7629</v>
+        <v>7628</v>
       </c>
       <c r="C5234" t="s">
         <v>5667</v>
       </c>
       <c r="D5234" t="s">
-        <v>7630</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="5235" spans="1:4" x14ac:dyDescent="0.25">
@@ -97955,13 +98153,13 @@
         <v>25206030</v>
       </c>
       <c r="B5235" t="s">
+        <v>7630</v>
+      </c>
+      <c r="C5235" t="s">
         <v>7631</v>
       </c>
-      <c r="C5235" t="s">
+      <c r="D5235" t="s">
         <v>7632</v>
-      </c>
-      <c r="D5235" t="s">
-        <v>7633</v>
       </c>
     </row>
     <row r="5236" spans="1:4" x14ac:dyDescent="0.25">
@@ -97969,13 +98167,13 @@
         <v>25210980</v>
       </c>
       <c r="B5236" t="s">
+        <v>7633</v>
+      </c>
+      <c r="C5236" t="s">
         <v>7634</v>
       </c>
-      <c r="C5236" t="s">
+      <c r="D5236" t="s">
         <v>7635</v>
-      </c>
-      <c r="D5236" t="s">
-        <v>7636</v>
       </c>
     </row>
     <row r="5237" spans="1:4" x14ac:dyDescent="0.25">
@@ -97983,13 +98181,13 @@
         <v>25201641</v>
       </c>
       <c r="B5237" t="s">
+        <v>7636</v>
+      </c>
+      <c r="C5237" t="s">
         <v>7637</v>
       </c>
-      <c r="C5237" t="s">
+      <c r="D5237" t="s">
         <v>7638</v>
-      </c>
-      <c r="D5237" t="s">
-        <v>7639</v>
       </c>
     </row>
     <row r="5238" spans="1:4" x14ac:dyDescent="0.25">
@@ -97997,13 +98195,13 @@
         <v>25210991</v>
       </c>
       <c r="B5238" t="s">
+        <v>7639</v>
+      </c>
+      <c r="C5238" t="s">
         <v>7640</v>
       </c>
-      <c r="C5238" t="s">
+      <c r="D5238" t="s">
         <v>7641</v>
-      </c>
-      <c r="D5238" t="s">
-        <v>7642</v>
       </c>
     </row>
     <row r="5239" spans="1:4" x14ac:dyDescent="0.25">
@@ -98011,13 +98209,13 @@
         <v>25204171</v>
       </c>
       <c r="B5239" t="s">
+        <v>7642</v>
+      </c>
+      <c r="C5239" t="s">
         <v>7643</v>
       </c>
-      <c r="C5239" t="s">
+      <c r="D5239" t="s">
         <v>7644</v>
-      </c>
-      <c r="D5239" t="s">
-        <v>7645</v>
       </c>
     </row>
     <row r="5240" spans="1:4" x14ac:dyDescent="0.25">
@@ -98025,13 +98223,13 @@
         <v>25204820</v>
       </c>
       <c r="B5240" t="s">
+        <v>7645</v>
+      </c>
+      <c r="C5240" t="s">
         <v>7646</v>
       </c>
-      <c r="C5240" t="s">
+      <c r="D5240" t="s">
         <v>7647</v>
-      </c>
-      <c r="D5240" t="s">
-        <v>7648</v>
       </c>
     </row>
     <row r="5241" spans="1:4" x14ac:dyDescent="0.25">
@@ -98039,13 +98237,13 @@
         <v>25202466</v>
       </c>
       <c r="B5241" t="s">
+        <v>7648</v>
+      </c>
+      <c r="C5241" t="s">
         <v>7649</v>
       </c>
-      <c r="C5241" t="s">
+      <c r="D5241" t="s">
         <v>7650</v>
-      </c>
-      <c r="D5241" t="s">
-        <v>7651</v>
       </c>
     </row>
     <row r="5242" spans="1:4" x14ac:dyDescent="0.25">
@@ -98053,13 +98251,13 @@
         <v>25218174</v>
       </c>
       <c r="B5242" t="s">
+        <v>7651</v>
+      </c>
+      <c r="C5242" t="s">
         <v>7652</v>
       </c>
-      <c r="C5242" t="s">
+      <c r="D5242" t="s">
         <v>7653</v>
-      </c>
-      <c r="D5242" t="s">
-        <v>7654</v>
       </c>
     </row>
     <row r="5243" spans="1:4" x14ac:dyDescent="0.25">
@@ -98067,13 +98265,13 @@
         <v>25201355</v>
       </c>
       <c r="B5243" t="s">
+        <v>7654</v>
+      </c>
+      <c r="C5243" t="s">
         <v>7655</v>
       </c>
-      <c r="C5243" t="s">
+      <c r="D5243" t="s">
         <v>7656</v>
-      </c>
-      <c r="D5243" t="s">
-        <v>7657</v>
       </c>
     </row>
     <row r="5244" spans="1:4" x14ac:dyDescent="0.25">
@@ -98081,13 +98279,13 @@
         <v>25210738</v>
       </c>
       <c r="B5244" t="s">
+        <v>7657</v>
+      </c>
+      <c r="C5244" t="s">
         <v>7658</v>
       </c>
-      <c r="C5244" t="s">
+      <c r="D5244" t="s">
         <v>7659</v>
-      </c>
-      <c r="D5244" t="s">
-        <v>7660</v>
       </c>
     </row>
     <row r="5245" spans="1:4" x14ac:dyDescent="0.25">
@@ -98095,13 +98293,13 @@
         <v>25202125</v>
       </c>
       <c r="B5245" t="s">
+        <v>7660</v>
+      </c>
+      <c r="C5245" t="s">
         <v>7661</v>
       </c>
-      <c r="C5245" t="s">
+      <c r="D5245" t="s">
         <v>7662</v>
-      </c>
-      <c r="D5245" t="s">
-        <v>7663</v>
       </c>
     </row>
     <row r="5246" spans="1:4" x14ac:dyDescent="0.25">
@@ -98109,13 +98307,13 @@
         <v>25201685</v>
       </c>
       <c r="B5246" t="s">
+        <v>7663</v>
+      </c>
+      <c r="C5246" t="s">
         <v>7664</v>
       </c>
-      <c r="C5246" t="s">
+      <c r="D5246" t="s">
         <v>7665</v>
-      </c>
-      <c r="D5246" t="s">
-        <v>7666</v>
       </c>
     </row>
     <row r="5247" spans="1:4" x14ac:dyDescent="0.25">
@@ -98123,13 +98321,13 @@
         <v>25204920</v>
       </c>
       <c r="B5247" t="s">
+        <v>7666</v>
+      </c>
+      <c r="C5247" t="s">
         <v>7667</v>
       </c>
-      <c r="C5247" t="s">
+      <c r="D5247" t="s">
         <v>7668</v>
-      </c>
-      <c r="D5247" t="s">
-        <v>7669</v>
       </c>
     </row>
     <row r="5248" spans="1:4" x14ac:dyDescent="0.25">
@@ -98137,13 +98335,13 @@
         <v>25215391</v>
       </c>
       <c r="B5248" t="s">
+        <v>7669</v>
+      </c>
+      <c r="C5248" t="s">
         <v>7670</v>
       </c>
-      <c r="C5248" t="s">
+      <c r="D5248" t="s">
         <v>7671</v>
-      </c>
-      <c r="D5248" t="s">
-        <v>7672</v>
       </c>
     </row>
     <row r="5249" spans="1:4" x14ac:dyDescent="0.25">
@@ -98151,10 +98349,10 @@
         <v>25211486</v>
       </c>
       <c r="B5249" t="s">
+        <v>7672</v>
+      </c>
+      <c r="C5249" t="s">
         <v>7673</v>
-      </c>
-      <c r="C5249" t="s">
-        <v>7674</v>
       </c>
       <c r="D5249" t="s">
         <v>4993</v>
@@ -98165,13 +98363,13 @@
         <v>25213554</v>
       </c>
       <c r="B5250" t="s">
+        <v>7674</v>
+      </c>
+      <c r="C5250" t="s">
         <v>7675</v>
       </c>
-      <c r="C5250" t="s">
+      <c r="D5250" t="s">
         <v>7676</v>
-      </c>
-      <c r="D5250" t="s">
-        <v>7677</v>
       </c>
     </row>
     <row r="5251" spans="1:4" x14ac:dyDescent="0.25">
@@ -98179,10 +98377,10 @@
         <v>25207670</v>
       </c>
       <c r="B5251" t="s">
+        <v>7677</v>
+      </c>
+      <c r="C5251" t="s">
         <v>7678</v>
-      </c>
-      <c r="C5251" t="s">
-        <v>7679</v>
       </c>
       <c r="D5251" t="s">
         <v>2253</v>
@@ -98193,13 +98391,13 @@
         <v>25213510</v>
       </c>
       <c r="B5252" t="s">
+        <v>7679</v>
+      </c>
+      <c r="C5252" t="s">
         <v>7680</v>
       </c>
-      <c r="C5252" t="s">
+      <c r="D5252" t="s">
         <v>7681</v>
-      </c>
-      <c r="D5252" t="s">
-        <v>7682</v>
       </c>
     </row>
     <row r="5253" spans="1:4" x14ac:dyDescent="0.25">
@@ -98207,13 +98405,13 @@
         <v>21211300</v>
       </c>
       <c r="B5253" t="s">
+        <v>7682</v>
+      </c>
+      <c r="C5253" t="s">
         <v>7683</v>
       </c>
-      <c r="C5253" t="s">
+      <c r="D5253" t="s">
         <v>7684</v>
-      </c>
-      <c r="D5253" t="s">
-        <v>7685</v>
       </c>
     </row>
     <row r="5254" spans="1:4" x14ac:dyDescent="0.25">
@@ -98221,13 +98419,13 @@
         <v>25211684</v>
       </c>
       <c r="B5254" t="s">
+        <v>7685</v>
+      </c>
+      <c r="C5254" t="s">
         <v>7686</v>
       </c>
-      <c r="C5254" t="s">
+      <c r="D5254" t="s">
         <v>7687</v>
-      </c>
-      <c r="D5254" t="s">
-        <v>7688</v>
       </c>
     </row>
     <row r="5255" spans="1:4" x14ac:dyDescent="0.25">
@@ -98235,13 +98433,13 @@
         <v>25211057</v>
       </c>
       <c r="B5255" t="s">
+        <v>7688</v>
+      </c>
+      <c r="C5255" t="s">
         <v>7689</v>
       </c>
-      <c r="C5255" t="s">
+      <c r="D5255" t="s">
         <v>7690</v>
-      </c>
-      <c r="D5255" t="s">
-        <v>7691</v>
       </c>
     </row>
     <row r="5256" spans="1:4" x14ac:dyDescent="0.25">
@@ -98249,13 +98447,13 @@
         <v>25203368</v>
       </c>
       <c r="B5256" t="s">
+        <v>7691</v>
+      </c>
+      <c r="C5256" t="s">
         <v>7692</v>
       </c>
-      <c r="C5256" t="s">
+      <c r="D5256" t="s">
         <v>7693</v>
-      </c>
-      <c r="D5256" t="s">
-        <v>7694</v>
       </c>
     </row>
     <row r="5257" spans="1:4" x14ac:dyDescent="0.25">
@@ -98263,13 +98461,13 @@
         <v>25214236</v>
       </c>
       <c r="B5257" t="s">
+        <v>7694</v>
+      </c>
+      <c r="C5257" t="s">
         <v>7695</v>
       </c>
-      <c r="C5257" t="s">
+      <c r="D5257" t="s">
         <v>7696</v>
-      </c>
-      <c r="D5257" t="s">
-        <v>7697</v>
       </c>
     </row>
     <row r="5258" spans="1:4" x14ac:dyDescent="0.25">
@@ -98277,13 +98475,13 @@
         <v>25213752</v>
       </c>
       <c r="B5258" t="s">
+        <v>7697</v>
+      </c>
+      <c r="C5258" t="s">
         <v>7698</v>
       </c>
-      <c r="C5258" t="s">
+      <c r="D5258" t="s">
         <v>7699</v>
-      </c>
-      <c r="D5258" t="s">
-        <v>7700</v>
       </c>
     </row>
     <row r="5259" spans="1:4" x14ac:dyDescent="0.25">
@@ -98291,13 +98489,13 @@
         <v>25205799</v>
       </c>
       <c r="B5259" t="s">
+        <v>7700</v>
+      </c>
+      <c r="C5259" t="s">
         <v>7701</v>
       </c>
-      <c r="C5259" t="s">
+      <c r="D5259" t="s">
         <v>7702</v>
-      </c>
-      <c r="D5259" t="s">
-        <v>7703</v>
       </c>
     </row>
     <row r="5260" spans="1:4" x14ac:dyDescent="0.25">
@@ -98305,13 +98503,13 @@
         <v>25211574</v>
       </c>
       <c r="B5260" t="s">
+        <v>7703</v>
+      </c>
+      <c r="C5260" t="s">
         <v>7704</v>
       </c>
-      <c r="C5260" t="s">
+      <c r="D5260" t="s">
         <v>7705</v>
-      </c>
-      <c r="D5260" t="s">
-        <v>7706</v>
       </c>
     </row>
     <row r="5261" spans="1:4" x14ac:dyDescent="0.25">
@@ -98319,13 +98517,13 @@
         <v>25213323</v>
       </c>
       <c r="B5261" t="s">
+        <v>7706</v>
+      </c>
+      <c r="C5261" t="s">
         <v>7707</v>
       </c>
-      <c r="C5261" t="s">
+      <c r="D5261" t="s">
         <v>7708</v>
-      </c>
-      <c r="D5261" t="s">
-        <v>7709</v>
       </c>
     </row>
     <row r="5262" spans="1:4" x14ac:dyDescent="0.25">
@@ -98333,13 +98531,13 @@
         <v>25207416</v>
       </c>
       <c r="B5262" t="s">
+        <v>7709</v>
+      </c>
+      <c r="C5262" t="s">
         <v>7710</v>
       </c>
-      <c r="C5262" t="s">
+      <c r="D5262" t="s">
         <v>7711</v>
-      </c>
-      <c r="D5262" t="s">
-        <v>7712</v>
       </c>
     </row>
     <row r="5263" spans="1:4" x14ac:dyDescent="0.25">
@@ -98347,10 +98545,10 @@
         <v>25204446</v>
       </c>
       <c r="B5263" t="s">
+        <v>7712</v>
+      </c>
+      <c r="C5263" t="s">
         <v>7713</v>
-      </c>
-      <c r="C5263" t="s">
-        <v>7714</v>
       </c>
       <c r="D5263" t="s">
         <v>570</v>
@@ -98361,13 +98559,13 @@
         <v>25210430</v>
       </c>
       <c r="B5264" t="s">
+        <v>7714</v>
+      </c>
+      <c r="C5264" t="s">
         <v>7715</v>
       </c>
-      <c r="C5264" t="s">
+      <c r="D5264" t="s">
         <v>7716</v>
-      </c>
-      <c r="D5264" t="s">
-        <v>7717</v>
       </c>
     </row>
     <row r="5265" spans="1:4" x14ac:dyDescent="0.25">
@@ -98375,13 +98573,13 @@
         <v>25207097</v>
       </c>
       <c r="B5265" t="s">
+        <v>7717</v>
+      </c>
+      <c r="C5265" t="s">
         <v>7718</v>
       </c>
-      <c r="C5265" t="s">
+      <c r="D5265" t="s">
         <v>7719</v>
-      </c>
-      <c r="D5265" t="s">
-        <v>7720</v>
       </c>
     </row>
     <row r="5266" spans="1:4" x14ac:dyDescent="0.25">
@@ -98389,7 +98587,7 @@
         <v>25203522</v>
       </c>
       <c r="B5266" t="s">
-        <v>7721</v>
+        <v>7720</v>
       </c>
       <c r="C5266" t="s">
         <v>132</v>
@@ -98403,13 +98601,13 @@
         <v>20811052</v>
       </c>
       <c r="B5267" t="s">
+        <v>7721</v>
+      </c>
+      <c r="C5267" t="s">
         <v>7722</v>
       </c>
-      <c r="C5267" t="s">
+      <c r="D5267" t="s">
         <v>7723</v>
-      </c>
-      <c r="D5267" t="s">
-        <v>7724</v>
       </c>
     </row>
     <row r="5268" spans="1:4" x14ac:dyDescent="0.25">
@@ -98417,13 +98615,13 @@
         <v>25204776</v>
       </c>
       <c r="B5268" t="s">
+        <v>7724</v>
+      </c>
+      <c r="C5268" t="s">
         <v>7725</v>
       </c>
-      <c r="C5268" t="s">
+      <c r="D5268" t="s">
         <v>7726</v>
-      </c>
-      <c r="D5268" t="s">
-        <v>7727</v>
       </c>
     </row>
     <row r="5269" spans="1:4" x14ac:dyDescent="0.25">
@@ -98431,13 +98629,13 @@
         <v>8042851</v>
       </c>
       <c r="B5269" t="s">
+        <v>7727</v>
+      </c>
+      <c r="C5269" t="s">
         <v>7728</v>
       </c>
-      <c r="C5269" t="s">
+      <c r="D5269" t="s">
         <v>7729</v>
-      </c>
-      <c r="D5269" t="s">
-        <v>7730</v>
       </c>
     </row>
     <row r="5270" spans="1:4" x14ac:dyDescent="0.25">
@@ -98445,13 +98643,13 @@
         <v>25212773</v>
       </c>
       <c r="B5270" t="s">
+        <v>7730</v>
+      </c>
+      <c r="C5270" t="s">
         <v>7731</v>
       </c>
-      <c r="C5270" t="s">
+      <c r="D5270" t="s">
         <v>7732</v>
-      </c>
-      <c r="D5270" t="s">
-        <v>7733</v>
       </c>
     </row>
     <row r="5271" spans="1:4" x14ac:dyDescent="0.25">
@@ -98459,13 +98657,13 @@
         <v>25200750</v>
       </c>
       <c r="B5271" t="s">
+        <v>7733</v>
+      </c>
+      <c r="C5271" t="s">
         <v>7734</v>
       </c>
-      <c r="C5271" t="s">
+      <c r="D5271" t="s">
         <v>7735</v>
-      </c>
-      <c r="D5271" t="s">
-        <v>7736</v>
       </c>
     </row>
     <row r="5272" spans="1:4" x14ac:dyDescent="0.25">
@@ -98473,10 +98671,10 @@
         <v>25211497</v>
       </c>
       <c r="B5272" t="s">
+        <v>7736</v>
+      </c>
+      <c r="C5272" t="s">
         <v>7737</v>
-      </c>
-      <c r="C5272" t="s">
-        <v>7738</v>
       </c>
       <c r="D5272" t="s">
         <v>5399</v>
@@ -98487,13 +98685,13 @@
         <v>20209979</v>
       </c>
       <c r="B5273" t="s">
+        <v>7738</v>
+      </c>
+      <c r="C5273" t="s">
         <v>7739</v>
       </c>
-      <c r="C5273" t="s">
+      <c r="D5273" t="s">
         <v>7740</v>
-      </c>
-      <c r="D5273" t="s">
-        <v>7741</v>
       </c>
     </row>
     <row r="5274" spans="1:4" x14ac:dyDescent="0.25">
@@ -98501,13 +98699,13 @@
         <v>21014949</v>
       </c>
       <c r="B5274" t="s">
-        <v>7742</v>
+        <v>7741</v>
       </c>
       <c r="C5274" t="s">
         <v>4756</v>
       </c>
       <c r="D5274" t="s">
-        <v>7743</v>
+        <v>7742</v>
       </c>
     </row>
     <row r="5275" spans="1:4" x14ac:dyDescent="0.25">
@@ -98515,13 +98713,13 @@
         <v>24212619</v>
       </c>
       <c r="B5275" t="s">
+        <v>7743</v>
+      </c>
+      <c r="C5275" t="s">
         <v>7744</v>
       </c>
-      <c r="C5275" t="s">
+      <c r="D5275" t="s">
         <v>7745</v>
-      </c>
-      <c r="D5275" t="s">
-        <v>7746</v>
       </c>
     </row>
     <row r="5276" spans="1:4" x14ac:dyDescent="0.25">
@@ -98529,13 +98727,13 @@
         <v>25205788</v>
       </c>
       <c r="B5276" t="s">
+        <v>7746</v>
+      </c>
+      <c r="C5276" t="s">
         <v>7747</v>
       </c>
-      <c r="C5276" t="s">
+      <c r="D5276" t="s">
         <v>7748</v>
-      </c>
-      <c r="D5276" t="s">
-        <v>7749</v>
       </c>
     </row>
     <row r="5277" spans="1:4" x14ac:dyDescent="0.25">
@@ -98543,13 +98741,13 @@
         <v>25215160</v>
       </c>
       <c r="B5277" t="s">
+        <v>7749</v>
+      </c>
+      <c r="C5277" t="s">
         <v>7750</v>
       </c>
-      <c r="C5277" t="s">
+      <c r="D5277" t="s">
         <v>7751</v>
-      </c>
-      <c r="D5277" t="s">
-        <v>7752</v>
       </c>
     </row>
     <row r="5278" spans="1:4" x14ac:dyDescent="0.25">
@@ -98557,13 +98755,13 @@
         <v>25719125</v>
       </c>
       <c r="B5278" t="s">
+        <v>7752</v>
+      </c>
+      <c r="C5278" t="s">
         <v>7753</v>
       </c>
-      <c r="C5278" t="s">
+      <c r="D5278" t="s">
         <v>7754</v>
-      </c>
-      <c r="D5278" t="s">
-        <v>7755</v>
       </c>
     </row>
     <row r="5279" spans="1:4" x14ac:dyDescent="0.25">
@@ -98571,13 +98769,13 @@
         <v>23923406</v>
       </c>
       <c r="B5279" t="s">
+        <v>7755</v>
+      </c>
+      <c r="C5279" t="s">
+        <v>7192</v>
+      </c>
+      <c r="D5279" t="s">
         <v>7756</v>
-      </c>
-      <c r="C5279" t="s">
-        <v>7193</v>
-      </c>
-      <c r="D5279" t="s">
-        <v>7757</v>
       </c>
     </row>
     <row r="5280" spans="1:4" x14ac:dyDescent="0.25">
@@ -98585,13 +98783,13 @@
         <v>18180378</v>
       </c>
       <c r="B5280" t="s">
+        <v>7757</v>
+      </c>
+      <c r="C5280" t="s">
         <v>7758</v>
       </c>
-      <c r="C5280" t="s">
+      <c r="D5280" t="s">
         <v>7759</v>
-      </c>
-      <c r="D5280" t="s">
-        <v>7760</v>
       </c>
     </row>
     <row r="5281" spans="1:4" x14ac:dyDescent="0.25">
@@ -98599,13 +98797,13 @@
         <v>25213576</v>
       </c>
       <c r="B5281" t="s">
+        <v>7760</v>
+      </c>
+      <c r="C5281" t="s">
         <v>7761</v>
       </c>
-      <c r="C5281" t="s">
+      <c r="D5281" t="s">
         <v>7762</v>
-      </c>
-      <c r="D5281" t="s">
-        <v>7763</v>
       </c>
     </row>
     <row r="5282" spans="1:4" x14ac:dyDescent="0.25">
@@ -98613,13 +98811,13 @@
         <v>25214797</v>
       </c>
       <c r="B5282" t="s">
-        <v>7764</v>
+        <v>7763</v>
       </c>
       <c r="C5282" t="s">
         <v>84</v>
       </c>
       <c r="D5282" t="s">
-        <v>7765</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="5283" spans="1:4" x14ac:dyDescent="0.25">
@@ -98627,13 +98825,13 @@
         <v>25211410</v>
       </c>
       <c r="B5283" t="s">
-        <v>7766</v>
+        <v>7765</v>
       </c>
       <c r="C5283" t="s">
         <v>2661</v>
       </c>
       <c r="D5283" t="s">
-        <v>7767</v>
+        <v>7766</v>
       </c>
     </row>
     <row r="5284" spans="1:4" x14ac:dyDescent="0.25">
@@ -98641,13 +98839,13 @@
         <v>25211431</v>
       </c>
       <c r="B5284" t="s">
+        <v>7767</v>
+      </c>
+      <c r="C5284" t="s">
         <v>7768</v>
       </c>
-      <c r="C5284" t="s">
+      <c r="D5284" t="s">
         <v>7769</v>
-      </c>
-      <c r="D5284" t="s">
-        <v>7770</v>
       </c>
     </row>
     <row r="5285" spans="1:4" x14ac:dyDescent="0.25">
@@ -98655,13 +98853,13 @@
         <v>25215215</v>
       </c>
       <c r="B5285" t="s">
+        <v>7770</v>
+      </c>
+      <c r="C5285" t="s">
         <v>7771</v>
       </c>
-      <c r="C5285" t="s">
+      <c r="D5285" t="s">
         <v>7772</v>
-      </c>
-      <c r="D5285" t="s">
-        <v>7773</v>
       </c>
     </row>
     <row r="5286" spans="1:4" x14ac:dyDescent="0.25">
@@ -98669,13 +98867,13 @@
         <v>25203720</v>
       </c>
       <c r="B5286" t="s">
+        <v>7773</v>
+      </c>
+      <c r="C5286" t="s">
         <v>7774</v>
       </c>
-      <c r="C5286" t="s">
+      <c r="D5286" t="s">
         <v>7775</v>
-      </c>
-      <c r="D5286" t="s">
-        <v>7776</v>
       </c>
     </row>
     <row r="5287" spans="1:4" x14ac:dyDescent="0.25">
@@ -98683,13 +98881,13 @@
         <v>25202720</v>
       </c>
       <c r="B5287" t="s">
+        <v>7776</v>
+      </c>
+      <c r="C5287" t="s">
         <v>7777</v>
       </c>
-      <c r="C5287" t="s">
+      <c r="D5287" t="s">
         <v>7778</v>
-      </c>
-      <c r="D5287" t="s">
-        <v>7779</v>
       </c>
     </row>
     <row r="5288" spans="1:4" x14ac:dyDescent="0.25">
@@ -98697,13 +98895,13 @@
         <v>25205689</v>
       </c>
       <c r="B5288" t="s">
+        <v>7779</v>
+      </c>
+      <c r="C5288" t="s">
         <v>7780</v>
       </c>
-      <c r="C5288" t="s">
+      <c r="D5288" t="s">
         <v>7781</v>
-      </c>
-      <c r="D5288" t="s">
-        <v>7782</v>
       </c>
     </row>
     <row r="5289" spans="1:4" x14ac:dyDescent="0.25">
@@ -98711,13 +98909,13 @@
         <v>25218262</v>
       </c>
       <c r="B5289" t="s">
+        <v>7782</v>
+      </c>
+      <c r="C5289" t="s">
         <v>7783</v>
       </c>
-      <c r="C5289" t="s">
+      <c r="D5289" t="s">
         <v>7784</v>
-      </c>
-      <c r="D5289" t="s">
-        <v>7785</v>
       </c>
     </row>
     <row r="5290" spans="1:4" x14ac:dyDescent="0.25">
@@ -98725,13 +98923,13 @@
         <v>23184162</v>
       </c>
       <c r="B5290" t="s">
+        <v>7785</v>
+      </c>
+      <c r="C5290" t="s">
         <v>7786</v>
       </c>
-      <c r="C5290" t="s">
+      <c r="D5290" t="s">
         <v>7787</v>
-      </c>
-      <c r="D5290" t="s">
-        <v>7788</v>
       </c>
     </row>
     <row r="5291" spans="1:4" x14ac:dyDescent="0.25">
@@ -98739,13 +98937,13 @@
         <v>25202279</v>
       </c>
       <c r="B5291" t="s">
+        <v>7788</v>
+      </c>
+      <c r="C5291" t="s">
         <v>7789</v>
       </c>
-      <c r="C5291" t="s">
+      <c r="D5291" t="s">
         <v>7790</v>
-      </c>
-      <c r="D5291" t="s">
-        <v>7791</v>
       </c>
     </row>
     <row r="5292" spans="1:4" x14ac:dyDescent="0.25">
@@ -98753,13 +98951,13 @@
         <v>25807060</v>
       </c>
       <c r="B5292" t="s">
-        <v>7792</v>
+        <v>7791</v>
       </c>
       <c r="C5292" t="s">
         <v>2323</v>
       </c>
       <c r="D5292" t="s">
-        <v>7793</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="5293" spans="1:4" x14ac:dyDescent="0.25">
@@ -98767,13 +98965,13 @@
         <v>23201102</v>
       </c>
       <c r="B5293" t="s">
+        <v>7793</v>
+      </c>
+      <c r="C5293" t="s">
         <v>7794</v>
       </c>
-      <c r="C5293" t="s">
+      <c r="D5293" t="s">
         <v>7795</v>
-      </c>
-      <c r="D5293" t="s">
-        <v>7796</v>
       </c>
     </row>
     <row r="5294" spans="1:4" x14ac:dyDescent="0.25">
@@ -98781,13 +98979,13 @@
         <v>25214159</v>
       </c>
       <c r="B5294" t="s">
+        <v>7796</v>
+      </c>
+      <c r="C5294" t="s">
         <v>7797</v>
       </c>
-      <c r="C5294" t="s">
+      <c r="D5294" t="s">
         <v>7798</v>
-      </c>
-      <c r="D5294" t="s">
-        <v>7799</v>
       </c>
     </row>
     <row r="5295" spans="1:4" x14ac:dyDescent="0.25">
@@ -98795,13 +98993,13 @@
         <v>25204325</v>
       </c>
       <c r="B5295" t="s">
+        <v>7799</v>
+      </c>
+      <c r="C5295" t="s">
         <v>7800</v>
       </c>
-      <c r="C5295" t="s">
+      <c r="D5295" t="s">
         <v>7801</v>
-      </c>
-      <c r="D5295" t="s">
-        <v>7802</v>
       </c>
     </row>
     <row r="5296" spans="1:4" x14ac:dyDescent="0.25">
@@ -98809,13 +99007,13 @@
         <v>25208307</v>
       </c>
       <c r="B5296" t="s">
+        <v>7802</v>
+      </c>
+      <c r="C5296" t="s">
         <v>7803</v>
       </c>
-      <c r="C5296" t="s">
+      <c r="D5296" t="s">
         <v>7804</v>
-      </c>
-      <c r="D5296" t="s">
-        <v>7805</v>
       </c>
     </row>
     <row r="5297" spans="1:4" x14ac:dyDescent="0.25">
@@ -98823,13 +99021,13 @@
         <v>25213378</v>
       </c>
       <c r="B5297" t="s">
+        <v>7805</v>
+      </c>
+      <c r="C5297" t="s">
         <v>7806</v>
       </c>
-      <c r="C5297" t="s">
+      <c r="D5297" t="s">
         <v>7807</v>
-      </c>
-      <c r="D5297" t="s">
-        <v>7808</v>
       </c>
     </row>
     <row r="5298" spans="1:4" x14ac:dyDescent="0.25">
@@ -98837,13 +99035,13 @@
         <v>25207757</v>
       </c>
       <c r="B5298" t="s">
+        <v>7808</v>
+      </c>
+      <c r="C5298" t="s">
         <v>7809</v>
       </c>
-      <c r="C5298" t="s">
+      <c r="D5298" t="s">
         <v>7810</v>
-      </c>
-      <c r="D5298" t="s">
-        <v>7811</v>
       </c>
     </row>
     <row r="5299" spans="1:4" x14ac:dyDescent="0.25">
@@ -98851,13 +99049,13 @@
         <v>25804980</v>
       </c>
       <c r="B5299" t="s">
+        <v>7811</v>
+      </c>
+      <c r="C5299" t="s">
         <v>7812</v>
       </c>
-      <c r="C5299" t="s">
+      <c r="D5299" t="s">
         <v>7813</v>
-      </c>
-      <c r="D5299" t="s">
-        <v>7814</v>
       </c>
     </row>
     <row r="5300" spans="1:4" x14ac:dyDescent="0.25">
@@ -98865,13 +99063,13 @@
         <v>25203160</v>
       </c>
       <c r="B5300" t="s">
+        <v>7814</v>
+      </c>
+      <c r="C5300" t="s">
         <v>7815</v>
       </c>
-      <c r="C5300" t="s">
+      <c r="D5300" t="s">
         <v>7816</v>
-      </c>
-      <c r="D5300" t="s">
-        <v>7817</v>
       </c>
     </row>
     <row r="5301" spans="1:4" x14ac:dyDescent="0.25">
@@ -98879,13 +99077,13 @@
         <v>25203126</v>
       </c>
       <c r="B5301" t="s">
+        <v>7817</v>
+      </c>
+      <c r="C5301" t="s">
         <v>7818</v>
       </c>
-      <c r="C5301" t="s">
+      <c r="D5301" t="s">
         <v>7819</v>
-      </c>
-      <c r="D5301" t="s">
-        <v>7820</v>
       </c>
     </row>
     <row r="5302" spans="1:4" x14ac:dyDescent="0.25">
@@ -98893,13 +99091,13 @@
         <v>25208550</v>
       </c>
       <c r="B5302" t="s">
+        <v>7820</v>
+      </c>
+      <c r="C5302" t="s">
         <v>7821</v>
       </c>
-      <c r="C5302" t="s">
+      <c r="D5302" t="s">
         <v>7822</v>
-      </c>
-      <c r="D5302" t="s">
-        <v>7823</v>
       </c>
     </row>
     <row r="5303" spans="1:4" x14ac:dyDescent="0.25">
@@ -98907,10 +99105,10 @@
         <v>25204677</v>
       </c>
       <c r="B5303" t="s">
+        <v>7823</v>
+      </c>
+      <c r="C5303" t="s">
         <v>7824</v>
-      </c>
-      <c r="C5303" t="s">
-        <v>7825</v>
       </c>
       <c r="D5303" t="s">
         <v>5034</v>
@@ -98921,13 +99119,13 @@
         <v>25200992</v>
       </c>
       <c r="B5304" t="s">
+        <v>7825</v>
+      </c>
+      <c r="C5304" t="s">
         <v>7826</v>
       </c>
-      <c r="C5304" t="s">
+      <c r="D5304" t="s">
         <v>7827</v>
-      </c>
-      <c r="D5304" t="s">
-        <v>7828</v>
       </c>
     </row>
     <row r="5305" spans="1:4" x14ac:dyDescent="0.25">
@@ -98935,13 +99133,13 @@
         <v>25206822</v>
       </c>
       <c r="B5305" t="s">
+        <v>7828</v>
+      </c>
+      <c r="C5305" t="s">
         <v>7829</v>
       </c>
-      <c r="C5305" t="s">
+      <c r="D5305" t="s">
         <v>7830</v>
-      </c>
-      <c r="D5305" t="s">
-        <v>7831</v>
       </c>
     </row>
     <row r="5306" spans="1:4" x14ac:dyDescent="0.25">
@@ -98949,13 +99147,13 @@
         <v>25213587</v>
       </c>
       <c r="B5306" t="s">
+        <v>7831</v>
+      </c>
+      <c r="C5306" t="s">
         <v>7832</v>
       </c>
-      <c r="C5306" t="s">
+      <c r="D5306" t="s">
         <v>7833</v>
-      </c>
-      <c r="D5306" t="s">
-        <v>7834</v>
       </c>
     </row>
     <row r="5307" spans="1:4" x14ac:dyDescent="0.25">
@@ -98963,13 +99161,13 @@
         <v>25209396</v>
       </c>
       <c r="B5307" t="s">
+        <v>7834</v>
+      </c>
+      <c r="C5307" t="s">
         <v>7835</v>
       </c>
-      <c r="C5307" t="s">
+      <c r="D5307" t="s">
         <v>7836</v>
-      </c>
-      <c r="D5307" t="s">
-        <v>7837</v>
       </c>
     </row>
     <row r="5308" spans="1:4" x14ac:dyDescent="0.25">
@@ -98977,13 +99175,13 @@
         <v>17032813</v>
       </c>
       <c r="B5308" t="s">
+        <v>7837</v>
+      </c>
+      <c r="C5308" t="s">
         <v>7838</v>
       </c>
-      <c r="C5308" t="s">
+      <c r="D5308" t="s">
         <v>7839</v>
-      </c>
-      <c r="D5308" t="s">
-        <v>7840</v>
       </c>
     </row>
     <row r="5309" spans="1:4" x14ac:dyDescent="0.25">
@@ -98991,13 +99189,13 @@
         <v>25204237</v>
       </c>
       <c r="B5309" t="s">
+        <v>7840</v>
+      </c>
+      <c r="C5309" t="s">
         <v>7841</v>
       </c>
-      <c r="C5309" t="s">
+      <c r="D5309" t="s">
         <v>7842</v>
-      </c>
-      <c r="D5309" t="s">
-        <v>7843</v>
       </c>
     </row>
     <row r="5310" spans="1:4" x14ac:dyDescent="0.25">
@@ -99005,13 +99203,13 @@
         <v>25202048</v>
       </c>
       <c r="B5310" t="s">
-        <v>7844</v>
+        <v>7843</v>
       </c>
       <c r="C5310" t="s">
         <v>5124</v>
       </c>
       <c r="D5310" t="s">
-        <v>7845</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="5311" spans="1:4" x14ac:dyDescent="0.25">
@@ -99019,13 +99217,13 @@
         <v>25202147</v>
       </c>
       <c r="B5311" t="s">
+        <v>7845</v>
+      </c>
+      <c r="C5311" t="s">
         <v>7846</v>
       </c>
-      <c r="C5311" t="s">
+      <c r="D5311" t="s">
         <v>7847</v>
-      </c>
-      <c r="D5311" t="s">
-        <v>7848</v>
       </c>
     </row>
     <row r="5312" spans="1:4" x14ac:dyDescent="0.25">
@@ -99033,13 +99231,13 @@
         <v>25209319</v>
       </c>
       <c r="B5312" t="s">
+        <v>7848</v>
+      </c>
+      <c r="C5312" t="s">
         <v>7849</v>
       </c>
-      <c r="C5312" t="s">
+      <c r="D5312" t="s">
         <v>7850</v>
-      </c>
-      <c r="D5312" t="s">
-        <v>7851</v>
       </c>
     </row>
     <row r="5313" spans="1:4" x14ac:dyDescent="0.25">
@@ -99047,13 +99245,13 @@
         <v>25204270</v>
       </c>
       <c r="B5313" t="s">
+        <v>7851</v>
+      </c>
+      <c r="C5313" t="s">
         <v>7852</v>
       </c>
-      <c r="C5313" t="s">
+      <c r="D5313" t="s">
         <v>7853</v>
-      </c>
-      <c r="D5313" t="s">
-        <v>7854</v>
       </c>
     </row>
     <row r="5314" spans="1:4" x14ac:dyDescent="0.25">
@@ -99061,13 +99259,13 @@
         <v>24211805</v>
       </c>
       <c r="B5314" t="s">
+        <v>7854</v>
+      </c>
+      <c r="C5314" t="s">
         <v>7855</v>
       </c>
-      <c r="C5314" t="s">
+      <c r="D5314" t="s">
         <v>7856</v>
-      </c>
-      <c r="D5314" t="s">
-        <v>7857</v>
       </c>
     </row>
     <row r="5315" spans="1:4" x14ac:dyDescent="0.25">
@@ -99075,13 +99273,13 @@
         <v>25211442</v>
       </c>
       <c r="B5315" t="s">
+        <v>7857</v>
+      </c>
+      <c r="C5315" t="s">
         <v>7858</v>
       </c>
-      <c r="C5315" t="s">
+      <c r="D5315" t="s">
         <v>7859</v>
-      </c>
-      <c r="D5315" t="s">
-        <v>7860</v>
       </c>
     </row>
     <row r="5316" spans="1:4" x14ac:dyDescent="0.25">
@@ -99089,13 +99287,13 @@
         <v>25201509</v>
       </c>
       <c r="B5316" t="s">
+        <v>7860</v>
+      </c>
+      <c r="C5316" t="s">
         <v>7861</v>
       </c>
-      <c r="C5316" t="s">
+      <c r="D5316" t="s">
         <v>7862</v>
-      </c>
-      <c r="D5316" t="s">
-        <v>7863</v>
       </c>
     </row>
     <row r="5317" spans="1:4" x14ac:dyDescent="0.25">
@@ -99103,13 +99301,13 @@
         <v>19904057</v>
       </c>
       <c r="B5317" t="s">
+        <v>7863</v>
+      </c>
+      <c r="C5317" t="s">
         <v>7864</v>
       </c>
-      <c r="C5317" t="s">
+      <c r="D5317" t="s">
         <v>7865</v>
-      </c>
-      <c r="D5317" t="s">
-        <v>7866</v>
       </c>
     </row>
     <row r="5318" spans="1:4" x14ac:dyDescent="0.25">
@@ -99117,13 +99315,13 @@
         <v>25203555</v>
       </c>
       <c r="B5318" t="s">
+        <v>7866</v>
+      </c>
+      <c r="C5318" t="s">
         <v>7867</v>
       </c>
-      <c r="C5318" t="s">
+      <c r="D5318" t="s">
         <v>7868</v>
-      </c>
-      <c r="D5318" t="s">
-        <v>7869</v>
       </c>
     </row>
     <row r="5319" spans="1:4" x14ac:dyDescent="0.25">
@@ -99131,13 +99329,13 @@
         <v>25205414</v>
       </c>
       <c r="B5319" t="s">
-        <v>7870</v>
+        <v>7869</v>
       </c>
       <c r="C5319" t="s">
         <v>518</v>
       </c>
       <c r="D5319" t="s">
-        <v>7871</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="5320" spans="1:4" x14ac:dyDescent="0.25">
@@ -99145,13 +99343,13 @@
         <v>25214270</v>
       </c>
       <c r="B5320" t="s">
+        <v>7871</v>
+      </c>
+      <c r="C5320" t="s">
         <v>7872</v>
       </c>
-      <c r="C5320" t="s">
+      <c r="D5320" t="s">
         <v>7873</v>
-      </c>
-      <c r="D5320" t="s">
-        <v>7874</v>
       </c>
     </row>
     <row r="5321" spans="1:4" x14ac:dyDescent="0.25">
@@ -99159,10 +99357,10 @@
         <v>25214335</v>
       </c>
       <c r="B5321" t="s">
+        <v>7874</v>
+      </c>
+      <c r="C5321" t="s">
         <v>7875</v>
-      </c>
-      <c r="C5321" t="s">
-        <v>7876</v>
       </c>
       <c r="D5321" t="s">
         <v>5372</v>
@@ -99173,7 +99371,7 @@
         <v>25208527</v>
       </c>
       <c r="B5322" t="s">
-        <v>7877</v>
+        <v>7876</v>
       </c>
       <c r="C5322" t="s">
         <v>5875</v>
@@ -99187,13 +99385,13 @@
         <v>25214885</v>
       </c>
       <c r="B5323" t="s">
+        <v>7877</v>
+      </c>
+      <c r="C5323" t="s">
         <v>7878</v>
       </c>
-      <c r="C5323" t="s">
+      <c r="D5323" t="s">
         <v>7879</v>
-      </c>
-      <c r="D5323" t="s">
-        <v>7880</v>
       </c>
     </row>
     <row r="5324" spans="1:4" x14ac:dyDescent="0.25">
@@ -99201,13 +99399,13 @@
         <v>25209484</v>
       </c>
       <c r="B5324" t="s">
+        <v>7880</v>
+      </c>
+      <c r="C5324" t="s">
         <v>7881</v>
       </c>
-      <c r="C5324" t="s">
+      <c r="D5324" t="s">
         <v>7882</v>
-      </c>
-      <c r="D5324" t="s">
-        <v>7883</v>
       </c>
     </row>
     <row r="5325" spans="1:4" x14ac:dyDescent="0.25">
@@ -99215,13 +99413,13 @@
         <v>25211706</v>
       </c>
       <c r="B5325" t="s">
+        <v>7883</v>
+      </c>
+      <c r="C5325" t="s">
         <v>7884</v>
       </c>
-      <c r="C5325" t="s">
+      <c r="D5325" t="s">
         <v>7885</v>
-      </c>
-      <c r="D5325" t="s">
-        <v>7886</v>
       </c>
     </row>
     <row r="5326" spans="1:4" x14ac:dyDescent="0.25">
@@ -99229,13 +99427,13 @@
         <v>25207515</v>
       </c>
       <c r="B5326" t="s">
-        <v>7887</v>
+        <v>7886</v>
       </c>
       <c r="C5326" t="s">
         <v>6151</v>
       </c>
       <c r="D5326" t="s">
-        <v>7888</v>
+        <v>7887</v>
       </c>
     </row>
     <row r="5327" spans="1:4" x14ac:dyDescent="0.25">
@@ -99243,13 +99441,13 @@
         <v>25204215</v>
       </c>
       <c r="B5327" t="s">
+        <v>7888</v>
+      </c>
+      <c r="C5327" t="s">
         <v>7889</v>
       </c>
-      <c r="C5327" t="s">
+      <c r="D5327" t="s">
         <v>7890</v>
-      </c>
-      <c r="D5327" t="s">
-        <v>7891</v>
       </c>
     </row>
     <row r="5328" spans="1:4" x14ac:dyDescent="0.25">
@@ -99257,13 +99455,13 @@
         <v>25204666</v>
       </c>
       <c r="B5328" t="s">
+        <v>7891</v>
+      </c>
+      <c r="C5328" t="s">
         <v>7892</v>
       </c>
-      <c r="C5328" t="s">
+      <c r="D5328" t="s">
         <v>7893</v>
-      </c>
-      <c r="D5328" t="s">
-        <v>7894</v>
       </c>
     </row>
     <row r="5329" spans="1:4" x14ac:dyDescent="0.25">
@@ -99271,10 +99469,10 @@
         <v>25211376</v>
       </c>
       <c r="B5329" t="s">
+        <v>7894</v>
+      </c>
+      <c r="C5329" t="s">
         <v>7895</v>
-      </c>
-      <c r="C5329" t="s">
-        <v>7896</v>
       </c>
       <c r="D5329" t="s">
         <v>596</v>
@@ -99285,13 +99483,13 @@
         <v>25214852</v>
       </c>
       <c r="B5330" t="s">
+        <v>7896</v>
+      </c>
+      <c r="C5330" t="s">
         <v>7897</v>
       </c>
-      <c r="C5330" t="s">
+      <c r="D5330" t="s">
         <v>7898</v>
-      </c>
-      <c r="D5330" t="s">
-        <v>7899</v>
       </c>
     </row>
     <row r="5331" spans="1:4" x14ac:dyDescent="0.25">
@@ -99299,13 +99497,13 @@
         <v>25209242</v>
       </c>
       <c r="B5331" t="s">
+        <v>7899</v>
+      </c>
+      <c r="C5331" t="s">
         <v>7900</v>
       </c>
-      <c r="C5331" t="s">
+      <c r="D5331" t="s">
         <v>7901</v>
-      </c>
-      <c r="D5331" t="s">
-        <v>7902</v>
       </c>
     </row>
     <row r="5332" spans="1:4" x14ac:dyDescent="0.25">
@@ -99313,13 +99511,13 @@
         <v>25208681</v>
       </c>
       <c r="B5332" t="s">
+        <v>7902</v>
+      </c>
+      <c r="C5332" t="s">
         <v>7903</v>
       </c>
-      <c r="C5332" t="s">
+      <c r="D5332" t="s">
         <v>7904</v>
-      </c>
-      <c r="D5332" t="s">
-        <v>7905</v>
       </c>
     </row>
     <row r="5333" spans="1:4" x14ac:dyDescent="0.25">
@@ -99327,13 +99525,13 @@
         <v>25200563</v>
       </c>
       <c r="B5333" t="s">
+        <v>7905</v>
+      </c>
+      <c r="C5333" t="s">
         <v>7906</v>
       </c>
-      <c r="C5333" t="s">
+      <c r="D5333" t="s">
         <v>7907</v>
-      </c>
-      <c r="D5333" t="s">
-        <v>7908</v>
       </c>
     </row>
     <row r="5334" spans="1:4" x14ac:dyDescent="0.25">
@@ -99341,13 +99539,13 @@
         <v>25203600</v>
       </c>
       <c r="B5334" t="s">
+        <v>7908</v>
+      </c>
+      <c r="C5334" t="s">
         <v>7909</v>
       </c>
-      <c r="C5334" t="s">
+      <c r="D5334" t="s">
         <v>7910</v>
-      </c>
-      <c r="D5334" t="s">
-        <v>7911</v>
       </c>
     </row>
     <row r="5335" spans="1:4" x14ac:dyDescent="0.25">
@@ -99355,13 +99553,13 @@
         <v>25209165</v>
       </c>
       <c r="B5335" t="s">
+        <v>7911</v>
+      </c>
+      <c r="C5335" t="s">
         <v>7912</v>
       </c>
-      <c r="C5335" t="s">
+      <c r="D5335" t="s">
         <v>7913</v>
-      </c>
-      <c r="D5335" t="s">
-        <v>7914</v>
       </c>
     </row>
     <row r="5336" spans="1:4" x14ac:dyDescent="0.25">
@@ -99369,13 +99567,13 @@
         <v>25201916</v>
       </c>
       <c r="B5336" t="s">
+        <v>7914</v>
+      </c>
+      <c r="C5336" t="s">
         <v>7915</v>
       </c>
-      <c r="C5336" t="s">
+      <c r="D5336" t="s">
         <v>7916</v>
-      </c>
-      <c r="D5336" t="s">
-        <v>7917</v>
       </c>
     </row>
     <row r="5337" spans="1:4" x14ac:dyDescent="0.25">
@@ -99383,13 +99581,13 @@
         <v>25206800</v>
       </c>
       <c r="B5337" t="s">
+        <v>7917</v>
+      </c>
+      <c r="C5337" t="s">
         <v>7918</v>
       </c>
-      <c r="C5337" t="s">
+      <c r="D5337" t="s">
         <v>7919</v>
-      </c>
-      <c r="D5337" t="s">
-        <v>7920</v>
       </c>
     </row>
     <row r="5338" spans="1:4" x14ac:dyDescent="0.25">
@@ -99397,13 +99595,13 @@
         <v>25205546</v>
       </c>
       <c r="B5338" t="s">
+        <v>7920</v>
+      </c>
+      <c r="C5338" t="s">
         <v>7921</v>
       </c>
-      <c r="C5338" t="s">
+      <c r="D5338" t="s">
         <v>7922</v>
-      </c>
-      <c r="D5338" t="s">
-        <v>7923</v>
       </c>
     </row>
     <row r="5339" spans="1:4" x14ac:dyDescent="0.25">
@@ -99411,13 +99609,13 @@
         <v>25205777</v>
       </c>
       <c r="B5339" t="s">
+        <v>7923</v>
+      </c>
+      <c r="C5339" t="s">
         <v>7924</v>
       </c>
-      <c r="C5339" t="s">
+      <c r="D5339" t="s">
         <v>7925</v>
-      </c>
-      <c r="D5339" t="s">
-        <v>7926</v>
       </c>
     </row>
     <row r="5340" spans="1:4" x14ac:dyDescent="0.25">
@@ -99425,10 +99623,10 @@
         <v>25207625</v>
       </c>
       <c r="B5340" t="s">
+        <v>7926</v>
+      </c>
+      <c r="C5340" t="s">
         <v>7927</v>
-      </c>
-      <c r="C5340" t="s">
-        <v>7928</v>
       </c>
       <c r="D5340" t="s">
         <v>688</v>
@@ -99439,13 +99637,13 @@
         <v>25213532</v>
       </c>
       <c r="B5341" t="s">
-        <v>7929</v>
+        <v>7928</v>
       </c>
       <c r="C5341" t="s">
         <v>6186</v>
       </c>
       <c r="D5341" t="s">
-        <v>7930</v>
+        <v>7929</v>
       </c>
     </row>
     <row r="5342" spans="1:4" x14ac:dyDescent="0.25">
@@ -99453,13 +99651,13 @@
         <v>25202202</v>
       </c>
       <c r="B5342" t="s">
+        <v>7930</v>
+      </c>
+      <c r="C5342" t="s">
         <v>7931</v>
       </c>
-      <c r="C5342" t="s">
+      <c r="D5342" t="s">
         <v>7932</v>
-      </c>
-      <c r="D5342" t="s">
-        <v>7933</v>
       </c>
     </row>
     <row r="5343" spans="1:4" x14ac:dyDescent="0.25">
@@ -99467,13 +99665,13 @@
         <v>25204150</v>
       </c>
       <c r="B5343" t="s">
+        <v>7933</v>
+      </c>
+      <c r="C5343" t="s">
         <v>7934</v>
       </c>
-      <c r="C5343" t="s">
+      <c r="D5343" t="s">
         <v>7935</v>
-      </c>
-      <c r="D5343" t="s">
-        <v>7936</v>
       </c>
     </row>
     <row r="5344" spans="1:4" x14ac:dyDescent="0.25">
@@ -99481,13 +99679,13 @@
         <v>25210199</v>
       </c>
       <c r="B5344" t="s">
+        <v>7936</v>
+      </c>
+      <c r="C5344" t="s">
         <v>7937</v>
       </c>
-      <c r="C5344" t="s">
+      <c r="D5344" t="s">
         <v>7938</v>
-      </c>
-      <c r="D5344" t="s">
-        <v>7939</v>
       </c>
     </row>
     <row r="5345" spans="1:4" x14ac:dyDescent="0.25">
@@ -99495,13 +99693,13 @@
         <v>25209209</v>
       </c>
       <c r="B5345" t="s">
+        <v>7939</v>
+      </c>
+      <c r="C5345" t="s">
         <v>7940</v>
       </c>
-      <c r="C5345" t="s">
+      <c r="D5345" t="s">
         <v>7941</v>
-      </c>
-      <c r="D5345" t="s">
-        <v>7942</v>
       </c>
     </row>
     <row r="5346" spans="1:4" x14ac:dyDescent="0.25">
@@ -99509,13 +99707,13 @@
         <v>18014300</v>
       </c>
       <c r="B5346" t="s">
-        <v>7943</v>
+        <v>7942</v>
       </c>
       <c r="C5346" t="s">
         <v>245</v>
       </c>
       <c r="D5346" t="s">
-        <v>7107</v>
+        <v>7106</v>
       </c>
     </row>
     <row r="5347" spans="1:4" x14ac:dyDescent="0.25">
@@ -99523,13 +99721,13 @@
         <v>25207724</v>
       </c>
       <c r="B5347" t="s">
+        <v>7943</v>
+      </c>
+      <c r="C5347" t="s">
         <v>7944</v>
       </c>
-      <c r="C5347" t="s">
+      <c r="D5347" t="s">
         <v>7945</v>
-      </c>
-      <c r="D5347" t="s">
-        <v>7946</v>
       </c>
     </row>
     <row r="5348" spans="1:4" x14ac:dyDescent="0.25">
@@ -99537,13 +99735,13 @@
         <v>25201542</v>
       </c>
       <c r="B5348" t="s">
+        <v>7946</v>
+      </c>
+      <c r="C5348" t="s">
         <v>7947</v>
       </c>
-      <c r="C5348" t="s">
+      <c r="D5348" t="s">
         <v>7948</v>
-      </c>
-      <c r="D5348" t="s">
-        <v>7949</v>
       </c>
     </row>
     <row r="5349" spans="1:4" x14ac:dyDescent="0.25">
@@ -99551,13 +99749,13 @@
         <v>25205931</v>
       </c>
       <c r="B5349" t="s">
-        <v>7950</v>
+        <v>7949</v>
       </c>
       <c r="C5349" t="s">
         <v>96</v>
       </c>
       <c r="D5349" t="s">
-        <v>7951</v>
+        <v>7950</v>
       </c>
     </row>
     <row r="5350" spans="1:4" x14ac:dyDescent="0.25">
@@ -99565,13 +99763,13 @@
         <v>25209650</v>
       </c>
       <c r="B5350" t="s">
+        <v>7951</v>
+      </c>
+      <c r="C5350" t="s">
         <v>7952</v>
       </c>
-      <c r="C5350" t="s">
+      <c r="D5350" t="s">
         <v>7953</v>
-      </c>
-      <c r="D5350" t="s">
-        <v>7954</v>
       </c>
     </row>
     <row r="5351" spans="1:4" x14ac:dyDescent="0.25">
@@ -99579,13 +99777,13 @@
         <v>25205722</v>
       </c>
       <c r="B5351" t="s">
+        <v>7954</v>
+      </c>
+      <c r="C5351" t="s">
         <v>7955</v>
       </c>
-      <c r="C5351" t="s">
+      <c r="D5351" t="s">
         <v>7956</v>
-      </c>
-      <c r="D5351" t="s">
-        <v>7957</v>
       </c>
     </row>
     <row r="5352" spans="1:4" x14ac:dyDescent="0.25">
@@ -99593,13 +99791,13 @@
         <v>25201344</v>
       </c>
       <c r="B5352" t="s">
+        <v>7957</v>
+      </c>
+      <c r="C5352" t="s">
         <v>7958</v>
       </c>
-      <c r="C5352" t="s">
+      <c r="D5352" t="s">
         <v>7959</v>
-      </c>
-      <c r="D5352" t="s">
-        <v>7960</v>
       </c>
     </row>
     <row r="5353" spans="1:4" x14ac:dyDescent="0.25">
@@ -99607,13 +99805,13 @@
         <v>25206294</v>
       </c>
       <c r="B5353" t="s">
+        <v>7960</v>
+      </c>
+      <c r="C5353" t="s">
         <v>7961</v>
       </c>
-      <c r="C5353" t="s">
+      <c r="D5353" t="s">
         <v>7962</v>
-      </c>
-      <c r="D5353" t="s">
-        <v>7963</v>
       </c>
     </row>
     <row r="5354" spans="1:4" x14ac:dyDescent="0.25">
@@ -99621,13 +99819,13 @@
         <v>25214456</v>
       </c>
       <c r="B5354" t="s">
+        <v>7963</v>
+      </c>
+      <c r="C5354" t="s">
         <v>7964</v>
       </c>
-      <c r="C5354" t="s">
+      <c r="D5354" t="s">
         <v>7965</v>
-      </c>
-      <c r="D5354" t="s">
-        <v>7966</v>
       </c>
     </row>
     <row r="5355" spans="1:4" x14ac:dyDescent="0.25">
@@ -99635,13 +99833,13 @@
         <v>25200156</v>
       </c>
       <c r="B5355" t="s">
+        <v>7966</v>
+      </c>
+      <c r="C5355" t="s">
         <v>7967</v>
       </c>
-      <c r="C5355" t="s">
+      <c r="D5355" t="s">
         <v>7968</v>
-      </c>
-      <c r="D5355" t="s">
-        <v>7969</v>
       </c>
     </row>
     <row r="5356" spans="1:4" x14ac:dyDescent="0.25">
@@ -99649,13 +99847,13 @@
         <v>25202917</v>
       </c>
       <c r="B5356" t="s">
+        <v>7969</v>
+      </c>
+      <c r="C5356" t="s">
         <v>7970</v>
       </c>
-      <c r="C5356" t="s">
+      <c r="D5356" t="s">
         <v>7971</v>
-      </c>
-      <c r="D5356" t="s">
-        <v>7972</v>
       </c>
     </row>
     <row r="5357" spans="1:4" x14ac:dyDescent="0.25">
@@ -99663,13 +99861,13 @@
         <v>25203467</v>
       </c>
       <c r="B5357" t="s">
+        <v>7972</v>
+      </c>
+      <c r="C5357" t="s">
         <v>7973</v>
       </c>
-      <c r="C5357" t="s">
+      <c r="D5357" t="s">
         <v>7974</v>
-      </c>
-      <c r="D5357" t="s">
-        <v>7975</v>
       </c>
     </row>
     <row r="5358" spans="1:4" x14ac:dyDescent="0.25">
@@ -99677,13 +99875,13 @@
         <v>25203797</v>
       </c>
       <c r="B5358" t="s">
+        <v>7975</v>
+      </c>
+      <c r="C5358" t="s">
         <v>7976</v>
       </c>
-      <c r="C5358" t="s">
+      <c r="D5358" t="s">
         <v>7977</v>
-      </c>
-      <c r="D5358" t="s">
-        <v>7978</v>
       </c>
     </row>
     <row r="5359" spans="1:4" x14ac:dyDescent="0.25">
@@ -99691,13 +99889,13 @@
         <v>24901263</v>
       </c>
       <c r="B5359" t="s">
+        <v>7978</v>
+      </c>
+      <c r="C5359" t="s">
         <v>7979</v>
       </c>
-      <c r="C5359" t="s">
+      <c r="D5359" t="s">
         <v>7980</v>
-      </c>
-      <c r="D5359" t="s">
-        <v>7981</v>
       </c>
     </row>
     <row r="5360" spans="1:4" x14ac:dyDescent="0.25">
@@ -99705,10 +99903,10 @@
         <v>25212707</v>
       </c>
       <c r="B5360" t="s">
+        <v>7981</v>
+      </c>
+      <c r="C5360" t="s">
         <v>7982</v>
-      </c>
-      <c r="C5360" t="s">
-        <v>7983</v>
       </c>
       <c r="D5360" t="s">
         <v>1203</v>
@@ -99719,13 +99917,13 @@
         <v>25202576</v>
       </c>
       <c r="B5361" t="s">
-        <v>7984</v>
+        <v>7983</v>
       </c>
       <c r="C5361" t="s">
         <v>1975</v>
       </c>
       <c r="D5361" t="s">
-        <v>7985</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="5362" spans="1:4" x14ac:dyDescent="0.25">
@@ -99733,13 +99931,13 @@
         <v>25218230</v>
       </c>
       <c r="B5362" t="s">
+        <v>7985</v>
+      </c>
+      <c r="C5362" t="s">
         <v>7986</v>
       </c>
-      <c r="C5362" t="s">
+      <c r="D5362" t="s">
         <v>7987</v>
-      </c>
-      <c r="D5362" t="s">
-        <v>7988</v>
       </c>
     </row>
     <row r="5363" spans="1:4" x14ac:dyDescent="0.25">
@@ -99747,13 +99945,13 @@
         <v>25215248</v>
       </c>
       <c r="B5363" t="s">
+        <v>7988</v>
+      </c>
+      <c r="C5363" t="s">
         <v>7989</v>
       </c>
-      <c r="C5363" t="s">
+      <c r="D5363" t="s">
         <v>7990</v>
-      </c>
-      <c r="D5363" t="s">
-        <v>7991</v>
       </c>
     </row>
     <row r="5364" spans="1:4" x14ac:dyDescent="0.25">
@@ -99761,13 +99959,13 @@
         <v>25303424</v>
       </c>
       <c r="B5364" t="s">
+        <v>7991</v>
+      </c>
+      <c r="C5364" t="s">
         <v>7992</v>
       </c>
-      <c r="C5364" t="s">
+      <c r="D5364" t="s">
         <v>7993</v>
-      </c>
-      <c r="D5364" t="s">
-        <v>7994</v>
       </c>
     </row>
     <row r="5365" spans="1:4" x14ac:dyDescent="0.25">
@@ -99775,13 +99973,13 @@
         <v>25212575</v>
       </c>
       <c r="B5365" t="s">
+        <v>7994</v>
+      </c>
+      <c r="C5365" t="s">
         <v>7995</v>
       </c>
-      <c r="C5365" t="s">
+      <c r="D5365" t="s">
         <v>7996</v>
-      </c>
-      <c r="D5365" t="s">
-        <v>7997</v>
       </c>
     </row>
     <row r="5366" spans="1:4" x14ac:dyDescent="0.25">
@@ -99789,13 +99987,13 @@
         <v>25200960</v>
       </c>
       <c r="B5366" t="s">
+        <v>7997</v>
+      </c>
+      <c r="C5366" t="s">
         <v>7998</v>
       </c>
-      <c r="C5366" t="s">
+      <c r="D5366" t="s">
         <v>7999</v>
-      </c>
-      <c r="D5366" t="s">
-        <v>8000</v>
       </c>
     </row>
     <row r="5367" spans="1:4" x14ac:dyDescent="0.25">
@@ -99803,13 +100001,13 @@
         <v>25208560</v>
       </c>
       <c r="B5367" t="s">
+        <v>8000</v>
+      </c>
+      <c r="C5367" t="s">
         <v>8001</v>
       </c>
-      <c r="C5367" t="s">
+      <c r="D5367" t="s">
         <v>8002</v>
-      </c>
-      <c r="D5367" t="s">
-        <v>8003</v>
       </c>
     </row>
     <row r="5368" spans="1:4" x14ac:dyDescent="0.25">
@@ -99817,13 +100015,13 @@
         <v>25206525</v>
       </c>
       <c r="B5368" t="s">
+        <v>8003</v>
+      </c>
+      <c r="C5368" t="s">
         <v>8004</v>
       </c>
-      <c r="C5368" t="s">
+      <c r="D5368" t="s">
         <v>8005</v>
-      </c>
-      <c r="D5368" t="s">
-        <v>8006</v>
       </c>
     </row>
     <row r="5369" spans="1:4" x14ac:dyDescent="0.25">
@@ -99831,13 +100029,13 @@
         <v>25210090</v>
       </c>
       <c r="B5369" t="s">
+        <v>8006</v>
+      </c>
+      <c r="C5369" t="s">
         <v>8007</v>
       </c>
-      <c r="C5369" t="s">
+      <c r="D5369" t="s">
         <v>8008</v>
-      </c>
-      <c r="D5369" t="s">
-        <v>8009</v>
       </c>
     </row>
     <row r="5370" spans="1:4" x14ac:dyDescent="0.25">
@@ -99845,13 +100043,13 @@
         <v>25211134</v>
       </c>
       <c r="B5370" t="s">
+        <v>8009</v>
+      </c>
+      <c r="C5370" t="s">
         <v>8010</v>
       </c>
-      <c r="C5370" t="s">
+      <c r="D5370" t="s">
         <v>8011</v>
-      </c>
-      <c r="D5370" t="s">
-        <v>8012</v>
       </c>
     </row>
     <row r="5371" spans="1:4" x14ac:dyDescent="0.25">
@@ -99859,13 +100057,13 @@
         <v>24205788</v>
       </c>
       <c r="B5371" t="s">
+        <v>8012</v>
+      </c>
+      <c r="C5371" t="s">
         <v>8013</v>
       </c>
-      <c r="C5371" t="s">
+      <c r="D5371" t="s">
         <v>8014</v>
-      </c>
-      <c r="D5371" t="s">
-        <v>8015</v>
       </c>
     </row>
     <row r="5372" spans="1:4" x14ac:dyDescent="0.25">
@@ -99873,13 +100071,13 @@
         <v>25212751</v>
       </c>
       <c r="B5372" t="s">
+        <v>8015</v>
+      </c>
+      <c r="C5372" t="s">
         <v>8016</v>
       </c>
-      <c r="C5372" t="s">
+      <c r="D5372" t="s">
         <v>8017</v>
-      </c>
-      <c r="D5372" t="s">
-        <v>8018</v>
       </c>
     </row>
     <row r="5373" spans="1:4" x14ac:dyDescent="0.25">
@@ -99887,13 +100085,13 @@
         <v>23045859</v>
       </c>
       <c r="B5373" t="s">
+        <v>8018</v>
+      </c>
+      <c r="C5373" t="s">
         <v>8019</v>
       </c>
-      <c r="C5373" t="s">
+      <c r="D5373" t="s">
         <v>8020</v>
-      </c>
-      <c r="D5373" t="s">
-        <v>8021</v>
       </c>
     </row>
     <row r="5374" spans="1:4" x14ac:dyDescent="0.25">
@@ -99901,10 +100099,10 @@
         <v>25205326</v>
       </c>
       <c r="B5374" t="s">
+        <v>8021</v>
+      </c>
+      <c r="C5374" t="s">
         <v>8022</v>
-      </c>
-      <c r="C5374" t="s">
-        <v>8023</v>
       </c>
       <c r="D5374" t="s">
         <v>5623</v>
@@ -99915,13 +100113,13 @@
         <v>25203676</v>
       </c>
       <c r="B5375" t="s">
+        <v>8023</v>
+      </c>
+      <c r="C5375" t="s">
         <v>8024</v>
       </c>
-      <c r="C5375" t="s">
+      <c r="D5375" t="s">
         <v>8025</v>
-      </c>
-      <c r="D5375" t="s">
-        <v>8026</v>
       </c>
     </row>
     <row r="5376" spans="1:4" x14ac:dyDescent="0.25">
@@ -99929,13 +100127,13 @@
         <v>22018865</v>
       </c>
       <c r="B5376" t="s">
-        <v>8027</v>
+        <v>8026</v>
       </c>
       <c r="C5376" t="s">
         <v>506</v>
       </c>
       <c r="D5376" t="s">
-        <v>8028</v>
+        <v>8027</v>
       </c>
     </row>
     <row r="5377" spans="1:4" x14ac:dyDescent="0.25">
@@ -99943,13 +100141,13 @@
         <v>25210518</v>
       </c>
       <c r="B5377" t="s">
+        <v>8028</v>
+      </c>
+      <c r="C5377" t="s">
         <v>8029</v>
       </c>
-      <c r="C5377" t="s">
+      <c r="D5377" t="s">
         <v>8030</v>
-      </c>
-      <c r="D5377" t="s">
-        <v>8031</v>
       </c>
     </row>
     <row r="5378" spans="1:4" x14ac:dyDescent="0.25">
@@ -99957,13 +100155,13 @@
         <v>25201180</v>
       </c>
       <c r="B5378" t="s">
+        <v>8031</v>
+      </c>
+      <c r="C5378" t="s">
         <v>8032</v>
       </c>
-      <c r="C5378" t="s">
+      <c r="D5378" t="s">
         <v>8033</v>
-      </c>
-      <c r="D5378" t="s">
-        <v>8034</v>
       </c>
     </row>
     <row r="5379" spans="1:4" x14ac:dyDescent="0.25">
@@ -99971,13 +100169,13 @@
         <v>25207042</v>
       </c>
       <c r="B5379" t="s">
-        <v>8035</v>
+        <v>8034</v>
       </c>
       <c r="C5379" t="s">
         <v>5678</v>
       </c>
       <c r="D5379" t="s">
-        <v>8036</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="5380" spans="1:4" x14ac:dyDescent="0.25">
@@ -99985,13 +100183,13 @@
         <v>25802550</v>
       </c>
       <c r="B5380" t="s">
+        <v>8036</v>
+      </c>
+      <c r="C5380" t="s">
         <v>8037</v>
       </c>
-      <c r="C5380" t="s">
+      <c r="D5380" t="s">
         <v>8038</v>
-      </c>
-      <c r="D5380" t="s">
-        <v>8039</v>
       </c>
     </row>
     <row r="5381" spans="1:4" x14ac:dyDescent="0.25">
@@ -99999,13 +100197,13 @@
         <v>25213103</v>
       </c>
       <c r="B5381" t="s">
+        <v>8039</v>
+      </c>
+      <c r="C5381" t="s">
         <v>8040</v>
       </c>
-      <c r="C5381" t="s">
+      <c r="D5381" t="s">
         <v>8041</v>
-      </c>
-      <c r="D5381" t="s">
-        <v>8042</v>
       </c>
     </row>
     <row r="5382" spans="1:4" x14ac:dyDescent="0.25">
@@ -100013,13 +100211,13 @@
         <v>25212234</v>
       </c>
       <c r="B5382" t="s">
+        <v>8042</v>
+      </c>
+      <c r="C5382" t="s">
         <v>8043</v>
       </c>
-      <c r="C5382" t="s">
+      <c r="D5382" t="s">
         <v>8044</v>
-      </c>
-      <c r="D5382" t="s">
-        <v>8045</v>
       </c>
     </row>
     <row r="5383" spans="1:4" x14ac:dyDescent="0.25">
@@ -100027,13 +100225,13 @@
         <v>25212938</v>
       </c>
       <c r="B5383" t="s">
+        <v>8045</v>
+      </c>
+      <c r="C5383" t="s">
         <v>8046</v>
       </c>
-      <c r="C5383" t="s">
+      <c r="D5383" t="s">
         <v>8047</v>
-      </c>
-      <c r="D5383" t="s">
-        <v>8048</v>
       </c>
     </row>
     <row r="5384" spans="1:4" x14ac:dyDescent="0.25">
@@ -100041,13 +100239,13 @@
         <v>25202928</v>
       </c>
       <c r="B5384" t="s">
+        <v>8048</v>
+      </c>
+      <c r="C5384" t="s">
         <v>8049</v>
       </c>
-      <c r="C5384" t="s">
+      <c r="D5384" t="s">
         <v>8050</v>
-      </c>
-      <c r="D5384" t="s">
-        <v>8051</v>
       </c>
     </row>
     <row r="5385" spans="1:4" x14ac:dyDescent="0.25">
@@ -100055,13 +100253,13 @@
         <v>25206228</v>
       </c>
       <c r="B5385" t="s">
+        <v>8051</v>
+      </c>
+      <c r="C5385" t="s">
         <v>8052</v>
       </c>
-      <c r="C5385" t="s">
+      <c r="D5385" t="s">
         <v>8053</v>
-      </c>
-      <c r="D5385" t="s">
-        <v>8054</v>
       </c>
     </row>
     <row r="5386" spans="1:4" x14ac:dyDescent="0.25">
@@ -100069,13 +100267,13 @@
         <v>17203214</v>
       </c>
       <c r="B5386" t="s">
+        <v>8054</v>
+      </c>
+      <c r="C5386" t="s">
         <v>8055</v>
       </c>
-      <c r="C5386" t="s">
+      <c r="D5386" t="s">
         <v>8056</v>
-      </c>
-      <c r="D5386" t="s">
-        <v>8057</v>
       </c>
     </row>
     <row r="5387" spans="1:4" x14ac:dyDescent="0.25">
@@ -100083,13 +100281,13 @@
         <v>25212817</v>
       </c>
       <c r="B5387" t="s">
+        <v>8057</v>
+      </c>
+      <c r="C5387" t="s">
         <v>8058</v>
       </c>
-      <c r="C5387" t="s">
+      <c r="D5387" t="s">
         <v>8059</v>
-      </c>
-      <c r="D5387" t="s">
-        <v>8060</v>
       </c>
     </row>
     <row r="5388" spans="1:4" x14ac:dyDescent="0.25">
@@ -100097,13 +100295,13 @@
         <v>25208384</v>
       </c>
       <c r="B5388" t="s">
+        <v>8060</v>
+      </c>
+      <c r="C5388" t="s">
         <v>8061</v>
       </c>
-      <c r="C5388" t="s">
+      <c r="D5388" t="s">
         <v>8062</v>
-      </c>
-      <c r="D5388" t="s">
-        <v>8063</v>
       </c>
     </row>
     <row r="5389" spans="1:4" x14ac:dyDescent="0.25">
@@ -100111,13 +100309,13 @@
         <v>25213983</v>
       </c>
       <c r="B5389" t="s">
+        <v>8063</v>
+      </c>
+      <c r="C5389" t="s">
         <v>8064</v>
       </c>
-      <c r="C5389" t="s">
+      <c r="D5389" t="s">
         <v>8065</v>
-      </c>
-      <c r="D5389" t="s">
-        <v>8066</v>
       </c>
     </row>
     <row r="5390" spans="1:4" x14ac:dyDescent="0.25">
@@ -100125,13 +100323,13 @@
         <v>25213697</v>
       </c>
       <c r="B5390" t="s">
+        <v>8066</v>
+      </c>
+      <c r="C5390" t="s">
         <v>8067</v>
       </c>
-      <c r="C5390" t="s">
+      <c r="D5390" t="s">
         <v>8068</v>
-      </c>
-      <c r="D5390" t="s">
-        <v>8069</v>
       </c>
     </row>
     <row r="5391" spans="1:4" x14ac:dyDescent="0.25">
@@ -100139,13 +100337,13 @@
         <v>22204754</v>
       </c>
       <c r="B5391" t="s">
+        <v>8069</v>
+      </c>
+      <c r="C5391" t="s">
         <v>8070</v>
       </c>
-      <c r="C5391" t="s">
+      <c r="D5391" t="s">
         <v>8071</v>
-      </c>
-      <c r="D5391" t="s">
-        <v>8072</v>
       </c>
     </row>
     <row r="5392" spans="1:4" x14ac:dyDescent="0.25">
@@ -100153,10 +100351,10 @@
         <v>25805739</v>
       </c>
       <c r="B5392" t="s">
+        <v>8072</v>
+      </c>
+      <c r="C5392" t="s">
         <v>8073</v>
-      </c>
-      <c r="C5392" t="s">
-        <v>8074</v>
       </c>
       <c r="D5392" t="s">
         <v>5412</v>
@@ -100167,13 +100365,13 @@
         <v>25213851</v>
       </c>
       <c r="B5393" t="s">
+        <v>8074</v>
+      </c>
+      <c r="C5393" t="s">
         <v>8075</v>
       </c>
-      <c r="C5393" t="s">
+      <c r="D5393" t="s">
         <v>8076</v>
-      </c>
-      <c r="D5393" t="s">
-        <v>8077</v>
       </c>
     </row>
     <row r="5394" spans="1:4" x14ac:dyDescent="0.25">
@@ -100181,10 +100379,10 @@
         <v>25206239</v>
       </c>
       <c r="B5394" t="s">
+        <v>8077</v>
+      </c>
+      <c r="C5394" t="s">
         <v>8078</v>
-      </c>
-      <c r="C5394" t="s">
-        <v>8079</v>
       </c>
       <c r="D5394" t="s">
         <v>2247</v>
@@ -100195,13 +100393,13 @@
         <v>25208505</v>
       </c>
       <c r="B5395" t="s">
+        <v>8079</v>
+      </c>
+      <c r="C5395" t="s">
         <v>8080</v>
       </c>
-      <c r="C5395" t="s">
+      <c r="D5395" t="s">
         <v>8081</v>
-      </c>
-      <c r="D5395" t="s">
-        <v>8082</v>
       </c>
     </row>
     <row r="5396" spans="1:4" x14ac:dyDescent="0.25">
@@ -100209,13 +100407,13 @@
         <v>24402930</v>
       </c>
       <c r="B5396" t="s">
+        <v>8082</v>
+      </c>
+      <c r="C5396" t="s">
         <v>8083</v>
       </c>
-      <c r="C5396" t="s">
+      <c r="D5396" t="s">
         <v>8084</v>
-      </c>
-      <c r="D5396" t="s">
-        <v>8085</v>
       </c>
     </row>
     <row r="5397" spans="1:4" x14ac:dyDescent="0.25">
@@ -100223,13 +100421,13 @@
         <v>25205469</v>
       </c>
       <c r="B5397" t="s">
-        <v>8086</v>
+        <v>8085</v>
       </c>
       <c r="C5397" t="s">
         <v>353</v>
       </c>
       <c r="D5397" t="s">
-        <v>8087</v>
+        <v>8086</v>
       </c>
     </row>
     <row r="5398" spans="1:4" x14ac:dyDescent="0.25">
@@ -100237,13 +100435,377 @@
         <v>25206680</v>
       </c>
       <c r="B5398" t="s">
+        <v>8087</v>
+      </c>
+      <c r="C5398" t="s">
         <v>8088</v>
       </c>
-      <c r="C5398" t="s">
+      <c r="D5398" t="s">
         <v>8089</v>
       </c>
-      <c r="D5398" t="s">
+    </row>
+    <row r="5399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5399">
+        <v>25404570</v>
+      </c>
+      <c r="B5399" t="s">
         <v>8090</v>
+      </c>
+      <c r="C5399" t="s">
+        <v>8091</v>
+      </c>
+      <c r="D5399" t="s">
+        <v>8092</v>
+      </c>
+    </row>
+    <row r="5400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5400">
+        <v>25406527</v>
+      </c>
+      <c r="B5400" t="s">
+        <v>8093</v>
+      </c>
+      <c r="C5400" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D5400" t="s">
+        <v>8094</v>
+      </c>
+    </row>
+    <row r="5401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5401">
+        <v>21049863</v>
+      </c>
+      <c r="B5401" t="s">
+        <v>8095</v>
+      </c>
+      <c r="C5401" t="s">
+        <v>8096</v>
+      </c>
+      <c r="D5401" t="s">
+        <v>8097</v>
+      </c>
+    </row>
+    <row r="5402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5402">
+        <v>25402204</v>
+      </c>
+      <c r="B5402" t="s">
+        <v>8098</v>
+      </c>
+      <c r="C5402" t="s">
+        <v>8099</v>
+      </c>
+      <c r="D5402" t="s">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="5403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5403">
+        <v>25401401</v>
+      </c>
+      <c r="B5403" t="s">
+        <v>8101</v>
+      </c>
+      <c r="C5403" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D5403" t="s">
+        <v>8102</v>
+      </c>
+    </row>
+    <row r="5404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5404">
+        <v>25412830</v>
+      </c>
+      <c r="B5404" t="s">
+        <v>8103</v>
+      </c>
+      <c r="C5404" t="s">
+        <v>8104</v>
+      </c>
+      <c r="D5404" t="s">
+        <v>8105</v>
+      </c>
+    </row>
+    <row r="5405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5405">
+        <v>25414821</v>
+      </c>
+      <c r="B5405" t="s">
+        <v>8106</v>
+      </c>
+      <c r="C5405" t="s">
+        <v>8107</v>
+      </c>
+      <c r="D5405" t="s">
+        <v>8108</v>
+      </c>
+    </row>
+    <row r="5406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5406">
+        <v>25409046</v>
+      </c>
+      <c r="B5406" t="s">
+        <v>8109</v>
+      </c>
+      <c r="C5406" t="s">
+        <v>8110</v>
+      </c>
+      <c r="D5406" t="s">
+        <v>8111</v>
+      </c>
+    </row>
+    <row r="5407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5407">
+        <v>25405185</v>
+      </c>
+      <c r="B5407" t="s">
+        <v>8112</v>
+      </c>
+      <c r="C5407" t="s">
+        <v>8113</v>
+      </c>
+      <c r="D5407" t="s">
+        <v>8114</v>
+      </c>
+    </row>
+    <row r="5408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5408">
+        <v>25406307</v>
+      </c>
+      <c r="B5408" t="s">
+        <v>8115</v>
+      </c>
+      <c r="C5408" t="s">
+        <v>8116</v>
+      </c>
+      <c r="D5408" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5409">
+        <v>25402457</v>
+      </c>
+      <c r="B5409" t="s">
+        <v>8117</v>
+      </c>
+      <c r="C5409" t="s">
+        <v>8118</v>
+      </c>
+      <c r="D5409" t="s">
+        <v>8119</v>
+      </c>
+    </row>
+    <row r="5410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5410">
+        <v>25401863</v>
+      </c>
+      <c r="B5410" t="s">
+        <v>8120</v>
+      </c>
+      <c r="C5410" t="s">
+        <v>4204</v>
+      </c>
+      <c r="D5410" t="s">
+        <v>8121</v>
+      </c>
+    </row>
+    <row r="5411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5411">
+        <v>25404745</v>
+      </c>
+      <c r="B5411" t="s">
+        <v>8122</v>
+      </c>
+      <c r="C5411" t="s">
+        <v>8123</v>
+      </c>
+      <c r="D5411" t="s">
+        <v>8124</v>
+      </c>
+    </row>
+    <row r="5412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5412">
+        <v>24400851</v>
+      </c>
+      <c r="B5412" t="s">
+        <v>8125</v>
+      </c>
+      <c r="C5412" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D5412" t="s">
+        <v>8126</v>
+      </c>
+    </row>
+    <row r="5413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5413">
+        <v>25413721</v>
+      </c>
+      <c r="B5413" t="s">
+        <v>8127</v>
+      </c>
+      <c r="C5413" t="s">
+        <v>8128</v>
+      </c>
+      <c r="D5413" t="s">
+        <v>8129</v>
+      </c>
+    </row>
+    <row r="5414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5414">
+        <v>25406890</v>
+      </c>
+      <c r="B5414" t="s">
+        <v>8130</v>
+      </c>
+      <c r="C5414" t="s">
+        <v>8131</v>
+      </c>
+      <c r="D5414" t="s">
+        <v>8132</v>
+      </c>
+    </row>
+    <row r="5415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5415">
+        <v>25403821</v>
+      </c>
+      <c r="B5415" t="s">
+        <v>8133</v>
+      </c>
+      <c r="C5415" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D5415" t="s">
+        <v>8134</v>
+      </c>
+    </row>
+    <row r="5416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5416">
+        <v>25409981</v>
+      </c>
+      <c r="B5416" t="s">
+        <v>8135</v>
+      </c>
+      <c r="C5416" t="s">
+        <v>8136</v>
+      </c>
+      <c r="D5416" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="5417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5417">
+        <v>25403117</v>
+      </c>
+      <c r="B5417" t="s">
+        <v>8137</v>
+      </c>
+      <c r="C5417" t="s">
+        <v>8138</v>
+      </c>
+      <c r="D5417" t="s">
+        <v>8139</v>
+      </c>
+    </row>
+    <row r="5418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5418">
+        <v>19184745</v>
+      </c>
+      <c r="B5418" t="s">
+        <v>8140</v>
+      </c>
+      <c r="C5418" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D5418" t="s">
+        <v>8141</v>
+      </c>
+    </row>
+    <row r="5419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5419">
+        <v>25413754</v>
+      </c>
+      <c r="B5419" t="s">
+        <v>8142</v>
+      </c>
+      <c r="C5419" t="s">
+        <v>8143</v>
+      </c>
+      <c r="D5419" t="s">
+        <v>7204</v>
+      </c>
+    </row>
+    <row r="5420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5420">
+        <v>25419023</v>
+      </c>
+      <c r="B5420" t="s">
+        <v>8144</v>
+      </c>
+      <c r="C5420" t="s">
+        <v>8145</v>
+      </c>
+      <c r="D5420" t="s">
+        <v>8146</v>
+      </c>
+    </row>
+    <row r="5421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5421">
+        <v>25402138</v>
+      </c>
+      <c r="B5421" t="s">
+        <v>8147</v>
+      </c>
+      <c r="C5421" t="s">
+        <v>4034</v>
+      </c>
+      <c r="D5421" t="s">
+        <v>8148</v>
+      </c>
+    </row>
+    <row r="5422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5422">
+        <v>25413886</v>
+      </c>
+      <c r="B5422" t="s">
+        <v>8149</v>
+      </c>
+      <c r="C5422" t="s">
+        <v>8150</v>
+      </c>
+      <c r="D5422" t="s">
+        <v>8151</v>
+      </c>
+    </row>
+    <row r="5423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5423">
+        <v>25413622</v>
+      </c>
+      <c r="B5423" t="s">
+        <v>8152</v>
+      </c>
+      <c r="C5423" t="s">
+        <v>8153</v>
+      </c>
+      <c r="D5423" t="s">
+        <v>8154</v>
+      </c>
+    </row>
+    <row r="5424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5424">
+        <v>25413182</v>
+      </c>
+      <c r="B5424" t="s">
+        <v>8155</v>
+      </c>
+      <c r="C5424" t="s">
+        <v>8156</v>
+      </c>
+      <c r="D5424" t="s">
+        <v>8157</v>
       </c>
     </row>
   </sheetData>

--- a/contrasena.xlsx
+++ b/contrasena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solis\Desktop\ApiClave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB3BAC-F4DC-459B-9A07-CAA6836D1700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EBE6DE-5D8D-4D76-9497-85D1F910FB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10925" uniqueCount="5495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11047" uniqueCount="5521">
   <si>
     <t>Carnet</t>
   </si>
@@ -16505,6 +16505,84 @@
   </si>
   <si>
     <t>ELKIN FRANCISCO</t>
+  </si>
+  <si>
+    <t>ALEMAN ROQUE</t>
+  </si>
+  <si>
+    <t>ALLAS MARTINEZ</t>
+  </si>
+  <si>
+    <t>ALMENDAREZ VARELA</t>
+  </si>
+  <si>
+    <t>ANTON CENTENO</t>
+  </si>
+  <si>
+    <t>AVELLAN VALDIVIA</t>
+  </si>
+  <si>
+    <t>BARAHONA MOLINA</t>
+  </si>
+  <si>
+    <t>BLAS MERCADO</t>
+  </si>
+  <si>
+    <t>BUSTOS MADRIGAL</t>
+  </si>
+  <si>
+    <t>CALERO VARGAS</t>
+  </si>
+  <si>
+    <t>COLLADO SALGADO</t>
+  </si>
+  <si>
+    <t>ESPINALES</t>
+  </si>
+  <si>
+    <t>GONZALEZ MORALES</t>
+  </si>
+  <si>
+    <t>JARQUIN HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LARGAESPADA MANZANARES</t>
+  </si>
+  <si>
+    <t>OBANDO ESPINOZA</t>
+  </si>
+  <si>
+    <t>OPORTA</t>
+  </si>
+  <si>
+    <t>PEREZ GARCIA</t>
+  </si>
+  <si>
+    <t>RAMIREZ VANEGAS</t>
+  </si>
+  <si>
+    <t>REYES BANS</t>
+  </si>
+  <si>
+    <t>RIOS MUÑOZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ NAVARRETE</t>
+  </si>
+  <si>
+    <t>Pryhu4201.</t>
+  </si>
+  <si>
+    <t>ANYIL THUSSETH</t>
+  </si>
+  <si>
+    <t>SILVA FLORES</t>
+  </si>
+  <si>
+    <t>SOLANO MARTINEZ</t>
+  </si>
+  <si>
+    <t>URRUTIA CALERO</t>
   </si>
 </sst>
 </file>
@@ -16872,10 +16950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5447"/>
+  <dimension ref="A1:D5496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5353" workbookViewId="0">
-      <selection activeCell="O5438" sqref="O5438"/>
+    <sheetView tabSelected="1" topLeftCell="A5440" workbookViewId="0">
+      <selection activeCell="H5471" sqref="H5471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76800,7 +76878,619 @@
         <v>1235</v>
       </c>
     </row>
+    <row r="5448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5448">
+        <v>22926618</v>
+      </c>
+      <c r="B5448" t="s">
+        <v>730</v>
+      </c>
+      <c r="C5448" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="5449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5449">
+        <v>16043220</v>
+      </c>
+      <c r="B5449" t="s">
+        <v>4430</v>
+      </c>
+      <c r="C5449" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="5450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5450">
+        <v>25406780</v>
+      </c>
+      <c r="B5450" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C5450" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="5451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5451">
+        <v>18043241</v>
+      </c>
+      <c r="B5451" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C5451" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="5452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5452">
+        <v>25402281</v>
+      </c>
+      <c r="B5452" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C5452" t="s">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="5453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5453">
+        <v>25421102</v>
+      </c>
+      <c r="B5453" t="s">
+        <v>3999</v>
+      </c>
+      <c r="C5453" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5454">
+        <v>25402941</v>
+      </c>
+      <c r="B5454" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C5454" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="5455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5455">
+        <v>25407143</v>
+      </c>
+      <c r="B5455" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C5455" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="5456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5456">
+        <v>25405207</v>
+      </c>
+      <c r="B5456" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C5456" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="5457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5457">
+        <v>25401621</v>
+      </c>
+      <c r="B5457" t="s">
+        <v>2568</v>
+      </c>
+      <c r="C5457" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="5458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5458">
+        <v>25404481</v>
+      </c>
+      <c r="B5458" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C5458" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="5459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5459">
+        <v>25406110</v>
+      </c>
+      <c r="B5459" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C5459" t="s">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="5460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5460">
+        <v>25407418</v>
+      </c>
+      <c r="B5460" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C5460" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="5461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5461">
+        <v>25408452</v>
+      </c>
+      <c r="B5461" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C5461" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="5462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5462">
+        <v>25410443</v>
+      </c>
+      <c r="B5462" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C5462" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="5463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5463">
+        <v>25400851</v>
+      </c>
+      <c r="B5463" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C5463" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="5464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5464">
+        <v>25406703</v>
+      </c>
+      <c r="B5464" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C5464" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="5465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5465">
+        <v>25416944</v>
+      </c>
+      <c r="B5465" t="s">
+        <v>3732</v>
+      </c>
+      <c r="C5465" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="5466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5466">
+        <v>20041019</v>
+      </c>
+      <c r="B5466" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C5466" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="5467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5467">
+        <v>25407308</v>
+      </c>
+      <c r="B5467" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C5467" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="5468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5468">
+        <v>25407968</v>
+      </c>
+      <c r="B5468" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C5468" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="5469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5469">
+        <v>25403832</v>
+      </c>
+      <c r="B5469" t="s">
+        <v>2738</v>
+      </c>
+      <c r="C5469" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="5470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5470">
+        <v>25403183</v>
+      </c>
+      <c r="B5470" t="s">
+        <v>2680</v>
+      </c>
+      <c r="C5470" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="5471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5471">
+        <v>20043285</v>
+      </c>
+      <c r="B5471" t="s">
+        <v>4531</v>
+      </c>
+      <c r="C5471" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="5472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5472">
+        <v>25409508</v>
+      </c>
+      <c r="B5472" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C5472" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5473">
+        <v>25407132</v>
+      </c>
+      <c r="B5473" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5473" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5473" t="s">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="5474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5474">
+        <v>25405086</v>
+      </c>
+      <c r="B5474" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5474" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5474" t="s">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="5475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5475">
+        <v>25415790</v>
+      </c>
+      <c r="B5475" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5475" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5475" t="s">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="5476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5476">
+        <v>25407297</v>
+      </c>
+      <c r="B5476" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5476" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5476" t="s">
+        <v>5498</v>
+      </c>
+    </row>
+    <row r="5477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5477">
+        <v>25403997</v>
+      </c>
+      <c r="B5477" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5477" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5477" t="s">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="5478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5478">
+        <v>25217965</v>
+      </c>
+      <c r="B5478" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5478" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5478" t="s">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="5479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5479">
+        <v>19016050</v>
+      </c>
+      <c r="B5479" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C5479" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D5479" t="s">
+        <v>5501</v>
+      </c>
+    </row>
+    <row r="5480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5480">
+        <v>25414150</v>
+      </c>
+      <c r="B5480" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5480" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5480" t="s">
+        <v>5502</v>
+      </c>
+    </row>
+    <row r="5481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5481">
+        <v>25402853</v>
+      </c>
+      <c r="B5481" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5481" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5481" t="s">
+        <v>5503</v>
+      </c>
+    </row>
+    <row r="5482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5482">
+        <v>25411884</v>
+      </c>
+      <c r="B5482" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5482" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5482" t="s">
+        <v>5504</v>
+      </c>
+    </row>
+    <row r="5483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5483">
+        <v>25406472</v>
+      </c>
+      <c r="B5483" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5483" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5483" t="s">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="5484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5484">
+        <v>25408474</v>
+      </c>
+      <c r="B5484" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5484" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5484" t="s">
+        <v>5506</v>
+      </c>
+    </row>
+    <row r="5485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5485">
+        <v>25412071</v>
+      </c>
+      <c r="B5485" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5485" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5485" t="s">
+        <v>5507</v>
+      </c>
+    </row>
+    <row r="5486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5486">
+        <v>22917697</v>
+      </c>
+      <c r="B5486" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5486" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5486" t="s">
+        <v>5508</v>
+      </c>
+    </row>
+    <row r="5487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5487">
+        <v>25408034</v>
+      </c>
+      <c r="B5487" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5487" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5487" t="s">
+        <v>5509</v>
+      </c>
+    </row>
+    <row r="5488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5488">
+        <v>24907621</v>
+      </c>
+      <c r="B5488" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5488" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5488" t="s">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="5489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5489">
+        <v>25409464</v>
+      </c>
+      <c r="B5489" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5489" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5489" t="s">
+        <v>5511</v>
+      </c>
+    </row>
+    <row r="5490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5490">
+        <v>25414227</v>
+      </c>
+      <c r="B5490" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5490" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5490" t="s">
+        <v>5512</v>
+      </c>
+    </row>
+    <row r="5491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5491">
+        <v>25403766</v>
+      </c>
+      <c r="B5491" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5491" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5491" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="5492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5492">
+        <v>25410553</v>
+      </c>
+      <c r="B5492" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5492" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5492" t="s">
+        <v>5514</v>
+      </c>
+    </row>
+    <row r="5493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5493">
+        <v>25410432</v>
+      </c>
+      <c r="B5493" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5493" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5493" t="s">
+        <v>5515</v>
+      </c>
+    </row>
+    <row r="5494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5494">
+        <v>25421113</v>
+      </c>
+      <c r="B5494" t="s">
+        <v>5516</v>
+      </c>
+      <c r="C5494" t="s">
+        <v>5517</v>
+      </c>
+      <c r="D5494" t="s">
+        <v>5518</v>
+      </c>
+    </row>
+    <row r="5495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5495">
+        <v>25410619</v>
+      </c>
+      <c r="B5495" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5495" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5495" t="s">
+        <v>5519</v>
+      </c>
+    </row>
+    <row r="5496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5496">
+        <v>25402171</v>
+      </c>
+      <c r="B5496" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5496" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5496" t="s">
+        <v>5520</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>